--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61D35E6-C619-4E87-97B7-4E659400F6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D61D35E6-C619-4E87-97B7-4E659400F6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0A28FBB-C977-48C4-89F1-7310B5197844}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energybalance history" sheetId="147" r:id="rId1"/>
@@ -24,12 +24,8 @@
     <sheet name="Demands" sheetId="145" r:id="rId9"/>
     <sheet name="Emi" sheetId="146" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
+    <definedName name="FID_1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -4718,9 +4714,9 @@
     <cellStyle name="Normal 8 2" xfId="28" xr:uid="{C94D68A9-0F9F-49C7-A496-97D6E4CFF1B0}"/>
     <cellStyle name="Normal 9 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Per cent" xfId="16" builtinId="5"/>
     <cellStyle name="Per cent 2" xfId="24" xr:uid="{2C564A4B-D800-4EE4-B939-9255D7A664BB}"/>
     <cellStyle name="Per cent 3" xfId="42" xr:uid="{030604DF-87E3-428A-B61C-D3C093606D31}"/>
+    <cellStyle name="Percent" xfId="16" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Percent 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Percent 3 2" xfId="29" xr:uid="{E6B199C5-EFD9-4EA1-A159-C95FD8F6F260}"/>
@@ -4746,7 +4742,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5428,7 +5424,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8979,165 +8975,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="IEA Data"/>
-      <sheetName val="E&amp;D Drivers"/>
-      <sheetName val="AGR_Fuels"/>
-      <sheetName val="AGR"/>
-      <sheetName val="RES_Fuels"/>
-      <sheetName val="RH1"/>
-      <sheetName val="RH2"/>
-      <sheetName val="RH3"/>
-      <sheetName val="RH4"/>
-      <sheetName val="RC1"/>
-      <sheetName val="RC2"/>
-      <sheetName val="RC3"/>
-      <sheetName val="RC4"/>
-      <sheetName val="RHW"/>
-      <sheetName val="RRF"/>
-      <sheetName val="RCW"/>
-      <sheetName val="RCD"/>
-      <sheetName val="RK1"/>
-      <sheetName val="RK2"/>
-      <sheetName val="RK3"/>
-      <sheetName val="RK4"/>
-      <sheetName val="RDW"/>
-      <sheetName val="RME"/>
-      <sheetName val="RL1"/>
-      <sheetName val="RL2"/>
-      <sheetName val="RL3"/>
-      <sheetName val="RL4"/>
-      <sheetName val="COM_Fuels"/>
-      <sheetName val="CH1"/>
-      <sheetName val="CH2"/>
-      <sheetName val="CH3"/>
-      <sheetName val="CH4"/>
-      <sheetName val="CC1"/>
-      <sheetName val="CC2"/>
-      <sheetName val="CC3"/>
-      <sheetName val="CC4"/>
-      <sheetName val="CHW"/>
-      <sheetName val="CAA"/>
-      <sheetName val="CLA"/>
-      <sheetName val="ElastPar"/>
-      <sheetName val="Conversion Factors"/>
-      <sheetName val="Intro"/>
-      <sheetName val="TechRep"/>
-      <sheetName val="Other_HYDRO"/>
-      <sheetName val="Other_NUCL"/>
-      <sheetName val="Other_THERM"/>
-      <sheetName val="Other_CHP"/>
-      <sheetName val="Other_RENEW"/>
-      <sheetName val="Other_HEAT"/>
-      <sheetName val="ELC_FUELS"/>
-      <sheetName val="ELC"/>
-      <sheetName val="HEAT"/>
-      <sheetName val="CHP"/>
-      <sheetName val="ELC_EMI"/>
-      <sheetName val="Constant Table"/>
-      <sheetName val="ANS_ITEMS_DEL"/>
-      <sheetName val="ANS_ITEMS"/>
-      <sheetName val="ANS_TIDDATA"/>
-      <sheetName val="ANS_TSDATA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>^FI_ST: TCH, PRC</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Energybalance history"/>
-      <sheetName val="Enrgy growth"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="65">
-          <cell r="O65">
-            <v>174233.682</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13192,7 +13029,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13597,7 +13434,6 @@
         <v>45915.595555555541</v>
       </c>
       <c r="K20" s="169">
-        <f>J20-'[2]Energybalance history'!O65</f>
         <v>-128318.08644444446</v>
       </c>
     </row>
@@ -20265,8 +20101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F17" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{D61D35E6-C619-4E87-97B7-4E659400F6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{140C91F6-838C-40D4-B79B-A121206D5FEB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03825ED-986B-456A-9B95-273007C8AFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energybalance history" sheetId="147" r:id="rId1"/>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="486">
   <si>
     <t>CommName</t>
   </si>
@@ -4628,6 +4628,8 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="9" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="25" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="25" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4673,8 +4675,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="25" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -8971,10 +8971,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9362,58 +9358,58 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="314" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="314"/>
-      <c r="F2" s="312" t="s">
+      <c r="B2" s="315"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="315"/>
+      <c r="E2" s="316"/>
+      <c r="F2" s="314" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="314"/>
-      <c r="J2" s="318" t="s">
+      <c r="G2" s="315"/>
+      <c r="H2" s="315"/>
+      <c r="I2" s="316"/>
+      <c r="J2" s="320" t="s">
         <v>232</v>
       </c>
-      <c r="K2" s="319"/>
-      <c r="L2" s="319"/>
-      <c r="M2" s="320"/>
-      <c r="N2" s="312" t="s">
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="322"/>
+      <c r="N2" s="314" t="s">
         <v>233</v>
       </c>
-      <c r="O2" s="313"/>
-      <c r="P2" s="313"/>
-      <c r="Q2" s="313"/>
-      <c r="R2" s="314"/>
+      <c r="O2" s="315"/>
+      <c r="P2" s="315"/>
+      <c r="Q2" s="315"/>
+      <c r="R2" s="316"/>
       <c r="V2" s="173" t="s">
         <v>141</v>
       </c>
-      <c r="W2" s="309" t="s">
+      <c r="W2" s="311" t="s">
         <v>234</v>
       </c>
-      <c r="X2" s="310"/>
-      <c r="Y2" s="310"/>
-      <c r="Z2" s="310"/>
-      <c r="AA2" s="311"/>
-      <c r="AB2" s="309" t="s">
+      <c r="X2" s="312"/>
+      <c r="Y2" s="312"/>
+      <c r="Z2" s="312"/>
+      <c r="AA2" s="313"/>
+      <c r="AB2" s="311" t="s">
         <v>235</v>
       </c>
-      <c r="AC2" s="310"/>
-      <c r="AD2" s="310"/>
-      <c r="AE2" s="310"/>
-      <c r="AF2" s="311"/>
+      <c r="AC2" s="312"/>
+      <c r="AD2" s="312"/>
+      <c r="AE2" s="312"/>
+      <c r="AF2" s="313"/>
     </row>
     <row r="3" spans="1:32" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="312" t="s">
+      <c r="A3" s="314" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="314"/>
+      <c r="B3" s="315"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="316"/>
       <c r="F3" s="174">
         <v>5</v>
       </c>
@@ -9486,7 +9482,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="315" t="s">
+      <c r="A4" s="317" t="s">
         <v>240</v>
       </c>
       <c r="B4" s="181"/>
@@ -9567,7 +9563,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="316"/>
+      <c r="A5" s="318"/>
       <c r="B5" s="181"/>
       <c r="C5" s="181"/>
       <c r="D5" s="181"/>
@@ -9646,7 +9642,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="316"/>
+      <c r="A6" s="318"/>
       <c r="B6" s="181"/>
       <c r="C6" s="181"/>
       <c r="D6" s="181"/>
@@ -9725,7 +9721,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="316"/>
+      <c r="A7" s="318"/>
       <c r="B7" s="181"/>
       <c r="C7" s="181"/>
       <c r="D7" s="181"/>
@@ -9804,7 +9800,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="316"/>
+      <c r="A8" s="318"/>
       <c r="B8" s="181"/>
       <c r="C8" s="181"/>
       <c r="D8" s="181"/>
@@ -9883,7 +9879,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="316"/>
+      <c r="A9" s="318"/>
       <c r="B9" s="181"/>
       <c r="C9" s="181"/>
       <c r="D9" s="181"/>
@@ -9962,7 +9958,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="316"/>
+      <c r="A10" s="318"/>
       <c r="B10" s="181"/>
       <c r="C10" s="181"/>
       <c r="D10" s="181"/>
@@ -10041,7 +10037,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="317"/>
+      <c r="A11" s="319"/>
       <c r="B11" s="174"/>
       <c r="C11" s="174"/>
       <c r="D11" s="174"/>
@@ -10087,7 +10083,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="315" t="s">
+      <c r="A12" s="317" t="s">
         <v>244</v>
       </c>
       <c r="B12" s="181"/>
@@ -10135,7 +10131,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="316"/>
+      <c r="A13" s="318"/>
       <c r="B13" s="181"/>
       <c r="C13" s="181"/>
       <c r="D13" s="181"/>
@@ -10181,7 +10177,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="316"/>
+      <c r="A14" s="318"/>
       <c r="B14" s="181"/>
       <c r="C14" s="181"/>
       <c r="D14" s="181"/>
@@ -10227,7 +10223,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="316"/>
+      <c r="A15" s="318"/>
       <c r="B15" s="181"/>
       <c r="C15" s="181"/>
       <c r="D15" s="181"/>
@@ -10273,7 +10269,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="316"/>
+      <c r="A16" s="318"/>
       <c r="B16" s="181"/>
       <c r="C16" s="181"/>
       <c r="D16" s="181"/>
@@ -10319,7 +10315,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="316"/>
+      <c r="A17" s="318"/>
       <c r="B17" s="181"/>
       <c r="C17" s="181"/>
       <c r="D17" s="181"/>
@@ -10365,7 +10361,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="316"/>
+      <c r="A18" s="318"/>
       <c r="B18" s="181"/>
       <c r="C18" s="181"/>
       <c r="D18" s="181"/>
@@ -10411,7 +10407,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="317"/>
+      <c r="A19" s="319"/>
       <c r="B19" s="174"/>
       <c r="C19" s="174"/>
       <c r="D19" s="174"/>
@@ -13480,49 +13476,49 @@
       <c r="B1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="323" t="s">
+      <c r="C1" s="325" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323" t="s">
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325" t="s">
         <v>326</v>
       </c>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323" t="s">
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325" t="s">
         <v>327</v>
       </c>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323" t="s">
+      <c r="L1" s="325"/>
+      <c r="M1" s="325" t="s">
         <v>328</v>
       </c>
-      <c r="N1" s="323"/>
-      <c r="O1" s="323" t="s">
+      <c r="N1" s="325"/>
+      <c r="O1" s="325" t="s">
         <v>329</v>
       </c>
-      <c r="P1" s="323"/>
-      <c r="Q1" s="323"/>
-      <c r="R1" s="323" t="s">
+      <c r="P1" s="325"/>
+      <c r="Q1" s="325"/>
+      <c r="R1" s="325" t="s">
         <v>329</v>
       </c>
-      <c r="S1" s="323"/>
-      <c r="T1" s="323"/>
-      <c r="U1" s="323" t="s">
+      <c r="S1" s="325"/>
+      <c r="T1" s="325"/>
+      <c r="U1" s="325" t="s">
         <v>329</v>
       </c>
-      <c r="V1" s="323"/>
-      <c r="W1" s="323"/>
+      <c r="V1" s="325"/>
+      <c r="W1" s="325"/>
       <c r="X1" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="Y1" s="323" t="s">
+      <c r="Y1" s="325" t="s">
         <v>331</v>
       </c>
-      <c r="Z1" s="323"/>
-      <c r="AA1" s="323"/>
+      <c r="Z1" s="325"/>
+      <c r="AA1" s="325"/>
     </row>
     <row r="2" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
@@ -13561,29 +13557,29 @@
       <c r="L2" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="O2" s="323" t="s">
+      <c r="O2" s="325" t="s">
         <v>333</v>
       </c>
-      <c r="P2" s="323"/>
-      <c r="Q2" s="323"/>
-      <c r="R2" s="323" t="s">
+      <c r="P2" s="325"/>
+      <c r="Q2" s="325"/>
+      <c r="R2" s="325" t="s">
         <v>336</v>
       </c>
-      <c r="S2" s="323"/>
-      <c r="T2" s="323"/>
-      <c r="U2" s="323" t="s">
+      <c r="S2" s="325"/>
+      <c r="T2" s="325"/>
+      <c r="U2" s="325" t="s">
         <v>335</v>
       </c>
-      <c r="V2" s="323"/>
-      <c r="W2" s="323"/>
+      <c r="V2" s="325"/>
+      <c r="W2" s="325"/>
       <c r="X2" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="Y2" s="323" t="s">
+      <c r="Y2" s="325" t="s">
         <v>337</v>
       </c>
-      <c r="Z2" s="323"/>
-      <c r="AA2" s="323"/>
+      <c r="Z2" s="325"/>
+      <c r="AA2" s="325"/>
     </row>
     <row r="3" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
@@ -13968,13 +13964,13 @@
         <f t="shared" ref="B17:C17" si="1">B1</f>
         <v>Technology Name</v>
       </c>
-      <c r="C17" s="321" t="str">
+      <c r="C17" s="323" t="str">
         <f t="shared" si="1"/>
         <v>Installation Cost per kW</v>
       </c>
-      <c r="D17" s="321"/>
-      <c r="E17" s="321"/>
-      <c r="F17" s="321"/>
+      <c r="D17" s="323"/>
+      <c r="E17" s="323"/>
+      <c r="F17" s="323"/>
       <c r="G17" t="s">
         <v>352</v>
       </c>
@@ -14402,11 +14398,11 @@
       <c r="B42" s="151" t="s">
         <v>387</v>
       </c>
-      <c r="C42" s="322" t="s">
+      <c r="C42" s="324" t="s">
         <v>387</v>
       </c>
-      <c r="D42" s="322"/>
-      <c r="E42" s="322"/>
+      <c r="D42" s="324"/>
+      <c r="E42" s="324"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="151"/>
@@ -17695,7 +17691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
@@ -18622,8 +18618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22"/>
+    <sheetView topLeftCell="P2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19501,6 +19497,24 @@
         <v>8.76</v>
       </c>
       <c r="T23" s="106"/>
+      <c r="W23" s="155" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y23" s="155" t="s">
+        <v>484</v>
+      </c>
+      <c r="Z23" s="155" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA23" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB23" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC23" s="165" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="24" spans="2:31" s="155" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="96" t="s">
@@ -20108,8 +20122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="H3" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="H44" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20396,7 +20410,7 @@
       <c r="Q10" s="159" t="s">
         <v>443</v>
       </c>
-      <c r="R10" s="324">
+      <c r="R10" s="309">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -20452,7 +20466,7 @@
       <c r="Q11" s="304" t="s">
         <v>444</v>
       </c>
-      <c r="R11" s="325">
+      <c r="R11" s="310">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -20479,7 +20493,7 @@
       <c r="Q12" s="159" t="s">
         <v>445</v>
       </c>
-      <c r="R12" s="324">
+      <c r="R12" s="309">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -20506,7 +20520,7 @@
       <c r="Q13" s="304" t="s">
         <v>446</v>
       </c>
-      <c r="R13" s="324">
+      <c r="R13" s="309">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -20533,7 +20547,7 @@
       <c r="Q14" s="159" t="s">
         <v>447</v>
       </c>
-      <c r="R14" s="324">
+      <c r="R14" s="309">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -20590,7 +20604,7 @@
       <c r="Q15" s="304" t="s">
         <v>448</v>
       </c>
-      <c r="R15" s="325">
+      <c r="R15" s="310">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -20648,7 +20662,7 @@
       <c r="Q16" s="159" t="s">
         <v>449</v>
       </c>
-      <c r="R16" s="324">
+      <c r="R16" s="309">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -20676,7 +20690,7 @@
       <c r="Q17" s="304" t="s">
         <v>450</v>
       </c>
-      <c r="R17" s="324">
+      <c r="R17" s="309">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -20734,7 +20748,7 @@
       <c r="Q18" s="159" t="s">
         <v>451</v>
       </c>
-      <c r="R18" s="324">
+      <c r="R18" s="309">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -20792,7 +20806,7 @@
       <c r="Q19" s="304" t="s">
         <v>452</v>
       </c>
-      <c r="R19" s="325">
+      <c r="R19" s="310">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -20850,7 +20864,7 @@
       <c r="Q20" s="159" t="s">
         <v>453</v>
       </c>
-      <c r="R20" s="324">
+      <c r="R20" s="309">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -20876,7 +20890,7 @@
       <c r="Q21" s="304" t="s">
         <v>454</v>
       </c>
-      <c r="R21" s="324">
+      <c r="R21" s="309">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -20898,7 +20912,7 @@
       <c r="Q22" s="159" t="s">
         <v>455</v>
       </c>
-      <c r="R22" s="324">
+      <c r="R22" s="309">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -20947,7 +20961,7 @@
       <c r="Q23" s="304" t="s">
         <v>456</v>
       </c>
-      <c r="R23" s="325">
+      <c r="R23" s="310">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -20995,7 +21009,7 @@
       <c r="Q24" s="159" t="s">
         <v>457</v>
       </c>
-      <c r="R24" s="324">
+      <c r="R24" s="309">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -21041,7 +21055,7 @@
       <c r="Q25" s="304" t="s">
         <v>458</v>
       </c>
-      <c r="R25" s="324">
+      <c r="R25" s="309">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -21084,7 +21098,7 @@
       <c r="Q26" s="159" t="s">
         <v>459</v>
       </c>
-      <c r="R26" s="324">
+      <c r="R26" s="309">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -21100,7 +21114,7 @@
       <c r="Q27" s="304" t="s">
         <v>460</v>
       </c>
-      <c r="R27" s="325">
+      <c r="R27" s="310">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -21147,7 +21161,7 @@
       <c r="Q28" s="159" t="s">
         <v>461</v>
       </c>
-      <c r="R28" s="324">
+      <c r="R28" s="309">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -21194,7 +21208,7 @@
       <c r="Q29" s="304" t="s">
         <v>462</v>
       </c>
-      <c r="R29" s="324">
+      <c r="R29" s="309">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -21209,7 +21223,7 @@
       <c r="Q30" s="159" t="s">
         <v>463</v>
       </c>
-      <c r="R30" s="324">
+      <c r="R30" s="309">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -21224,7 +21238,7 @@
       <c r="Q31" s="304" t="s">
         <v>464</v>
       </c>
-      <c r="R31" s="325">
+      <c r="R31" s="310">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -21244,7 +21258,7 @@
       <c r="Q32" s="159" t="s">
         <v>465</v>
       </c>
-      <c r="R32" s="324">
+      <c r="R32" s="309">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -21264,7 +21278,7 @@
       <c r="Q33" s="304" t="s">
         <v>466</v>
       </c>
-      <c r="R33" s="324">
+      <c r="R33" s="309">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -21279,7 +21293,7 @@
       <c r="Q34" t="s">
         <v>183</v>
       </c>
-      <c r="R34" s="324">
+      <c r="R34" s="309">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21298,7 +21312,7 @@
       <c r="Q35" t="s">
         <v>184</v>
       </c>
-      <c r="R35" s="325">
+      <c r="R35" s="310">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21317,7 +21331,7 @@
       <c r="Q36" t="s">
         <v>185</v>
       </c>
-      <c r="R36" s="324">
+      <c r="R36" s="309">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21332,7 +21346,7 @@
       <c r="Q37" t="s">
         <v>186</v>
       </c>
-      <c r="R37" s="324">
+      <c r="R37" s="309">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21347,7 +21361,7 @@
       <c r="Q38" t="s">
         <v>187</v>
       </c>
-      <c r="R38" s="324">
+      <c r="R38" s="309">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21362,7 +21376,7 @@
       <c r="Q39" t="s">
         <v>188</v>
       </c>
-      <c r="R39" s="325">
+      <c r="R39" s="310">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21377,7 +21391,7 @@
       <c r="Q40" t="s">
         <v>189</v>
       </c>
-      <c r="R40" s="324">
+      <c r="R40" s="309">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21392,7 +21406,7 @@
       <c r="Q41" t="s">
         <v>190</v>
       </c>
-      <c r="R41" s="324">
+      <c r="R41" s="309">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21407,7 +21421,7 @@
       <c r="Q42" t="s">
         <v>191</v>
       </c>
-      <c r="R42" s="324">
+      <c r="R42" s="309">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21422,7 +21436,7 @@
       <c r="Q43" t="s">
         <v>192</v>
       </c>
-      <c r="R43" s="325">
+      <c r="R43" s="310">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21437,7 +21451,7 @@
       <c r="Q44" t="s">
         <v>193</v>
       </c>
-      <c r="R44" s="324">
+      <c r="R44" s="309">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21452,7 +21466,7 @@
       <c r="Q45" t="s">
         <v>194</v>
       </c>
-      <c r="R45" s="324">
+      <c r="R45" s="309">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21467,7 +21481,7 @@
       <c r="Q46" t="s">
         <v>195</v>
       </c>
-      <c r="R46" s="324">
+      <c r="R46" s="309">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21482,7 +21496,7 @@
       <c r="Q47" t="s">
         <v>196</v>
       </c>
-      <c r="R47" s="325">
+      <c r="R47" s="310">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21497,7 +21511,7 @@
       <c r="Q48" t="s">
         <v>197</v>
       </c>
-      <c r="R48" s="324">
+      <c r="R48" s="309">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21512,7 +21526,7 @@
       <c r="Q49" t="s">
         <v>198</v>
       </c>
-      <c r="R49" s="324">
+      <c r="R49" s="309">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21527,7 +21541,7 @@
       <c r="Q50" t="s">
         <v>199</v>
       </c>
-      <c r="R50" s="324">
+      <c r="R50" s="309">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21542,7 +21556,7 @@
       <c r="Q51" t="s">
         <v>200</v>
       </c>
-      <c r="R51" s="325">
+      <c r="R51" s="310">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21557,7 +21571,7 @@
       <c r="Q52" t="s">
         <v>201</v>
       </c>
-      <c r="R52" s="324">
+      <c r="R52" s="309">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21572,7 +21586,7 @@
       <c r="Q53" t="s">
         <v>202</v>
       </c>
-      <c r="R53" s="324">
+      <c r="R53" s="309">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21587,7 +21601,7 @@
       <c r="Q54" t="s">
         <v>203</v>
       </c>
-      <c r="R54" s="324">
+      <c r="R54" s="309">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21602,7 +21616,7 @@
       <c r="Q55" t="s">
         <v>204</v>
       </c>
-      <c r="R55" s="325">
+      <c r="R55" s="310">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21617,7 +21631,7 @@
       <c r="Q56" t="s">
         <v>205</v>
       </c>
-      <c r="R56" s="324">
+      <c r="R56" s="309">
         <v>3.125E-2</v>
       </c>
     </row>
@@ -21632,7 +21646,7 @@
       <c r="Q57" t="s">
         <v>206</v>
       </c>
-      <c r="R57" s="324">
+      <c r="R57" s="309">
         <v>3.125E-2</v>
       </c>
     </row>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03825ED-986B-456A-9B95-273007C8AFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E03825ED-986B-456A-9B95-273007C8AFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5046C0FB-7EF9-40BB-8FEA-2F825360B929}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energybalance history" sheetId="147" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="FID_1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1562,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="485">
   <si>
     <t>CommName</t>
   </si>
@@ -3172,9 +3172,6 @@
   </si>
   <si>
     <t>CEMENTHEAT</t>
-  </si>
-  <si>
-    <t>Historical</t>
   </si>
 </sst>
 </file>
@@ -17691,7 +17688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
@@ -20122,7 +20119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="H44" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
       <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
@@ -20411,7 +20408,7 @@
         <v>443</v>
       </c>
       <c r="R10" s="309">
-        <v>1.0416666666666666E-2</v>
+        <v>3.1863095983211558</v>
       </c>
     </row>
     <row r="11" spans="2:18" s="255" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -20467,7 +20464,7 @@
         <v>444</v>
       </c>
       <c r="R11" s="310">
-        <v>1.0416666666666666E-2</v>
+        <v>3.1382201767451949</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -20494,7 +20491,7 @@
         <v>445</v>
       </c>
       <c r="R12" s="309">
-        <v>1.0416666666666666E-2</v>
+        <v>3.0768198790127741</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -20521,7 +20518,7 @@
         <v>446</v>
       </c>
       <c r="R13" s="309">
-        <v>1.0416666666666666E-2</v>
+        <v>3.0348861926582669</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
@@ -20548,7 +20545,7 @@
         <v>447</v>
       </c>
       <c r="R14" s="309">
-        <v>1.0416666666666666E-2</v>
+        <v>3.0553117771770659</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="14.25" x14ac:dyDescent="0.2">
@@ -20605,7 +20602,7 @@
         <v>448</v>
       </c>
       <c r="R15" s="310">
-        <v>1.0416666666666666E-2</v>
+        <v>2.687404566934489</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="14.25" x14ac:dyDescent="0.2">
@@ -20663,7 +20660,7 @@
         <v>449</v>
       </c>
       <c r="R16" s="309">
-        <v>1.0416666666666666E-2</v>
+        <v>3.127598826797489</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20691,7 +20688,7 @@
         <v>450</v>
       </c>
       <c r="R17" s="309">
-        <v>1.0416666666666666E-2</v>
+        <v>5.6179225793284706</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20749,7 +20746,7 @@
         <v>451</v>
       </c>
       <c r="R18" s="309">
-        <v>1.0416666666666666E-2</v>
+        <v>6.8292899178770794</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20807,7 +20804,7 @@
         <v>452</v>
       </c>
       <c r="R19" s="310">
-        <v>1.0416666666666666E-2</v>
+        <v>7.4082071837610162</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20865,7 +20862,7 @@
         <v>453</v>
       </c>
       <c r="R20" s="309">
-        <v>1.0416666666666666E-2</v>
+        <v>7.2501956541396559</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20891,7 +20888,7 @@
         <v>454</v>
       </c>
       <c r="R21" s="309">
-        <v>1.0416666666666666E-2</v>
+        <v>5.8267706293300279</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20913,7 +20910,7 @@
         <v>455</v>
       </c>
       <c r="R22" s="309">
-        <v>1.0416666666666666E-2</v>
+        <v>4.9352657864782676</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
@@ -20962,7 +20959,7 @@
         <v>456</v>
       </c>
       <c r="R23" s="310">
-        <v>1.0416666666666666E-2</v>
+        <v>5.8899795969217346</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
@@ -21010,7 +21007,7 @@
         <v>457</v>
       </c>
       <c r="R24" s="309">
-        <v>1.0416666666666666E-2</v>
+        <v>4.9796279664025898</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
@@ -21056,7 +21053,7 @@
         <v>458</v>
       </c>
       <c r="R25" s="309">
-        <v>1.0416666666666666E-2</v>
+        <v>3.914971977427395</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
@@ -21099,7 +21096,7 @@
         <v>459</v>
       </c>
       <c r="R26" s="309">
-        <v>1.0416666666666666E-2</v>
+        <v>3.4402001876687138</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
@@ -21115,7 +21112,7 @@
         <v>460</v>
       </c>
       <c r="R27" s="310">
-        <v>1.0416666666666666E-2</v>
+        <v>3.4276629418004259</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
@@ -21162,7 +21159,7 @@
         <v>461</v>
       </c>
       <c r="R28" s="309">
-        <v>1.0416666666666666E-2</v>
+        <v>3.3300467050604552</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
@@ -21209,7 +21206,7 @@
         <v>462</v>
       </c>
       <c r="R29" s="309">
-        <v>1.0416666666666666E-2</v>
+        <v>3.38394008481735</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
@@ -21224,7 +21221,7 @@
         <v>463</v>
       </c>
       <c r="R30" s="309">
-        <v>1.0416666666666666E-2</v>
+        <v>3.4172842429400898</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
@@ -21239,7 +21236,7 @@
         <v>464</v>
       </c>
       <c r="R31" s="310">
-        <v>1.0416666666666666E-2</v>
+        <v>3.3865815443046672</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
@@ -21259,7 +21256,7 @@
         <v>465</v>
       </c>
       <c r="R32" s="309">
-        <v>1.0416666666666666E-2</v>
+        <v>2.6106280224674809</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
@@ -21279,7 +21276,7 @@
         <v>466</v>
       </c>
       <c r="R33" s="309">
-        <v>1.0416666666666666E-2</v>
+        <v>3.0448739616281442</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
@@ -21294,7 +21291,7 @@
         <v>183</v>
       </c>
       <c r="R34" s="309">
-        <v>3.125E-2</v>
+        <v>3.1863095983211558</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
@@ -21313,7 +21310,7 @@
         <v>184</v>
       </c>
       <c r="R35" s="310">
-        <v>3.125E-2</v>
+        <v>3.1382201767451949</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
@@ -21332,7 +21329,7 @@
         <v>185</v>
       </c>
       <c r="R36" s="309">
-        <v>3.125E-2</v>
+        <v>3.0768198790127741</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
@@ -21347,7 +21344,7 @@
         <v>186</v>
       </c>
       <c r="R37" s="309">
-        <v>3.125E-2</v>
+        <v>3.0348861926582669</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
@@ -21362,7 +21359,7 @@
         <v>187</v>
       </c>
       <c r="R38" s="309">
-        <v>3.125E-2</v>
+        <v>3.0553117771770659</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
@@ -21377,7 +21374,7 @@
         <v>188</v>
       </c>
       <c r="R39" s="310">
-        <v>3.125E-2</v>
+        <v>2.687404566934489</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
@@ -21392,7 +21389,7 @@
         <v>189</v>
       </c>
       <c r="R40" s="309">
-        <v>3.125E-2</v>
+        <v>3.127598826797489</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
@@ -21407,7 +21404,7 @@
         <v>190</v>
       </c>
       <c r="R41" s="309">
-        <v>3.125E-2</v>
+        <v>5.6179225793284706</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
@@ -21422,7 +21419,7 @@
         <v>191</v>
       </c>
       <c r="R42" s="309">
-        <v>3.125E-2</v>
+        <v>6.8292899178770794</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
@@ -21437,7 +21434,7 @@
         <v>192</v>
       </c>
       <c r="R43" s="310">
-        <v>3.125E-2</v>
+        <v>7.4082071837610162</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
@@ -21452,7 +21449,7 @@
         <v>193</v>
       </c>
       <c r="R44" s="309">
-        <v>3.125E-2</v>
+        <v>7.2501956541396559</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
@@ -21467,7 +21464,7 @@
         <v>194</v>
       </c>
       <c r="R45" s="309">
-        <v>3.125E-2</v>
+        <v>5.8267706293300279</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
@@ -21482,7 +21479,7 @@
         <v>195</v>
       </c>
       <c r="R46" s="309">
-        <v>3.125E-2</v>
+        <v>4.9352657864782676</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
@@ -21497,7 +21494,7 @@
         <v>196</v>
       </c>
       <c r="R47" s="310">
-        <v>3.125E-2</v>
+        <v>5.8899795969217346</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
@@ -21512,7 +21509,7 @@
         <v>197</v>
       </c>
       <c r="R48" s="309">
-        <v>3.125E-2</v>
+        <v>4.9796279664025898</v>
       </c>
     </row>
     <row r="49" spans="15:18" x14ac:dyDescent="0.2">
@@ -21527,7 +21524,7 @@
         <v>198</v>
       </c>
       <c r="R49" s="309">
-        <v>3.125E-2</v>
+        <v>3.914971977427395</v>
       </c>
     </row>
     <row r="50" spans="15:18" x14ac:dyDescent="0.2">
@@ -21542,7 +21539,7 @@
         <v>199</v>
       </c>
       <c r="R50" s="309">
-        <v>3.125E-2</v>
+        <v>3.4402001876687138</v>
       </c>
     </row>
     <row r="51" spans="15:18" x14ac:dyDescent="0.2">
@@ -21557,7 +21554,7 @@
         <v>200</v>
       </c>
       <c r="R51" s="310">
-        <v>3.125E-2</v>
+        <v>3.4276629418004259</v>
       </c>
     </row>
     <row r="52" spans="15:18" x14ac:dyDescent="0.2">
@@ -21572,7 +21569,7 @@
         <v>201</v>
       </c>
       <c r="R52" s="309">
-        <v>3.125E-2</v>
+        <v>3.3300467050604552</v>
       </c>
     </row>
     <row r="53" spans="15:18" x14ac:dyDescent="0.2">
@@ -21587,7 +21584,7 @@
         <v>202</v>
       </c>
       <c r="R53" s="309">
-        <v>3.125E-2</v>
+        <v>3.38394008481735</v>
       </c>
     </row>
     <row r="54" spans="15:18" x14ac:dyDescent="0.2">
@@ -21602,7 +21599,7 @@
         <v>203</v>
       </c>
       <c r="R54" s="309">
-        <v>3.125E-2</v>
+        <v>3.4172842429400898</v>
       </c>
     </row>
     <row r="55" spans="15:18" x14ac:dyDescent="0.2">
@@ -21617,7 +21614,7 @@
         <v>204</v>
       </c>
       <c r="R55" s="310">
-        <v>3.125E-2</v>
+        <v>3.3865815443046672</v>
       </c>
     </row>
     <row r="56" spans="15:18" x14ac:dyDescent="0.2">
@@ -21632,7 +21629,7 @@
         <v>205</v>
       </c>
       <c r="R56" s="309">
-        <v>3.125E-2</v>
+        <v>2.6106280224674809</v>
       </c>
     </row>
     <row r="57" spans="15:18" x14ac:dyDescent="0.2">
@@ -21647,7 +21644,7 @@
         <v>206</v>
       </c>
       <c r="R57" s="309">
-        <v>3.125E-2</v>
+        <v>3.0448739616281442</v>
       </c>
     </row>
     <row r="58" spans="15:18" x14ac:dyDescent="0.2">
@@ -21657,9 +21654,7 @@
       <c r="R58" s="127"/>
     </row>
     <row r="59" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="R59" s="151" t="s">
-        <v>485</v>
-      </c>
+      <c r="R59" s="151"/>
     </row>
   </sheetData>
   <phoneticPr fontId="50" type="noConversion"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E03825ED-986B-456A-9B95-273007C8AFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5046C0FB-7EF9-40BB-8FEA-2F825360B929}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{E03825ED-986B-456A-9B95-273007C8AFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{446100D9-9B80-440A-95F6-D3A8A8FA4A03}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energybalance history" sheetId="147" r:id="rId1"/>
@@ -8968,6 +8968,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -18615,8 +18619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AE60"/>
   <sheetViews>
-    <sheetView topLeftCell="P2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19245,27 +19249,22 @@
         <v>0.59</v>
       </c>
       <c r="G20" s="308">
-        <f>I58</f>
-        <v>0.6339285714285714</v>
+        <v>0.87689726202009655</v>
       </c>
       <c r="H20" s="308">
-        <f t="shared" ref="H20:L20" si="0">J58</f>
-        <v>0.70714285714285707</v>
+        <v>0.61259776405325439</v>
       </c>
       <c r="I20" s="308">
-        <f t="shared" si="0"/>
-        <v>0.78035714285714286</v>
+        <v>1</v>
       </c>
       <c r="J20" s="308">
-        <f t="shared" si="0"/>
-        <v>0.85357142857142865</v>
+        <v>1</v>
       </c>
       <c r="K20" s="308">
-        <f t="shared" si="0"/>
-        <v>0.92678571428571432</v>
+        <v>1</v>
       </c>
       <c r="L20" s="308">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H20:L20" si="0">N58</f>
         <v>1</v>
       </c>
       <c r="M20" s="105">
@@ -19328,24 +19327,24 @@
         <v>0.41</v>
       </c>
       <c r="G21" s="104">
-        <f>I59</f>
-        <v>0.36607142857142855</v>
+        <f>100%-G20</f>
+        <v>0.12310273797990345</v>
       </c>
       <c r="H21" s="104">
-        <f t="shared" ref="H21:L21" si="1">J59</f>
-        <v>0.29285714285714282</v>
+        <f t="shared" ref="H21:L21" si="1">100%-H20</f>
+        <v>0.38740223594674561</v>
       </c>
       <c r="I21" s="104">
         <f t="shared" si="1"/>
-        <v>0.21964285714285711</v>
+        <v>0</v>
       </c>
       <c r="J21" s="104">
         <f t="shared" si="1"/>
-        <v>0.14642857142857141</v>
+        <v>0</v>
       </c>
       <c r="K21" s="104">
         <f t="shared" si="1"/>
-        <v>7.3214285714285676E-2</v>
+        <v>0</v>
       </c>
       <c r="L21" s="104">
         <f t="shared" si="1"/>
@@ -19410,11 +19409,21 @@
       <c r="F22" s="104">
         <v>1</v>
       </c>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
+      <c r="G22" s="104">
+        <v>1</v>
+      </c>
+      <c r="H22" s="104">
+        <v>1</v>
+      </c>
+      <c r="I22" s="104">
+        <v>1</v>
+      </c>
+      <c r="J22" s="104">
+        <v>1</v>
+      </c>
+      <c r="K22" s="104">
+        <v>1</v>
+      </c>
       <c r="L22" s="104">
         <v>1</v>
       </c>
@@ -19474,12 +19483,24 @@
       <c r="F23" s="158">
         <v>1</v>
       </c>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
+      <c r="G23" s="158">
+        <v>1</v>
+      </c>
+      <c r="H23" s="158">
+        <v>1</v>
+      </c>
+      <c r="I23" s="158">
+        <v>1</v>
+      </c>
+      <c r="J23" s="158">
+        <v>1</v>
+      </c>
+      <c r="K23" s="158">
+        <v>1</v>
+      </c>
+      <c r="L23" s="158">
+        <v>1</v>
+      </c>
       <c r="M23" s="155">
         <v>1</v>
       </c>
@@ -20119,8 +20140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+    <sheetView topLeftCell="A12" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20323,27 +20344,27 @@
       </c>
       <c r="F9" s="278">
         <f t="shared" ref="F9:K9" si="0">F18</f>
-        <v>2891.3277478771038</v>
+        <v>3024.2606987036202</v>
       </c>
       <c r="G9" s="278">
         <f t="shared" si="0"/>
-        <v>3439.9065346715411</v>
+        <v>3877.975372765216</v>
       </c>
       <c r="H9" s="278">
         <f t="shared" si="0"/>
-        <v>4092.5685356715676</v>
+        <v>4972.6840672895705</v>
       </c>
       <c r="I9" s="278">
         <f t="shared" si="0"/>
-        <v>4869.0617173318651</v>
+        <v>6376.4166752413839</v>
       </c>
       <c r="J9" s="278">
         <f t="shared" si="0"/>
-        <v>5792.8808767759392</v>
+        <v>8176.4071608228996</v>
       </c>
       <c r="K9" s="278">
         <f t="shared" si="0"/>
-        <v>6891.97853727455</v>
+        <v>10484.514652114574</v>
       </c>
       <c r="L9" s="144"/>
       <c r="M9" s="146"/>
@@ -20372,27 +20393,27 @@
       </c>
       <c r="F10" s="278">
         <f t="shared" ref="F10:K10" si="2">F19</f>
-        <v>4066.2762112692412</v>
+        <v>3404.8219076285118</v>
       </c>
       <c r="G10" s="278">
         <f t="shared" si="2"/>
-        <v>7303.3143733654952</v>
+        <v>4548.9733769732438</v>
       </c>
       <c r="H10" s="278">
         <f t="shared" si="2"/>
-        <v>13117.259641237719</v>
+        <v>6077.6038646979705</v>
       </c>
       <c r="I10" s="278">
         <f t="shared" si="2"/>
-        <v>23559.508970768085</v>
+        <v>8119.9131485725911</v>
       </c>
       <c r="J10" s="278">
         <f t="shared" si="2"/>
-        <v>42314.513711289808</v>
+        <v>10848.517114341184</v>
       </c>
       <c r="K10" s="278">
         <f t="shared" si="2"/>
-        <v>75999.804276250114</v>
+        <v>14494.037242361697</v>
       </c>
       <c r="L10" s="144"/>
       <c r="M10" s="146"/>
@@ -20428,27 +20449,27 @@
       </c>
       <c r="F11" s="278">
         <f t="shared" ref="F11:K11" si="3">F20</f>
-        <v>16675.142154970184</v>
+        <v>11268.129083236377</v>
       </c>
       <c r="G11" s="278">
         <f t="shared" si="3"/>
-        <v>60760.51046806042</v>
+        <v>21365.224625735264</v>
       </c>
       <c r="H11" s="278">
         <f t="shared" si="3"/>
-        <v>221397.7906772382</v>
+        <v>40510.081126708094</v>
       </c>
       <c r="I11" s="278">
         <f t="shared" si="3"/>
-        <v>806724.32372879121</v>
+        <v>76810.176426403734</v>
       </c>
       <c r="J11" s="278">
         <f t="shared" si="3"/>
-        <v>2939524.0688939015</v>
+        <v>145637.90144487162</v>
       </c>
       <c r="K11" s="278">
         <f t="shared" si="3"/>
-        <v>10710972.134405939</v>
+        <v>276140.4715375058</v>
       </c>
       <c r="L11" s="144"/>
       <c r="M11" s="146"/>
@@ -20709,31 +20730,30 @@
       </c>
       <c r="F18" s="122">
         <f t="shared" ref="F18:K18" si="6">E18*(1+$M$18)^(F6-E6)</f>
-        <v>2891.3277478771038</v>
+        <v>3024.2606987036202</v>
       </c>
       <c r="G18" s="122">
         <f t="shared" si="6"/>
-        <v>3439.9065346715411</v>
+        <v>3877.975372765216</v>
       </c>
       <c r="H18" s="122">
         <f t="shared" si="6"/>
-        <v>4092.5685356715676</v>
+        <v>4972.6840672895705</v>
       </c>
       <c r="I18" s="122">
         <f t="shared" si="6"/>
-        <v>4869.0617173318651</v>
+        <v>6376.4166752413839</v>
       </c>
       <c r="J18" s="122">
         <f t="shared" si="6"/>
-        <v>5792.8808767759392</v>
+        <v>8176.4071608228996</v>
       </c>
       <c r="K18" s="122">
         <f t="shared" si="6"/>
-        <v>6891.97853727455</v>
+        <v>10484.514652114574</v>
       </c>
       <c r="M18" s="148">
-        <f>EBF!P54</f>
-        <v>3.5356379202871935E-2</v>
+        <v>5.0986564593139105E-2</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>182</v>
@@ -20767,31 +20787,30 @@
       </c>
       <c r="F19" s="122">
         <f t="shared" ref="F19:K19" si="7">E19*(1+$M$19)^(F6-E6)</f>
-        <v>4066.2762112692412</v>
+        <v>3404.8219076285118</v>
       </c>
       <c r="G19" s="122">
         <f t="shared" si="7"/>
-        <v>7303.3143733654952</v>
+        <v>4548.9733769732438</v>
       </c>
       <c r="H19" s="122">
         <f t="shared" si="7"/>
-        <v>13117.259641237719</v>
+        <v>6077.6038646979705</v>
       </c>
       <c r="I19" s="122">
         <f t="shared" si="7"/>
-        <v>23559.508970768085</v>
+        <v>8119.9131485725911</v>
       </c>
       <c r="J19" s="122">
         <f t="shared" si="7"/>
-        <v>42314.513711289808</v>
+        <v>10848.517114341184</v>
       </c>
       <c r="K19" s="122">
         <f t="shared" si="7"/>
-        <v>75999.804276250114</v>
+        <v>14494.037242361697</v>
       </c>
       <c r="M19" s="149">
-        <f>EBF!P55</f>
-        <v>0.12425447242893894</v>
+        <v>5.9653309594491777E-2</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>182</v>
@@ -20825,31 +20844,30 @@
       </c>
       <c r="F20" s="122">
         <f t="shared" ref="F20:K20" si="8">E20*(1+$M$20)^(F6-E6)</f>
-        <v>16675.142154970184</v>
+        <v>11268.129083236377</v>
       </c>
       <c r="G20" s="122">
         <f t="shared" si="8"/>
-        <v>60760.51046806042</v>
+        <v>21365.224625735264</v>
       </c>
       <c r="H20" s="122">
         <f t="shared" si="8"/>
-        <v>221397.7906772382</v>
+        <v>40510.081126708094</v>
       </c>
       <c r="I20" s="122">
         <f t="shared" si="8"/>
-        <v>806724.32372879121</v>
+        <v>76810.176426403734</v>
       </c>
       <c r="J20" s="122">
         <f t="shared" si="8"/>
-        <v>2939524.0688939015</v>
+        <v>145637.90144487162</v>
       </c>
       <c r="K20" s="122">
         <f t="shared" si="8"/>
-        <v>10710972.134405939</v>
+        <v>276140.4715375058</v>
       </c>
       <c r="M20" s="149">
-        <f>EBF!P56</f>
-        <v>0.29512108466841558</v>
+        <v>0.1365044222502676</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>182</v>
@@ -20925,27 +20943,27 @@
       </c>
       <c r="F23" s="250">
         <f t="shared" si="9"/>
-        <v>0.17206109656635865</v>
+        <v>0.19239312764933805</v>
       </c>
       <c r="G23" s="250">
         <f t="shared" si="9"/>
-        <v>0.10213892663798628</v>
+        <v>0.15269021563623708</v>
       </c>
       <c r="H23" s="250">
         <f t="shared" si="9"/>
-        <v>5.4974186089404971E-2</v>
+        <v>0.1178735524134691</v>
       </c>
       <c r="I23" s="250">
         <f t="shared" si="9"/>
-        <v>2.820981538622036E-2</v>
+        <v>8.8930279801974474E-2</v>
       </c>
       <c r="J23" s="250">
         <f t="shared" si="9"/>
-        <v>1.4163230715870792E-2</v>
+        <v>6.5883219645374802E-2</v>
       </c>
       <c r="K23" s="250">
         <f t="shared" si="9"/>
-        <v>7.0410193105184087E-3</v>
+        <v>4.8133914214940544E-2</v>
       </c>
       <c r="M23" s="147"/>
       <c r="O23" s="1" t="s">
@@ -20973,27 +20991,27 @@
       </c>
       <c r="F24" s="250">
         <f t="shared" si="10"/>
-        <v>0.12234412936675308</v>
+        <v>0.17088910681258609</v>
       </c>
       <c r="G24" s="250">
         <f t="shared" si="10"/>
-        <v>4.8108070284866931E-2</v>
+        <v>0.13016758877879459</v>
       </c>
       <c r="H24" s="250">
         <f t="shared" si="10"/>
-        <v>1.7151877024401352E-2</v>
+        <v>9.644391919748932E-2</v>
       </c>
       <c r="I24" s="250">
         <f t="shared" si="10"/>
-        <v>5.8301440968260955E-3</v>
+        <v>6.9835293640163568E-2</v>
       </c>
       <c r="J24" s="250">
         <f t="shared" si="10"/>
-        <v>1.9389543012860641E-3</v>
+        <v>4.9655452741498886E-2</v>
       </c>
       <c r="K24" s="250">
         <f t="shared" si="10"/>
-        <v>6.3850893342093818E-4</v>
+        <v>3.4818506425193879E-2</v>
       </c>
       <c r="M24" s="147"/>
       <c r="O24" s="1" t="s">
@@ -21020,27 +21038,27 @@
       </c>
       <c r="F25" s="250">
         <f t="shared" si="11"/>
-        <v>0.70559477406688831</v>
+        <v>0.6367177655380758</v>
       </c>
       <c r="G25" s="250">
         <f t="shared" si="11"/>
-        <v>0.84975300307714685</v>
+        <v>0.71714219558496839</v>
       </c>
       <c r="H25" s="250">
         <f t="shared" si="11"/>
-        <v>0.92787393688619357</v>
+        <v>0.78568252838904151</v>
       </c>
       <c r="I25" s="250">
         <f t="shared" si="11"/>
-        <v>0.9659600405169535</v>
+        <v>0.84123442655786207</v>
       </c>
       <c r="J25" s="250">
         <f t="shared" si="11"/>
-        <v>0.98389781498284312</v>
+        <v>0.88446132761312635</v>
       </c>
       <c r="K25" s="250">
         <f t="shared" si="11"/>
-        <v>0.99232047175606064</v>
+        <v>0.91704757935986547</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>182</v>
@@ -21071,7 +21089,7 @@
       </c>
       <c r="H26" s="261">
         <f t="shared" si="12"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="I26" s="261">
         <f t="shared" si="12"/>
@@ -21083,7 +21101,7 @@
       </c>
       <c r="K26" s="261">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>182</v>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{E03825ED-986B-456A-9B95-273007C8AFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{446100D9-9B80-440A-95F6-D3A8A8FA4A03}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{E03825ED-986B-456A-9B95-273007C8AFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC2B1B80-8EFE-413C-BCB2-153700ED757E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energybalance history" sheetId="147" r:id="rId1"/>
@@ -4085,7 +4085,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4671,6 +4671,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -18619,7 +18622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -19264,7 +19267,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="308">
-        <f t="shared" ref="H20:L20" si="0">N58</f>
+        <f t="shared" ref="L20" si="0">N58</f>
         <v>1</v>
       </c>
       <c r="M20" s="105">
@@ -20140,8 +20143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20547,12 +20550,12 @@
       <c r="C14" s="144"/>
       <c r="D14" s="144"/>
       <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
+      <c r="F14" s="326"/>
+      <c r="G14" s="326"/>
+      <c r="H14" s="326"/>
+      <c r="I14" s="326"/>
+      <c r="J14" s="326"/>
+      <c r="K14" s="326"/>
       <c r="L14" s="144"/>
       <c r="M14" s="146"/>
       <c r="O14" s="1" t="s">

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{E03825ED-986B-456A-9B95-273007C8AFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC5C3207-9D91-409E-814F-AF5CC75A96E8}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energybalance history" sheetId="147" r:id="rId1"/>
@@ -4635,6 +4635,7 @@
     <xf numFmtId="1" fontId="23" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="51" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4680,7 +4681,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="51" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -8977,6 +8977,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9331,28 +9335,28 @@
       <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.54296875" style="167" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" style="167" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="167" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="167" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" style="167" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" style="167" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="167" customWidth="1"/>
+    <col min="1" max="1" width="99.5703125" style="167" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="167" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="167" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="167" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="167" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="167" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="167" customWidth="1"/>
     <col min="8" max="8" width="10" style="167" customWidth="1"/>
     <col min="9" max="9" width="10" style="168" customWidth="1"/>
     <col min="10" max="10" width="9" style="169" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="167"/>
-    <col min="12" max="12" width="8.81640625" style="170"/>
+    <col min="11" max="11" width="8.85546875" style="167"/>
+    <col min="12" max="12" width="8.85546875" style="170"/>
     <col min="13" max="13" width="10" style="169" customWidth="1"/>
-    <col min="14" max="14" width="8.81640625" style="167"/>
+    <col min="14" max="14" width="8.85546875" style="167"/>
     <col min="15" max="15" width="11" style="168" customWidth="1"/>
     <col min="16" max="17" width="10" style="169" customWidth="1"/>
-    <col min="18" max="16384" width="8.81640625" style="167"/>
+    <col min="18" max="16384" width="8.85546875" style="167"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="166" t="s">
         <v>229</v>
       </c>
@@ -9363,59 +9367,59 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="314" t="s">
+    <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="315" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="315"/>
-      <c r="C2" s="315"/>
-      <c r="D2" s="315"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="314" t="s">
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="316"/>
+      <c r="E2" s="317"/>
+      <c r="F2" s="315" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="315"/>
-      <c r="H2" s="315"/>
-      <c r="I2" s="316"/>
-      <c r="J2" s="320" t="s">
+      <c r="G2" s="316"/>
+      <c r="H2" s="316"/>
+      <c r="I2" s="317"/>
+      <c r="J2" s="321" t="s">
         <v>232</v>
       </c>
-      <c r="K2" s="321"/>
-      <c r="L2" s="321"/>
-      <c r="M2" s="322"/>
-      <c r="N2" s="314" t="s">
+      <c r="K2" s="322"/>
+      <c r="L2" s="322"/>
+      <c r="M2" s="323"/>
+      <c r="N2" s="315" t="s">
         <v>233</v>
       </c>
-      <c r="O2" s="315"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="316"/>
+      <c r="O2" s="316"/>
+      <c r="P2" s="316"/>
+      <c r="Q2" s="316"/>
+      <c r="R2" s="317"/>
       <c r="V2" s="172" t="s">
         <v>141</v>
       </c>
-      <c r="W2" s="311" t="s">
+      <c r="W2" s="312" t="s">
         <v>234</v>
       </c>
-      <c r="X2" s="312"/>
-      <c r="Y2" s="312"/>
-      <c r="Z2" s="312"/>
-      <c r="AA2" s="313"/>
-      <c r="AB2" s="311" t="s">
+      <c r="X2" s="313"/>
+      <c r="Y2" s="313"/>
+      <c r="Z2" s="313"/>
+      <c r="AA2" s="314"/>
+      <c r="AB2" s="312" t="s">
         <v>235</v>
       </c>
-      <c r="AC2" s="312"/>
-      <c r="AD2" s="312"/>
-      <c r="AE2" s="312"/>
-      <c r="AF2" s="313"/>
-    </row>
-    <row r="3" spans="1:32" ht="24.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="314" t="s">
+      <c r="AC2" s="313"/>
+      <c r="AD2" s="313"/>
+      <c r="AE2" s="313"/>
+      <c r="AF2" s="314"/>
+    </row>
+    <row r="3" spans="1:32" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="315" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="316"/>
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="317"/>
       <c r="F3" s="173">
         <v>5</v>
       </c>
@@ -9487,8 +9491,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="317" t="s">
+    <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="318" t="s">
         <v>240</v>
       </c>
       <c r="B4" s="180"/>
@@ -9568,8 +9572,8 @@
         <v>5958414</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="318"/>
+    <row r="5" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="319"/>
       <c r="B5" s="180"/>
       <c r="C5" s="180"/>
       <c r="D5" s="180"/>
@@ -9647,8 +9651,8 @@
         <v>5373750</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="318"/>
+    <row r="6" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="319"/>
       <c r="B6" s="180"/>
       <c r="C6" s="180"/>
       <c r="D6" s="180"/>
@@ -9726,8 +9730,8 @@
         <v>1805580</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="318"/>
+    <row r="7" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="319"/>
       <c r="B7" s="180"/>
       <c r="C7" s="180"/>
       <c r="D7" s="180"/>
@@ -9805,8 +9809,8 @@
         <v>1410072</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="318"/>
+    <row r="8" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="319"/>
       <c r="B8" s="180"/>
       <c r="C8" s="180"/>
       <c r="D8" s="180"/>
@@ -9884,8 +9888,8 @@
         <v>2140902</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="318"/>
+    <row r="9" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="319"/>
       <c r="B9" s="180"/>
       <c r="C9" s="180"/>
       <c r="D9" s="180"/>
@@ -9963,8 +9967,8 @@
         <v>3035094</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="318"/>
+    <row r="10" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="319"/>
       <c r="B10" s="180"/>
       <c r="C10" s="180"/>
       <c r="D10" s="180"/>
@@ -10042,8 +10046,8 @@
         <v>19723812</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="319"/>
+    <row r="11" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="320"/>
       <c r="B11" s="173"/>
       <c r="C11" s="173"/>
       <c r="D11" s="173"/>
@@ -10088,8 +10092,8 @@
         <v>300148.40000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="317" t="s">
+    <row r="12" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="318" t="s">
         <v>244</v>
       </c>
       <c r="B12" s="180"/>
@@ -10136,8 +10140,8 @@
         <v>1768270.5</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="318"/>
+    <row r="13" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="319"/>
       <c r="B13" s="180"/>
       <c r="C13" s="180"/>
       <c r="D13" s="180"/>
@@ -10182,8 +10186,8 @@
         <v>2141762.6</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="318"/>
+    <row r="14" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="319"/>
       <c r="B14" s="180"/>
       <c r="C14" s="180"/>
       <c r="D14" s="180"/>
@@ -10228,8 +10232,8 @@
         <v>3489204.8</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="318"/>
+    <row r="15" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="319"/>
       <c r="B15" s="180"/>
       <c r="C15" s="180"/>
       <c r="D15" s="180"/>
@@ -10274,8 +10278,8 @@
         <v>2141762.6</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="318"/>
+    <row r="16" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="319"/>
       <c r="B16" s="180"/>
       <c r="C16" s="180"/>
       <c r="D16" s="180"/>
@@ -10320,8 +10324,8 @@
         <v>4661382.3</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="318"/>
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="319"/>
       <c r="B17" s="180"/>
       <c r="C17" s="180"/>
       <c r="D17" s="180"/>
@@ -10366,8 +10370,8 @@
         <v>6377567</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="318"/>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="319"/>
       <c r="B18" s="180"/>
       <c r="C18" s="180"/>
       <c r="D18" s="180"/>
@@ -10412,8 +10416,8 @@
         <v>8890233.1999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="319"/>
+    <row r="19" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="320"/>
       <c r="B19" s="173"/>
       <c r="C19" s="173"/>
       <c r="D19" s="173"/>
@@ -10458,7 +10462,7 @@
         <v>12569028.1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="189" t="s">
         <v>245</v>
       </c>
@@ -10472,7 +10476,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="167">
         <v>2019</v>
       </c>
@@ -10522,7 +10526,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>248</v>
       </c>
@@ -10593,7 +10597,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="191" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" s="191" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="191" t="s">
         <v>251</v>
       </c>
@@ -10633,7 +10637,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="167" t="s">
         <v>253</v>
       </c>
@@ -10642,7 +10646,7 @@
         <v>19062.637636122003</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="193" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" s="193" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="193" t="s">
         <v>254</v>
       </c>
@@ -10655,7 +10659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="167" t="s">
         <v>255</v>
       </c>
@@ -10668,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="197" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" s="197" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="197" t="s">
         <v>256</v>
       </c>
@@ -10684,7 +10688,7 @@
       <c r="P30" s="169"/>
       <c r="Q30" s="169"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="167" t="s">
         <v>257</v>
       </c>
@@ -10694,7 +10698,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="197" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" s="197" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="197" t="s">
         <v>258</v>
       </c>
@@ -10710,23 +10714,23 @@
       <c r="P32" s="169"/>
       <c r="Q32" s="169"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E33" s="195"/>
       <c r="O33" s="196"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E34" s="195"/>
       <c r="O34" s="196"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E35" s="195"/>
       <c r="O35" s="196"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E36" s="195"/>
       <c r="O36" s="196"/>
     </row>
-    <row r="37" spans="1:20" s="199" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" s="199" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="199" t="s">
         <v>157</v>
       </c>
@@ -10738,7 +10742,7 @@
       <c r="P37" s="169"/>
       <c r="Q37" s="169"/>
     </row>
-    <row r="38" spans="1:20" s="200" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" s="200" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="200" t="s">
         <v>259</v>
       </c>
@@ -10761,7 +10765,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="199" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" s="199" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="199" t="s">
         <v>261</v>
       </c>
@@ -10785,7 +10789,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="199" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" s="199" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="199" t="s">
         <v>156</v>
       </c>
@@ -10806,7 +10810,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="199" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" s="199" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="199" t="s">
         <v>264</v>
       </c>
@@ -10827,7 +10831,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="199" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" s="199" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="199" t="s">
         <v>266</v>
       </c>
@@ -10845,7 +10849,7 @@
       <c r="Q42" s="169"/>
       <c r="R42" s="203"/>
     </row>
-    <row r="43" spans="1:20" s="199" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" s="199" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="199" t="s">
         <v>267</v>
       </c>
@@ -10870,7 +10874,7 @@
       <c r="Q43" s="169"/>
       <c r="R43" s="203"/>
     </row>
-    <row r="44" spans="1:20" s="199" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" s="199" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I44" s="168"/>
       <c r="J44" s="169"/>
       <c r="L44" s="170"/>
@@ -10880,7 +10884,7 @@
       <c r="Q44" s="169"/>
       <c r="R44" s="203"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="167" t="s">
         <v>268</v>
       </c>
@@ -10889,7 +10893,7 @@
         <v>0.78227062033730832</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="167" t="s">
         <v>269</v>
       </c>
@@ -10898,7 +10902,7 @@
         <v>0.21772937966269174</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="199" t="s">
         <v>270</v>
       </c>
@@ -10910,7 +10914,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="206" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" s="206" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="206" t="s">
         <v>96</v>
       </c>
@@ -10979,7 +10983,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="167" t="s">
         <v>271</v>
       </c>
@@ -10999,7 +11003,7 @@
         <v>13036.67</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="167" t="s">
         <v>272</v>
       </c>
@@ -11020,7 +11024,7 @@
         <v>11367.58</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="167" t="s">
         <v>273</v>
       </c>
@@ -11041,7 +11045,7 @@
         <v>17976.259999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="167" t="s">
         <v>274</v>
       </c>
@@ -11061,7 +11065,7 @@
         <v>40126.410000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="167" t="s">
         <v>275</v>
       </c>
@@ -11086,14 +11090,14 @@
         <v>82506.92</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B54" s="207"/>
       <c r="C54" s="207"/>
       <c r="D54" s="207"/>
       <c r="E54" s="207"/>
       <c r="F54" s="207"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="167" t="s">
         <v>276</v>
       </c>
@@ -11118,7 +11122,7 @@
         <v>12384.836499999999</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="167" t="s">
         <v>277</v>
       </c>
@@ -11140,7 +11144,7 @@
         <v>10051.008</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="167" t="s">
         <v>278</v>
       </c>
@@ -11164,7 +11168,7 @@
         <v>17976.259999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="167" t="s">
         <v>279</v>
       </c>
@@ -11188,14 +11192,14 @@
         <v>11367.58</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B59" s="207"/>
       <c r="C59" s="207"/>
       <c r="D59" s="207"/>
       <c r="E59" s="208"/>
       <c r="F59" s="207"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="167" t="s">
         <v>280</v>
       </c>
@@ -11220,7 +11224,7 @@
         <v>651.83350000000064</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="167" t="s">
         <v>281</v>
       </c>
@@ -11245,10 +11249,10 @@
         <v>30075.402000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E62" s="209"/>
     </row>
-    <row r="63" spans="1:17" ht="46" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A63" s="210" t="s">
         <v>282</v>
       </c>
@@ -11263,7 +11267,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="206" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" s="206" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="206" t="s">
         <v>96</v>
       </c>
@@ -11321,7 +11325,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="167" t="s">
         <v>286</v>
       </c>
@@ -11400,7 +11404,7 @@
       <c r="X65" s="207"/>
       <c r="Y65" s="207"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="167" t="s">
         <v>288</v>
       </c>
@@ -11447,7 +11451,7 @@
       <c r="X66" s="207"/>
       <c r="Y66" s="207"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="167" t="s">
         <v>289</v>
       </c>
@@ -11494,7 +11498,7 @@
       <c r="X67" s="207"/>
       <c r="Y67" s="207"/>
     </row>
-    <row r="68" spans="1:25" s="218" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:25" s="218" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="218" t="s">
         <v>290</v>
       </c>
@@ -11551,7 +11555,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="69" spans="1:25" s="220" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:25" s="220" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="220" t="s">
         <v>292</v>
       </c>
@@ -11587,7 +11591,7 @@
       <c r="P69" s="223"/>
       <c r="Q69" s="223"/>
     </row>
-    <row r="70" spans="1:25" s="225" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:25" s="225" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="225" t="s">
         <v>293</v>
       </c>
@@ -11623,7 +11627,7 @@
       <c r="P70" s="228"/>
       <c r="Q70" s="228"/>
     </row>
-    <row r="71" spans="1:25" s="230" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:25" s="230" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="230" t="s">
         <v>294</v>
       </c>
@@ -11659,7 +11663,7 @@
       <c r="P71" s="233"/>
       <c r="Q71" s="233"/>
     </row>
-    <row r="72" spans="1:25" s="230" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:25" s="230" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="230" t="s">
         <v>295</v>
       </c>
@@ -11695,7 +11699,7 @@
       <c r="P72" s="233"/>
       <c r="Q72" s="233"/>
     </row>
-    <row r="73" spans="1:25" s="230" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:25" s="230" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="231"/>
       <c r="C73" s="231"/>
       <c r="D73" s="231"/>
@@ -11710,7 +11714,7 @@
       <c r="P73" s="233"/>
       <c r="Q73" s="233"/>
     </row>
-    <row r="75" spans="1:25" s="169" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:25" s="169" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="169" t="s">
         <v>296</v>
       </c>
@@ -11738,7 +11742,7 @@
       <c r="L75" s="170"/>
       <c r="O75" s="168"/>
     </row>
-    <row r="76" spans="1:25" s="169" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:25" s="169" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="169" t="s">
         <v>297</v>
       </c>
@@ -11766,7 +11770,7 @@
       <c r="L76" s="170"/>
       <c r="O76" s="168"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="167" t="s">
         <v>298</v>
       </c>
@@ -11791,7 +11795,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="167" t="s">
         <v>299</v>
       </c>
@@ -11816,7 +11820,7 @@
         <v>0.2504836091741075</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="167" t="s">
         <v>300</v>
       </c>
@@ -11841,7 +11845,7 @@
         <v>0.61260762054318729</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="167" t="s">
         <v>301</v>
       </c>
@@ -11866,7 +11870,7 @@
         <v>0.38739237945681276</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="167" t="s">
         <v>302</v>
       </c>
@@ -11903,7 +11907,7 @@
         <v>71045.654072216043</v>
       </c>
     </row>
-    <row r="84" spans="1:17" s="169" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" s="169" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="169" t="s">
         <v>303</v>
       </c>
@@ -11931,7 +11935,7 @@
       <c r="L84" s="170"/>
       <c r="O84" s="168"/>
     </row>
-    <row r="85" spans="1:17" s="169" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" s="169" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="169" t="s">
         <v>304</v>
       </c>
@@ -11959,7 +11963,7 @@
       <c r="L85" s="170"/>
       <c r="O85" s="168"/>
     </row>
-    <row r="86" spans="1:17" s="169" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" s="169" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="169" t="s">
         <v>305</v>
       </c>
@@ -11987,7 +11991,7 @@
       <c r="L86" s="170"/>
       <c r="O86" s="168"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="167" t="s">
         <v>306</v>
       </c>
@@ -12012,7 +12016,7 @@
         <v>0.15010663954005313</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="167" t="s">
         <v>307</v>
       </c>
@@ -12037,7 +12041,7 @@
         <v>0.12182018187080551</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="167" t="s">
         <v>308</v>
       </c>
@@ -12062,7 +12066,7 @@
         <v>0.35565307734187629</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="225" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" s="225" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="225" t="s">
         <v>309</v>
       </c>
@@ -12094,7 +12098,7 @@
       <c r="P92" s="228"/>
       <c r="Q92" s="228"/>
     </row>
-    <row r="93" spans="1:17" s="225" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" s="225" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="225" t="s">
         <v>310</v>
       </c>
@@ -12126,7 +12130,7 @@
       <c r="P93" s="228"/>
       <c r="Q93" s="228"/>
     </row>
-    <row r="94" spans="1:17" s="225" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" s="225" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="225" t="s">
         <v>311</v>
       </c>
@@ -12158,7 +12162,7 @@
       <c r="P94" s="228"/>
       <c r="Q94" s="228"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B95" s="195">
         <f>SUM(B92:B94)</f>
         <v>1.0000000000000002</v>
@@ -12180,7 +12184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:19" s="169" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" s="169" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="169" t="s">
         <v>312</v>
       </c>
@@ -12208,7 +12212,7 @@
       <c r="L97" s="170"/>
       <c r="O97" s="168"/>
     </row>
-    <row r="98" spans="1:19" s="169" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" s="169" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="169" t="s">
         <v>313</v>
       </c>
@@ -12240,7 +12244,7 @@
       <c r="L98" s="170"/>
       <c r="O98" s="168"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="167" t="s">
         <v>314</v>
       </c>
@@ -12261,7 +12265,7 @@
         <v>3.8223817247666859E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="167" t="s">
         <v>315</v>
       </c>
@@ -12282,7 +12286,7 @@
         <v>0.20222228165192865</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="167" t="s">
         <v>316</v>
       </c>
@@ -12303,7 +12307,7 @@
         <v>7.1715186504524298E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="167" t="s">
         <v>317</v>
       </c>
@@ -12324,12 +12328,12 @@
         <v>0.1051269377557444</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="21" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A106" s="237" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="107" spans="1:19" s="206" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" s="206" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="206" t="str">
         <f t="shared" ref="A107:P108" si="30">A64</f>
         <v>Year</v>
@@ -12400,7 +12404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="167" t="str">
         <f t="shared" si="30"/>
         <v>Total Industry Consumption in GWh</v>
@@ -12469,7 +12473,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="167" t="s">
         <v>320</v>
       </c>
@@ -12501,7 +12505,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="167" t="str">
         <f t="shared" ref="A110:P113" si="32">A68</f>
         <v>Manufacturing Electricity consumption in GWh</v>
@@ -12571,7 +12575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="167" t="str">
         <f t="shared" si="32"/>
         <v>Manufacturing Oil Consumption in GWh</v>
@@ -12641,7 +12645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="167" t="str">
         <f t="shared" si="32"/>
         <v>Manufacturing Imported Coal Consumption in GWh</v>
@@ -12711,7 +12715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="167" t="str">
         <f t="shared" si="32"/>
         <v>Manufacturing Domestic  Coal Consumption in GWh</v>
@@ -12781,7 +12785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="167">
         <f t="shared" ref="A114:P114" si="33">A74</f>
         <v>0</v>
@@ -12851,25 +12855,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="167">
         <f>A104</f>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="167">
         <f>A105</f>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="167" t="str">
         <f>A106</f>
         <v>Structural Economic Growth scenario</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="167" t="str">
         <f>A107</f>
         <v>Year</v>
@@ -12900,15 +12904,15 @@
       <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="128" t="s">
         <v>213</v>
       </c>
@@ -12919,7 +12923,7 @@
       <c r="G3" s="128"/>
       <c r="H3" s="128"/>
     </row>
-    <row r="4" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="129"/>
       <c r="C4" s="129"/>
       <c r="D4" s="129"/>
@@ -12927,13 +12931,13 @@
       <c r="F4" s="129"/>
       <c r="G4" s="129"/>
     </row>
-    <row r="5" spans="2:9" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="130" t="s">
         <v>214</v>
       </c>
       <c r="C5" s="131"/>
     </row>
-    <row r="6" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="132" t="s">
         <v>0</v>
       </c>
@@ -12957,7 +12961,7 @@
       <c r="H6" s="132"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="133" t="s">
         <v>87</v>
       </c>
@@ -12977,7 +12981,7 @@
       <c r="H7" s="133"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="304"/>
       <c r="C8" s="304"/>
       <c r="D8" s="304"/>
@@ -12987,7 +12991,7 @@
       <c r="H8" s="304"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="134" t="str">
         <f>DemTechs_INDF!Y7</f>
         <v>MANCO2</v>
@@ -13008,13 +13012,13 @@
       <c r="H9" s="135"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="121"/>
       <c r="C24" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="47"/>
       <c r="C25" s="1" t="s">
         <v>99</v>
@@ -13034,20 +13038,20 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" style="238"/>
-    <col min="2" max="6" width="7.54296875" style="167" customWidth="1"/>
-    <col min="7" max="8" width="19.453125" style="167"/>
+    <col min="1" max="1" width="19.42578125" style="238"/>
+    <col min="2" max="6" width="7.5703125" style="167" customWidth="1"/>
+    <col min="7" max="8" width="19.42578125" style="167"/>
     <col min="9" max="9" width="8" style="167" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" style="167" customWidth="1"/>
-    <col min="11" max="11" width="23.1796875" style="167" customWidth="1"/>
-    <col min="12" max="12" width="20.1796875" style="167" customWidth="1"/>
-    <col min="13" max="14" width="24.1796875" style="167" customWidth="1"/>
-    <col min="15" max="16384" width="19.453125" style="167"/>
+    <col min="10" max="10" width="20.140625" style="167" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="167" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" style="167" customWidth="1"/>
+    <col min="13" max="14" width="24.140625" style="167" customWidth="1"/>
+    <col min="15" max="16384" width="19.42578125" style="167"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="I1" s="189" t="s">
         <v>96</v>
       </c>
@@ -13067,7 +13071,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="238" t="s">
         <v>96</v>
       </c>
@@ -13105,7 +13109,7 @@
         <v>35.089444444444446</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="238" t="s">
         <v>275</v>
       </c>
@@ -13143,7 +13147,7 @@
         <v>2300.2186111111109</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="238" t="s">
         <v>290</v>
       </c>
@@ -13181,7 +13185,7 @@
         <v>3128.15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="238" t="s">
         <v>292</v>
       </c>
@@ -13219,7 +13223,7 @@
         <v>3157.661111111111</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="238" t="s">
         <v>293</v>
       </c>
@@ -13257,7 +13261,7 @@
         <v>3157.661111111111</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="238" t="s">
         <v>294</v>
       </c>
@@ -13280,7 +13284,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I8" s="167">
         <v>2019</v>
       </c>
@@ -13305,7 +13309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I9" s="167">
         <v>2020</v>
       </c>
@@ -13330,7 +13334,7 @@
         <v>64.553007393803128</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I10" s="167">
         <v>2021</v>
       </c>
@@ -13355,7 +13359,7 @@
         <v>0.35993595777792642</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I11" s="167">
         <v>2022</v>
       </c>
@@ -13380,7 +13384,7 @@
         <v>9.4340460371500345E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I12" s="167">
         <v>2023</v>
       </c>
@@ -13405,7 +13409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I13" s="167" t="s">
         <v>323</v>
       </c>
@@ -13414,7 +13418,7 @@
         <v>4.4806529214302393E-2</v>
       </c>
     </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I19" s="167">
         <v>2050</v>
       </c>
@@ -13430,7 +13434,7 @@
         <v>-344878.77290050907</v>
       </c>
     </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
       <c r="J20" s="167">
         <f>J5+0.04*J5*27</f>
         <v>45915.595555555541</v>
@@ -13456,77 +13460,77 @@
       <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>324</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="325" t="s">
+      <c r="C1" s="326" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325" t="s">
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+      <c r="G1" s="326" t="s">
         <v>326</v>
       </c>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325" t="s">
+      <c r="H1" s="326"/>
+      <c r="I1" s="326"/>
+      <c r="J1" s="326"/>
+      <c r="K1" s="326" t="s">
         <v>327</v>
       </c>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325" t="s">
+      <c r="L1" s="326"/>
+      <c r="M1" s="326" t="s">
         <v>328</v>
       </c>
-      <c r="N1" s="325"/>
-      <c r="O1" s="325" t="s">
+      <c r="N1" s="326"/>
+      <c r="O1" s="326" t="s">
         <v>329</v>
       </c>
-      <c r="P1" s="325"/>
-      <c r="Q1" s="325"/>
-      <c r="R1" s="325" t="s">
+      <c r="P1" s="326"/>
+      <c r="Q1" s="326"/>
+      <c r="R1" s="326" t="s">
         <v>329</v>
       </c>
-      <c r="S1" s="325"/>
-      <c r="T1" s="325"/>
-      <c r="U1" s="325" t="s">
+      <c r="S1" s="326"/>
+      <c r="T1" s="326"/>
+      <c r="U1" s="326" t="s">
         <v>329</v>
       </c>
-      <c r="V1" s="325"/>
-      <c r="W1" s="325"/>
+      <c r="V1" s="326"/>
+      <c r="W1" s="326"/>
       <c r="X1" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="Y1" s="325" t="s">
+      <c r="Y1" s="326" t="s">
         <v>331</v>
       </c>
-      <c r="Z1" s="325"/>
-      <c r="AA1" s="325"/>
-    </row>
-    <row r="2" spans="1:27" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="Z1" s="326"/>
+      <c r="AA1" s="326"/>
+    </row>
+    <row r="2" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>332</v>
       </c>
@@ -13563,31 +13567,31 @@
       <c r="L2" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="O2" s="325" t="s">
+      <c r="O2" s="326" t="s">
         <v>333</v>
       </c>
-      <c r="P2" s="325"/>
-      <c r="Q2" s="325"/>
-      <c r="R2" s="325" t="s">
+      <c r="P2" s="326"/>
+      <c r="Q2" s="326"/>
+      <c r="R2" s="326" t="s">
         <v>336</v>
       </c>
-      <c r="S2" s="325"/>
-      <c r="T2" s="325"/>
-      <c r="U2" s="325" t="s">
+      <c r="S2" s="326"/>
+      <c r="T2" s="326"/>
+      <c r="U2" s="326" t="s">
         <v>335</v>
       </c>
-      <c r="V2" s="325"/>
-      <c r="W2" s="325"/>
+      <c r="V2" s="326"/>
+      <c r="W2" s="326"/>
       <c r="X2" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="Y2" s="325" t="s">
+      <c r="Y2" s="326" t="s">
         <v>337</v>
       </c>
-      <c r="Z2" s="325"/>
-      <c r="AA2" s="325"/>
-    </row>
-    <row r="3" spans="1:27" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="Z2" s="326"/>
+      <c r="AA2" s="326"/>
+    </row>
+    <row r="3" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>332</v>
       </c>
@@ -13634,7 +13638,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>332</v>
       </c>
@@ -13690,7 +13694,7 @@
         <v>0.12842465753424659</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>332</v>
       </c>
@@ -13737,7 +13741,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>332</v>
       </c>
@@ -13803,7 +13807,7 @@
         <v>4.3378995433789955E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>332</v>
       </c>
@@ -13827,7 +13831,7 @@
       <c r="V7" s="111"/>
       <c r="W7" s="111"/>
     </row>
-    <row r="8" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>332</v>
       </c>
@@ -13858,7 +13862,7 @@
       <c r="V8" s="111"/>
       <c r="W8" s="111"/>
     </row>
-    <row r="9" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>332</v>
       </c>
@@ -13873,7 +13877,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>332</v>
       </c>
@@ -13884,7 +13888,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>332</v>
       </c>
@@ -13895,7 +13899,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>332</v>
       </c>
@@ -13918,7 +13922,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>332</v>
       </c>
@@ -13950,7 +13954,7 @@
         <v>1.480365296803653E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>332</v>
       </c>
@@ -13961,7 +13965,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>A1</f>
         <v xml:space="preserve">Source </v>
@@ -13970,13 +13974,13 @@
         <f t="shared" ref="B17:C17" si="1">B1</f>
         <v>Technology Name</v>
       </c>
-      <c r="C17" s="323" t="str">
+      <c r="C17" s="324" t="str">
         <f t="shared" si="1"/>
         <v>Installation Cost per kW</v>
       </c>
-      <c r="D17" s="323"/>
-      <c r="E17" s="323"/>
-      <c r="F17" s="323"/>
+      <c r="D17" s="324"/>
+      <c r="E17" s="324"/>
+      <c r="F17" s="324"/>
       <c r="G17" t="s">
         <v>352</v>
       </c>
@@ -14005,7 +14009,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C18" s="244"/>
       <c r="D18" s="244"/>
       <c r="E18" s="244" t="s">
@@ -14039,7 +14043,7 @@
       </c>
       <c r="P18" s="244"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>363</v>
       </c>
@@ -14087,7 +14091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>364</v>
       </c>
@@ -14116,7 +14120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>366</v>
       </c>
@@ -14145,7 +14149,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>367</v>
       </c>
@@ -14174,7 +14178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>369</v>
       </c>
@@ -14206,7 +14210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>371</v>
       </c>
@@ -14238,7 +14242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>373</v>
       </c>
@@ -14276,7 +14280,7 @@
         <v>6.4999999999999994E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>374</v>
       </c>
@@ -14308,7 +14312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>376</v>
       </c>
@@ -14319,12 +14323,12 @@
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>A19</f>
         <v>Gebremeskel 2023</v>
@@ -14337,7 +14341,7 @@
         <v>14003.99887968009</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>363</v>
       </c>
@@ -14349,7 +14353,7 @@
         <v>27575.997793920178</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>363</v>
       </c>
@@ -14361,7 +14365,7 @@
         <v>67679.994585600434</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>381</v>
       </c>
@@ -14373,7 +14377,7 @@
         <v>29235.597661152191</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>383</v>
       </c>
@@ -14385,7 +14389,7 @@
         <v>4546.7996362560289</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>385</v>
       </c>
@@ -14397,20 +14401,20 @@
         <v>21005.998319520135</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="150" t="s">
         <v>386</v>
       </c>
       <c r="B42" s="150" t="s">
         <v>387</v>
       </c>
-      <c r="C42" s="324" t="s">
+      <c r="C42" s="325" t="s">
         <v>387</v>
       </c>
-      <c r="D42" s="324"/>
-      <c r="E42" s="324"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="325"/>
+      <c r="E42" s="325"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="150"/>
       <c r="B43" s="150" t="s">
         <v>338</v>
@@ -14428,7 +14432,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="150" t="s">
         <v>389</v>
       </c>
@@ -14439,7 +14443,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="151" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="151" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="151" t="s">
         <v>391</v>
       </c>
@@ -14456,7 +14460,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="151" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="151" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="151" t="s">
         <v>391</v>
       </c>
@@ -14473,7 +14477,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>394</v>
       </c>
@@ -14490,7 +14494,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>396</v>
       </c>
@@ -14504,7 +14508,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="245" t="s">
         <v>397</v>
       </c>
@@ -14521,7 +14525,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="245" t="s">
         <v>397</v>
       </c>
@@ -14538,7 +14542,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="245" t="s">
         <v>400</v>
       </c>
@@ -14552,7 +14556,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>402</v>
       </c>
@@ -14563,7 +14567,7 @@
         <v>0.51039999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="245" t="s">
         <v>404</v>
       </c>
@@ -14606,25 +14610,25 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
-    <col min="5" max="8" width="15.453125" customWidth="1"/>
-    <col min="9" max="10" width="13.26953125" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O1" s="12" t="s">
         <v>90</v>
       </c>
@@ -14638,7 +14642,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D2" s="27" t="s">
         <v>44</v>
       </c>
@@ -14671,7 +14675,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C3" s="4"/>
       <c r="D3" s="28" t="s">
         <v>170</v>
@@ -14698,7 +14702,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C4" s="59" t="s">
         <v>49</v>
       </c>
@@ -14710,7 +14714,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
         <v>50</v>
       </c>
@@ -14745,7 +14749,7 @@
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>52</v>
       </c>
@@ -14770,7 +14774,7 @@
         <v>225037.94899999999</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
         <v>125</v>
       </c>
@@ -14788,7 +14792,7 @@
       </c>
       <c r="K7" s="26"/>
     </row>
-    <row r="8" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="55" t="s">
         <v>113</v>
       </c>
@@ -14828,7 +14832,7 @@
         <v>2102286.7409999999</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="61" t="s">
         <v>54</v>
@@ -14842,7 +14846,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="39"/>
     </row>
-    <row r="10" spans="2:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="29" t="s">
         <v>55</v>
       </c>
@@ -14863,7 +14867,7 @@
         <v>-209</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="29" t="s">
         <v>46</v>
       </c>
@@ -14896,7 +14900,7 @@
         <v>6292.8000000000102</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
         <v>58</v>
       </c>
@@ -14925,7 +14929,7 @@
         <v>-1977483.48</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
       <c r="C13" s="38" t="s">
         <v>59</v>
@@ -14963,7 +14967,7 @@
         <v>-1971399.6799999999</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="23"/>
       <c r="C14" s="61" t="s">
         <v>60</v>
@@ -14977,7 +14981,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="39"/>
     </row>
-    <row r="15" spans="2:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="29" t="s">
         <v>61</v>
       </c>
@@ -15002,7 +15006,7 @@
         <v>1415286.2489999998</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="29" t="s">
         <v>63</v>
       </c>
@@ -15027,7 +15031,7 @@
         <v>27360.052000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="29" t="s">
         <v>65</v>
       </c>
@@ -15046,7 +15050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="29" t="s">
         <v>130</v>
       </c>
@@ -15071,7 +15075,7 @@
         <v>47314.468500000003</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="29" t="s">
         <v>132</v>
       </c>
@@ -15094,7 +15098,7 @@
         <v>32155.458499999997</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="29" t="s">
         <v>67</v>
       </c>
@@ -15115,7 +15119,7 @@
         <v>7289.8130000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="29" t="s">
         <v>68</v>
       </c>
@@ -15140,7 +15144,7 @@
         <v>100932.34299999999</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="29" t="s">
         <v>70</v>
       </c>
@@ -15161,7 +15165,7 @@
         <v>7289.8130000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="29" t="s">
         <v>83</v>
       </c>
@@ -15182,7 +15186,7 @@
         <v>4304.424</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="29" t="s">
         <v>84</v>
       </c>
@@ -15203,7 +15207,7 @@
         <v>45897</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="55" t="s">
         <v>86</v>
       </c>
@@ -15234,7 +15238,7 @@
         <v>1687829.6209999998</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -15244,7 +15248,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -15255,7 +15259,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C28" s="35" t="s">
         <v>97</v>
       </c>
@@ -15269,7 +15273,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -15280,7 +15284,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -15291,7 +15295,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -15302,7 +15306,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -15313,7 +15317,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -15324,7 +15328,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -15335,7 +15339,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -15346,7 +15350,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -15357,7 +15361,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>157</v>
       </c>
@@ -15375,7 +15379,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="14" t="s">
         <v>94</v>
       </c>
@@ -15392,7 +15396,7 @@
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="16" t="s">
         <v>95</v>
       </c>
@@ -15409,7 +15413,7 @@
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>158</v>
       </c>
@@ -15425,7 +15429,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="44" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D44" s="27" t="s">
         <v>44</v>
       </c>
@@ -15448,7 +15452,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>141</v>
       </c>
@@ -15480,7 +15484,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>130</v>
       </c>
@@ -15500,7 +15504,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>130</v>
       </c>
@@ -15520,7 +15524,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>130</v>
       </c>
@@ -15538,67 +15542,67 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J49" s="111"/>
       <c r="K49" s="114"/>
     </row>
-    <row r="50" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J50" s="111"/>
       <c r="K50" s="114"/>
     </row>
-    <row r="51" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J51" s="111"/>
       <c r="K51" s="114"/>
     </row>
-    <row r="52" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J52" s="111"/>
       <c r="K52" s="114"/>
     </row>
-    <row r="53" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J53" s="111"/>
       <c r="K53" s="114"/>
     </row>
-    <row r="54" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J54" s="111"/>
       <c r="K54" s="114"/>
     </row>
-    <row r="55" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J55" s="111"/>
       <c r="K55" s="114"/>
     </row>
-    <row r="56" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J56" s="111"/>
       <c r="K56" s="114"/>
     </row>
-    <row r="57" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J57" s="111"/>
       <c r="K57" s="114"/>
     </row>
-    <row r="58" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J58" s="111"/>
       <c r="K58" s="114"/>
     </row>
-    <row r="59" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J59" s="111"/>
       <c r="K59" s="114"/>
     </row>
-    <row r="60" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J60" s="111"/>
       <c r="K60" s="114"/>
     </row>
-    <row r="61" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J61" s="111"/>
       <c r="K61" s="114"/>
     </row>
-    <row r="62" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J62" s="111"/>
       <c r="K62" s="114"/>
     </row>
-    <row r="63" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J63" s="111"/>
       <c r="K63" s="114"/>
     </row>
-    <row r="65" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C65" s="80" t="s">
         <v>144</v>
       </c>
@@ -15609,7 +15613,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="12" t="s">
         <v>143</v>
       </c>
@@ -15623,7 +15627,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="29" t="s">
         <v>130</v>
       </c>
@@ -15647,28 +15651,28 @@
       <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
-    <col min="5" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="189" customWidth="1"/>
-    <col min="8" max="8" width="15.453125" customWidth="1"/>
-    <col min="9" max="10" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="189" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O1" s="12" t="s">
         <v>90</v>
       </c>
@@ -15682,7 +15686,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D2" s="27" t="s">
         <v>44</v>
       </c>
@@ -15715,7 +15719,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
       <c r="D3" s="28" t="s">
         <v>170</v>
@@ -15742,7 +15746,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C4" s="59" t="s">
         <v>49</v>
       </c>
@@ -15754,7 +15758,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
         <v>50</v>
       </c>
@@ -15795,7 +15799,7 @@
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>52</v>
       </c>
@@ -15835,7 +15839,7 @@
         <v>62510.546389732197</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
         <v>125</v>
       </c>
@@ -15872,7 +15876,7 @@
       </c>
       <c r="K7" s="26"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="55" t="s">
         <v>113</v>
       </c>
@@ -15912,7 +15916,7 @@
         <v>583968.58588414988</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
       <c r="C9" s="61" t="s">
         <v>54</v>
@@ -15926,7 +15930,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="39"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>55</v>
       </c>
@@ -15945,7 +15949,7 @@
       </c>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
         <v>46</v>
       </c>
@@ -15967,7 +15971,7 @@
       <c r="J11" s="125"/>
       <c r="K11" s="125"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
         <v>58</v>
       </c>
@@ -16007,7 +16011,7 @@
         <v>-549301.01061074401</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
       <c r="C13" s="38" t="s">
         <v>59</v>
@@ -16033,7 +16037,7 @@
         <v>-549301.01061074401</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
       <c r="C14" s="61" t="s">
         <v>60</v>
@@ -16047,7 +16051,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="39"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
         <v>61</v>
       </c>
@@ -16087,7 +16091,7 @@
         <v>393135.1006174722</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>63</v>
       </c>
@@ -16127,7 +16131,7 @@
         <v>7600.0150524456003</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
         <v>65</v>
       </c>
@@ -16167,7 +16171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="141" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="137" t="s">
         <v>130</v>
       </c>
@@ -16207,7 +16211,7 @@
         <v>13142.9089680993</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
         <v>132</v>
       </c>
@@ -16247,7 +16251,7 @@
         <v>8932.0725201213008</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
         <v>67</v>
       </c>
@@ -16287,7 +16291,7 @@
         <v>2024.9482175514001</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
         <v>68</v>
       </c>
@@ -16327,7 +16331,7 @@
         <v>28036.764187385401</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
         <v>70</v>
       </c>
@@ -16368,7 +16372,7 @@
       </c>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
         <v>83</v>
       </c>
@@ -16408,7 +16412,7 @@
         <v>1195.6734289872002</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>84</v>
       </c>
@@ -16448,7 +16452,7 @@
         <v>12749.167686600002</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="55" t="s">
         <v>86</v>
       </c>
@@ -16479,7 +16483,7 @@
         <v>468841.59889621375</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -16489,7 +16493,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -16500,7 +16504,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C28" s="35" t="s">
         <v>97</v>
       </c>
@@ -16514,7 +16518,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -16525,7 +16529,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -16536,7 +16540,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -16547,7 +16551,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -16558,7 +16562,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -16569,7 +16573,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -16580,7 +16584,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -16591,7 +16595,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -16602,7 +16606,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>157</v>
       </c>
@@ -16620,7 +16624,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C38" s="14" t="s">
         <v>94</v>
       </c>
@@ -16637,7 +16641,7 @@
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C39" s="16" t="s">
         <v>95</v>
       </c>
@@ -16654,7 +16658,7 @@
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>158</v>
       </c>
@@ -16670,7 +16674,7 @@
       <c r="G40" s="271"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D44" s="27" t="s">
         <v>44</v>
       </c>
@@ -16693,7 +16697,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>141</v>
       </c>
@@ -16725,7 +16729,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>130</v>
       </c>
@@ -16745,7 +16749,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>130</v>
       </c>
@@ -16765,7 +16769,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>130</v>
       </c>
@@ -16783,11 +16787,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J49" s="111"/>
       <c r="K49" s="114"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J50" s="111"/>
       <c r="K50" s="114" t="s">
         <v>415</v>
@@ -16796,7 +16800,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>406</v>
       </c>
@@ -16837,7 +16841,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>407</v>
       </c>
@@ -16894,7 +16898,7 @@
         <v>0.59754789157342969</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>408</v>
       </c>
@@ -16951,7 +16955,7 @@
         <v>0.12312333460502549</v>
       </c>
     </row>
-    <row r="54" spans="2:16" s="295" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:16" s="295" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="295" t="s">
         <v>409</v>
       </c>
@@ -17008,7 +17012,7 @@
         <v>3.5356379202871935E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:16" s="287" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:16" s="287" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="287" t="s">
         <v>412</v>
       </c>
@@ -17065,7 +17069,7 @@
         <v>0.12425447242893894</v>
       </c>
     </row>
-    <row r="56" spans="2:16" s="280" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:16" s="280" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="280" t="s">
         <v>267</v>
       </c>
@@ -17122,7 +17126,7 @@
         <v>0.29512108466841558</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>417</v>
       </c>
@@ -17179,7 +17183,7 @@
         <v>0.20192417471926696</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>411</v>
       </c>
@@ -17192,7 +17196,7 @@
       <c r="O58" s="111"/>
       <c r="P58" s="114"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>410</v>
       </c>
@@ -17205,7 +17209,7 @@
       <c r="O59" s="111"/>
       <c r="P59" s="114"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>418</v>
       </c>
@@ -17218,7 +17222,7 @@
       <c r="O60" s="111"/>
       <c r="P60" s="114"/>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>109</v>
       </c>
@@ -17266,7 +17270,7 @@
       <c r="O61" s="111"/>
       <c r="P61" s="114"/>
     </row>
-    <row r="62" spans="2:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>422</v>
       </c>
@@ -17314,7 +17318,7 @@
       <c r="O62" s="111"/>
       <c r="P62" s="114"/>
     </row>
-    <row r="63" spans="2:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>412</v>
       </c>
@@ -17362,7 +17366,7 @@
       <c r="O63" s="111"/>
       <c r="P63" s="114"/>
     </row>
-    <row r="64" spans="2:16" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>423</v>
       </c>
@@ -17410,7 +17414,7 @@
       <c r="O64" s="111"/>
       <c r="P64" s="114"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D65" s="247"/>
       <c r="E65" s="247"/>
       <c r="F65" s="247"/>
@@ -17424,7 +17428,7 @@
       <c r="N65" s="111"/>
       <c r="O65" s="111"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D66">
         <f>D51</f>
         <v>2019</v>
@@ -17465,7 +17469,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>432</v>
       </c>
@@ -17522,7 +17526,7 @@
         <v>8.3002040502737851E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>166</v>
       </c>
@@ -17579,15 +17583,15 @@
         <v>0.12425447242893894</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J69" s="111"/>
       <c r="K69" s="114"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J70" s="111"/>
       <c r="K70" s="114"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C72" s="80" t="s">
         <v>144</v>
       </c>
@@ -17598,7 +17602,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>143</v>
       </c>
@@ -17612,7 +17616,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" s="29" t="s">
         <v>130</v>
       </c>
@@ -17637,16 +17641,16 @@
       <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.81640625" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" customWidth="1"/>
-    <col min="14" max="14" width="5.453125" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="50" t="s">
         <v>101</v>
       </c>
@@ -17654,22 +17658,22 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="K3" s="50" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="18" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B14" s="50" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D16" s="51" t="s">
         <v>116</v>
       </c>
@@ -17697,36 +17701,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" style="254" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="254" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
-    <col min="13" max="13" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.1796875" customWidth="1"/>
-    <col min="15" max="15" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="45.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1796875" customWidth="1"/>
-    <col min="18" max="18" width="11.54296875" customWidth="1"/>
-    <col min="19" max="19" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
         <v>75</v>
       </c>
@@ -17744,7 +17748,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="str">
         <f>EBF!D2</f>
@@ -17773,7 +17777,7 @@
       <c r="T2" s="66"/>
       <c r="U2" s="66"/>
     </row>
-    <row r="3" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>45</v>
       </c>
@@ -17815,7 +17819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="22" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="150" t="s">
         <v>218</v>
       </c>
@@ -17857,7 +17861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="151"/>
       <c r="D5" s="151"/>
       <c r="E5" s="79"/>
@@ -17881,7 +17885,7 @@
       <c r="T5" s="66"/>
       <c r="U5" s="66"/>
     </row>
-    <row r="6" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="151"/>
       <c r="D6" s="151"/>
       <c r="E6" s="79"/>
@@ -17905,7 +17909,7 @@
       <c r="T6" s="66"/>
       <c r="U6" s="66"/>
     </row>
-    <row r="7" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="151"/>
       <c r="D7" s="151"/>
       <c r="E7" s="79"/>
@@ -17929,7 +17933,7 @@
       <c r="T7" s="66"/>
       <c r="U7" s="66"/>
     </row>
-    <row r="8" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="151"/>
       <c r="D8" s="151"/>
       <c r="E8" s="79"/>
@@ -17953,7 +17957,7 @@
       <c r="T8" s="66"/>
       <c r="U8" s="66"/>
     </row>
-    <row r="9" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" s="151"/>
       <c r="D9" s="151"/>
       <c r="E9" s="79"/>
@@ -17969,7 +17973,7 @@
       <c r="T9" s="66"/>
       <c r="U9" s="66"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="M10" s="152"/>
       <c r="N10" s="152"/>
       <c r="O10" s="152"/>
@@ -17980,7 +17984,7 @@
       <c r="T10" s="66"/>
       <c r="U10" s="66"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="M11" s="152"/>
       <c r="N11" s="152"/>
       <c r="O11" s="152"/>
@@ -17991,7 +17995,7 @@
       <c r="T11" s="66"/>
       <c r="U11" s="66"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="M12" s="149"/>
       <c r="N12" s="70"/>
       <c r="O12" s="149"/>
@@ -18002,7 +18006,7 @@
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="M13" s="149"/>
       <c r="N13" s="70"/>
       <c r="O13" s="149"/>
@@ -18013,7 +18017,7 @@
       <c r="T13" s="66"/>
       <c r="U13" s="66"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="M14" s="149"/>
       <c r="N14" s="70"/>
       <c r="O14" s="149"/>
@@ -18024,7 +18028,7 @@
       <c r="T14" s="66"/>
       <c r="U14" s="66"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="M15" s="163"/>
       <c r="N15" s="163"/>
       <c r="O15" s="163"/>
@@ -18035,7 +18039,7 @@
       <c r="T15" s="66"/>
       <c r="U15" s="66"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="M16" s="163"/>
       <c r="N16" s="163"/>
       <c r="O16" s="163"/>
@@ -18046,7 +18050,7 @@
       <c r="T16" s="66"/>
       <c r="U16" s="66"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="M17" s="149"/>
       <c r="N17" s="70"/>
       <c r="O17" s="149"/>
@@ -18057,7 +18061,7 @@
       <c r="T17" s="66"/>
       <c r="U17" s="66"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="M18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -18067,7 +18071,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
@@ -18084,7 +18088,7 @@
       <c r="T19" s="70"/>
       <c r="U19" s="70"/>
     </row>
-    <row r="20" spans="2:21" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
@@ -18141,7 +18145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>39</v>
       </c>
@@ -18194,7 +18198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>87</v>
       </c>
@@ -18227,7 +18231,7 @@
       <c r="T22" s="71"/>
       <c r="U22" s="71"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="66" t="str">
         <f>O23</f>
         <v>MINCOA</v>
@@ -18271,7 +18275,7 @@
       <c r="T23" s="70"/>
       <c r="U23" s="70"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" s="66" t="str">
         <f t="shared" ref="B24:B25" si="0">O24</f>
         <v>IMPCOA</v>
@@ -18315,7 +18319,7 @@
       <c r="T24" s="70"/>
       <c r="U24" s="70"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25" s="66" t="str">
         <f t="shared" si="0"/>
         <v>IMPOIL</v>
@@ -18353,7 +18357,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26" s="66" t="str">
         <f>O26</f>
         <v>ELCGRID</v>
@@ -18393,7 +18397,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="160"/>
       <c r="C27" s="160"/>
       <c r="D27" s="149"/>
@@ -18410,7 +18414,7 @@
       <c r="P27" s="153"/>
       <c r="Q27" s="151"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B28" s="160"/>
       <c r="C28" s="160"/>
       <c r="D28" s="149"/>
@@ -18427,7 +18431,7 @@
       <c r="P28" s="162"/>
       <c r="Q28" s="159"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" s="160"/>
       <c r="C29" s="160"/>
       <c r="D29" s="160"/>
@@ -18444,7 +18448,7 @@
       <c r="P29" s="162"/>
       <c r="Q29" s="159"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30" s="160"/>
       <c r="C30" s="160"/>
       <c r="D30" s="160"/>
@@ -18460,7 +18464,7 @@
       <c r="P30" s="162"/>
       <c r="Q30" s="159"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31" s="160"/>
       <c r="C31" s="160"/>
       <c r="D31" s="160"/>
@@ -18476,7 +18480,7 @@
       <c r="P31" s="161"/>
       <c r="Q31" s="159"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32" s="152"/>
       <c r="C32" s="152"/>
       <c r="D32" s="152"/>
@@ -18490,7 +18494,7 @@
       <c r="O32" s="70"/>
       <c r="P32" s="72"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B33" s="66"/>
       <c r="C33" s="70"/>
       <c r="D33" s="149"/>
@@ -18503,7 +18507,7 @@
       <c r="O33" s="70"/>
       <c r="P33" s="72"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B34" s="66"/>
       <c r="C34" s="70"/>
       <c r="D34" s="149"/>
@@ -18516,7 +18520,7 @@
       <c r="O34" s="70"/>
       <c r="P34" s="72"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B35" s="66"/>
       <c r="C35" s="70"/>
       <c r="D35" s="149"/>
@@ -18529,7 +18533,7 @@
       <c r="O35" s="70"/>
       <c r="P35" s="72"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B36" s="66"/>
       <c r="C36" s="70"/>
       <c r="D36" s="149"/>
@@ -18542,7 +18546,7 @@
       <c r="O36" s="70"/>
       <c r="P36" s="72"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B37" s="66"/>
       <c r="D37" s="66"/>
       <c r="E37" s="1"/>
@@ -18554,12 +18558,12 @@
       <c r="O37" s="70"/>
       <c r="P37" s="72"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H38" s="254"/>
       <c r="I38" s="254"/>
       <c r="J38" s="254"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B39" s="48"/>
       <c r="C39" s="1" t="s">
         <v>98</v>
@@ -18570,7 +18574,7 @@
       <c r="W39" s="163"/>
       <c r="X39" s="163"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B40" s="47"/>
       <c r="C40" s="1" t="s">
         <v>99</v>
@@ -18581,7 +18585,7 @@
       <c r="W40" s="163"/>
       <c r="X40" s="163"/>
     </row>
-    <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -18605,10 +18609,10 @@
       <c r="U42"/>
       <c r="V42"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="V43" s="1"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
     </row>
   </sheetData>
@@ -18624,39 +18628,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AE60"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="L30" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="90" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" style="90" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" style="90" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="90" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="90" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" style="90" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" style="90" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="13.1796875" style="90" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="13.140625" style="90" customWidth="1"/>
     <col min="13" max="13" width="12" style="90" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.81640625" style="90" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1796875" style="90" customWidth="1"/>
-    <col min="16" max="16" width="12.1796875" style="90" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="90" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="90" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="90" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="8.1796875" style="90" customWidth="1"/>
-    <col min="23" max="23" width="12.7265625" style="90" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.1796875" style="90" customWidth="1"/>
-    <col min="25" max="25" width="15.81640625" style="90" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="63.81640625" style="90" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.26953125" style="90" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7265625" style="90" customWidth="1"/>
-    <col min="29" max="29" width="13.453125" style="90" customWidth="1"/>
-    <col min="30" max="30" width="13.81640625" style="90" customWidth="1"/>
-    <col min="31" max="31" width="8.453125" style="90" customWidth="1"/>
-    <col min="32" max="16384" width="8.81640625" style="90"/>
+    <col min="18" max="22" width="8.140625" style="90" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.140625" style="90" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="63.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="90" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" style="90" customWidth="1"/>
+    <col min="30" max="30" width="13.85546875" style="90" customWidth="1"/>
+    <col min="31" max="31" width="8.42578125" style="90" customWidth="1"/>
+    <col min="32" max="16384" width="8.85546875" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>75</v>
       </c>
@@ -18683,7 +18687,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="2:31" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:31" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="str">
         <f>EBF!B18</f>
         <v>MAN</v>
@@ -18726,7 +18730,7 @@
       <c r="AD2" s="92"/>
       <c r="AE2" s="92"/>
     </row>
-    <row r="3" spans="2:31" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.2">
       <c r="W3" s="93" t="s">
         <v>7</v>
       </c>
@@ -18755,7 +18759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="22" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:31" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -18796,7 +18800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
@@ -18827,7 +18831,7 @@
       <c r="AD5" s="92"/>
       <c r="AE5" s="92"/>
     </row>
-    <row r="6" spans="2:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
@@ -18858,7 +18862,7 @@
       <c r="AD6" s="92"/>
       <c r="AE6" s="92"/>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.2">
       <c r="W7" s="92" t="s">
         <v>150</v>
       </c>
@@ -18880,7 +18884,7 @@
       <c r="AD7" s="92"/>
       <c r="AE7" s="92"/>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.2">
       <c r="W8" s="155" t="s">
         <v>82</v>
       </c>
@@ -18899,7 +18903,7 @@
       <c r="AD8" s="92"/>
       <c r="AE8" s="92"/>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
       <c r="W9" s="155"/>
       <c r="X9" s="155"/>
       <c r="Y9" s="155"/>
@@ -18910,7 +18914,7 @@
       <c r="AD9" s="92"/>
       <c r="AE9" s="92"/>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.2">
       <c r="W10" s="262" t="s">
         <v>82</v>
       </c>
@@ -18929,7 +18933,7 @@
       <c r="AD10" s="92"/>
       <c r="AE10" s="92"/>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
       <c r="W11" s="250" t="s">
         <v>74</v>
       </c>
@@ -18948,7 +18952,7 @@
       <c r="AD11" s="92"/>
       <c r="AE11" s="92"/>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.2">
       <c r="W12" s="250"/>
       <c r="X12" s="92"/>
       <c r="Y12" s="250"/>
@@ -18959,7 +18963,7 @@
       <c r="AD12" s="92"/>
       <c r="AE12" s="92"/>
     </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:31" x14ac:dyDescent="0.2">
       <c r="W13" s="250"/>
       <c r="X13" s="92"/>
       <c r="Y13" s="250"/>
@@ -18970,7 +18974,7 @@
       <c r="AD13" s="92"/>
       <c r="AE13" s="92"/>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
       <c r="W14" s="250"/>
       <c r="X14" s="92"/>
       <c r="Y14" s="250"/>
@@ -18981,7 +18985,7 @@
       <c r="AD14" s="92"/>
       <c r="AE14" s="92"/>
     </row>
-    <row r="16" spans="2:31" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
@@ -19014,7 +19018,7 @@
       <c r="AD16" s="92"/>
       <c r="AE16" s="92"/>
     </row>
-    <row r="17" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="54" t="s">
         <v>1</v>
       </c>
@@ -19102,7 +19106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="31" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:31" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="99" t="s">
         <v>39</v>
       </c>
@@ -19190,7 +19194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:31" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:31" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="101" t="s">
         <v>87</v>
       </c>
@@ -19236,7 +19240,7 @@
       <c r="AD19" s="95"/>
       <c r="AE19" s="95"/>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="str">
         <f>Y$20</f>
         <v>Kiln</v>
@@ -19314,7 +19318,7 @@
       <c r="AD20" s="250"/>
       <c r="AE20" s="92"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B21" s="90" t="str">
         <f>Y$20</f>
         <v>Kiln</v>
@@ -19397,7 +19401,7 @@
       <c r="AD21" s="250"/>
       <c r="AE21" s="92"/>
     </row>
-    <row r="22" spans="2:31" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B22" s="90" t="str">
         <f>Y$21</f>
         <v>Boiler</v>
@@ -19471,7 +19475,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="23" spans="2:31" s="154" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:31" s="154" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="96" t="str">
         <f>Y22</f>
         <v>MANELC</v>
@@ -19539,7 +19543,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="24" spans="2:31" s="154" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:31" s="154" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="96" t="s">
         <v>152</v>
       </c>
@@ -19563,7 +19567,7 @@
       <c r="AA24" s="96"/>
       <c r="AB24" s="96"/>
     </row>
-    <row r="25" spans="2:31" s="154" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:31" s="154" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="96" t="s">
         <v>154</v>
       </c>
@@ -19587,7 +19591,7 @@
       <c r="AA25" s="96"/>
       <c r="AB25" s="96"/>
     </row>
-    <row r="26" spans="2:31" s="154" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:31" s="154" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="96"/>
       <c r="C26" s="155"/>
       <c r="D26" s="250"/>
@@ -19605,7 +19609,7 @@
       <c r="AA26" s="96"/>
       <c r="AB26" s="96"/>
     </row>
-    <row r="27" spans="2:31" s="154" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:31" s="154" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="96"/>
       <c r="C27" s="155"/>
       <c r="D27" s="250"/>
@@ -19623,7 +19627,7 @@
       <c r="AA27" s="96"/>
       <c r="AB27" s="96"/>
     </row>
-    <row r="28" spans="2:31" s="154" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:31" s="154" customFormat="1" x14ac:dyDescent="0.2">
       <c r="W28" s="154" t="s">
         <v>436</v>
       </c>
@@ -19641,10 +19645,10 @@
       </c>
       <c r="AC28" s="165"/>
     </row>
-    <row r="29" spans="2:31" s="154" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:31" s="154" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AB29" s="96"/>
     </row>
-    <row r="30" spans="2:31" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:31" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="158"/>
       <c r="C30" s="92"/>
       <c r="D30" s="92"/>
@@ -19662,7 +19666,7 @@
       <c r="P30" s="154"/>
       <c r="Q30" s="154"/>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B31" s="158"/>
       <c r="C31" s="92"/>
       <c r="D31" s="92"/>
@@ -19680,7 +19684,7 @@
       <c r="P31" s="154"/>
       <c r="Q31" s="154"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B32" s="158"/>
       <c r="C32" s="92"/>
       <c r="D32" s="155"/>
@@ -19706,7 +19710,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="33" spans="2:29" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="E33" s="158" t="s">
         <v>439</v>
       </c>
@@ -19732,7 +19736,7 @@
       <c r="AB33" s="92"/>
       <c r="AC33" s="164"/>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="E34" s="158" t="s">
         <v>440</v>
       </c>
@@ -19767,7 +19771,7 @@
       <c r="AA34" s="113"/>
       <c r="AB34" s="113"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="E35" s="158" t="s">
         <v>45</v>
       </c>
@@ -19794,7 +19798,7 @@
         <v>0.19821738747377715</v>
       </c>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
       <c r="E36" s="158" t="s">
         <v>46</v>
       </c>
@@ -19814,7 +19818,7 @@
         <v>0.21772937139587065</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="106"/>
       <c r="C37" s="90" t="s">
         <v>98</v>
@@ -19828,14 +19832,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B38" s="110"/>
       <c r="C38" s="90" t="s">
         <v>99</v>
       </c>
       <c r="N38" s="109"/>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="E39" s="90" t="s">
         <v>208</v>
       </c>
@@ -19844,7 +19848,7 @@
       </c>
       <c r="N39" s="109"/>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="E41" s="90" t="s">
         <v>209</v>
       </c>
@@ -19853,14 +19857,14 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="E42" s="21"/>
       <c r="M42" s="90">
         <f>M33+M34+M35</f>
         <v>10281.181111111111</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45" s="96" t="str">
         <f>Y28</f>
         <v>PHEAT</v>
@@ -19902,7 +19906,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" s="96" t="str">
         <f>Y28</f>
         <v>PHEAT</v>
@@ -19944,7 +19948,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="49" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:14" x14ac:dyDescent="0.2">
       <c r="G49" s="90">
         <v>2022</v>
       </c>
@@ -19952,7 +19956,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="50" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:14" x14ac:dyDescent="0.2">
       <c r="G50" s="90">
         <v>0.41</v>
       </c>
@@ -19961,7 +19965,7 @@
       </c>
       <c r="I50" s="306"/>
     </row>
-    <row r="51" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:14" x14ac:dyDescent="0.2">
       <c r="G51" s="90">
         <v>0.59</v>
       </c>
@@ -19969,7 +19973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:14" x14ac:dyDescent="0.2">
       <c r="G53" s="158" t="s">
         <v>473</v>
       </c>
@@ -19977,7 +19981,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="54" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:14" x14ac:dyDescent="0.2">
       <c r="G54" s="158" t="s">
         <v>477</v>
       </c>
@@ -19986,7 +19990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="6:14" s="96" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:14" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F55" s="96" t="s">
         <v>475</v>
       </c>
@@ -20002,7 +20006,7 @@
         <v>-1.4642857142857141E-2</v>
       </c>
     </row>
-    <row r="56" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F56" s="158" t="s">
         <v>476</v>
       </c>
@@ -20014,7 +20018,7 @@
         <v>0.41000000000000003</v>
       </c>
     </row>
-    <row r="57" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:14" x14ac:dyDescent="0.2">
       <c r="H57" s="90">
         <v>2022</v>
       </c>
@@ -20037,7 +20041,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="58" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F58" s="158" t="s">
         <v>476</v>
       </c>
@@ -20070,7 +20074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F59" s="158" t="s">
         <v>440</v>
       </c>
@@ -20102,7 +20106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:14" x14ac:dyDescent="0.2">
       <c r="H60" s="90">
         <f>SUM(H58:H59)</f>
         <v>1</v>
@@ -20145,25 +20149,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H33" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
       <selection activeCell="P59" sqref="P59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>75</v>
       </c>
@@ -20180,7 +20184,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>82</v>
       </c>
@@ -20195,17 +20199,17 @@
         <v>TH$2022</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="K3" s="144"/>
     </row>
-    <row r="5" spans="2:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C5" s="117" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="117"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:18" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="116" t="s">
         <v>175</v>
       </c>
@@ -20244,7 +20248,7 @@
       </c>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="2:18" ht="30.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B7" s="119" t="s">
         <v>81</v>
       </c>
@@ -20293,7 +20297,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="118" t="s">
         <v>87</v>
       </c>
@@ -20332,7 +20336,7 @@
       <c r="Q8" s="126"/>
       <c r="R8" s="126"/>
     </row>
-    <row r="9" spans="2:18" s="20" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="276" t="s">
         <v>180</v>
       </c>
@@ -20381,7 +20385,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="2:18" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="276" t="s">
         <v>180</v>
       </c>
@@ -20437,7 +20441,7 @@
         <v>3.1863095983211558</v>
       </c>
     </row>
-    <row r="11" spans="2:18" s="254" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" s="254" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B11" s="276" t="s">
         <v>180</v>
       </c>
@@ -20493,7 +20497,7 @@
         <v>3.1382201767451949</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="143"/>
       <c r="C12" s="143"/>
       <c r="D12" s="143"/>
@@ -20520,7 +20524,7 @@
         <v>3.0768198790127741</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="143"/>
       <c r="C13" s="143"/>
       <c r="D13" s="143"/>
@@ -20547,7 +20551,7 @@
         <v>3.0348861926582669</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="143"/>
       <c r="C14" s="143"/>
       <c r="D14" s="143"/>
@@ -20574,7 +20578,7 @@
         <v>3.0553117771770659</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B15" s="276" t="s">
         <v>180</v>
       </c>
@@ -20631,7 +20635,7 @@
         <v>2.687404566934489</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B16" s="276" t="s">
         <v>180</v>
       </c>
@@ -20689,7 +20693,7 @@
         <v>3.127598826797489</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="278"/>
       <c r="C17" s="278"/>
       <c r="D17" s="278"/>
@@ -20717,7 +20721,7 @@
         <v>5.6179225793284706</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="120" t="s">
         <v>180</v>
       </c>
@@ -20774,7 +20778,7 @@
         <v>6.8292899178770794</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="120" t="s">
         <v>180</v>
       </c>
@@ -20831,7 +20835,7 @@
         <v>7.4082071837610162</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="136" t="s">
         <v>180</v>
       </c>
@@ -20888,7 +20892,7 @@
         <v>7.2501956541396559</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="136"/>
       <c r="C21" s="120"/>
       <c r="D21" s="120"/>
@@ -20914,7 +20918,7 @@
         <v>5.8267706293300279</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="120"/>
       <c r="C22" s="120"/>
       <c r="D22" s="120"/>
@@ -20936,7 +20940,7 @@
         <v>4.9352657864782676</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="120"/>
       <c r="C23" s="120"/>
       <c r="D23" s="136" t="s">
@@ -20985,7 +20989,7 @@
         <v>5.8899795969217346</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="D24" t="s">
         <v>427</v>
@@ -21033,7 +21037,7 @@
         <v>4.9796279664025898</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>426</v>
       </c>
@@ -21079,7 +21083,7 @@
         <v>3.914971977427395</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E26" s="260">
         <f>SUM(E23:E25)</f>
         <v>1</v>
@@ -21122,7 +21126,7 @@
         <v>3.4402001876687138</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E27" s="5"/>
       <c r="O27" s="1" t="s">
         <v>182</v>
@@ -21138,7 +21142,7 @@
         <v>3.4276629418004259</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D28" t="str">
         <f>C15</f>
         <v>MANHEAT</v>
@@ -21185,7 +21189,7 @@
         <v>3.3300467050604552</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D29" t="str">
         <f>C16</f>
         <v>MANELC</v>
@@ -21232,7 +21236,7 @@
         <v>3.38394008481735</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O30" s="1" t="s">
         <v>182</v>
       </c>
@@ -21247,7 +21251,7 @@
         <v>3.4172842429400898</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O31" s="1" t="s">
         <v>182</v>
       </c>
@@ -21262,7 +21266,7 @@
         <v>3.3865815443046672</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="E32" s="5">
         <f>EBF!J19</f>
@@ -21282,7 +21286,7 @@
         <v>2.6106280224674809</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="E33" s="5">
         <f>EBF!E19</f>
@@ -21302,7 +21306,7 @@
         <v>3.0448739616281442</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O34" s="1" t="s">
         <v>182</v>
       </c>
@@ -21317,7 +21321,7 @@
         <v>3.1863095983211558</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B35" s="121"/>
       <c r="C35" s="1" t="s">
         <v>98</v>
@@ -21336,7 +21340,7 @@
         <v>3.1382201767451949</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B36" s="47"/>
       <c r="C36" s="1" t="s">
         <v>99</v>
@@ -21355,7 +21359,7 @@
         <v>3.0768198790127741</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O37" s="1" t="s">
         <v>182</v>
       </c>
@@ -21370,7 +21374,7 @@
         <v>3.0348861926582669</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O38" s="1" t="s">
         <v>182</v>
       </c>
@@ -21385,7 +21389,7 @@
         <v>3.0553117771770659</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O39" s="1" t="s">
         <v>182</v>
       </c>
@@ -21400,7 +21404,7 @@
         <v>2.687404566934489</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O40" s="1" t="s">
         <v>182</v>
       </c>
@@ -21415,7 +21419,7 @@
         <v>3.127598826797489</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O41" s="1" t="s">
         <v>182</v>
       </c>
@@ -21430,7 +21434,7 @@
         <v>5.6179225793284706</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O42" s="1" t="s">
         <v>182</v>
       </c>
@@ -21445,7 +21449,7 @@
         <v>6.8292899178770794</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O43" s="1" t="s">
         <v>182</v>
       </c>
@@ -21460,7 +21464,7 @@
         <v>7.4082071837610162</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O44" s="1" t="s">
         <v>182</v>
       </c>
@@ -21475,7 +21479,7 @@
         <v>7.2501956541396559</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O45" s="1" t="s">
         <v>182</v>
       </c>
@@ -21490,7 +21494,7 @@
         <v>5.8267706293300279</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O46" s="1" t="s">
         <v>182</v>
       </c>
@@ -21505,7 +21509,7 @@
         <v>4.9352657864782676</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O47" s="1" t="s">
         <v>182</v>
       </c>
@@ -21520,7 +21524,7 @@
         <v>5.8899795969217346</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O48" s="1" t="s">
         <v>182</v>
       </c>
@@ -21535,7 +21539,7 @@
         <v>4.9796279664025898</v>
       </c>
     </row>
-    <row r="49" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="15:18" x14ac:dyDescent="0.2">
       <c r="O49" s="1" t="s">
         <v>182</v>
       </c>
@@ -21550,7 +21554,7 @@
         <v>3.914971977427395</v>
       </c>
     </row>
-    <row r="50" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="15:18" x14ac:dyDescent="0.2">
       <c r="O50" s="1" t="s">
         <v>182</v>
       </c>
@@ -21565,7 +21569,7 @@
         <v>3.4402001876687138</v>
       </c>
     </row>
-    <row r="51" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="15:18" x14ac:dyDescent="0.2">
       <c r="O51" s="1" t="s">
         <v>182</v>
       </c>
@@ -21580,7 +21584,7 @@
         <v>3.4276629418004259</v>
       </c>
     </row>
-    <row r="52" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="15:18" x14ac:dyDescent="0.2">
       <c r="O52" s="1" t="s">
         <v>182</v>
       </c>
@@ -21595,7 +21599,7 @@
         <v>3.3300467050604552</v>
       </c>
     </row>
-    <row r="53" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="15:18" x14ac:dyDescent="0.2">
       <c r="O53" s="1" t="s">
         <v>182</v>
       </c>
@@ -21610,7 +21614,7 @@
         <v>3.38394008481735</v>
       </c>
     </row>
-    <row r="54" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="15:18" x14ac:dyDescent="0.2">
       <c r="O54" s="1" t="s">
         <v>182</v>
       </c>
@@ -21625,7 +21629,7 @@
         <v>3.4172842429400898</v>
       </c>
     </row>
-    <row r="55" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="15:18" x14ac:dyDescent="0.2">
       <c r="O55" s="1" t="s">
         <v>182</v>
       </c>
@@ -21640,7 +21644,7 @@
         <v>3.3865815443046672</v>
       </c>
     </row>
-    <row r="56" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="15:18" x14ac:dyDescent="0.2">
       <c r="O56" s="1" t="s">
         <v>182</v>
       </c>
@@ -21655,7 +21659,7 @@
         <v>2.6106280224674809</v>
       </c>
     </row>
-    <row r="57" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="15:18" x14ac:dyDescent="0.2">
       <c r="O57" s="1" t="s">
         <v>182</v>
       </c>
@@ -21670,13 +21674,13 @@
         <v>3.0448739616281442</v>
       </c>
     </row>
-    <row r="58" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="15:18" x14ac:dyDescent="0.2">
       <c r="O58" s="1"/>
       <c r="P58" s="150"/>
       <c r="Q58" s="150"/>
-      <c r="R58" s="326"/>
-    </row>
-    <row r="59" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="R58" s="311"/>
+    </row>
+    <row r="59" spans="15:18" x14ac:dyDescent="0.2">
       <c r="R59" s="150"/>
     </row>
   </sheetData>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{E03825ED-986B-456A-9B95-273007C8AFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC5C3207-9D91-409E-814F-AF5CC75A96E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0817945-1D6D-444F-86DC-D6952E555EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energybalance history" sheetId="147" r:id="rId1"/>
@@ -8977,10 +8977,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17701,8 +17697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18628,8 +18624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AE60"/>
   <sheetViews>
-    <sheetView topLeftCell="L30" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20149,8 +20145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H33" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="P59" sqref="P59"/>
+    <sheetView topLeftCell="A6" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0817945-1D6D-444F-86DC-D6952E555EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{A0817945-1D6D-444F-86DC-D6952E555EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{678DF743-C303-4565-B77B-DAA0BA45BB53}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energybalance history" sheetId="147" r:id="rId1"/>
@@ -4091,7 +4091,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4681,6 +4681,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="30" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -13449,7 +13450,7 @@
   <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F86" sqref="F86"/>
       <selection pane="topRight" activeCell="F86" sqref="F86"/>
       <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
@@ -15643,7 +15644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R74"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
@@ -17697,8 +17698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18242,8 +18243,8 @@
       </c>
       <c r="F23" s="150"/>
       <c r="G23" s="48"/>
-      <c r="H23" s="49">
-        <v>4.5449999999999999</v>
+      <c r="H23" s="327">
+        <v>7.5875149887673601</v>
       </c>
       <c r="I23" s="89"/>
       <c r="J23" s="115">
@@ -18367,7 +18368,7 @@
         <v>2022</v>
       </c>
       <c r="F26" s="150"/>
-      <c r="H26" s="49">
+      <c r="H26" s="327">
         <v>100</v>
       </c>
       <c r="I26" s="89"/>
@@ -18624,8 +18625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView topLeftCell="A7" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19253,25 +19254,12 @@
       <c r="F20" s="104">
         <v>0.59</v>
       </c>
-      <c r="G20" s="307">
-        <v>0.87689726202009655</v>
-      </c>
-      <c r="H20" s="307">
-        <v>0.61259776405325439</v>
-      </c>
-      <c r="I20" s="307">
-        <v>1</v>
-      </c>
-      <c r="J20" s="307">
-        <v>1</v>
-      </c>
-      <c r="K20" s="307">
-        <v>1</v>
-      </c>
-      <c r="L20" s="307">
-        <f t="shared" ref="L20" si="0">N58</f>
-        <v>1</v>
-      </c>
+      <c r="G20" s="307"/>
+      <c r="H20" s="307"/>
+      <c r="I20" s="307"/>
+      <c r="J20" s="307"/>
+      <c r="K20" s="307"/>
+      <c r="L20" s="307"/>
       <c r="M20" s="105">
         <v>0.55000000000000004</v>
       </c>
@@ -19328,32 +19316,26 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="E21" s="107"/>
-      <c r="F21" s="104">
-        <v>0.41</v>
-      </c>
-      <c r="G21" s="104">
-        <f>100%-G20</f>
-        <v>0.12310273797990345</v>
-      </c>
-      <c r="H21" s="104">
-        <f t="shared" ref="H21:L21" si="1">100%-H20</f>
-        <v>0.38740223594674561</v>
-      </c>
-      <c r="I21" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F21" s="111">
+        <v>0.41136476969163144</v>
+      </c>
+      <c r="G21" s="111">
+        <v>0.23585310113354352</v>
+      </c>
+      <c r="H21" s="111">
+        <v>7.3264515611810618E-2</v>
+      </c>
+      <c r="I21" s="111">
+        <v>1.9847450096360672E-2</v>
+      </c>
+      <c r="J21" s="111">
+        <v>5.1598550415568115E-3</v>
+      </c>
+      <c r="K21" s="111">
+        <v>1.3267245984926927E-3</v>
+      </c>
+      <c r="L21" s="111">
+        <v>3.4015961616990566E-4</v>
       </c>
       <c r="M21" s="105">
         <v>0.55000000000000004</v>
@@ -19759,7 +19741,7 @@
         <v>7676.0611111111102</v>
       </c>
       <c r="Q34" s="261">
-        <f t="shared" ref="Q34:Q36" si="2">M34/M$37</f>
+        <f t="shared" ref="Q34:Q36" si="0">M34/M$37</f>
         <v>0.34379431410511396</v>
       </c>
       <c r="X34" s="112"/>
@@ -19790,7 +19772,7 @@
         <v>0.25338722972058014</v>
       </c>
       <c r="Q35" s="261">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.19821738747377715</v>
       </c>
     </row>
@@ -19810,7 +19792,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="261">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.21772937139587065</v>
       </c>
     </row>
@@ -20046,27 +20028,27 @@
         <v>0.59</v>
       </c>
       <c r="I58" s="90">
-        <f t="shared" ref="I58:N58" si="3">$H$58+$H$56*(I57-$H$57)/28</f>
+        <f t="shared" ref="I58:N58" si="1">$H$58+$H$56*(I57-$H$57)/28</f>
         <v>0.6339285714285714</v>
       </c>
       <c r="J58" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.70714285714285707</v>
       </c>
       <c r="K58" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.78035714285714286</v>
       </c>
       <c r="L58" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.85357142857142865</v>
       </c>
       <c r="M58" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.92678571428571432</v>
       </c>
       <c r="N58" s="90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -20078,27 +20060,27 @@
         <v>0.41</v>
       </c>
       <c r="I59" s="90">
-        <f t="shared" ref="I59:N59" si="4">$H$59+$H$55*(I57-$H$57)/28</f>
+        <f t="shared" ref="I59:N59" si="2">$H$59+$H$55*(I57-$H$57)/28</f>
         <v>0.36607142857142855</v>
       </c>
       <c r="J59" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.29285714285714282</v>
       </c>
       <c r="K59" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.21964285714285711</v>
       </c>
       <c r="L59" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.14642857142857141</v>
       </c>
       <c r="M59" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7.3214285714285676E-2</v>
       </c>
       <c r="N59" s="90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20108,27 +20090,27 @@
         <v>1</v>
       </c>
       <c r="I60" s="90">
-        <f t="shared" ref="I60:J60" si="5">SUM(I58:I59)</f>
+        <f t="shared" ref="I60:J60" si="3">SUM(I58:I59)</f>
         <v>1</v>
       </c>
       <c r="J60" s="90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="K60" s="90">
-        <f t="shared" ref="K60" si="6">SUM(K58:K59)</f>
+        <f t="shared" ref="K60" si="4">SUM(K58:K59)</f>
         <v>1</v>
       </c>
       <c r="L60" s="90">
-        <f t="shared" ref="L60" si="7">SUM(L58:L59)</f>
+        <f t="shared" ref="L60" si="5">SUM(L58:L59)</f>
         <v>1</v>
       </c>
       <c r="M60" s="90">
-        <f t="shared" ref="M60" si="8">SUM(M58:M59)</f>
+        <f t="shared" ref="M60" si="6">SUM(M58:M59)</f>
         <v>1</v>
       </c>
       <c r="N60" s="90">
-        <f t="shared" ref="N60" si="9">SUM(N58:N59)</f>
+        <f t="shared" ref="N60" si="7">SUM(N58:N59)</f>
         <v>1</v>
       </c>
     </row>
@@ -20145,7 +20127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="13_ncr:1_{A0817945-1D6D-444F-86DC-D6952E555EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81579036-EC92-455E-8592-78A73A6C5418}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28BA271-3D19-4331-A475-9666B28DBF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -2529,10 +2529,10 @@
     <numFmt numFmtId="165" formatCode="General_)"/>
     <numFmt numFmtId="166" formatCode="\Te\x\t"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="0.000000000"/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.000000000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.00000000000000"/>
   </numFmts>
   <fonts count="40" x14ac:knownFonts="1">
     <font>
@@ -3534,7 +3534,7 @@
     </xf>
     <xf numFmtId="2" fontId="9" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="25" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="16" applyFont="1"/>
     <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="25" fillId="16" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3595,7 +3595,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="9" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="39" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="29" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3607,7 +3607,7 @@
     <xf numFmtId="167" fontId="37" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="23" fillId="16" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3629,10 +3629,10 @@
     <xf numFmtId="9" fontId="27" fillId="16" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="13" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="13" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="9" fillId="24" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" xfId="38"/>
   </cellXfs>
@@ -4243,10 +4243,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4597,7 +4593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40EA534-E44A-461C-9315-2313911B2BEB}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -7908,8 +7904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AE59"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9884,27 +9880,27 @@
         <v>13142.908968099302</v>
       </c>
       <c r="F17" s="221">
-        <f>$E17*(1+$M17)^(F6-$E6)</f>
+        <f t="shared" ref="F17:K17" si="3">$E17*(1+$M17)^(F6-$E6)</f>
         <v>17247.359880422511</v>
       </c>
       <c r="G17" s="221">
-        <f>$E17*(1+$M17)^(G6-$E6)</f>
+        <f t="shared" si="3"/>
         <v>27129.461156185345</v>
       </c>
       <c r="H17" s="221">
-        <f>$E17*(1+$M17)^(H6-$E6)</f>
+        <f t="shared" si="3"/>
         <v>42673.642095241041</v>
       </c>
       <c r="I17" s="221">
-        <f>$E17*(1+$M17)^(I6-$E6)</f>
+        <f t="shared" si="3"/>
         <v>67124.065575388056</v>
       </c>
       <c r="J17" s="221">
-        <f>$E17*(1+$M17)^(J6-$E6)</f>
+        <f t="shared" si="3"/>
         <v>105583.68018631023</v>
       </c>
       <c r="K17" s="221">
-        <f>$E17*(1+$M17)^(K6-$E6)</f>
+        <f t="shared" si="3"/>
         <v>166079.23590630319</v>
       </c>
       <c r="M17" s="234">

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28BA271-3D19-4331-A475-9666B28DBF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{FC8EB348-8DCB-4AAF-85B0-A90763FB7378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24137E4C-8F5B-4249-8698-0ED562E46319}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -830,7 +830,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="W3" authorId="0" shapeId="0" xr:uid="{2A0D7E80-5B80-433D-8263-BA3B897C06A1}">
+    <comment ref="X3" authorId="0" shapeId="0" xr:uid="{2A0D7E80-5B80-433D-8263-BA3B897C06A1}">
       <text>
         <r>
           <rPr>
@@ -944,7 +944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB3" authorId="1" shapeId="0" xr:uid="{43B8DB13-97B8-4A90-8E0C-84FAE4CBD2EE}">
+    <comment ref="AC3" authorId="1" shapeId="0" xr:uid="{43B8DB13-97B8-4A90-8E0C-84FAE4CBD2EE}">
       <text>
         <r>
           <rPr>
@@ -970,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC3" authorId="2" shapeId="0" xr:uid="{2086376C-E954-4E0A-86A9-0D188820E5D4}">
+    <comment ref="AD3" authorId="2" shapeId="0" xr:uid="{2086376C-E954-4E0A-86A9-0D188820E5D4}">
       <text>
         <r>
           <rPr>
@@ -1043,7 +1043,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD3" authorId="2" shapeId="0" xr:uid="{C18132A6-0DCC-46ED-9E3E-6E9D416748A3}">
+    <comment ref="AE3" authorId="2" shapeId="0" xr:uid="{C18132A6-0DCC-46ED-9E3E-6E9D416748A3}">
       <text>
         <r>
           <rPr>
@@ -1096,7 +1096,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE3" authorId="2" shapeId="0" xr:uid="{EFF6FA36-E1C1-4FF3-A44F-72D97BD59DA1}">
+    <comment ref="AF3" authorId="2" shapeId="0" xr:uid="{EFF6FA36-E1C1-4FF3-A44F-72D97BD59DA1}">
       <text>
         <r>
           <rPr>
@@ -1129,7 +1129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC17" authorId="2" shapeId="0" xr:uid="{B8BF4189-7AEB-4804-8932-33CB73FCE7E5}">
+    <comment ref="AD17" authorId="2" shapeId="0" xr:uid="{B8BF4189-7AEB-4804-8932-33CB73FCE7E5}">
       <text>
         <r>
           <rPr>
@@ -1222,7 +1222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD17" authorId="1" shapeId="0" xr:uid="{5D6B271C-ECB1-4F2A-B44A-CFC55CCC04E5}">
+    <comment ref="AE17" authorId="1" shapeId="0" xr:uid="{5D6B271C-ECB1-4F2A-B44A-CFC55CCC04E5}">
       <text>
         <r>
           <rPr>
@@ -1247,7 +1247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE17" authorId="2" shapeId="0" xr:uid="{2D72E718-CBF9-42D3-993C-F0AD66976F32}">
+    <comment ref="AF17" authorId="2" shapeId="0" xr:uid="{2D72E718-CBF9-42D3-993C-F0AD66976F32}">
       <text>
         <r>
           <rPr>
@@ -1310,7 +1310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W18" authorId="2" shapeId="0" xr:uid="{0B963EA5-F116-4DDE-B632-C6029837D6FB}">
+    <comment ref="X18" authorId="2" shapeId="0" xr:uid="{0B963EA5-F116-4DDE-B632-C6029837D6FB}">
       <text>
         <r>
           <rPr>
@@ -1558,7 +1558,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="270">
   <si>
     <t>CommName</t>
   </si>
@@ -1905,9 +1905,6 @@
     <t>Biomass</t>
   </si>
   <si>
-    <t>TH$2022</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Oil</t>
   </si>
   <si>
@@ -2137,9 +2134,6 @@
   </si>
   <si>
     <t>D_24</t>
-  </si>
-  <si>
-    <t>TH2022USD/GWh</t>
   </si>
   <si>
     <t>MWa</t>
@@ -2238,39 +2232,9 @@
     <t>Aggrigate electricity demand of manufacturing sector</t>
   </si>
   <si>
-    <t>Coal total</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
-    <t>Historical Consumption</t>
-  </si>
-  <si>
-    <t>Coal imported in GWh</t>
-  </si>
-  <si>
-    <t>Coal domestic in GWh</t>
-  </si>
-  <si>
-    <t>Oil Imported in GWh</t>
-  </si>
-  <si>
-    <t>Biomass domestic in GWh</t>
-  </si>
-  <si>
-    <t>Natural Gas domestic in GWh</t>
-  </si>
-  <si>
-    <t>Electricity in GWh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fossil Fuel Consumption </t>
-  </si>
-  <si>
-    <t>Historical heat consumption growth</t>
-  </si>
-  <si>
     <t>Annual</t>
   </si>
   <si>
@@ -2284,9 +2248,6 @@
   </si>
   <si>
     <t>Manufacturing Heat from Coal</t>
-  </si>
-  <si>
-    <t>YEAR</t>
   </si>
   <si>
     <t>MANHEAT</t>
@@ -2518,6 +2479,27 @@
   </si>
   <si>
     <t>Ggrowth rate 2016-2023</t>
+  </si>
+  <si>
+    <t>TH$2024</t>
+  </si>
+  <si>
+    <t>TH2024USD/GWh</t>
+  </si>
+  <si>
+    <t>TH$2024USD</t>
+  </si>
+  <si>
+    <t>VAROM</t>
+  </si>
+  <si>
+    <t>Variable O&amp;M Cost</t>
+  </si>
+  <si>
+    <t>2024THUSD/GWh</t>
+  </si>
+  <si>
+    <t>2024THUSD/MW</t>
   </si>
 </sst>
 </file>
@@ -2534,7 +2516,7 @@
     <numFmt numFmtId="170" formatCode="0.000"/>
     <numFmt numFmtId="171" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2733,13 +2715,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2749,12 +2724,6 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2786,8 +2755,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2893,29 +2868,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
       </patternFill>
     </fill>
@@ -2926,7 +2878,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -3142,15 +3094,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -3166,7 +3109,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3202,12 +3145,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3444,7 +3386,6 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3473,7 +3414,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="14" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3509,9 +3449,6 @@
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" xfId="16" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3538,7 +3475,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="16" applyFont="1"/>
     <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="25" fillId="16" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
@@ -3557,8 +3494,7 @@
     <xf numFmtId="1" fontId="19" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="7" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3567,29 +3503,6 @@
     <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="19" fillId="20" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="34" fillId="20" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="20" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="37" applyFill="1"/>
-    <xf numFmtId="167" fontId="17" fillId="21" borderId="0" xfId="37" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="19" fillId="21" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="21" borderId="0" xfId="37" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="31" fillId="21" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="17" fillId="21" borderId="0" xfId="37" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="21" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="10" xfId="7" applyFill="1"/>
-    <xf numFmtId="167" fontId="20" fillId="22" borderId="10" xfId="7" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="19" fillId="22" borderId="10" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="22" borderId="10" xfId="7" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="31" fillId="22" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="20" fillId="22" borderId="10" xfId="7" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="22" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3597,30 +3510,30 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="9" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="39" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="37" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="29" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="33" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="9" fillId="15" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="37" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="35" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="23" fillId="16" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="37" fillId="16" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="36" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="35" fillId="16" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3633,10 +3546,14 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="13" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="9" fillId="24" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" xfId="38"/>
+    <xf numFmtId="167" fontId="9" fillId="20" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="37"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="38">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="20% - Accent5 2" xfId="21" xr:uid="{E1B1E490-7605-42BA-88C1-54B79AE47809}"/>
     <cellStyle name="20% - Accent5 2 2" xfId="31" xr:uid="{9A77BCA1-6431-4844-B2C6-C94657613BD6}"/>
@@ -3645,9 +3562,8 @@
     <cellStyle name="20% - Accent5 4" xfId="26" xr:uid="{ABDC135E-9A4A-4078-8504-7FAED0F441DB}"/>
     <cellStyle name="20% - Accent5 5" xfId="33" xr:uid="{CC4422F1-4577-475D-9062-5705E5BAA574}"/>
     <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
-    <cellStyle name="Accent1" xfId="37" builtinId="29"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="Accent3" xfId="37" builtinId="37"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Comma 2 2" xfId="27" xr:uid="{0F81714B-A75F-4A57-A4C6-D6B684BC4CCE}"/>
@@ -3876,13 +3792,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
@@ -4629,16 +4545,16 @@
         <v>45</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G2" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>129</v>
-      </c>
       <c r="I2" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>46</v>
@@ -4648,19 +4564,19 @@
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C3" s="4"/>
       <c r="D3" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="28" t="s">
         <v>130</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>131</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>114</v>
@@ -4746,10 +4662,10 @@
     </row>
     <row r="7" spans="2:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="25"/>
@@ -4875,7 +4791,7 @@
         <v>58</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="30">
         <v>-27634</v>
@@ -5022,10 +4938,10 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="45" t="s">
         <v>122</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>123</v>
       </c>
       <c r="D18" s="32">
         <v>27634.417000000001</v>
@@ -5047,10 +4963,10 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="45" t="s">
         <v>124</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>125</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32">
@@ -5073,7 +4989,7 @@
         <v>67</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32">
@@ -5280,32 +5196,32 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C65" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D65" s="79" t="s">
+      <c r="E65" s="80" t="s">
         <v>136</v>
-      </c>
-      <c r="E65" s="80" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C66" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="D66" s="81" t="s">
-        <v>139</v>
-      </c>
       <c r="E66" s="82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C67" s="83">
         <v>1</v>
@@ -5320,10 +5236,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R74"/>
+  <dimension ref="B1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="C1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5333,35 +5249,34 @@
     <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="158" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="156" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="O1" s="12" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N1" s="12" t="s">
         <v>90</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="P1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D2" s="27" t="s">
         <v>44</v>
       </c>
@@ -5369,47 +5284,47 @@
         <v>45</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="177" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="172" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>129</v>
-      </c>
       <c r="I2" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>46</v>
       </c>
       <c r="K2" s="20"/>
-      <c r="P2" s="24" t="s">
-        <v>115</v>
+      <c r="O2" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
       <c r="D3" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="177" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="172" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="28" t="s">
         <v>130</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>131</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>114</v>
@@ -5421,19 +5336,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C4" s="57" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="54"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="178"/>
+      <c r="G4" s="173"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
         <v>50</v>
       </c>
@@ -5452,7 +5367,7 @@
         <f>'EBF TJ'!F5*0.2777778</f>
         <v>16770.812452776001</v>
       </c>
-      <c r="G5" s="179">
+      <c r="G5" s="174">
         <f>'EBF TJ'!G5*0.2777778</f>
         <v>35.000002800000004</v>
       </c>
@@ -5472,9 +5387,9 @@
         <f>SUM(D5:J5)</f>
         <v>521458.03949441767</v>
       </c>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>52</v>
       </c>
@@ -5493,7 +5408,7 @@
         <f>'EBF TJ'!F6*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G6" s="179">
+      <c r="G6" s="174">
         <f>'EBF TJ'!G6*0.2777778</f>
         <v>0</v>
       </c>
@@ -5514,12 +5429,12 @@
         <v>62510.546389732197</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="55">
         <f>'EBF TJ'!D7*0.2777778</f>
@@ -5533,7 +5448,7 @@
         <f>'EBF TJ'!F7*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G7" s="179">
+      <c r="G7" s="174">
         <f>'EBF TJ'!G7*0.2777778</f>
         <v>0</v>
       </c>
@@ -5551,7 +5466,7 @@
       </c>
       <c r="K7" s="26"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="53" t="s">
         <v>110</v>
       </c>
@@ -5570,7 +5485,7 @@
         <f t="shared" si="0"/>
         <v>16770.812452776001</v>
       </c>
-      <c r="G8" s="180">
+      <c r="G8" s="175">
         <f>SUM(G5:G7)</f>
         <v>35.000002800000004</v>
       </c>
@@ -5591,7 +5506,7 @@
         <v>583968.58588414988</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
       <c r="C9" s="59" t="s">
         <v>54</v>
@@ -5599,13 +5514,13 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="178"/>
+      <c r="G9" s="173"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="39"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>55</v>
       </c>
@@ -5615,7 +5530,7 @@
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
-      <c r="G10" s="181"/>
+      <c r="G10" s="176"/>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="30">
@@ -5624,34 +5539,34 @@
       </c>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122">
+      <c r="D11" s="121"/>
+      <c r="E11" s="121">
         <f>'EBF TJ'!E11*0.2777778</f>
         <v>-2.0000001600000004</v>
       </c>
-      <c r="F11" s="122">
+      <c r="F11" s="121">
         <f>'EBF TJ'!F11*0.2777778</f>
         <v>-16770.812452776001</v>
       </c>
-      <c r="G11" s="182"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G11" s="177"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="30">
         <f>'EBF TJ'!D12*0.2777778</f>
@@ -5665,7 +5580,7 @@
         <f>'EBF TJ'!F12*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G12" s="181">
+      <c r="G12" s="176">
         <f>'EBF TJ'!G12*0.2777778</f>
         <v>0</v>
       </c>
@@ -5686,7 +5601,7 @@
         <v>-549301.01061074401</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
       <c r="C13" s="38" t="s">
         <v>59</v>
@@ -5700,7 +5615,7 @@
         <v>-59356.884748550401</v>
       </c>
       <c r="F13" s="40"/>
-      <c r="G13" s="183"/>
+      <c r="G13" s="178"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40">
@@ -5712,7 +5627,7 @@
         <v>-549301.01061074401</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
       <c r="C14" s="59" t="s">
         <v>60</v>
@@ -5720,13 +5635,13 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="178"/>
+      <c r="G14" s="173"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="39"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
         <v>61</v>
       </c>
@@ -5745,7 +5660,7 @@
         <f>'EBF TJ'!F15*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G15" s="181">
+      <c r="G15" s="176">
         <f>'EBF TJ'!G15*0.2777778</f>
         <v>0</v>
       </c>
@@ -5766,7 +5681,7 @@
         <v>393135.1006174722</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>63</v>
       </c>
@@ -5785,7 +5700,7 @@
         <f>'EBF TJ'!F16*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G16" s="181">
+      <c r="G16" s="176">
         <f>'EBF TJ'!G16*0.2777778</f>
         <v>0</v>
       </c>
@@ -5806,7 +5721,7 @@
         <v>7600.0150524456003</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
         <v>65</v>
       </c>
@@ -5825,7 +5740,7 @@
         <f>'EBF TJ'!F17*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G17" s="181">
+      <c r="G17" s="176">
         <f>'EBF TJ'!G17*0.2777778</f>
         <v>0</v>
       </c>
@@ -5846,52 +5761,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="134" t="s">
+    <row r="18" spans="2:12" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="132" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="135" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="136">
+      <c r="D18" s="134">
         <f>'EBF TJ'!D18*0.2777778</f>
         <v>7676.2275585426005</v>
       </c>
-      <c r="E18" s="136">
+      <c r="E18" s="134">
         <f>'EBF TJ'!E18*0.2777778</f>
         <v>2605.1202084096003</v>
       </c>
-      <c r="F18" s="136">
+      <c r="F18" s="134">
         <f>'EBF TJ'!F18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G18" s="181">
+      <c r="G18" s="176">
         <f>'EBF TJ'!G18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="H18" s="136">
+      <c r="H18" s="134">
         <f>'EBF TJ'!H18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="I18" s="136">
+      <c r="I18" s="134">
         <f>'EBF TJ'!I18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="J18" s="136">
+      <c r="J18" s="134">
         <f>'EBF TJ'!J18*0.2777778</f>
         <v>2861.5612011470998</v>
       </c>
-      <c r="K18" s="137">
+      <c r="K18" s="135">
         <f t="shared" si="1"/>
         <v>13142.9089680993</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="45" t="s">
         <v>124</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>125</v>
       </c>
       <c r="D19" s="32">
         <f>'EBF TJ'!D19*0.2777778</f>
@@ -5905,7 +5820,7 @@
         <f>'EBF TJ'!F19*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G19" s="181">
+      <c r="G19" s="176">
         <f>'EBF TJ'!G19*0.2777778</f>
         <v>0</v>
       </c>
@@ -5926,12 +5841,12 @@
         <v>8932.0725201213008</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="32">
         <f>'EBF TJ'!D20*0.2777778</f>
@@ -5945,7 +5860,7 @@
         <f>'EBF TJ'!F20*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G20" s="181">
+      <c r="G20" s="176">
         <f>'EBF TJ'!G20*0.2777778</f>
         <v>0</v>
       </c>
@@ -5966,7 +5881,7 @@
         <v>2024.9482175514001</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
         <v>68</v>
       </c>
@@ -5985,7 +5900,7 @@
         <f>'EBF TJ'!F21*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G21" s="181">
+      <c r="G21" s="176">
         <f>'EBF TJ'!G21*0.2777778</f>
         <v>0</v>
       </c>
@@ -6006,7 +5921,7 @@
         <v>28036.764187385401</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
         <v>70</v>
       </c>
@@ -6025,7 +5940,7 @@
         <f>'EBF TJ'!F22*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G22" s="181">
+      <c r="G22" s="176">
         <f>'EBF TJ'!G22*0.2777778</f>
         <v>0</v>
       </c>
@@ -6045,9 +5960,8 @@
         <f t="shared" si="1"/>
         <v>2024.9482175514001</v>
       </c>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
         <v>83</v>
       </c>
@@ -6066,7 +5980,7 @@
         <f>'EBF TJ'!F23*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G23" s="181">
+      <c r="G23" s="176">
         <f>'EBF TJ'!G23*0.2777778</f>
         <v>0</v>
       </c>
@@ -6087,7 +6001,7 @@
         <v>1195.6734289872002</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>84</v>
       </c>
@@ -6106,7 +6020,7 @@
         <f>'EBF TJ'!F24*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G24" s="181">
+      <c r="G24" s="176">
         <f>'EBF TJ'!G24*0.2777778</f>
         <v>0</v>
       </c>
@@ -6127,7 +6041,7 @@
         <v>12749.167686600002</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="53" t="s">
         <v>86</v>
       </c>
@@ -6143,7 +6057,7 @@
         <v>59476.115869200003</v>
       </c>
       <c r="F25" s="72"/>
-      <c r="G25" s="184"/>
+      <c r="G25" s="179"/>
       <c r="H25" s="72"/>
       <c r="I25" s="72">
         <f>SUM(I15:I24)</f>
@@ -6158,77 +6072,77 @@
         <v>468841.59889621375</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="181"/>
+      <c r="G26" s="176"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="181"/>
+      <c r="G27" s="176"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="181"/>
+      <c r="G28" s="176"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="181"/>
+      <c r="G29" s="176"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="181"/>
+      <c r="G30" s="176"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="181"/>
+      <c r="G31" s="176"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="181"/>
+      <c r="G32" s="176"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -6239,7 +6153,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="181"/>
+      <c r="G33" s="176"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -6250,7 +6164,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="181"/>
+      <c r="G34" s="176"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -6261,7 +6175,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="181"/>
+      <c r="G35" s="176"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -6272,7 +6186,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="181"/>
+      <c r="G36" s="176"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -6281,16 +6195,16 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="181"/>
+      <c r="G37" s="176"/>
       <c r="H37" s="5"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -6307,7 +6221,7 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="181"/>
+      <c r="G38" s="176"/>
       <c r="H38" s="5"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
@@ -6324,7 +6238,7 @@
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="181"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="5"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -6333,7 +6247,7 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D40" s="18">
         <f>D18/(D18+E18)</f>
@@ -6344,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="5"/>
-      <c r="G40" s="181"/>
+      <c r="G40" s="176"/>
       <c r="H40" s="5"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -6355,16 +6269,16 @@
         <v>45</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G44" s="177" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="172" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="H44" s="27" t="s">
-        <v>129</v>
-      </c>
       <c r="I44" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J44" s="27" t="s">
         <v>46</v>
@@ -6372,25 +6286,25 @@
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>47</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G45" s="177" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" s="172" t="s">
+        <v>129</v>
+      </c>
+      <c r="H45" s="28" t="s">
         <v>130</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>131</v>
       </c>
       <c r="I45" s="28" t="s">
         <v>114</v>
@@ -6404,10 +6318,10 @@
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D46" s="109">
         <f>D18/(D18+E18)</f>
@@ -6425,10 +6339,10 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="E47" s="109">
         <f>E18/(D18+E18)</f>
@@ -6446,10 +6360,10 @@
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="J48" s="109">
         <v>1</v>
@@ -6463,506 +6377,52 @@
         <v>DM3 : Machine dive, lighting, cooling , refrigration etc</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J49" s="109"/>
       <c r="K49" s="112"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>96</v>
-      </c>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J50" s="109"/>
       <c r="K50" s="112"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>212</v>
-      </c>
-      <c r="D51">
-        <v>2019</v>
-      </c>
-      <c r="E51">
-        <v>2020</v>
-      </c>
-      <c r="F51">
-        <v>2021</v>
-      </c>
-      <c r="G51" s="158">
-        <v>2022</v>
-      </c>
-      <c r="H51">
-        <v>2023</v>
-      </c>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J51" s="109"/>
       <c r="K51" s="112"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>213</v>
-      </c>
-      <c r="D52" s="160" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E52" s="160" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F52" s="160" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G52" s="185" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H52" s="160" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I52" s="159"/>
-      <c r="J52" s="159"/>
-      <c r="K52" s="161"/>
-      <c r="L52" s="109"/>
-      <c r="M52" s="109"/>
-      <c r="N52" s="109"/>
-      <c r="O52" s="109"/>
-      <c r="P52" s="112"/>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>214</v>
-      </c>
-      <c r="D53" s="160" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E53" s="160" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F53" s="160" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G53" s="185" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H53" s="160" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I53" s="159"/>
-      <c r="J53" s="159"/>
-      <c r="K53" s="161"/>
-      <c r="L53" s="109"/>
-      <c r="M53" s="109"/>
-      <c r="N53" s="109"/>
-      <c r="O53" s="109"/>
-      <c r="P53" s="112"/>
-    </row>
-    <row r="54" spans="2:16" s="204" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="204" t="s">
-        <v>215</v>
-      </c>
-      <c r="D54" s="205" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E54" s="205" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F54" s="205" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G54" s="206" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H54" s="205" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I54" s="207"/>
-      <c r="J54" s="207"/>
-      <c r="K54" s="208"/>
-      <c r="L54" s="209"/>
-      <c r="M54" s="210"/>
-      <c r="N54" s="210"/>
-      <c r="O54" s="210"/>
-      <c r="P54" s="211"/>
-    </row>
-    <row r="55" spans="2:16" s="196" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="196" t="s">
-        <v>218</v>
-      </c>
-      <c r="D55" s="197" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E55" s="197" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F55" s="197" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G55" s="198" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H55" s="197" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I55" s="199"/>
-      <c r="J55" s="199"/>
-      <c r="K55" s="200"/>
-      <c r="L55" s="201"/>
-      <c r="M55" s="202"/>
-      <c r="N55" s="202"/>
-      <c r="O55" s="202"/>
-      <c r="P55" s="203"/>
-    </row>
-    <row r="56" spans="2:16" s="189" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="189" t="s">
-        <v>210</v>
-      </c>
-      <c r="D56" s="190" t="e">
-        <f>D52+D53</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="190" t="e">
-        <f t="shared" ref="E56:H56" si="4">E52+E53</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="190" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="191" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="190" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="192"/>
-      <c r="J56" s="192"/>
-      <c r="K56" s="193"/>
-      <c r="L56" s="194"/>
-      <c r="M56" s="194"/>
-      <c r="N56" s="194"/>
-      <c r="O56" s="194"/>
-      <c r="P56" s="195"/>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>219</v>
-      </c>
-      <c r="D57" s="160" t="e">
-        <f>D54+D56</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E57" s="160" t="e">
-        <f t="shared" ref="E57:H57" si="5">E54+E56</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F57" s="160" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G57" s="185" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H57" s="160" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I57" s="159"/>
-      <c r="J57" s="159"/>
-      <c r="K57" s="161"/>
-      <c r="L57" s="109"/>
-      <c r="M57" s="109"/>
-      <c r="N57" s="109"/>
-      <c r="O57" s="109"/>
-      <c r="P57" s="112"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>217</v>
-      </c>
-      <c r="I58" s="159"/>
-      <c r="J58" s="159"/>
-      <c r="K58" s="161"/>
-      <c r="L58" s="109"/>
-      <c r="M58" s="109"/>
-      <c r="N58" s="109"/>
-      <c r="O58" s="109"/>
-      <c r="P58" s="112"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>216</v>
-      </c>
-      <c r="I59" s="159"/>
-      <c r="J59" s="159"/>
-      <c r="K59" s="161"/>
-      <c r="L59" s="109"/>
-      <c r="M59" s="109"/>
-      <c r="N59" s="109"/>
-      <c r="O59" s="109"/>
-      <c r="P59" s="112"/>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>220</v>
-      </c>
-      <c r="I60" s="159"/>
-      <c r="J60" s="159"/>
-      <c r="K60" s="161"/>
-      <c r="L60" s="109"/>
-      <c r="M60" s="109"/>
-      <c r="N60" s="109"/>
-      <c r="O60" s="109"/>
-      <c r="P60" s="112"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" t="s">
-        <v>226</v>
-      </c>
-      <c r="D61">
-        <f>D51</f>
-        <v>2019</v>
-      </c>
-      <c r="E61">
-        <f t="shared" ref="E61:H61" si="6">E51</f>
-        <v>2020</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="6"/>
-        <v>2021</v>
-      </c>
-      <c r="G61" s="158">
-        <f t="shared" si="6"/>
-        <v>2022</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="6"/>
-        <v>2023</v>
-      </c>
-      <c r="I61" s="159"/>
-      <c r="J61" s="159"/>
-      <c r="K61" s="161"/>
-      <c r="L61" s="109"/>
-      <c r="M61" s="109"/>
-      <c r="N61" s="109"/>
-      <c r="O61" s="109"/>
-      <c r="P61" s="112"/>
-    </row>
-    <row r="62" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C62" t="s">
-        <v>227</v>
-      </c>
-      <c r="D62" s="160" t="e">
-        <f>D54</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E62" s="160" t="e">
-        <f t="shared" ref="E62:H62" si="7">E54</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F62" s="160" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G62" s="160" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H62" s="160" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I62" s="159"/>
-      <c r="J62" s="159"/>
-      <c r="K62" s="161"/>
-      <c r="L62" s="109"/>
-      <c r="M62" s="109"/>
-      <c r="N62" s="109"/>
-      <c r="O62" s="109"/>
-      <c r="P62" s="112"/>
-    </row>
-    <row r="63" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>218</v>
-      </c>
-      <c r="D63" s="160" t="e">
-        <f>D55</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E63" s="160" t="e">
-        <f t="shared" ref="E63:G63" si="8">E55</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F63" s="160" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G63" s="160" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H63" s="160" t="e">
-        <f t="shared" ref="H63" si="9">H55</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I63" s="159"/>
-      <c r="J63" s="159"/>
-      <c r="K63" s="161"/>
-      <c r="L63" s="109"/>
-      <c r="M63" s="109"/>
-      <c r="N63" s="109"/>
-      <c r="O63" s="109"/>
-      <c r="P63" s="112"/>
-    </row>
-    <row r="64" spans="2:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
-        <v>269</v>
-      </c>
-      <c r="D64" s="160" t="e">
-        <f>D56</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E64" s="160" t="e">
-        <f t="shared" ref="E64:G64" si="10">E56</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F64" s="160" t="e">
-        <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G64" s="160" t="e">
-        <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H64" s="160" t="e">
-        <f t="shared" ref="H64" si="11">0.55*H56</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I64" s="159"/>
-      <c r="J64" s="159"/>
-      <c r="K64" s="161"/>
-      <c r="L64" s="109"/>
-      <c r="M64" s="109"/>
-      <c r="N64" s="109"/>
-      <c r="O64" s="109"/>
-      <c r="P64" s="112"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D65" s="160"/>
-      <c r="E65" s="160"/>
-      <c r="F65" s="160"/>
-      <c r="G65" s="185"/>
-      <c r="H65" s="160"/>
-      <c r="I65" s="159"/>
-      <c r="J65" s="159"/>
-      <c r="K65" s="161"/>
-      <c r="L65" s="109"/>
-      <c r="M65" s="109"/>
-      <c r="N65" s="109"/>
-      <c r="O65" s="109"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I66" s="159"/>
-      <c r="J66" s="159"/>
-      <c r="K66" s="161"/>
-      <c r="L66" s="109"/>
-      <c r="M66" s="109"/>
-      <c r="N66" s="109"/>
-      <c r="O66" s="109"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D67" s="160"/>
-      <c r="E67" s="160"/>
-      <c r="F67" s="160"/>
-      <c r="G67" s="185"/>
-      <c r="H67" s="160"/>
-      <c r="I67" s="159"/>
-      <c r="J67" s="159"/>
-      <c r="K67" s="161"/>
-      <c r="L67" s="109"/>
-      <c r="M67" s="109"/>
-      <c r="N67" s="109"/>
-      <c r="O67" s="109"/>
-      <c r="P67" s="109"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D68" s="160"/>
-      <c r="E68" s="160"/>
-      <c r="F68" s="160"/>
-      <c r="G68" s="185"/>
-      <c r="H68" s="160"/>
-      <c r="I68" s="159"/>
-      <c r="J68" s="159"/>
-      <c r="K68" s="161"/>
-      <c r="L68" s="109"/>
-      <c r="M68" s="109"/>
-      <c r="N68" s="109"/>
-      <c r="O68" s="109"/>
-      <c r="P68" s="109"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J69" s="109"/>
-      <c r="K69" s="112"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J70" s="109"/>
-      <c r="K70" s="112"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C72" s="78" t="s">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D72" s="79" t="s">
+      <c r="E53" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="E72" s="80" t="s">
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="81" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B73" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" s="81" t="s">
+      <c r="D54" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="D73" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="E73" s="82" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B74" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C74" s="83">
+      <c r="E54" s="82" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="83">
         <v>1</v>
       </c>
-      <c r="D74" s="84"/>
-      <c r="E74" s="85"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="27" type="noConversion"/>
@@ -6976,7 +6436,7 @@
   <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6991,7 +6451,7 @@
     <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="166" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="161" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.140625" customWidth="1"/>
@@ -7033,11 +6493,11 @@
         <v>Coal</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" s="7" t="str">
-        <f>EBF!P2</f>
-        <v>TH$2022</v>
+        <f>EBF!O2</f>
+        <v>TH$2024</v>
       </c>
       <c r="M2" s="63" t="s">
         <v>14</v>
@@ -7056,14 +6516,14 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" s="7" t="str">
-        <f>EBF!P2</f>
-        <v>TH$2022</v>
+        <f>EBF!O2</f>
+        <v>TH$2024</v>
       </c>
       <c r="M3" s="65" t="s">
         <v>7</v>
@@ -7094,18 +6554,18 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="142" t="s">
-        <v>201</v>
+      <c r="C4" s="140" t="s">
+        <v>199</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E4" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4" s="7" t="str">
-        <f>EBF!P2</f>
-        <v>TH$2022</v>
+        <f>EBF!O2</f>
+        <v>TH$2024</v>
       </c>
       <c r="M4" s="67" t="s">
         <v>37</v>
@@ -7136,23 +6596,23 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
       <c r="E5" s="77"/>
-      <c r="F5" s="143"/>
+      <c r="F5" s="141"/>
       <c r="G5" s="7"/>
       <c r="M5" s="64" t="s">
         <v>74</v>
       </c>
       <c r="N5" s="68"/>
-      <c r="O5" s="141" t="s">
-        <v>205</v>
+      <c r="O5" s="139" t="s">
+        <v>203</v>
       </c>
       <c r="P5" s="64" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R5" s="64"/>
       <c r="S5" s="64"/>
@@ -7160,23 +6620,23 @@
       <c r="U5" s="64"/>
     </row>
     <row r="6" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
       <c r="E6" s="77"/>
-      <c r="F6" s="143"/>
+      <c r="F6" s="141"/>
       <c r="G6" s="7"/>
       <c r="M6" s="64" t="s">
         <v>74</v>
       </c>
       <c r="N6" s="68"/>
-      <c r="O6" s="141" t="s">
-        <v>206</v>
+      <c r="O6" s="139" t="s">
+        <v>204</v>
       </c>
       <c r="P6" s="64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q6" s="64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R6" s="64"/>
       <c r="S6" s="64"/>
@@ -7184,23 +6644,23 @@
       <c r="U6" s="64"/>
     </row>
     <row r="7" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="143"/>
+      <c r="F7" s="141"/>
       <c r="G7" s="7"/>
       <c r="M7" s="64" t="s">
         <v>74</v>
       </c>
       <c r="N7" s="68"/>
-      <c r="O7" s="141" t="s">
-        <v>207</v>
+      <c r="O7" s="139" t="s">
+        <v>205</v>
       </c>
       <c r="P7" s="64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R7" s="64"/>
       <c r="S7" s="64"/>
@@ -7208,23 +6668,23 @@
       <c r="U7" s="64"/>
     </row>
     <row r="8" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
       <c r="E8" s="77"/>
-      <c r="F8" s="143"/>
+      <c r="F8" s="141"/>
       <c r="G8" s="7"/>
-      <c r="M8" s="141" t="s">
+      <c r="M8" s="139" t="s">
         <v>46</v>
       </c>
       <c r="N8" s="68"/>
-      <c r="O8" s="141" t="s">
+      <c r="O8" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="141" t="s">
-        <v>209</v>
+      <c r="P8" s="139" t="s">
+        <v>207</v>
       </c>
       <c r="Q8" s="64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R8" s="64"/>
       <c r="S8" s="64"/>
@@ -7232,104 +6692,104 @@
       <c r="U8" s="64"/>
     </row>
     <row r="9" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="143"/>
-      <c r="D9" s="143"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
       <c r="E9" s="77"/>
-      <c r="F9" s="143"/>
+      <c r="F9" s="141"/>
       <c r="G9" s="7"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="144"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="142"/>
+      <c r="O9" s="142"/>
+      <c r="P9" s="142"/>
+      <c r="Q9" s="142"/>
       <c r="R9" s="64"/>
       <c r="S9" s="64"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="142"/>
+      <c r="Q10" s="142"/>
       <c r="R10" s="64"/>
       <c r="S10" s="64"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="144"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="142"/>
+      <c r="P11" s="142"/>
+      <c r="Q11" s="142"/>
       <c r="R11" s="64"/>
       <c r="S11" s="64"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M12" s="141"/>
+      <c r="M12" s="139"/>
       <c r="N12" s="68"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="141"/>
-      <c r="Q12" s="141"/>
+      <c r="O12" s="139"/>
+      <c r="P12" s="139"/>
+      <c r="Q12" s="139"/>
       <c r="R12" s="64"/>
       <c r="S12" s="64"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M13" s="141"/>
+      <c r="M13" s="139"/>
       <c r="N13" s="68"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="141"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="139"/>
       <c r="R13" s="64"/>
       <c r="S13" s="64"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M14" s="141"/>
+      <c r="M14" s="139"/>
       <c r="N14" s="68"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="141"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="139"/>
       <c r="R14" s="64"/>
       <c r="S14" s="64"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M15" s="155"/>
-      <c r="N15" s="155"/>
-      <c r="O15" s="155"/>
-      <c r="P15" s="155"/>
-      <c r="Q15" s="155"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="153"/>
       <c r="R15" s="64"/>
       <c r="S15" s="64"/>
       <c r="T15" s="64"/>
       <c r="U15" s="64"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M16" s="155"/>
-      <c r="N16" s="155"/>
-      <c r="O16" s="155"/>
-      <c r="P16" s="155"/>
-      <c r="Q16" s="155"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="153"/>
       <c r="R16" s="64"/>
       <c r="S16" s="64"/>
       <c r="T16" s="64"/>
       <c r="U16" s="64"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M17" s="141"/>
+      <c r="M17" s="139"/>
       <c r="N17" s="68"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="141"/>
-      <c r="Q17" s="141"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="139"/>
       <c r="R17" s="64"/>
       <c r="S17" s="64"/>
       <c r="T17" s="64"/>
@@ -7388,9 +6848,9 @@
         <v>80</v>
       </c>
       <c r="J20" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="K20" s="167"/>
+        <v>149</v>
+      </c>
+      <c r="K20" s="162"/>
       <c r="M20" s="65" t="s">
         <v>11</v>
       </c>
@@ -7441,9 +6901,9 @@
         <v>88</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="K21" s="168"/>
+        <v>150</v>
+      </c>
+      <c r="K21" s="163"/>
       <c r="M21" s="67" t="s">
         <v>38</v>
       </c>
@@ -7485,14 +6945,14 @@
         <v>GWh</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="I22" s="8" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
       <c r="J22" s="9"/>
-      <c r="K22" s="169"/>
+      <c r="K22" s="164"/>
       <c r="M22" s="67" t="s">
         <v>81</v>
       </c>
@@ -7518,18 +6978,18 @@
       <c r="E23" s="1">
         <v>2022</v>
       </c>
-      <c r="F23" s="142"/>
-      <c r="G23" s="219">
+      <c r="F23" s="140"/>
+      <c r="G23" s="190">
         <v>3333333.3</v>
       </c>
-      <c r="H23" s="218">
-        <v>7.5875149887673601</v>
+      <c r="H23" s="189">
+        <v>8.0665446383744062</v>
       </c>
       <c r="I23" s="87"/>
       <c r="J23" s="113">
         <v>8.76</v>
       </c>
-      <c r="K23" s="170"/>
+      <c r="K23" s="165"/>
       <c r="M23" s="64" t="str">
         <f>EBF!$B$5</f>
         <v>MIN</v>
@@ -7544,7 +7004,7 @@
         <v xml:space="preserve">Domestic Supply of Coal </v>
       </c>
       <c r="Q23" s="68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R23" s="68"/>
       <c r="S23" s="68"/>
@@ -7564,16 +7024,16 @@
       <c r="E24" s="1">
         <v>2022</v>
       </c>
-      <c r="F24" s="142"/>
+      <c r="F24" s="140"/>
       <c r="G24" s="60"/>
       <c r="H24" s="61">
-        <v>21.004999999999999</v>
+        <v>22.318502952024048</v>
       </c>
       <c r="I24" s="87"/>
       <c r="J24" s="113">
         <v>8.76</v>
       </c>
-      <c r="K24" s="170"/>
+      <c r="K24" s="165"/>
       <c r="M24" s="68" t="str">
         <f>EBF!$B$6</f>
         <v>IMP</v>
@@ -7588,7 +7048,7 @@
         <v xml:space="preserve">Import of Coal </v>
       </c>
       <c r="Q24" s="68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R24" s="68"/>
       <c r="S24" s="68"/>
@@ -7608,15 +7068,15 @@
       <c r="E25" s="1">
         <v>2022</v>
       </c>
-      <c r="F25" s="142"/>
+      <c r="F25" s="140"/>
       <c r="H25" s="49">
-        <v>29.234999999999999</v>
+        <v>31.054602678959174</v>
       </c>
       <c r="I25" s="87"/>
       <c r="J25" s="113">
         <v>8.76</v>
       </c>
-      <c r="K25" s="170"/>
+      <c r="K25" s="165"/>
       <c r="M25" t="str">
         <f>EBF!B6</f>
         <v>IMP</v>
@@ -7630,7 +7090,7 @@
         <v xml:space="preserve">Import of Oil </v>
       </c>
       <c r="Q25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
@@ -7639,186 +7099,186 @@
         <v>ELCGRID</v>
       </c>
       <c r="C26" s="68"/>
-      <c r="D26" s="141" t="str">
+      <c r="D26" s="139" t="str">
         <f>O$8</f>
         <v>ELC</v>
       </c>
       <c r="E26" s="1">
         <v>2022</v>
       </c>
-      <c r="F26" s="142"/>
-      <c r="H26" s="218">
+      <c r="F26" s="140"/>
+      <c r="H26" s="189">
         <v>100</v>
       </c>
       <c r="I26" s="87"/>
       <c r="J26" s="113">
         <v>8.76</v>
       </c>
-      <c r="K26" s="170"/>
-      <c r="M26" s="143" t="s">
+      <c r="K26" s="165"/>
+      <c r="M26" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="N26" s="143"/>
+      <c r="N26" s="141"/>
       <c r="O26" s="68" t="str">
         <f>$M$26&amp;$C$4</f>
         <v>ELCGRID</v>
       </c>
-      <c r="P26" s="145" t="s">
+      <c r="P26" s="143" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>148</v>
+      </c>
+      <c r="S26" s="140" t="s">
         <v>202</v>
       </c>
-      <c r="Q26" t="s">
-        <v>149</v>
-      </c>
-      <c r="S26" s="142" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B27" s="152"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="171"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
-      <c r="O27" s="144"/>
-      <c r="P27" s="145"/>
-      <c r="Q27" s="143"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="166"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="141"/>
+      <c r="O27" s="142"/>
+      <c r="P27" s="143"/>
+      <c r="Q27" s="141"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" s="152"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="171"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="154"/>
-      <c r="Q28" s="151"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="166"/>
+      <c r="M28" s="149"/>
+      <c r="N28" s="149"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="149"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="171"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="152"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="151"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="166"/>
+      <c r="K29" s="166"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="150"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="149"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="152"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="171"/>
-      <c r="M30" s="142"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="154"/>
-      <c r="Q30" s="151"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="166"/>
+      <c r="K30" s="166"/>
+      <c r="M30" s="140"/>
+      <c r="O30" s="150"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="149"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="152"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="171"/>
-      <c r="M31" s="142"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="153"/>
-      <c r="Q31" s="151"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="166"/>
+      <c r="K31" s="166"/>
+      <c r="M31" s="140"/>
+      <c r="O31" s="139"/>
+      <c r="P31" s="151"/>
+      <c r="Q31" s="149"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="171"/>
-      <c r="K32" s="171"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="166"/>
+      <c r="K32" s="166"/>
       <c r="O32" s="68"/>
       <c r="P32" s="70"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B33" s="64"/>
       <c r="C33" s="68"/>
-      <c r="D33" s="141"/>
+      <c r="D33" s="139"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="170"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="165"/>
       <c r="O33" s="68"/>
       <c r="P33" s="70"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B34" s="64"/>
       <c r="C34" s="68"/>
-      <c r="D34" s="141"/>
+      <c r="D34" s="139"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="170"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="165"/>
       <c r="O34" s="68"/>
       <c r="P34" s="70"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B35" s="64"/>
       <c r="C35" s="68"/>
-      <c r="D35" s="141"/>
+      <c r="D35" s="139"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="H35" s="170"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="170"/>
-      <c r="K35" s="170"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="165"/>
       <c r="O35" s="68"/>
       <c r="P35" s="70"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B36" s="64"/>
       <c r="C36" s="68"/>
-      <c r="D36" s="141"/>
+      <c r="D36" s="139"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="H36" s="170"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="170"/>
-      <c r="K36" s="170"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="165"/>
       <c r="O36" s="68"/>
       <c r="P36" s="70"/>
     </row>
@@ -7827,39 +7287,39 @@
       <c r="D37" s="64"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="170"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="165"/>
       <c r="O37" s="68"/>
       <c r="P37" s="70"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="H38" s="166"/>
-      <c r="I38" s="166"/>
-      <c r="J38" s="166"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="161"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B39" s="48"/>
       <c r="C39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="T39" s="155"/>
-      <c r="U39" s="155"/>
-      <c r="V39" s="155"/>
-      <c r="W39" s="155"/>
-      <c r="X39" s="155"/>
+      <c r="T39" s="153"/>
+      <c r="U39" s="153"/>
+      <c r="V39" s="153"/>
+      <c r="W39" s="153"/>
+      <c r="X39" s="153"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B40" s="47"/>
       <c r="C40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T40" s="155"/>
-      <c r="U40" s="155"/>
-      <c r="V40" s="155"/>
-      <c r="W40" s="155"/>
-      <c r="X40" s="155"/>
+      <c r="T40" s="153"/>
+      <c r="U40" s="153"/>
+      <c r="V40" s="153"/>
+      <c r="W40" s="153"/>
+      <c r="X40" s="153"/>
     </row>
     <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42"/>
@@ -7872,7 +7332,7 @@
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
-      <c r="K42" s="166"/>
+      <c r="K42" s="161"/>
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
@@ -7902,10 +7362,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
-  <dimension ref="B1:AE59"/>
+  <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7923,20 +7383,20 @@
     <col min="15" max="15" width="8.140625" style="88" customWidth="1"/>
     <col min="16" max="16" width="12.140625" style="88" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="88" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="8.140625" style="88" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.140625" style="88" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" style="88" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="63.85546875" style="88" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.28515625" style="88" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" style="88" customWidth="1"/>
-    <col min="29" max="29" width="13.42578125" style="88" customWidth="1"/>
-    <col min="30" max="30" width="13.85546875" style="88" customWidth="1"/>
-    <col min="31" max="31" width="8.42578125" style="88" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="88"/>
+    <col min="18" max="23" width="8.140625" style="88" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.140625" style="88" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" style="88" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="63.85546875" style="88" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.28515625" style="88" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="88" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="88" customWidth="1"/>
+    <col min="31" max="31" width="13.85546875" style="88" customWidth="1"/>
+    <col min="32" max="32" width="8.42578125" style="88" customWidth="1"/>
+    <col min="33" max="16384" width="8.85546875" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>75</v>
       </c>
@@ -7963,7 +7423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="2:31" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="str">
         <f>EBF!B18</f>
         <v>MAN</v>
@@ -7977,12 +7437,12 @@
         <v>Demand Technologies</v>
       </c>
       <c r="E2" s="7" t="str">
-        <f>EBF!Q2</f>
+        <f>EBF!P2</f>
         <v>GWh</v>
       </c>
       <c r="F2" s="7" t="str">
-        <f>EBF!P2</f>
-        <v>TH$2022</v>
+        <f>EBF!O2</f>
+        <v>TH$2024</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -7994,48 +7454,48 @@
       <c r="N2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="W2" s="89" t="s">
+      <c r="X2" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="90"/>
+      <c r="Y2" s="89"/>
       <c r="Z2" s="90"/>
       <c r="AA2" s="90"/>
       <c r="AB2" s="90"/>
       <c r="AC2" s="90"/>
       <c r="AD2" s="90"/>
       <c r="AE2" s="90"/>
-    </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W3" s="91" t="s">
+      <c r="AF2" s="90"/>
+    </row>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="X3" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="92" t="s">
+      <c r="Y3" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="91" t="s">
+      <c r="Z3" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="Z3" s="91" t="s">
+      <c r="AA3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="91" t="s">
+      <c r="AB3" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="91" t="s">
+      <c r="AC3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="91" t="s">
+      <c r="AD3" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="91" t="s">
+      <c r="AE3" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="91" t="s">
+      <c r="AF3" s="91" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:32" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
       <c r="D4" s="51"/>
@@ -8048,35 +7508,35 @@
       <c r="K4" s="51"/>
       <c r="L4" s="51"/>
       <c r="M4" s="51"/>
-      <c r="W4" s="93" t="s">
+      <c r="X4" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="93" t="s">
+      <c r="Y4" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="93" t="s">
+      <c r="Z4" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="93" t="s">
+      <c r="AA4" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="93" t="s">
+      <c r="AB4" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="93" t="s">
+      <c r="AC4" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="AC4" s="93" t="s">
+      <c r="AD4" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="AD4" s="93" t="s">
+      <c r="AE4" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="AE4" s="93" t="s">
+      <c r="AF4" s="93" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
@@ -8089,25 +7549,25 @@
       <c r="K5" s="51"/>
       <c r="L5" s="51"/>
       <c r="M5" s="51"/>
-      <c r="W5" s="147" t="s">
+      <c r="X5" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="X5" s="147"/>
-      <c r="Y5" s="147" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z5" s="147" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA5" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB5" s="90"/>
+      <c r="Y5" s="145"/>
+      <c r="Z5" s="145" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA5" s="145" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB5" s="90" t="s">
+        <v>148</v>
+      </c>
       <c r="AC5" s="90"/>
       <c r="AD5" s="90"/>
       <c r="AE5" s="90"/>
-    </row>
-    <row r="6" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AF5" s="90"/>
+    </row>
+    <row r="6" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -8120,148 +7580,148 @@
       <c r="K6" s="51"/>
       <c r="L6" s="51"/>
       <c r="M6" s="51"/>
-      <c r="W6" s="90" t="s">
+      <c r="X6" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90" t="s">
-        <v>152</v>
-      </c>
+      <c r="Y6" s="90"/>
       <c r="Z6" s="90" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="AA6" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB6" s="90"/>
+        <v>201</v>
+      </c>
+      <c r="AB6" s="90" t="s">
+        <v>148</v>
+      </c>
       <c r="AC6" s="90"/>
       <c r="AD6" s="90"/>
       <c r="AE6" s="90"/>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W7" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90" t="str">
-        <f>$B$2&amp;EBF!C72</f>
+      <c r="AF6" s="90"/>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="X7" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90" t="str">
+        <f>$B$2&amp;EBF!C53</f>
         <v>MANCO2</v>
       </c>
-      <c r="Z7" s="90" t="str">
-        <f>$C$2&amp;" "&amp;EBF!C72</f>
+      <c r="AA7" s="90" t="str">
+        <f>$C$2&amp;" "&amp;EBF!C53</f>
         <v>Manufacturing CO2</v>
       </c>
-      <c r="AA7" s="90" t="str">
-        <f>EBF!R2</f>
+      <c r="AB7" s="90" t="str">
+        <f>EBF!Q2</f>
         <v>ktoe</v>
       </c>
-      <c r="AB7" s="90"/>
       <c r="AC7" s="90"/>
       <c r="AD7" s="90"/>
       <c r="AE7" s="90"/>
-    </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W8" s="147" t="s">
+      <c r="AF7" s="90"/>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="X8" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="X8" s="147"/>
-      <c r="Y8" s="147" t="s">
-        <v>269</v>
-      </c>
-      <c r="Z8" s="147" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA8" s="162" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB8" s="90"/>
+      <c r="Y8" s="145"/>
+      <c r="Z8" s="145" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA8" s="145" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB8" s="157" t="s">
+        <v>148</v>
+      </c>
       <c r="AC8" s="90"/>
       <c r="AD8" s="90"/>
       <c r="AE8" s="90"/>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W9" s="147"/>
-      <c r="X9" s="147"/>
-      <c r="Y9" s="147"/>
-      <c r="Z9" s="147"/>
-      <c r="AA9" s="162"/>
-      <c r="AB9" s="90"/>
+      <c r="AF8" s="90"/>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="X9" s="145"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="145"/>
+      <c r="AA9" s="145"/>
+      <c r="AB9" s="157"/>
       <c r="AC9" s="90"/>
       <c r="AD9" s="90"/>
       <c r="AE9" s="90"/>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W10" s="174" t="s">
+      <c r="AF9" s="90"/>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="X10" s="169" t="s">
         <v>82</v>
       </c>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="174" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z10" s="174" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA10" s="162" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB10" s="90"/>
+      <c r="Y10" s="169"/>
+      <c r="Z10" s="169" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA10" s="169" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB10" s="157" t="s">
+        <v>148</v>
+      </c>
       <c r="AC10" s="90"/>
       <c r="AD10" s="90"/>
       <c r="AE10" s="90"/>
-    </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W11" s="162" t="s">
+      <c r="AF10" s="90"/>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="X11" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="162" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z11" s="162" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA11" s="162" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="157" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA11" s="157" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB11" s="157" t="s">
+        <v>148</v>
+      </c>
       <c r="AC11" s="90"/>
       <c r="AD11" s="90"/>
       <c r="AE11" s="90"/>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W12" s="162"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="162"/>
-      <c r="Z12" s="162"/>
-      <c r="AA12" s="162"/>
-      <c r="AB12" s="90"/>
+      <c r="AF11" s="90"/>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="X12" s="157"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="157"/>
+      <c r="AA12" s="157"/>
+      <c r="AB12" s="157"/>
       <c r="AC12" s="90"/>
       <c r="AD12" s="90"/>
       <c r="AE12" s="90"/>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W13" s="162"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="162"/>
-      <c r="Z13" s="162"/>
-      <c r="AA13" s="162"/>
-      <c r="AB13" s="90"/>
+      <c r="AF12" s="90"/>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="X13" s="157"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="157"/>
+      <c r="AA13" s="157"/>
+      <c r="AB13" s="157"/>
       <c r="AC13" s="90"/>
       <c r="AD13" s="90"/>
       <c r="AE13" s="90"/>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W14" s="162"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="162"/>
-      <c r="Z14" s="162"/>
-      <c r="AA14" s="162"/>
-      <c r="AB14" s="90"/>
+      <c r="AF13" s="90"/>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="X14" s="157"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="157"/>
+      <c r="AA14" s="157"/>
+      <c r="AB14" s="157"/>
       <c r="AC14" s="90"/>
       <c r="AD14" s="90"/>
       <c r="AE14" s="90"/>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="90"/>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
@@ -8282,19 +7742,20 @@
       <c r="T16" s="94"/>
       <c r="U16" s="94"/>
       <c r="V16" s="94"/>
-      <c r="W16" s="89" t="s">
+      <c r="W16" s="94"/>
+      <c r="X16" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="90"/>
+      <c r="Y16" s="89"/>
       <c r="Z16" s="90"/>
       <c r="AA16" s="90"/>
       <c r="AB16" s="90"/>
       <c r="AC16" s="90"/>
       <c r="AD16" s="90"/>
       <c r="AE16" s="90"/>
-    </row>
-    <row r="17" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF16" s="90"/>
+    </row>
+    <row r="17" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="52" t="s">
         <v>1</v>
       </c>
@@ -8305,28 +7766,28 @@
         <v>6</v>
       </c>
       <c r="E17" s="95" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F17" s="96" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="G17" s="96" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="H17" s="96" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="I17" s="96" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="J17" s="96" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="K17" s="96" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="L17" s="96" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="M17" s="95" t="s">
         <v>102</v>
@@ -8338,51 +7799,54 @@
         <v>104</v>
       </c>
       <c r="P17" s="95" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="R17" s="95" t="s">
         <v>157</v>
       </c>
-      <c r="R17" s="95" t="s">
-        <v>158</v>
-      </c>
       <c r="S17" s="95" t="s">
-        <v>150</v>
+        <v>266</v>
       </c>
       <c r="T17" s="95" t="s">
-        <v>259</v>
-      </c>
-      <c r="U17" s="163"/>
-      <c r="V17" s="163"/>
-      <c r="W17" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="U17" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="V17" s="158"/>
+      <c r="W17" s="158"/>
+      <c r="X17" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="X17" s="92" t="s">
+      <c r="Y17" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="Y17" s="91" t="s">
+      <c r="Z17" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="Z17" s="91" t="s">
+      <c r="AA17" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="AA17" s="91" t="s">
+      <c r="AB17" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="AB17" s="91" t="s">
+      <c r="AC17" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="AC17" s="91" t="s">
+      <c r="AD17" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="AD17" s="91" t="s">
+      <c r="AE17" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="AE17" s="91" t="s">
+      <c r="AF17" s="91" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:31" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="97" t="s">
         <v>39</v>
       </c>
@@ -8396,25 +7860,25 @@
         <v>105</v>
       </c>
       <c r="F18" s="97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G18" s="97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H18" s="97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I18" s="97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J18" s="97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K18" s="97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L18" s="97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M18" s="97" t="s">
         <v>106</v>
@@ -8426,88 +7890,111 @@
         <v>113</v>
       </c>
       <c r="P18" s="97" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="Q18" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="R18" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="R18" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="S18" s="97" t="s">
-        <v>151</v>
+      <c r="S18" s="98" t="s">
+        <v>267</v>
       </c>
       <c r="T18" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="U18" s="164"/>
-      <c r="V18" s="164"/>
-      <c r="W18" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="U18" s="97" t="s">
+        <v>247</v>
+      </c>
+      <c r="V18" s="159"/>
+      <c r="W18" s="159"/>
+      <c r="X18" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="X18" s="93" t="s">
+      <c r="Y18" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="Y18" s="93" t="s">
+      <c r="Z18" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="Z18" s="93" t="s">
+      <c r="AA18" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="AA18" s="93" t="s">
+      <c r="AB18" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="AB18" s="93" t="s">
+      <c r="AC18" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="AC18" s="93" t="s">
+      <c r="AD18" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="AD18" s="93" t="s">
+      <c r="AE18" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="AE18" s="93" t="s">
+      <c r="AF18" s="93" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:31" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:32" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="99" t="s">
         <v>87</v>
       </c>
       <c r="C19" s="99"/>
       <c r="D19" s="99"/>
       <c r="E19" s="100" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
+        <v>192</v>
+      </c>
+      <c r="F19" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="H19" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="I19" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="J19" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="K19" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="L19" s="100" t="s">
+        <v>208</v>
+      </c>
       <c r="M19" s="100" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N19" s="101" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O19" s="100" t="s">
         <v>108</v>
       </c>
       <c r="P19" s="100"/>
-      <c r="Q19" s="100"/>
-      <c r="R19" s="100"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="100" t="s">
-        <v>261</v>
-      </c>
-      <c r="U19" s="165"/>
-      <c r="V19" s="165"/>
-      <c r="W19" s="93" t="s">
+      <c r="Q19" s="100" t="s">
+        <v>265</v>
+      </c>
+      <c r="R19" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="S19" s="100" t="s">
+        <v>268</v>
+      </c>
+      <c r="T19" s="100"/>
+      <c r="U19" s="100" t="s">
+        <v>248</v>
+      </c>
+      <c r="V19" s="160"/>
+      <c r="W19" s="160"/>
+      <c r="X19" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="X19" s="93"/>
       <c r="Y19" s="93"/>
       <c r="Z19" s="93"/>
       <c r="AA19" s="93"/>
@@ -8515,10 +8002,11 @@
       <c r="AC19" s="93"/>
       <c r="AD19" s="93"/>
       <c r="AE19" s="93"/>
-    </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="93"/>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B20" s="88" t="str">
-        <f>Y$20</f>
+        <f>Z$20</f>
         <v>Kiln</v>
       </c>
       <c r="C20" s="88" t="str">
@@ -8526,64 +8014,69 @@
         <v>MANCOALMIN</v>
       </c>
       <c r="D20" s="90" t="str">
-        <f>Y8</f>
+        <f>Z8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="E20" s="105"/>
       <c r="F20" s="102">
         <v>0.59</v>
       </c>
-      <c r="G20" s="216"/>
-      <c r="H20" s="216"/>
-      <c r="I20" s="216"/>
-      <c r="J20" s="216"/>
-      <c r="K20" s="216"/>
-      <c r="L20" s="216"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="187"/>
+      <c r="K20" s="187"/>
+      <c r="L20" s="187"/>
       <c r="M20" s="103">
         <v>0.55000000000000004</v>
       </c>
       <c r="N20" s="103">
         <v>1</v>
       </c>
-      <c r="O20" s="124">
-        <v>30</v>
-      </c>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="104">
-        <v>1414</v>
-      </c>
-      <c r="R20" s="104"/>
-      <c r="S20" s="104">
+      <c r="O20" s="123">
+        <v>25</v>
+      </c>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="208">
+        <v>628.9</v>
+      </c>
+      <c r="R20" s="209">
+        <v>4.46</v>
+      </c>
+      <c r="S20" s="209">
+        <v>0.45</v>
+      </c>
+      <c r="T20" s="104">
         <v>8.76</v>
       </c>
-      <c r="T20" s="104"/>
-      <c r="U20" s="110"/>
+      <c r="U20" s="104"/>
       <c r="V20" s="110"/>
-      <c r="W20" s="150" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y20" s="88" t="s">
-        <v>142</v>
+      <c r="W20" s="110"/>
+      <c r="X20" s="148" t="s">
+        <v>218</v>
       </c>
       <c r="Z20" s="88" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA20" s="90" t="str">
+        <v>141</v>
+      </c>
+      <c r="AA20" s="88" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB20" s="90" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="AB20" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC20" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD20" s="162"/>
-      <c r="AE20" s="90"/>
-    </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AC20" s="90" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD20" s="157" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE20" s="157"/>
+      <c r="AF20" s="90"/>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B21" s="88" t="str">
-        <f>Y$20</f>
+        <f>Z$20</f>
         <v>Kiln</v>
       </c>
       <c r="C21" s="88" t="str">
@@ -8591,7 +8084,7 @@
         <v>MANCOALIMP</v>
       </c>
       <c r="D21" s="90" t="str">
-        <f>Y$8</f>
+        <f>Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="E21" s="105"/>
@@ -8622,45 +8115,50 @@
       <c r="N21" s="103">
         <v>1</v>
       </c>
-      <c r="O21" s="124">
-        <v>30</v>
-      </c>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="104">
-        <v>1515</v>
-      </c>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104">
+      <c r="O21" s="123">
+        <v>25</v>
+      </c>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="208">
+        <v>628.9</v>
+      </c>
+      <c r="R21" s="209">
+        <v>4.46</v>
+      </c>
+      <c r="S21" s="209">
+        <v>0.45</v>
+      </c>
+      <c r="T21" s="104">
         <v>8.76</v>
       </c>
-      <c r="T21" s="104"/>
-      <c r="U21" s="110"/>
+      <c r="U21" s="104"/>
       <c r="V21" s="110"/>
-      <c r="W21" s="150" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y21" s="88" t="s">
+      <c r="W21" s="110"/>
+      <c r="X21" s="148" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z21" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA21" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="Z21" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA21" s="90" t="str">
+      <c r="AB21" s="90" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="AB21" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC21" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD21" s="162"/>
-      <c r="AE21" s="90"/>
-    </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AC21" s="90" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD21" s="157" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE21" s="157"/>
+      <c r="AF21" s="90"/>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B22" s="88" t="str">
-        <f>Y$21</f>
+        <f>Z$21</f>
         <v>Boiler</v>
       </c>
       <c r="C22" s="88" t="str">
@@ -8668,7 +8166,7 @@
         <v>MANOILIMP</v>
       </c>
       <c r="D22" s="90" t="str">
-        <f>Y$5</f>
+        <f>Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="E22" s="105"/>
@@ -8700,41 +8198,46 @@
         <v>1</v>
       </c>
       <c r="O22" s="104">
-        <v>30</v>
-      </c>
-      <c r="P22" s="124"/>
-      <c r="Q22" s="104">
-        <v>1515</v>
-      </c>
-      <c r="R22" s="104"/>
-      <c r="S22" s="104">
+        <v>25</v>
+      </c>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="208">
+        <v>62.9</v>
+      </c>
+      <c r="R22" s="209">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S22" s="209">
+        <v>1.82</v>
+      </c>
+      <c r="T22" s="104">
         <v>8.76</v>
       </c>
-      <c r="T22" s="104"/>
-      <c r="U22" s="110"/>
+      <c r="U22" s="104"/>
       <c r="V22" s="110"/>
-      <c r="W22" s="88" t="s">
+      <c r="W22" s="110"/>
+      <c r="X22" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="Y22" s="150" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z22" s="88" t="s">
-        <v>200</v>
+      <c r="Z22" s="148" t="s">
+        <v>151</v>
       </c>
       <c r="AA22" s="88" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="AB22" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC22" s="156" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="2:31" s="146" customFormat="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="AC22" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD22" s="154" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="94" t="str">
-        <f>Y22</f>
+        <f>Z22</f>
         <v>MANELC</v>
       </c>
       <c r="C23" s="94" t="str">
@@ -8742,225 +8245,230 @@
         <v>ELC</v>
       </c>
       <c r="D23" s="90" t="str">
-        <f>Y6</f>
+        <f>Z6</f>
         <v>MANELC</v>
       </c>
       <c r="E23" s="105"/>
-      <c r="F23" s="149">
+      <c r="F23" s="147">
         <v>1</v>
       </c>
-      <c r="G23" s="149">
+      <c r="G23" s="147">
         <v>1</v>
       </c>
-      <c r="H23" s="149">
+      <c r="H23" s="147">
         <v>1</v>
       </c>
-      <c r="I23" s="149">
+      <c r="I23" s="147">
         <v>1</v>
       </c>
-      <c r="J23" s="149">
+      <c r="J23" s="147">
         <v>1</v>
       </c>
-      <c r="K23" s="149">
+      <c r="K23" s="147">
         <v>1</v>
       </c>
-      <c r="L23" s="149">
+      <c r="L23" s="147">
         <v>1</v>
       </c>
-      <c r="M23" s="146">
+      <c r="M23" s="144">
         <v>1</v>
       </c>
-      <c r="N23" s="146">
+      <c r="N23" s="144">
         <v>1</v>
       </c>
-      <c r="O23" s="146">
+      <c r="O23" s="144">
         <v>50</v>
       </c>
       <c r="R23" s="104"/>
-      <c r="S23" s="104">
+      <c r="S23" s="104"/>
+      <c r="T23" s="104">
         <v>8.76</v>
       </c>
-      <c r="T23" s="104"/>
-      <c r="W23" s="146" t="s">
+      <c r="U23" s="104"/>
+      <c r="X23" s="144" t="s">
         <v>109</v>
       </c>
-      <c r="Y23" s="146" t="s">
-        <v>269</v>
-      </c>
-      <c r="Z23" s="146" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA23" s="88" t="s">
-        <v>149</v>
+      <c r="Z23" s="144" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA23" s="144" t="s">
+        <v>213</v>
       </c>
       <c r="AB23" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC23" s="156" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="2:31" s="146" customFormat="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="AC23" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD23" s="154" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="147"/>
-      <c r="D24" s="162" t="s">
-        <v>258</v>
-      </c>
-      <c r="E24" s="148"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="149"/>
-      <c r="L24" s="149"/>
+        <v>141</v>
+      </c>
+      <c r="C24" s="145"/>
+      <c r="D24" s="157" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" s="146"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="147"/>
       <c r="R24" s="104"/>
       <c r="S24" s="104"/>
-      <c r="T24" s="104">
+      <c r="T24" s="104"/>
+      <c r="U24" s="104">
         <v>0.34100000000000003</v>
       </c>
-      <c r="AA24" s="94"/>
       <c r="AB24" s="94"/>
-    </row>
-    <row r="25" spans="2:31" s="146" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC24" s="94"/>
+    </row>
+    <row r="25" spans="2:32" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="162" t="s">
-        <v>258</v>
-      </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
+        <v>143</v>
+      </c>
+      <c r="C25" s="145"/>
+      <c r="D25" s="157" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="146"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
       <c r="R25" s="104"/>
       <c r="S25" s="104"/>
-      <c r="T25" s="104">
+      <c r="T25" s="104"/>
+      <c r="U25" s="104">
         <v>0.25900000000000001</v>
       </c>
-      <c r="AA25" s="94"/>
       <c r="AB25" s="94"/>
-    </row>
-    <row r="26" spans="2:31" s="146" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC25" s="94"/>
+    </row>
+    <row r="26" spans="2:32" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="94"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="147"/>
       <c r="R26" s="110"/>
       <c r="S26" s="110"/>
       <c r="T26" s="110"/>
-      <c r="AA26" s="94"/>
+      <c r="U26" s="110"/>
       <c r="AB26" s="94"/>
-    </row>
-    <row r="27" spans="2:31" s="146" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC26" s="94"/>
+    </row>
+    <row r="27" spans="2:32" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="94"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="147"/>
       <c r="R27" s="110"/>
       <c r="S27" s="110"/>
       <c r="T27" s="110"/>
-      <c r="AA27" s="94"/>
+      <c r="U27" s="110"/>
       <c r="AB27" s="94"/>
-    </row>
-    <row r="28" spans="2:31" s="146" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="W28" s="146" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y28" s="146" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z28" s="146" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA28" s="94" t="s">
-        <v>149</v>
+      <c r="AC27" s="94"/>
+    </row>
+    <row r="28" spans="2:32" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X28" s="144" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z28" s="144" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA28" s="144" t="s">
+        <v>216</v>
       </c>
       <c r="AB28" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC28" s="157"/>
-    </row>
-    <row r="29" spans="2:31" s="146" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="AB29" s="94"/>
-    </row>
-    <row r="30" spans="2:31" s="110" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="150"/>
+        <v>148</v>
+      </c>
+      <c r="AC28" s="94" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD28" s="155"/>
+    </row>
+    <row r="29" spans="2:32" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC29" s="94"/>
+    </row>
+    <row r="30" spans="2:32" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="148"/>
       <c r="C30" s="90"/>
       <c r="D30" s="90"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="146"/>
-    </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B31" s="150"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="147"/>
+      <c r="M30" s="144"/>
+      <c r="N30" s="144"/>
+      <c r="O30" s="144"/>
+      <c r="P30" s="144"/>
+      <c r="Q30" s="144"/>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B31" s="148"/>
       <c r="C31" s="90"/>
       <c r="D31" s="90"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="146"/>
-    </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B32" s="150"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="147"/>
+      <c r="M31" s="144"/>
+      <c r="N31" s="144"/>
+      <c r="O31" s="144"/>
+      <c r="P31" s="144"/>
+      <c r="Q31" s="144"/>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B32" s="148"/>
       <c r="C32" s="90"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="E33" s="150"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="144"/>
+      <c r="O32" s="144"/>
+      <c r="P32" s="144"/>
+      <c r="Q32" s="144"/>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="E33" s="148"/>
       <c r="F33" s="106"/>
       <c r="G33" s="106"/>
       <c r="H33" s="106"/>
@@ -8968,14 +8476,14 @@
       <c r="J33" s="106"/>
       <c r="K33" s="106"/>
       <c r="L33" s="106"/>
-      <c r="N33" s="173"/>
-      <c r="Q33" s="173"/>
-      <c r="AA33" s="90"/>
+      <c r="N33" s="168"/>
+      <c r="Q33" s="168"/>
       <c r="AB33" s="90"/>
-      <c r="AC33" s="156"/>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="E34" s="150"/>
+      <c r="AC33" s="90"/>
+      <c r="AD33" s="154"/>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="E34" s="148"/>
       <c r="F34" s="106"/>
       <c r="G34" s="106"/>
       <c r="H34" s="106"/>
@@ -8983,15 +8491,15 @@
       <c r="J34" s="106"/>
       <c r="K34" s="106"/>
       <c r="L34" s="106"/>
-      <c r="N34" s="173"/>
-      <c r="Q34" s="173"/>
-      <c r="X34" s="110"/>
-      <c r="Z34" s="110"/>
-      <c r="AA34" s="111"/>
+      <c r="N34" s="168"/>
+      <c r="Q34" s="168"/>
+      <c r="Y34" s="110"/>
+      <c r="AA34" s="110"/>
       <c r="AB34" s="111"/>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="E35" s="150"/>
+      <c r="AC34" s="111"/>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="E35" s="148"/>
       <c r="F35" s="106"/>
       <c r="G35" s="106"/>
       <c r="H35" s="106"/>
@@ -9000,123 +8508,125 @@
       <c r="K35" s="106"/>
       <c r="L35" s="106"/>
       <c r="N35" s="107"/>
-      <c r="Q35" s="173"/>
-    </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="E36" s="150"/>
+      <c r="Q35" s="168"/>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="E36" s="148"/>
       <c r="N36" s="107"/>
       <c r="O36" s="106"/>
-      <c r="Q36" s="173"/>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="Q36" s="168"/>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="104"/>
       <c r="C37" s="88" t="s">
         <v>97</v>
       </c>
       <c r="N37" s="107"/>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B38" s="108"/>
       <c r="C38" s="88" t="s">
         <v>98</v>
       </c>
       <c r="N38" s="107"/>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="N39" s="107"/>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="E42" s="21"/>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B45" s="94" t="str">
-        <f>Y28</f>
+        <f>Z28</f>
         <v>PHEAT</v>
       </c>
-      <c r="C45" s="147" t="str">
+      <c r="C45" s="145" t="str">
         <f>DemTechs_INDF!D20</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="D45" s="90" t="str">
-        <f>Y10</f>
+        <f>Z10</f>
         <v>MANHEAT</v>
       </c>
-      <c r="E45" s="148"/>
-      <c r="F45" s="149"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="149"/>
-      <c r="J45" s="149"/>
-      <c r="K45" s="149"/>
-      <c r="L45" s="149"/>
-      <c r="M45" s="146"/>
-      <c r="N45" s="146"/>
-      <c r="O45" s="146"/>
-      <c r="P45" s="146"/>
-      <c r="Q45" s="146"/>
-      <c r="R45" s="146"/>
-      <c r="S45" s="146">
+      <c r="E45" s="146"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="147"/>
+      <c r="J45" s="147"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="147"/>
+      <c r="M45" s="144"/>
+      <c r="N45" s="144"/>
+      <c r="O45" s="144"/>
+      <c r="P45" s="144"/>
+      <c r="Q45" s="144"/>
+      <c r="R45" s="144"/>
+      <c r="S45" s="144"/>
+      <c r="T45" s="144">
         <v>8.76</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B46" s="94" t="str">
-        <f>Y28</f>
+        <f>Z28</f>
         <v>PHEAT</v>
       </c>
-      <c r="C46" s="147" t="str">
+      <c r="C46" s="145" t="str">
         <f>D22</f>
         <v>MANHEAT</v>
       </c>
       <c r="D46" s="90" t="str">
-        <f>Y10</f>
+        <f>Z10</f>
         <v>MANHEAT</v>
       </c>
-      <c r="E46" s="148"/>
-      <c r="F46" s="149"/>
-      <c r="G46" s="149"/>
-      <c r="H46" s="149"/>
-      <c r="I46" s="149"/>
-      <c r="J46" s="149"/>
-      <c r="K46" s="149"/>
-      <c r="L46" s="149"/>
-      <c r="M46" s="146"/>
-      <c r="N46" s="146"/>
-      <c r="O46" s="146"/>
-      <c r="P46" s="146"/>
-      <c r="Q46" s="146"/>
-      <c r="R46" s="146"/>
-      <c r="S46" s="146">
+      <c r="E46" s="146"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="147"/>
+      <c r="J46" s="147"/>
+      <c r="K46" s="147"/>
+      <c r="L46" s="147"/>
+      <c r="M46" s="144"/>
+      <c r="N46" s="144"/>
+      <c r="O46" s="144"/>
+      <c r="P46" s="144"/>
+      <c r="Q46" s="144"/>
+      <c r="R46" s="144"/>
+      <c r="S46" s="144"/>
+      <c r="T46" s="144">
         <v>8.76</v>
       </c>
     </row>
     <row r="50" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H50" s="214"/>
-      <c r="I50" s="215"/>
+      <c r="H50" s="185"/>
+      <c r="I50" s="186"/>
     </row>
     <row r="53" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G53" s="150"/>
-      <c r="I53" s="150"/>
+      <c r="G53" s="148"/>
+      <c r="I53" s="148"/>
     </row>
     <row r="54" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G54" s="150"/>
+      <c r="G54" s="148"/>
     </row>
     <row r="55" spans="6:9" s="94" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H55" s="148"/>
+      <c r="H55" s="146"/>
     </row>
     <row r="56" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
+      <c r="F56" s="148"/>
+      <c r="G56" s="148"/>
     </row>
     <row r="58" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F58" s="150"/>
+      <c r="F58" s="148"/>
     </row>
     <row r="59" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F59" s="150"/>
+      <c r="F59" s="148"/>
       <c r="H59" s="105"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9128,8 +8638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:AB59"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView topLeftCell="A6" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9146,8 +8656,10 @@
     <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
     <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.42578125" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -9178,16 +8690,16 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="str">
-        <f>EBF!Q2</f>
+        <f>EBF!P2</f>
         <v>GWh</v>
       </c>
       <c r="F2" s="7" t="str">
-        <f>EBF!P2</f>
-        <v>TH$2022</v>
+        <f>EBF!O2</f>
+        <v>TH$2024</v>
       </c>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="K3" s="140"/>
+      <c r="K3" s="138"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C5" s="115" t="s">
@@ -9198,13 +8710,13 @@
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B6" s="114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="114" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="114" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="114">
         <v>2022</v>
@@ -9227,9 +8739,9 @@
       <c r="K6" s="114">
         <v>2050</v>
       </c>
-      <c r="L6" s="229"/>
-      <c r="M6" s="188"/>
-      <c r="N6" s="120"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="119"/>
       <c r="Q6" s="115" t="s">
         <v>13</v>
       </c>
@@ -9248,174 +8760,174 @@
         <v>81</v>
       </c>
       <c r="C7" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="117" t="s">
+      <c r="E7" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="117" t="s">
-        <v>165</v>
-      </c>
       <c r="F7" s="117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G7" s="117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H7" s="117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I7" s="117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J7" s="117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K7" s="117" t="s">
-        <v>165</v>
-      </c>
-      <c r="L7" s="187"/>
-      <c r="M7" s="188"/>
-      <c r="N7" s="121"/>
+        <v>164</v>
+      </c>
+      <c r="L7" s="181"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="120"/>
       <c r="O7" s="114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P7" s="114" t="s">
         <v>0</v>
       </c>
       <c r="Q7" s="114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R7" s="114">
         <v>2022</v>
       </c>
       <c r="T7" s="114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U7" s="114" t="s">
         <v>0</v>
       </c>
       <c r="V7" s="114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W7" s="114">
         <v>2022</v>
       </c>
       <c r="Y7" s="114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z7" s="114" t="s">
         <v>0</v>
       </c>
       <c r="AA7" s="114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB7" s="114">
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:28" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="116" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="116"/>
       <c r="D8" s="116"/>
       <c r="E8" s="116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F8" s="116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G8" s="116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H8" s="116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I8" s="116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J8" s="116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K8" s="116" t="s">
-        <v>149</v>
-      </c>
-      <c r="L8" s="187"/>
-      <c r="M8" s="188"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="123" t="s">
+        <v>148</v>
+      </c>
+      <c r="L8" s="181"/>
+      <c r="M8" s="182"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="P8" s="123" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="T8" s="123" t="s">
+      <c r="P8" s="122" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="T8" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="U8" s="123" t="s">
-        <v>163</v>
-      </c>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="Y8" s="123" t="s">
+      <c r="U8" s="122" t="s">
+        <v>162</v>
+      </c>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="Y8" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="Z8" s="123" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA8" s="123"/>
-      <c r="AB8" s="123"/>
+      <c r="Z8" s="122" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA8" s="122"/>
+      <c r="AB8" s="122"/>
     </row>
     <row r="9" spans="2:28" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="186" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="186" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" s="186" t="s">
-        <v>149</v>
+      <c r="B9" s="180" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="180" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="180" t="s">
+        <v>148</v>
       </c>
       <c r="E9" s="47">
         <f>EBF!E18</f>
         <v>2605.1202084096003</v>
       </c>
-      <c r="F9" s="222">
+      <c r="F9" s="193">
         <f>F17*F19</f>
         <v>2947.4068593535344</v>
       </c>
-      <c r="G9" s="222">
+      <c r="G9" s="193">
         <f t="shared" ref="G9:K9" si="0">G17*G19</f>
         <v>3531.3514338177761</v>
       </c>
-      <c r="H9" s="222">
+      <c r="H9" s="193">
         <f t="shared" si="0"/>
         <v>4115.5297575067134</v>
       </c>
-      <c r="I9" s="222">
+      <c r="I9" s="193">
         <f t="shared" si="0"/>
         <v>4687.4763817634248</v>
       </c>
-      <c r="J9" s="222">
+      <c r="J9" s="193">
         <f t="shared" si="0"/>
         <v>5242.5750443827874</v>
       </c>
-      <c r="K9" s="222">
+      <c r="K9" s="193">
         <f t="shared" si="0"/>
         <v>5782.3142883856781</v>
       </c>
-      <c r="L9" s="187"/>
-      <c r="M9" s="230"/>
-      <c r="N9" s="176"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="171"/>
       <c r="O9" s="9" t="s">
         <v>87</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R9" s="9"/>
       <c r="T9" s="9" t="s">
@@ -9423,7 +8935,7 @@
       </c>
       <c r="U9" s="9"/>
       <c r="V9" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W9" s="9"/>
       <c r="Y9" s="9" t="s">
@@ -9431,1049 +8943,1048 @@
       </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB9" s="9"/>
     </row>
     <row r="10" spans="2:28" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="186" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="186" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="186" t="s">
-        <v>149</v>
+      <c r="B10" s="180" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="180" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="180" t="s">
+        <v>148</v>
       </c>
       <c r="E10" s="47">
         <f>EBF!J18</f>
         <v>2861.5612011470998</v>
       </c>
-      <c r="F10" s="222">
+      <c r="F10" s="193">
         <f>F17*F20</f>
         <v>3318.1076531301678</v>
       </c>
-      <c r="G10" s="222">
+      <c r="G10" s="193">
         <f t="shared" ref="G10:K10" si="1">G17*G20</f>
         <v>4142.2574692157614</v>
       </c>
-      <c r="H10" s="222">
+      <c r="H10" s="193">
         <f t="shared" si="1"/>
         <v>5029.9962755546021</v>
       </c>
-      <c r="I10" s="222">
+      <c r="I10" s="193">
         <f t="shared" si="1"/>
         <v>5969.346339495607</v>
       </c>
-      <c r="J10" s="222">
+      <c r="J10" s="193">
         <f t="shared" si="1"/>
         <v>6956.2968729223376</v>
       </c>
-      <c r="K10" s="222">
+      <c r="K10" s="193">
         <f t="shared" si="1"/>
         <v>7994.3086724659179</v>
       </c>
-      <c r="L10" s="187"/>
-      <c r="M10" s="230"/>
-      <c r="N10" s="176"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="201"/>
+      <c r="N10" s="171"/>
       <c r="O10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P10" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q10" s="150" t="s">
-        <v>234</v>
-      </c>
-      <c r="R10" s="231">
+      <c r="Q10" s="148" t="s">
+        <v>221</v>
+      </c>
+      <c r="R10" s="202">
         <v>3.1580002137548593E-2</v>
       </c>
-      <c r="S10" s="232"/>
+      <c r="S10" s="203"/>
       <c r="T10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U10" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V10" s="150" t="s">
-        <v>234</v>
-      </c>
-      <c r="W10" s="231">
+      <c r="V10" s="148" t="s">
+        <v>221</v>
+      </c>
+      <c r="W10" s="202">
         <v>3.1580002137548593E-2</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z10" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA10" s="150" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB10" s="231">
+      <c r="AA10" s="148" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB10" s="202">
         <v>3.1580002137548593E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:28" s="166" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="186" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="186" t="s">
-        <v>269</v>
-      </c>
-      <c r="D11" s="186" t="s">
-        <v>149</v>
+    <row r="11" spans="2:28" s="161" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="180" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="180" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="180" t="s">
+        <v>148</v>
       </c>
       <c r="E11" s="47">
         <f>EBF!D18</f>
         <v>7676.2275585426005</v>
       </c>
-      <c r="F11" s="222">
+      <c r="F11" s="193">
         <f>F17*F21</f>
         <v>10981.845367938809</v>
       </c>
-      <c r="G11" s="222">
+      <c r="G11" s="193">
         <f t="shared" ref="G11:K11" si="2">G17*G21</f>
         <v>19455.852253151803</v>
       </c>
-      <c r="H11" s="222">
+      <c r="H11" s="193">
         <f t="shared" si="2"/>
         <v>33528.116062179717</v>
       </c>
-      <c r="I11" s="222">
+      <c r="I11" s="193">
         <f t="shared" si="2"/>
         <v>56467.242854129028</v>
       </c>
-      <c r="J11" s="222">
+      <c r="J11" s="193">
         <f t="shared" si="2"/>
         <v>93384.808269005094</v>
       </c>
-      <c r="K11" s="222">
+      <c r="K11" s="193">
         <f t="shared" si="2"/>
         <v>152302.6129454516</v>
       </c>
-      <c r="L11" s="187"/>
-      <c r="M11" s="230"/>
-      <c r="N11" s="187"/>
+      <c r="L11" s="181"/>
+      <c r="M11" s="201"/>
+      <c r="N11" s="181"/>
       <c r="O11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P11" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q11" s="212" t="s">
-        <v>235</v>
-      </c>
-      <c r="R11" s="231">
+      <c r="Q11" s="183" t="s">
+        <v>222</v>
+      </c>
+      <c r="R11" s="202">
         <v>3.1850630527954941E-2</v>
       </c>
-      <c r="S11" s="233"/>
+      <c r="S11" s="204"/>
       <c r="T11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U11" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V11" s="212" t="s">
-        <v>235</v>
-      </c>
-      <c r="W11" s="231">
+      <c r="V11" s="183" t="s">
+        <v>222</v>
+      </c>
+      <c r="W11" s="202">
         <v>3.1850630527954941E-2</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z11" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA11" s="212" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB11" s="231">
+      <c r="AA11" s="183" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB11" s="202">
         <v>3.1850630527954941E-2</v>
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="187"/>
-      <c r="M12" s="188"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="181"/>
+      <c r="M12" s="182"/>
       <c r="O12" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P12" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q12" s="150" t="s">
-        <v>236</v>
-      </c>
-      <c r="R12" s="231">
+      <c r="Q12" s="148" t="s">
+        <v>223</v>
+      </c>
+      <c r="R12" s="202">
         <v>3.1481989955747081E-2</v>
       </c>
-      <c r="S12" s="220"/>
+      <c r="S12" s="191"/>
       <c r="T12" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U12" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V12" s="150" t="s">
-        <v>236</v>
-      </c>
-      <c r="W12" s="231">
+      <c r="V12" s="148" t="s">
+        <v>223</v>
+      </c>
+      <c r="W12" s="202">
         <v>3.1481989955747081E-2</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z12" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA12" s="150" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB12" s="231">
+      <c r="AA12" s="148" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB12" s="202">
         <v>3.1481989955747081E-2</v>
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B13" s="187"/>
-      <c r="C13" s="187"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="224"/>
-      <c r="F13" s="224"/>
-      <c r="G13" s="224"/>
-      <c r="H13" s="224"/>
-      <c r="I13" s="224"/>
-      <c r="J13" s="224"/>
-      <c r="K13" s="224"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="188"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="195"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="195"/>
+      <c r="K13" s="195"/>
+      <c r="L13" s="181"/>
+      <c r="M13" s="182"/>
       <c r="O13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P13" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q13" s="212" t="s">
-        <v>237</v>
-      </c>
-      <c r="R13" s="231">
+      <c r="Q13" s="183" t="s">
+        <v>224</v>
+      </c>
+      <c r="R13" s="202">
         <v>3.1731466950130557E-2</v>
       </c>
-      <c r="S13" s="220"/>
+      <c r="S13" s="191"/>
       <c r="T13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U13" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V13" s="212" t="s">
-        <v>237</v>
-      </c>
-      <c r="W13" s="231">
+      <c r="V13" s="183" t="s">
+        <v>224</v>
+      </c>
+      <c r="W13" s="202">
         <v>3.1731466950130557E-2</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z13" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA13" s="212" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB13" s="231">
+      <c r="AA13" s="183" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB13" s="202">
         <v>3.1731466950130557E-2</v>
       </c>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="224"/>
-      <c r="H14" s="224"/>
-      <c r="I14" s="224"/>
-      <c r="J14" s="224"/>
-      <c r="K14" s="224"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="188"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="195"/>
+      <c r="K14" s="195"/>
+      <c r="L14" s="181"/>
+      <c r="M14" s="182"/>
       <c r="O14" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P14" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q14" s="150" t="s">
-        <v>238</v>
-      </c>
-      <c r="R14" s="231">
+      <c r="Q14" s="148" t="s">
+        <v>225</v>
+      </c>
+      <c r="R14" s="202">
         <v>3.1860835358240212E-2</v>
       </c>
-      <c r="S14" s="220"/>
+      <c r="S14" s="191"/>
       <c r="T14" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U14" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V14" s="150" t="s">
-        <v>238</v>
-      </c>
-      <c r="W14" s="231">
+      <c r="V14" s="148" t="s">
+        <v>225</v>
+      </c>
+      <c r="W14" s="202">
         <v>3.1860835358240212E-2</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z14" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA14" s="150" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB14" s="231">
+      <c r="AA14" s="148" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB14" s="202">
         <v>3.1860835358240212E-2</v>
       </c>
     </row>
     <row r="15" spans="2:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="225"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="225"/>
-      <c r="E15" s="226"/>
-      <c r="F15" s="226"/>
-      <c r="G15" s="226"/>
-      <c r="H15" s="226"/>
-      <c r="I15" s="226"/>
-      <c r="J15" s="226"/>
-      <c r="K15" s="226"/>
-      <c r="L15" s="227"/>
-      <c r="M15" s="228"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="197"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="197"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="199"/>
       <c r="O15" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P15" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q15" s="212" t="s">
-        <v>239</v>
-      </c>
-      <c r="R15" s="231">
+      <c r="Q15" s="183" t="s">
+        <v>226</v>
+      </c>
+      <c r="R15" s="202">
         <v>3.2394250106746E-2</v>
       </c>
-      <c r="S15" s="220"/>
+      <c r="S15" s="191"/>
       <c r="T15" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U15" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V15" s="212" t="s">
-        <v>239</v>
-      </c>
-      <c r="W15" s="231">
+      <c r="V15" s="183" t="s">
+        <v>226</v>
+      </c>
+      <c r="W15" s="202">
         <v>3.2394250106746E-2</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z15" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA15" s="212" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB15" s="231">
+      <c r="AA15" s="183" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB15" s="202">
         <v>3.2394250106746E-2</v>
       </c>
     </row>
     <row r="16" spans="2:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="225"/>
-      <c r="C16" s="225"/>
-      <c r="D16" s="225"/>
-      <c r="E16" s="226"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="226"/>
-      <c r="H16" s="226"/>
-      <c r="I16" s="226"/>
-      <c r="J16" s="226"/>
-      <c r="K16" s="226"/>
-      <c r="L16" s="227"/>
-      <c r="M16" s="236" t="s">
-        <v>275</v>
+      <c r="B16" s="196"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="198"/>
+      <c r="M16" s="207" t="s">
+        <v>262</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P16" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q16" s="150" t="s">
-        <v>240</v>
-      </c>
-      <c r="R16" s="231">
+      <c r="Q16" s="148" t="s">
+        <v>227</v>
+      </c>
+      <c r="R16" s="202">
         <v>3.241825303092484E-2</v>
       </c>
-      <c r="S16" s="220"/>
+      <c r="S16" s="191"/>
       <c r="T16" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U16" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V16" s="150" t="s">
-        <v>240</v>
-      </c>
-      <c r="W16" s="231">
+      <c r="V16" s="148" t="s">
+        <v>227</v>
+      </c>
+      <c r="W16" s="202">
         <v>3.241825303092484E-2</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z16" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA16" s="150" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB16" s="231">
+      <c r="AA16" s="148" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB16" s="202">
         <v>3.241825303092484E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="E17" s="47">
         <f>E9+E10+E11</f>
         <v>13142.908968099302</v>
       </c>
-      <c r="F17" s="221">
+      <c r="F17" s="192">
         <f t="shared" ref="F17:K17" si="3">$E17*(1+$M17)^(F6-$E6)</f>
         <v>17247.359880422511</v>
       </c>
-      <c r="G17" s="221">
+      <c r="G17" s="192">
         <f t="shared" si="3"/>
         <v>27129.461156185345</v>
       </c>
-      <c r="H17" s="221">
+      <c r="H17" s="192">
         <f t="shared" si="3"/>
         <v>42673.642095241041</v>
       </c>
-      <c r="I17" s="221">
+      <c r="I17" s="192">
         <f t="shared" si="3"/>
         <v>67124.065575388056</v>
       </c>
-      <c r="J17" s="221">
+      <c r="J17" s="192">
         <f t="shared" si="3"/>
         <v>105583.68018631023</v>
       </c>
-      <c r="K17" s="221">
+      <c r="K17" s="192">
         <f t="shared" si="3"/>
         <v>166079.23590630319</v>
       </c>
-      <c r="M17" s="234">
+      <c r="M17" s="205">
         <v>9.4822485813413682E-2</v>
       </c>
       <c r="O17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P17" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q17" t="s">
-        <v>241</v>
-      </c>
-      <c r="R17" s="231">
+        <v>228</v>
+      </c>
+      <c r="R17" s="202">
         <v>3.5569395862328948E-2</v>
       </c>
-      <c r="S17" s="220"/>
+      <c r="S17" s="191"/>
       <c r="T17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U17" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V17" t="s">
-        <v>241</v>
-      </c>
-      <c r="W17" s="231">
+        <v>228</v>
+      </c>
+      <c r="W17" s="202">
         <v>3.5569395862328948E-2</v>
       </c>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z17" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA17" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB17" s="231">
+        <v>228</v>
+      </c>
+      <c r="AB17" s="202">
         <v>3.5569395862328948E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="235"/>
-      <c r="F18" s="235"/>
-      <c r="G18" s="235"/>
-      <c r="H18" s="235"/>
-      <c r="I18" s="235"/>
-      <c r="J18" s="235"/>
-      <c r="K18" s="235"/>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="E18" s="206"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="206"/>
+      <c r="K18" s="206"/>
       <c r="O18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P18" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q18" s="150" t="s">
-        <v>242</v>
-      </c>
-      <c r="R18" s="231">
+      <c r="Q18" s="148" t="s">
+        <v>229</v>
+      </c>
+      <c r="R18" s="202">
         <v>5.0064684062236839E-2</v>
       </c>
-      <c r="S18" s="220"/>
+      <c r="S18" s="191"/>
       <c r="T18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U18" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V18" s="150" t="s">
-        <v>242</v>
-      </c>
-      <c r="W18" s="231">
+      <c r="V18" s="148" t="s">
+        <v>229</v>
+      </c>
+      <c r="W18" s="202">
         <v>5.0064684062236839E-2</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z18" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA18" s="150" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB18" s="231">
+      <c r="AA18" s="148" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB18" s="202">
         <v>5.0064684062236839E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="118"/>
-      <c r="C19" s="133" t="s">
-        <v>274</v>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>261</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
-      </c>
-      <c r="E19" s="234">
+        <v>214</v>
+      </c>
+      <c r="E19" s="205">
         <v>0.19822057738765797</v>
       </c>
-      <c r="F19" s="234">
+      <c r="F19" s="205">
         <v>0.17089032059330644</v>
       </c>
-      <c r="G19" s="234">
+      <c r="G19" s="205">
         <v>0.13016666322591705</v>
       </c>
-      <c r="H19" s="234">
+      <c r="H19" s="205">
         <v>9.6441961722448732E-2</v>
       </c>
-      <c r="I19" s="234">
+      <c r="I19" s="205">
         <v>6.9833022502173214E-2</v>
       </c>
-      <c r="J19" s="234">
+      <c r="J19" s="205">
         <v>4.9653270610873525E-2</v>
       </c>
-      <c r="K19" s="234">
+      <c r="K19" s="205">
         <v>3.4816599780407721E-2</v>
       </c>
       <c r="O19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P19" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q19" t="s">
-        <v>243</v>
-      </c>
-      <c r="R19" s="231">
+        <v>230</v>
+      </c>
+      <c r="R19" s="202">
         <v>6.1132650490749271E-2</v>
       </c>
-      <c r="S19" s="220"/>
+      <c r="S19" s="191"/>
       <c r="T19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U19" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V19" t="s">
-        <v>243</v>
-      </c>
-      <c r="W19" s="231">
+        <v>230</v>
+      </c>
+      <c r="W19" s="202">
         <v>6.1132650490749271E-2</v>
       </c>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z19" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA19" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB19" s="231">
+        <v>230</v>
+      </c>
+      <c r="AB19" s="202">
         <v>6.1132650490749271E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="133" t="s">
-        <v>274</v>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>261</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="234">
+        <v>151</v>
+      </c>
+      <c r="E20" s="205">
         <v>0.21771665775440627</v>
       </c>
-      <c r="F20" s="234">
+      <c r="F20" s="205">
         <v>0.19238351122345129</v>
       </c>
-      <c r="G20" s="234">
+      <c r="G20" s="205">
         <v>0.15268484122735157</v>
       </c>
-      <c r="H20" s="234">
+      <c r="H20" s="205">
         <v>0.11787126733472666</v>
       </c>
-      <c r="I20" s="234">
+      <c r="I20" s="205">
         <v>8.8930047492301309E-2</v>
       </c>
-      <c r="J20" s="234">
+      <c r="J20" s="205">
         <v>6.5884205406057411E-2</v>
       </c>
-      <c r="K20" s="234">
+      <c r="K20" s="205">
         <v>4.8135509709209295E-2</v>
       </c>
       <c r="O20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P20" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q20" t="s">
-        <v>244</v>
-      </c>
-      <c r="R20" s="231">
+        <v>231</v>
+      </c>
+      <c r="R20" s="202">
         <v>6.011628522297266E-2</v>
       </c>
-      <c r="S20" s="220"/>
+      <c r="S20" s="191"/>
       <c r="T20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U20" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V20" t="s">
-        <v>244</v>
-      </c>
-      <c r="W20" s="231">
+        <v>231</v>
+      </c>
+      <c r="W20" s="202">
         <v>6.011628522297266E-2</v>
       </c>
       <c r="Y20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z20" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA20" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB20" s="231">
+        <v>231</v>
+      </c>
+      <c r="AB20" s="202">
         <v>6.011628522297266E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C21" s="133" t="s">
-        <v>274</v>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>261</v>
       </c>
       <c r="D21" t="s">
-        <v>269</v>
-      </c>
-      <c r="E21" s="234">
+        <v>256</v>
+      </c>
+      <c r="E21" s="205">
         <v>0.58406276485793585</v>
       </c>
-      <c r="F21" s="234">
+      <c r="F21" s="205">
         <v>0.63672616818324224</v>
       </c>
-      <c r="G21" s="234">
+      <c r="G21" s="205">
         <v>0.71714849554673121</v>
       </c>
-      <c r="H21" s="234">
+      <c r="H21" s="205">
         <v>0.78568677094282446</v>
       </c>
-      <c r="I21" s="234">
+      <c r="I21" s="205">
         <v>0.84123693000552557</v>
       </c>
-      <c r="J21" s="234">
+      <c r="J21" s="205">
         <v>0.88446252398306902</v>
       </c>
-      <c r="K21" s="234">
+      <c r="K21" s="205">
         <v>0.91704789051038305</v>
       </c>
       <c r="O21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P21" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q21" t="s">
-        <v>245</v>
-      </c>
-      <c r="R21" s="231">
+        <v>232</v>
+      </c>
+      <c r="R21" s="202">
         <v>6.2041439521472716E-2</v>
       </c>
-      <c r="S21" s="220"/>
+      <c r="S21" s="191"/>
       <c r="T21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U21" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V21" t="s">
-        <v>245</v>
-      </c>
-      <c r="W21" s="231">
+        <v>232</v>
+      </c>
+      <c r="W21" s="202">
         <v>6.2041439521472716E-2</v>
       </c>
       <c r="Y21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z21" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA21" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB21" s="231">
+        <v>232</v>
+      </c>
+      <c r="AB21" s="202">
         <v>6.2041439521472716E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="O22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P22" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q22" t="s">
-        <v>246</v>
-      </c>
-      <c r="R22" s="231">
+        <v>233</v>
+      </c>
+      <c r="R22" s="202">
         <v>5.0238563001630904E-2</v>
       </c>
-      <c r="S22" s="220"/>
+      <c r="S22" s="191"/>
       <c r="T22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U22" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V22" t="s">
-        <v>246</v>
-      </c>
-      <c r="W22" s="231">
+        <v>233</v>
+      </c>
+      <c r="W22" s="202">
         <v>5.0238563001630904E-2</v>
       </c>
       <c r="Y22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z22" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA22" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB22" s="231">
+        <v>233</v>
+      </c>
+      <c r="AB22" s="202">
         <v>5.0238563001630904E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="E23" s="223"/>
-      <c r="F23" s="223"/>
-      <c r="G23" s="223"/>
-      <c r="H23" s="223"/>
-      <c r="I23" s="223"/>
-      <c r="J23" s="223"/>
-      <c r="K23" s="223"/>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="194"/>
       <c r="O23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P23" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q23" t="s">
-        <v>247</v>
-      </c>
-      <c r="R23" s="231">
+        <v>234</v>
+      </c>
+      <c r="R23" s="202">
         <v>5.3184386397899165E-2</v>
       </c>
-      <c r="S23" s="220"/>
+      <c r="S23" s="191"/>
       <c r="T23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U23" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V23" t="s">
-        <v>247</v>
-      </c>
-      <c r="W23" s="231">
+        <v>234</v>
+      </c>
+      <c r="W23" s="202">
         <v>5.3184386397899165E-2</v>
       </c>
       <c r="Y23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z23" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA23" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB23" s="231">
+        <v>234</v>
+      </c>
+      <c r="AB23" s="202">
         <v>5.3184386397899165E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="O24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P24" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q24" t="s">
-        <v>248</v>
-      </c>
-      <c r="R24" s="231">
+        <v>235</v>
+      </c>
+      <c r="R24" s="202">
         <v>5.7662395688403471E-2</v>
       </c>
-      <c r="S24" s="220"/>
+      <c r="S24" s="191"/>
       <c r="T24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U24" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V24" t="s">
-        <v>248</v>
-      </c>
-      <c r="W24" s="231">
+        <v>235</v>
+      </c>
+      <c r="W24" s="202">
         <v>5.7662395688403471E-2</v>
       </c>
       <c r="Y24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z24" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA24" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB24" s="231">
+        <v>235</v>
+      </c>
+      <c r="AB24" s="202">
         <v>5.7662395688403471E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="O25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P25" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q25" t="s">
-        <v>249</v>
-      </c>
-      <c r="R25" s="231">
+        <v>236</v>
+      </c>
+      <c r="R25" s="202">
         <v>5.8557745224525878E-2</v>
       </c>
-      <c r="S25" s="220"/>
+      <c r="S25" s="191"/>
       <c r="T25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U25" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V25" t="s">
-        <v>249</v>
-      </c>
-      <c r="W25" s="231">
+        <v>236</v>
+      </c>
+      <c r="W25" s="202">
         <v>5.8557745224525878E-2</v>
       </c>
       <c r="Y25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z25" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA25" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB25" s="231">
+        <v>236</v>
+      </c>
+      <c r="AB25" s="202">
         <v>5.8557745224525878E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="D26" s="109"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="172"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="167"/>
       <c r="O26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P26" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q26" t="s">
-        <v>250</v>
-      </c>
-      <c r="R26" s="231">
+        <v>237</v>
+      </c>
+      <c r="R26" s="202">
         <v>5.4169812257972488E-2</v>
       </c>
-      <c r="S26" s="220"/>
+      <c r="S26" s="191"/>
       <c r="T26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U26" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V26" t="s">
-        <v>250</v>
-      </c>
-      <c r="W26" s="231">
+        <v>237</v>
+      </c>
+      <c r="W26" s="202">
         <v>5.4169812257972488E-2</v>
       </c>
       <c r="Y26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z26" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA26" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB26" s="231">
+        <v>237</v>
+      </c>
+      <c r="AB26" s="202">
         <v>5.4169812257972488E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="D27" s="109"/>
       <c r="E27" s="5"/>
       <c r="O27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P27" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q27" t="s">
-        <v>251</v>
-      </c>
-      <c r="R27" s="231">
+        <v>238</v>
+      </c>
+      <c r="R27" s="202">
         <v>4.1857004866670537E-2</v>
       </c>
-      <c r="S27" s="220"/>
+      <c r="S27" s="191"/>
       <c r="T27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U27" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V27" t="s">
-        <v>251</v>
-      </c>
-      <c r="W27" s="231">
+        <v>238</v>
+      </c>
+      <c r="W27" s="202">
         <v>4.1857004866670537E-2</v>
       </c>
       <c r="Y27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z27" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA27" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB27" s="231">
+        <v>238</v>
+      </c>
+      <c r="AB27" s="202">
         <v>4.1857004866670537E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="D28" s="109"/>
       <c r="E28" s="109"/>
       <c r="F28" s="109"/>
@@ -10483,47 +9994,47 @@
       <c r="J28" s="109"/>
       <c r="K28" s="109"/>
       <c r="O28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P28" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q28" t="s">
-        <v>252</v>
-      </c>
-      <c r="R28" s="231">
+        <v>239</v>
+      </c>
+      <c r="R28" s="202">
         <v>3.3691520594468241E-2</v>
       </c>
-      <c r="S28" s="220"/>
+      <c r="S28" s="191"/>
       <c r="T28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U28" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V28" t="s">
-        <v>252</v>
-      </c>
-      <c r="W28" s="231">
+        <v>239</v>
+      </c>
+      <c r="W28" s="202">
         <v>3.3691520594468241E-2</v>
       </c>
       <c r="Y28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z28" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA28" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB28" s="231">
+        <v>239</v>
+      </c>
+      <c r="AB28" s="202">
         <v>3.3691520594468241E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="D29" s="109"/>
       <c r="E29" s="109"/>
       <c r="F29" s="109"/>
@@ -10533,173 +10044,173 @@
       <c r="J29" s="109"/>
       <c r="K29" s="109"/>
       <c r="O29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P29" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q29" t="s">
-        <v>253</v>
-      </c>
-      <c r="R29" s="231">
+        <v>240</v>
+      </c>
+      <c r="R29" s="202">
         <v>3.2906492752302938E-2</v>
       </c>
-      <c r="S29" s="220"/>
+      <c r="S29" s="191"/>
       <c r="T29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U29" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V29" t="s">
-        <v>253</v>
-      </c>
-      <c r="W29" s="231">
+        <v>240</v>
+      </c>
+      <c r="W29" s="202">
         <v>3.2906492752302938E-2</v>
       </c>
       <c r="Y29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z29" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA29" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB29" s="231">
+        <v>240</v>
+      </c>
+      <c r="AB29" s="202">
         <v>3.2906492752302938E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="O30" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P30" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q30" s="150" t="s">
-        <v>254</v>
-      </c>
-      <c r="R30" s="231">
+      <c r="Q30" s="148" t="s">
+        <v>241</v>
+      </c>
+      <c r="R30" s="202">
         <v>3.20626233861286E-2</v>
       </c>
-      <c r="S30" s="220"/>
+      <c r="S30" s="191"/>
       <c r="T30" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U30" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V30" s="150" t="s">
-        <v>254</v>
-      </c>
-      <c r="W30" s="231">
+      <c r="V30" s="148" t="s">
+        <v>241</v>
+      </c>
+      <c r="W30" s="202">
         <v>3.20626233861286E-2</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z30" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA30" s="150" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB30" s="231">
+      <c r="AA30" s="148" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB30" s="202">
         <v>3.20626233861286E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="O31" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P31" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q31" s="212" t="s">
-        <v>255</v>
-      </c>
-      <c r="R31" s="231">
+      <c r="Q31" s="183" t="s">
+        <v>242</v>
+      </c>
+      <c r="R31" s="202">
         <v>3.1700774081405016E-2</v>
       </c>
-      <c r="S31" s="220"/>
+      <c r="S31" s="191"/>
       <c r="T31" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U31" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V31" s="212" t="s">
-        <v>255</v>
-      </c>
-      <c r="W31" s="231">
+      <c r="V31" s="183" t="s">
+        <v>242</v>
+      </c>
+      <c r="W31" s="202">
         <v>3.1700774081405016E-2</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z31" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA31" s="212" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB31" s="231">
+      <c r="AA31" s="183" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB31" s="202">
         <v>3.1700774081405016E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="E32" s="5">
         <f>EBF!J19</f>
         <v>150.60848427090019</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P32" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q32" s="150" t="s">
-        <v>256</v>
-      </c>
-      <c r="R32" s="231">
+      <c r="Q32" s="148" t="s">
+        <v>243</v>
+      </c>
+      <c r="R32" s="202">
         <v>3.0548494068914959E-2</v>
       </c>
-      <c r="S32" s="220"/>
+      <c r="S32" s="191"/>
       <c r="T32" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U32" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V32" s="150" t="s">
-        <v>256</v>
-      </c>
-      <c r="W32" s="231">
+      <c r="V32" s="148" t="s">
+        <v>243</v>
+      </c>
+      <c r="W32" s="202">
         <v>3.0548494068914959E-2</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z32" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA32" s="150" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB32" s="231">
+      <c r="AA32" s="148" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB32" s="202">
         <v>3.0548494068914959E-2</v>
       </c>
     </row>
@@ -10710,171 +10221,171 @@
         <v>8781.4640358504003</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P33" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q33" s="212" t="s">
-        <v>257</v>
-      </c>
-      <c r="R33" s="231">
+      <c r="Q33" s="183" t="s">
+        <v>244</v>
+      </c>
+      <c r="R33" s="202">
         <v>3.117830445262517E-2</v>
       </c>
-      <c r="S33" s="220"/>
+      <c r="S33" s="191"/>
       <c r="T33" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U33" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V33" s="212" t="s">
-        <v>257</v>
-      </c>
-      <c r="W33" s="231">
+      <c r="V33" s="183" t="s">
+        <v>244</v>
+      </c>
+      <c r="W33" s="202">
         <v>3.117830445262517E-2</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z33" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA33" s="212" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB33" s="231">
+      <c r="AA33" s="183" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB33" s="202">
         <v>3.117830445262517E-2</v>
       </c>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
       <c r="O34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <f>DemTechs_INDF!Z$6</f>
+        <v>MANELC</v>
+      </c>
+      <c r="Q34" t="s">
         <v>168</v>
       </c>
-      <c r="P34" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
-        <v>MANELC</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>169</v>
-      </c>
-      <c r="R34" s="231">
+      <c r="R34" s="202">
         <v>3.1580002137548593E-2</v>
       </c>
       <c r="T34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U34" s="1" t="str">
+        <f>DemTechs_INDF!Z$5</f>
+        <v>MANHEAT</v>
+      </c>
+      <c r="V34" t="s">
         <v>168</v>
       </c>
-      <c r="U34" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="V34" t="s">
-        <v>169</v>
-      </c>
-      <c r="W34" s="231">
+      <c r="W34" s="202">
         <v>3.1580002137548593E-2</v>
       </c>
       <c r="Y34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z34" s="1" t="str">
+        <f>DemTechs_INDF!Z$8</f>
+        <v>CEMENTHEAT</v>
+      </c>
+      <c r="AA34" t="s">
         <v>168</v>
       </c>
-      <c r="Z34" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
-        <v>CEMENTHEAT</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB34" s="231">
+      <c r="AB34" s="202">
         <v>3.1580002137548593E-2</v>
       </c>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="O35" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P35" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q35" t="s">
-        <v>170</v>
-      </c>
-      <c r="R35" s="231">
+        <v>169</v>
+      </c>
+      <c r="R35" s="202">
         <v>3.1850630527954941E-2</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U35" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V35" t="s">
-        <v>170</v>
-      </c>
-      <c r="W35" s="231">
+        <v>169</v>
+      </c>
+      <c r="W35" s="202">
         <v>3.1850630527954941E-2</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z35" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA35" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB35" s="231">
+        <v>169</v>
+      </c>
+      <c r="AB35" s="202">
         <v>3.1850630527954941E-2</v>
       </c>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B36" s="119"/>
+      <c r="B36" s="118"/>
       <c r="C36" s="1" t="s">
         <v>97</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P36" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q36" t="s">
-        <v>171</v>
-      </c>
-      <c r="R36" s="231">
+        <v>170</v>
+      </c>
+      <c r="R36" s="202">
         <v>3.1481989955747081E-2</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U36" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V36" t="s">
-        <v>171</v>
-      </c>
-      <c r="W36" s="231">
+        <v>170</v>
+      </c>
+      <c r="W36" s="202">
         <v>3.1481989955747081E-2</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z36" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA36" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB36" s="231">
+        <v>170</v>
+      </c>
+      <c r="AB36" s="202">
         <v>3.1481989955747081E-2</v>
       </c>
     </row>
@@ -10884,876 +10395,876 @@
         <v>98</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P37" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q37" t="s">
-        <v>172</v>
-      </c>
-      <c r="R37" s="231">
+        <v>171</v>
+      </c>
+      <c r="R37" s="202">
         <v>3.1731466950130557E-2</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U37" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V37" t="s">
-        <v>172</v>
-      </c>
-      <c r="W37" s="231">
+        <v>171</v>
+      </c>
+      <c r="W37" s="202">
         <v>3.1731466950130557E-2</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z37" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA37" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB37" s="231">
+        <v>171</v>
+      </c>
+      <c r="AB37" s="202">
         <v>3.1731466950130557E-2</v>
       </c>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="O38" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P38" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q38" t="s">
-        <v>173</v>
-      </c>
-      <c r="R38" s="231">
+        <v>172</v>
+      </c>
+      <c r="R38" s="202">
         <v>3.1860835358240212E-2</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U38" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V38" t="s">
-        <v>173</v>
-      </c>
-      <c r="W38" s="231">
+        <v>172</v>
+      </c>
+      <c r="W38" s="202">
         <v>3.1860835358240212E-2</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z38" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA38" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB38" s="231">
+        <v>172</v>
+      </c>
+      <c r="AB38" s="202">
         <v>3.1860835358240212E-2</v>
       </c>
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="O39" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P39" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q39" t="s">
-        <v>174</v>
-      </c>
-      <c r="R39" s="231">
+        <v>173</v>
+      </c>
+      <c r="R39" s="202">
         <v>3.2394250106746E-2</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U39" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V39" t="s">
-        <v>174</v>
-      </c>
-      <c r="W39" s="231">
+        <v>173</v>
+      </c>
+      <c r="W39" s="202">
         <v>3.2394250106746E-2</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z39" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA39" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB39" s="231">
+        <v>173</v>
+      </c>
+      <c r="AB39" s="202">
         <v>3.2394250106746E-2</v>
       </c>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="O40" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P40" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q40" t="s">
-        <v>175</v>
-      </c>
-      <c r="R40" s="231">
+        <v>174</v>
+      </c>
+      <c r="R40" s="202">
         <v>3.241825303092484E-2</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U40" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V40" t="s">
-        <v>175</v>
-      </c>
-      <c r="W40" s="231">
+        <v>174</v>
+      </c>
+      <c r="W40" s="202">
         <v>3.241825303092484E-2</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z40" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA40" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB40" s="231">
+        <v>174</v>
+      </c>
+      <c r="AB40" s="202">
         <v>3.241825303092484E-2</v>
       </c>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="O41" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P41" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q41" t="s">
-        <v>176</v>
-      </c>
-      <c r="R41" s="231">
+        <v>175</v>
+      </c>
+      <c r="R41" s="202">
         <v>3.5569395862328948E-2</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U41" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V41" t="s">
-        <v>176</v>
-      </c>
-      <c r="W41" s="231">
+        <v>175</v>
+      </c>
+      <c r="W41" s="202">
         <v>3.5569395862328948E-2</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z41" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA41" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB41" s="231">
+        <v>175</v>
+      </c>
+      <c r="AB41" s="202">
         <v>3.5569395862328948E-2</v>
       </c>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="O42" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P42" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q42" t="s">
-        <v>177</v>
-      </c>
-      <c r="R42" s="231">
+        <v>176</v>
+      </c>
+      <c r="R42" s="202">
         <v>5.0064684062236839E-2</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U42" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V42" t="s">
-        <v>177</v>
-      </c>
-      <c r="W42" s="231">
+        <v>176</v>
+      </c>
+      <c r="W42" s="202">
         <v>5.0064684062236839E-2</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z42" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA42" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB42" s="231">
+        <v>176</v>
+      </c>
+      <c r="AB42" s="202">
         <v>5.0064684062236839E-2</v>
       </c>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="O43" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P43" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q43" t="s">
-        <v>178</v>
-      </c>
-      <c r="R43" s="231">
+        <v>177</v>
+      </c>
+      <c r="R43" s="202">
         <v>6.1132650490749271E-2</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U43" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V43" t="s">
-        <v>178</v>
-      </c>
-      <c r="W43" s="231">
+        <v>177</v>
+      </c>
+      <c r="W43" s="202">
         <v>6.1132650490749271E-2</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z43" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA43" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB43" s="231">
+        <v>177</v>
+      </c>
+      <c r="AB43" s="202">
         <v>6.1132650490749271E-2</v>
       </c>
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="O44" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P44" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q44" t="s">
-        <v>179</v>
-      </c>
-      <c r="R44" s="231">
+        <v>178</v>
+      </c>
+      <c r="R44" s="202">
         <v>6.011628522297266E-2</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U44" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V44" t="s">
-        <v>179</v>
-      </c>
-      <c r="W44" s="231">
+        <v>178</v>
+      </c>
+      <c r="W44" s="202">
         <v>6.011628522297266E-2</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z44" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA44" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB44" s="231">
+        <v>178</v>
+      </c>
+      <c r="AB44" s="202">
         <v>6.011628522297266E-2</v>
       </c>
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="O45" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P45" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q45" t="s">
-        <v>180</v>
-      </c>
-      <c r="R45" s="231">
+        <v>179</v>
+      </c>
+      <c r="R45" s="202">
         <v>6.2041439521472716E-2</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U45" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V45" t="s">
-        <v>180</v>
-      </c>
-      <c r="W45" s="231">
+        <v>179</v>
+      </c>
+      <c r="W45" s="202">
         <v>6.2041439521472716E-2</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z45" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA45" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB45" s="231">
+        <v>179</v>
+      </c>
+      <c r="AB45" s="202">
         <v>6.2041439521472716E-2</v>
       </c>
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="O46" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P46" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q46" t="s">
-        <v>181</v>
-      </c>
-      <c r="R46" s="231">
+        <v>180</v>
+      </c>
+      <c r="R46" s="202">
         <v>5.0238563001630904E-2</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U46" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V46" t="s">
-        <v>181</v>
-      </c>
-      <c r="W46" s="231">
+        <v>180</v>
+      </c>
+      <c r="W46" s="202">
         <v>5.0238563001630904E-2</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z46" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA46" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB46" s="231">
+        <v>180</v>
+      </c>
+      <c r="AB46" s="202">
         <v>5.0238563001630904E-2</v>
       </c>
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="O47" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P47" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q47" t="s">
-        <v>182</v>
-      </c>
-      <c r="R47" s="231">
+        <v>181</v>
+      </c>
+      <c r="R47" s="202">
         <v>5.3184386397899165E-2</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U47" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V47" t="s">
-        <v>182</v>
-      </c>
-      <c r="W47" s="231">
+        <v>181</v>
+      </c>
+      <c r="W47" s="202">
         <v>5.3184386397899165E-2</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z47" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA47" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB47" s="231">
+        <v>181</v>
+      </c>
+      <c r="AB47" s="202">
         <v>5.3184386397899165E-2</v>
       </c>
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="O48" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P48" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q48" t="s">
-        <v>183</v>
-      </c>
-      <c r="R48" s="231">
+        <v>182</v>
+      </c>
+      <c r="R48" s="202">
         <v>5.7662395688403471E-2</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U48" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V48" t="s">
-        <v>183</v>
-      </c>
-      <c r="W48" s="231">
+        <v>182</v>
+      </c>
+      <c r="W48" s="202">
         <v>5.7662395688403471E-2</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z48" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA48" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB48" s="231">
+        <v>182</v>
+      </c>
+      <c r="AB48" s="202">
         <v>5.7662395688403471E-2</v>
       </c>
     </row>
     <row r="49" spans="15:28" x14ac:dyDescent="0.2">
       <c r="O49" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P49" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q49" t="s">
-        <v>184</v>
-      </c>
-      <c r="R49" s="231">
+        <v>183</v>
+      </c>
+      <c r="R49" s="202">
         <v>5.8557745224525878E-2</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U49" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V49" t="s">
-        <v>184</v>
-      </c>
-      <c r="W49" s="231">
+        <v>183</v>
+      </c>
+      <c r="W49" s="202">
         <v>5.8557745224525878E-2</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z49" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA49" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB49" s="231">
+        <v>183</v>
+      </c>
+      <c r="AB49" s="202">
         <v>5.8557745224525878E-2</v>
       </c>
     </row>
     <row r="50" spans="15:28" x14ac:dyDescent="0.2">
       <c r="O50" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P50" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q50" t="s">
-        <v>185</v>
-      </c>
-      <c r="R50" s="231">
+        <v>184</v>
+      </c>
+      <c r="R50" s="202">
         <v>5.4169812257972488E-2</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U50" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V50" t="s">
-        <v>185</v>
-      </c>
-      <c r="W50" s="231">
+        <v>184</v>
+      </c>
+      <c r="W50" s="202">
         <v>5.4169812257972488E-2</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z50" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA50" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB50" s="231">
+        <v>184</v>
+      </c>
+      <c r="AB50" s="202">
         <v>5.4169812257972488E-2</v>
       </c>
     </row>
     <row r="51" spans="15:28" x14ac:dyDescent="0.2">
       <c r="O51" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P51" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q51" t="s">
-        <v>186</v>
-      </c>
-      <c r="R51" s="231">
+        <v>185</v>
+      </c>
+      <c r="R51" s="202">
         <v>4.1857004866670537E-2</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U51" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V51" t="s">
-        <v>186</v>
-      </c>
-      <c r="W51" s="231">
+        <v>185</v>
+      </c>
+      <c r="W51" s="202">
         <v>4.1857004866670537E-2</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z51" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA51" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB51" s="231">
+        <v>185</v>
+      </c>
+      <c r="AB51" s="202">
         <v>4.1857004866670537E-2</v>
       </c>
     </row>
     <row r="52" spans="15:28" x14ac:dyDescent="0.2">
       <c r="O52" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P52" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q52" t="s">
-        <v>187</v>
-      </c>
-      <c r="R52" s="231">
+        <v>186</v>
+      </c>
+      <c r="R52" s="202">
         <v>3.3691520594468241E-2</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U52" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V52" t="s">
-        <v>187</v>
-      </c>
-      <c r="W52" s="231">
+        <v>186</v>
+      </c>
+      <c r="W52" s="202">
         <v>3.3691520594468241E-2</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z52" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA52" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB52" s="231">
+        <v>186</v>
+      </c>
+      <c r="AB52" s="202">
         <v>3.3691520594468241E-2</v>
       </c>
     </row>
     <row r="53" spans="15:28" x14ac:dyDescent="0.2">
       <c r="O53" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P53" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q53" t="s">
-        <v>188</v>
-      </c>
-      <c r="R53" s="231">
+        <v>187</v>
+      </c>
+      <c r="R53" s="202">
         <v>3.2906492752302938E-2</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U53" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V53" t="s">
-        <v>188</v>
-      </c>
-      <c r="W53" s="231">
+        <v>187</v>
+      </c>
+      <c r="W53" s="202">
         <v>3.2906492752302938E-2</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z53" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA53" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB53" s="231">
+        <v>187</v>
+      </c>
+      <c r="AB53" s="202">
         <v>3.2906492752302938E-2</v>
       </c>
     </row>
     <row r="54" spans="15:28" x14ac:dyDescent="0.2">
       <c r="O54" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P54" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q54" t="s">
-        <v>189</v>
-      </c>
-      <c r="R54" s="231">
+        <v>188</v>
+      </c>
+      <c r="R54" s="202">
         <v>3.20626233861286E-2</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U54" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V54" t="s">
-        <v>189</v>
-      </c>
-      <c r="W54" s="231">
+        <v>188</v>
+      </c>
+      <c r="W54" s="202">
         <v>3.20626233861286E-2</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z54" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA54" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB54" s="231">
+        <v>188</v>
+      </c>
+      <c r="AB54" s="202">
         <v>3.20626233861286E-2</v>
       </c>
     </row>
     <row r="55" spans="15:28" x14ac:dyDescent="0.2">
       <c r="O55" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P55" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q55" t="s">
-        <v>190</v>
-      </c>
-      <c r="R55" s="231">
+        <v>189</v>
+      </c>
+      <c r="R55" s="202">
         <v>3.1700774081405016E-2</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U55" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V55" t="s">
-        <v>190</v>
-      </c>
-      <c r="W55" s="231">
+        <v>189</v>
+      </c>
+      <c r="W55" s="202">
         <v>3.1700774081405016E-2</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z55" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA55" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB55" s="231">
+        <v>189</v>
+      </c>
+      <c r="AB55" s="202">
         <v>3.1700774081405016E-2</v>
       </c>
     </row>
     <row r="56" spans="15:28" x14ac:dyDescent="0.2">
       <c r="O56" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P56" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q56" t="s">
-        <v>191</v>
-      </c>
-      <c r="R56" s="231">
+        <v>190</v>
+      </c>
+      <c r="R56" s="202">
         <v>3.0548494068914959E-2</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U56" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V56" t="s">
-        <v>191</v>
-      </c>
-      <c r="W56" s="231">
+        <v>190</v>
+      </c>
+      <c r="W56" s="202">
         <v>3.0548494068914959E-2</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z56" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA56" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB56" s="231">
+        <v>190</v>
+      </c>
+      <c r="AB56" s="202">
         <v>3.0548494068914959E-2</v>
       </c>
     </row>
     <row r="57" spans="15:28" x14ac:dyDescent="0.2">
       <c r="O57" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P57" s="1" t="str">
-        <f>DemTechs_INDF!Y$6</f>
+        <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
       <c r="Q57" t="s">
-        <v>192</v>
-      </c>
-      <c r="R57" s="231">
+        <v>191</v>
+      </c>
+      <c r="R57" s="202">
         <v>3.117830445262517E-2</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U57" s="1" t="str">
-        <f>DemTechs_INDF!Y$5</f>
+        <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
       <c r="V57" t="s">
-        <v>192</v>
-      </c>
-      <c r="W57" s="231">
+        <v>191</v>
+      </c>
+      <c r="W57" s="202">
         <v>3.117830445262517E-2</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z57" s="1" t="str">
-        <f>DemTechs_INDF!Y$8</f>
+        <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
       <c r="AA57" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB57" s="231">
+        <v>191</v>
+      </c>
+      <c r="AB57" s="202">
         <v>3.117830445262517E-2</v>
       </c>
     </row>
     <row r="58" spans="15:28" x14ac:dyDescent="0.2">
       <c r="O58" s="1"/>
-      <c r="P58" s="142"/>
-      <c r="Q58" s="142"/>
-      <c r="R58" s="217"/>
+      <c r="P58" s="140"/>
+      <c r="Q58" s="140"/>
+      <c r="R58" s="188"/>
     </row>
     <row r="59" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="R59" s="142"/>
+      <c r="R59" s="140"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11777,107 +11288,107 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="125" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
+      <c r="B3" s="124" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
     </row>
     <row r="4" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
     </row>
     <row r="5" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="127" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="128"/>
+      <c r="B5" s="126" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="127"/>
     </row>
     <row r="6" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="129" t="str">
+      <c r="C6" s="128" t="str">
         <f>PRI_Sector_Fuels!O5</f>
         <v>MANCOALMIN</v>
       </c>
-      <c r="D6" s="129" t="str">
+      <c r="D6" s="128" t="str">
         <f>PRI_Sector_Fuels!O6</f>
         <v>MANCOALIMP</v>
       </c>
-      <c r="E6" s="129" t="str">
+      <c r="E6" s="128" t="str">
         <f>PRI_Sector_Fuels!O7</f>
         <v>MANOILIMP</v>
       </c>
-      <c r="F6" s="129" t="str">
+      <c r="F6" s="128" t="str">
         <f>PRI_Sector_Fuels!O8</f>
         <v>ELC</v>
       </c>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="130" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="130" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="130" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="130" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
+      <c r="C7" s="129" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="129" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="129" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="129" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="131" t="str">
-        <f>DemTechs_INDF!Y7</f>
+      <c r="B9" s="130" t="str">
+        <f>DemTechs_INDF!Z7</f>
         <v>MANCO2</v>
       </c>
-      <c r="C9" s="132">
+      <c r="C9" s="131">
         <v>0.34100000000000003</v>
       </c>
-      <c r="D9" s="132">
+      <c r="D9" s="131">
         <v>0.34100000000000003</v>
       </c>
-      <c r="E9" s="132">
+      <c r="E9" s="131">
         <v>0.25900000000000001</v>
       </c>
-      <c r="F9" s="132">
+      <c r="F9" s="131">
         <v>0</v>
       </c>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
       <c r="I9" s="1"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="119"/>
+      <c r="B24" s="118"/>
       <c r="C24" s="1" t="s">
         <v>97</v>
       </c>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{FC8EB348-8DCB-4AAF-85B0-A90763FB7378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24137E4C-8F5B-4249-8698-0ED562E46319}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1411346-4CE1-4CC3-83AA-53AFB982360B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1558,7 +1558,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="271">
   <si>
     <t>CommName</t>
   </si>
@@ -2500,6 +2500,9 @@
   </si>
   <si>
     <t>2024THUSD/MW</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -3149,7 +3152,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3517,9 +3520,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="9" fillId="15" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="35" fillId="3" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="23" fillId="16" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3549,7 +3549,7 @@
     <xf numFmtId="167" fontId="9" fillId="20" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="37"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7364,7 +7364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="D8" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
@@ -8037,13 +8037,13 @@
         <v>25</v>
       </c>
       <c r="P20" s="123"/>
-      <c r="Q20" s="208">
+      <c r="Q20" s="207">
         <v>628.9</v>
       </c>
-      <c r="R20" s="209">
+      <c r="R20" s="208">
         <v>4.46</v>
       </c>
-      <c r="S20" s="209">
+      <c r="S20" s="208">
         <v>0.45</v>
       </c>
       <c r="T20" s="104">
@@ -8119,13 +8119,13 @@
         <v>25</v>
       </c>
       <c r="P21" s="123"/>
-      <c r="Q21" s="208">
+      <c r="Q21" s="207">
         <v>628.9</v>
       </c>
-      <c r="R21" s="209">
+      <c r="R21" s="208">
         <v>4.46</v>
       </c>
-      <c r="S21" s="209">
+      <c r="S21" s="208">
         <v>0.45</v>
       </c>
       <c r="T21" s="104">
@@ -8201,13 +8201,13 @@
         <v>25</v>
       </c>
       <c r="P22" s="123"/>
-      <c r="Q22" s="208">
+      <c r="Q22" s="207">
         <v>62.9</v>
       </c>
-      <c r="R22" s="209">
+      <c r="R22" s="208">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S22" s="209">
+      <c r="S22" s="208">
         <v>1.82</v>
       </c>
       <c r="T22" s="104">
@@ -8638,8 +8638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:AB59"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8721,25 +8721,7 @@
       <c r="E6" s="114">
         <v>2022</v>
       </c>
-      <c r="F6" s="114">
-        <v>2025</v>
-      </c>
-      <c r="G6" s="114">
-        <v>2030</v>
-      </c>
-      <c r="H6" s="114">
-        <v>2035</v>
-      </c>
-      <c r="I6" s="114">
-        <v>2040</v>
-      </c>
-      <c r="J6" s="114">
-        <v>2045</v>
-      </c>
-      <c r="K6" s="114">
-        <v>2050</v>
-      </c>
-      <c r="L6" s="200"/>
+      <c r="L6" s="199"/>
       <c r="M6" s="182"/>
       <c r="N6" s="119"/>
       <c r="Q6" s="115" t="s">
@@ -8766,24 +8748,6 @@
         <v>163</v>
       </c>
       <c r="E7" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="H7" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="I7" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="J7" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="K7" s="117" t="s">
         <v>164</v>
       </c>
       <c r="L7" s="181"/>
@@ -8798,8 +8762,8 @@
       <c r="Q7" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="R7" s="114">
-        <v>2022</v>
+      <c r="R7" s="114" t="s">
+        <v>270</v>
       </c>
       <c r="T7" s="114" t="s">
         <v>160</v>
@@ -8810,8 +8774,8 @@
       <c r="V7" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="W7" s="114">
-        <v>2022</v>
+      <c r="W7" s="114" t="s">
+        <v>270</v>
       </c>
       <c r="Y7" s="114" t="s">
         <v>160</v>
@@ -8822,8 +8786,8 @@
       <c r="AA7" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="AB7" s="114">
-        <v>2022</v>
+      <c r="AB7" s="114" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="2:28" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -8833,24 +8797,6 @@
       <c r="C8" s="116"/>
       <c r="D8" s="116"/>
       <c r="E8" s="116" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="116" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="116" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" s="116" t="s">
-        <v>148</v>
-      </c>
-      <c r="I8" s="116" t="s">
-        <v>148</v>
-      </c>
-      <c r="J8" s="116" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8" s="116" t="s">
         <v>148</v>
       </c>
       <c r="L8" s="181"/>
@@ -8895,32 +8841,14 @@
         <f>EBF!E18</f>
         <v>2605.1202084096003</v>
       </c>
-      <c r="F9" s="193">
-        <f>F17*F19</f>
-        <v>2947.4068593535344</v>
-      </c>
-      <c r="G9" s="193">
-        <f t="shared" ref="G9:K9" si="0">G17*G19</f>
-        <v>3531.3514338177761</v>
-      </c>
-      <c r="H9" s="193">
-        <f t="shared" si="0"/>
-        <v>4115.5297575067134</v>
-      </c>
-      <c r="I9" s="193">
-        <f t="shared" si="0"/>
-        <v>4687.4763817634248</v>
-      </c>
-      <c r="J9" s="193">
-        <f t="shared" si="0"/>
-        <v>5242.5750443827874</v>
-      </c>
-      <c r="K9" s="193">
-        <f t="shared" si="0"/>
-        <v>5782.3142883856781</v>
-      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
       <c r="L9" s="181"/>
-      <c r="M9" s="201"/>
+      <c r="M9" s="200"/>
       <c r="N9" s="171"/>
       <c r="O9" s="9" t="s">
         <v>87</v>
@@ -8961,32 +8889,14 @@
         <f>EBF!J18</f>
         <v>2861.5612011470998</v>
       </c>
-      <c r="F10" s="193">
-        <f>F17*F20</f>
-        <v>3318.1076531301678</v>
-      </c>
-      <c r="G10" s="193">
-        <f t="shared" ref="G10:K10" si="1">G17*G20</f>
-        <v>4142.2574692157614</v>
-      </c>
-      <c r="H10" s="193">
-        <f t="shared" si="1"/>
-        <v>5029.9962755546021</v>
-      </c>
-      <c r="I10" s="193">
-        <f t="shared" si="1"/>
-        <v>5969.346339495607</v>
-      </c>
-      <c r="J10" s="193">
-        <f t="shared" si="1"/>
-        <v>6956.2968729223376</v>
-      </c>
-      <c r="K10" s="193">
-        <f t="shared" si="1"/>
-        <v>7994.3086724659179</v>
-      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
       <c r="L10" s="181"/>
-      <c r="M10" s="201"/>
+      <c r="M10" s="200"/>
       <c r="N10" s="171"/>
       <c r="O10" s="1" t="s">
         <v>167</v>
@@ -8998,10 +8908,10 @@
       <c r="Q10" s="148" t="s">
         <v>221</v>
       </c>
-      <c r="R10" s="202">
+      <c r="R10" s="201">
         <v>3.1580002137548593E-2</v>
       </c>
-      <c r="S10" s="203"/>
+      <c r="S10" s="202"/>
       <c r="T10" s="1" t="s">
         <v>167</v>
       </c>
@@ -9012,7 +8922,7 @@
       <c r="V10" s="148" t="s">
         <v>221</v>
       </c>
-      <c r="W10" s="202">
+      <c r="W10" s="201">
         <v>3.1580002137548593E-2</v>
       </c>
       <c r="Y10" s="1" t="s">
@@ -9025,7 +8935,7 @@
       <c r="AA10" s="148" t="s">
         <v>221</v>
       </c>
-      <c r="AB10" s="202">
+      <c r="AB10" s="201">
         <v>3.1580002137548593E-2</v>
       </c>
     </row>
@@ -9043,32 +8953,14 @@
         <f>EBF!D18</f>
         <v>7676.2275585426005</v>
       </c>
-      <c r="F11" s="193">
-        <f>F17*F21</f>
-        <v>10981.845367938809</v>
-      </c>
-      <c r="G11" s="193">
-        <f t="shared" ref="G11:K11" si="2">G17*G21</f>
-        <v>19455.852253151803</v>
-      </c>
-      <c r="H11" s="193">
-        <f t="shared" si="2"/>
-        <v>33528.116062179717</v>
-      </c>
-      <c r="I11" s="193">
-        <f t="shared" si="2"/>
-        <v>56467.242854129028</v>
-      </c>
-      <c r="J11" s="193">
-        <f t="shared" si="2"/>
-        <v>93384.808269005094</v>
-      </c>
-      <c r="K11" s="193">
-        <f t="shared" si="2"/>
-        <v>152302.6129454516</v>
-      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
       <c r="L11" s="181"/>
-      <c r="M11" s="201"/>
+      <c r="M11" s="200"/>
       <c r="N11" s="181"/>
       <c r="O11" s="1" t="s">
         <v>167</v>
@@ -9080,10 +8972,10 @@
       <c r="Q11" s="183" t="s">
         <v>222</v>
       </c>
-      <c r="R11" s="202">
+      <c r="R11" s="201">
         <v>3.1850630527954941E-2</v>
       </c>
-      <c r="S11" s="204"/>
+      <c r="S11" s="203"/>
       <c r="T11" s="1" t="s">
         <v>167</v>
       </c>
@@ -9094,7 +8986,7 @@
       <c r="V11" s="183" t="s">
         <v>222</v>
       </c>
-      <c r="W11" s="202">
+      <c r="W11" s="201">
         <v>3.1850630527954941E-2</v>
       </c>
       <c r="Y11" s="1" t="s">
@@ -9107,7 +8999,7 @@
       <c r="AA11" s="183" t="s">
         <v>222</v>
       </c>
-      <c r="AB11" s="202">
+      <c r="AB11" s="201">
         <v>3.1850630527954941E-2</v>
       </c>
     </row>
@@ -9116,12 +9008,6 @@
       <c r="C12" s="137"/>
       <c r="D12" s="137"/>
       <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
       <c r="L12" s="181"/>
       <c r="M12" s="182"/>
       <c r="O12" s="1" t="s">
@@ -9134,7 +9020,7 @@
       <c r="Q12" s="148" t="s">
         <v>223</v>
       </c>
-      <c r="R12" s="202">
+      <c r="R12" s="201">
         <v>3.1481989955747081E-2</v>
       </c>
       <c r="S12" s="191"/>
@@ -9148,7 +9034,7 @@
       <c r="V12" s="148" t="s">
         <v>223</v>
       </c>
-      <c r="W12" s="202">
+      <c r="W12" s="201">
         <v>3.1481989955747081E-2</v>
       </c>
       <c r="Y12" s="1" t="s">
@@ -9161,7 +9047,7 @@
       <c r="AA12" s="148" t="s">
         <v>223</v>
       </c>
-      <c r="AB12" s="202">
+      <c r="AB12" s="201">
         <v>3.1481989955747081E-2</v>
       </c>
     </row>
@@ -9169,13 +9055,13 @@
       <c r="B13" s="181"/>
       <c r="C13" s="181"/>
       <c r="D13" s="181"/>
-      <c r="E13" s="195"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="195"/>
-      <c r="H13" s="195"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="195"/>
-      <c r="K13" s="195"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
       <c r="L13" s="181"/>
       <c r="M13" s="182"/>
       <c r="O13" s="1" t="s">
@@ -9188,7 +9074,7 @@
       <c r="Q13" s="183" t="s">
         <v>224</v>
       </c>
-      <c r="R13" s="202">
+      <c r="R13" s="201">
         <v>3.1731466950130557E-2</v>
       </c>
       <c r="S13" s="191"/>
@@ -9202,7 +9088,7 @@
       <c r="V13" s="183" t="s">
         <v>224</v>
       </c>
-      <c r="W13" s="202">
+      <c r="W13" s="201">
         <v>3.1731466950130557E-2</v>
       </c>
       <c r="Y13" s="1" t="s">
@@ -9215,7 +9101,7 @@
       <c r="AA13" s="183" t="s">
         <v>224</v>
       </c>
-      <c r="AB13" s="202">
+      <c r="AB13" s="201">
         <v>3.1731466950130557E-2</v>
       </c>
     </row>
@@ -9224,12 +9110,12 @@
       <c r="C14" s="181"/>
       <c r="D14" s="181"/>
       <c r="E14" s="181"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="195"/>
-      <c r="J14" s="195"/>
-      <c r="K14" s="195"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="194"/>
       <c r="L14" s="181"/>
       <c r="M14" s="182"/>
       <c r="O14" s="1" t="s">
@@ -9242,7 +9128,7 @@
       <c r="Q14" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="R14" s="202">
+      <c r="R14" s="201">
         <v>3.1860835358240212E-2</v>
       </c>
       <c r="S14" s="191"/>
@@ -9256,7 +9142,7 @@
       <c r="V14" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="W14" s="202">
+      <c r="W14" s="201">
         <v>3.1860835358240212E-2</v>
       </c>
       <c r="Y14" s="1" t="s">
@@ -9269,23 +9155,23 @@
       <c r="AA14" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="AB14" s="202">
+      <c r="AB14" s="201">
         <v>3.1860835358240212E-2</v>
       </c>
     </row>
     <row r="15" spans="2:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="197"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="197"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="197"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="199"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="195"/>
+      <c r="D15" s="195"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="196"/>
+      <c r="L15" s="197"/>
+      <c r="M15" s="198"/>
       <c r="O15" s="1" t="s">
         <v>167</v>
       </c>
@@ -9296,7 +9182,7 @@
       <c r="Q15" s="183" t="s">
         <v>226</v>
       </c>
-      <c r="R15" s="202">
+      <c r="R15" s="201">
         <v>3.2394250106746E-2</v>
       </c>
       <c r="S15" s="191"/>
@@ -9310,7 +9196,7 @@
       <c r="V15" s="183" t="s">
         <v>226</v>
       </c>
-      <c r="W15" s="202">
+      <c r="W15" s="201">
         <v>3.2394250106746E-2</v>
       </c>
       <c r="Y15" s="1" t="s">
@@ -9323,23 +9209,23 @@
       <c r="AA15" s="183" t="s">
         <v>226</v>
       </c>
-      <c r="AB15" s="202">
+      <c r="AB15" s="201">
         <v>3.2394250106746E-2</v>
       </c>
     </row>
     <row r="16" spans="2:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="196"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="207" t="s">
+      <c r="B16" s="195"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="196"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="206" t="s">
         <v>262</v>
       </c>
       <c r="O16" s="1" t="s">
@@ -9352,7 +9238,7 @@
       <c r="Q16" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="R16" s="202">
+      <c r="R16" s="201">
         <v>3.241825303092484E-2</v>
       </c>
       <c r="S16" s="191"/>
@@ -9366,7 +9252,7 @@
       <c r="V16" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="W16" s="202">
+      <c r="W16" s="201">
         <v>3.241825303092484E-2</v>
       </c>
       <c r="Y16" s="1" t="s">
@@ -9379,7 +9265,7 @@
       <c r="AA16" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="AB16" s="202">
+      <c r="AB16" s="201">
         <v>3.241825303092484E-2</v>
       </c>
     </row>
@@ -9392,30 +9278,30 @@
         <v>13142.908968099302</v>
       </c>
       <c r="F17" s="192">
-        <f t="shared" ref="F17:K17" si="3">$E17*(1+$M17)^(F6-$E6)</f>
-        <v>17247.359880422511</v>
+        <f t="shared" ref="F17:K17" si="0">$E17*(1+$M17)^(F6-$E6)</f>
+        <v>3.678856909513368E-76</v>
       </c>
       <c r="G17" s="192">
-        <f t="shared" si="3"/>
-        <v>27129.461156185345</v>
+        <f t="shared" si="0"/>
+        <v>3.678856909513368E-76</v>
       </c>
       <c r="H17" s="192">
-        <f t="shared" si="3"/>
-        <v>42673.642095241041</v>
+        <f t="shared" si="0"/>
+        <v>3.678856909513368E-76</v>
       </c>
       <c r="I17" s="192">
-        <f t="shared" si="3"/>
-        <v>67124.065575388056</v>
+        <f t="shared" si="0"/>
+        <v>3.678856909513368E-76</v>
       </c>
       <c r="J17" s="192">
-        <f t="shared" si="3"/>
-        <v>105583.68018631023</v>
+        <f t="shared" si="0"/>
+        <v>3.678856909513368E-76</v>
       </c>
       <c r="K17" s="192">
-        <f t="shared" si="3"/>
-        <v>166079.23590630319</v>
-      </c>
-      <c r="M17" s="205">
+        <f t="shared" si="0"/>
+        <v>3.678856909513368E-76</v>
+      </c>
+      <c r="M17" s="204">
         <v>9.4822485813413682E-2</v>
       </c>
       <c r="O17" t="s">
@@ -9428,7 +9314,7 @@
       <c r="Q17" t="s">
         <v>228</v>
       </c>
-      <c r="R17" s="202">
+      <c r="R17" s="201">
         <v>3.5569395862328948E-2</v>
       </c>
       <c r="S17" s="191"/>
@@ -9442,7 +9328,7 @@
       <c r="V17" t="s">
         <v>228</v>
       </c>
-      <c r="W17" s="202">
+      <c r="W17" s="201">
         <v>3.5569395862328948E-2</v>
       </c>
       <c r="Y17" t="s">
@@ -9455,18 +9341,18 @@
       <c r="AA17" t="s">
         <v>228</v>
       </c>
-      <c r="AB17" s="202">
+      <c r="AB17" s="201">
         <v>3.5569395862328948E-2</v>
       </c>
     </row>
     <row r="18" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="E18" s="206"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="206"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="206"/>
-      <c r="J18" s="206"/>
-      <c r="K18" s="206"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="205"/>
+      <c r="J18" s="205"/>
+      <c r="K18" s="205"/>
       <c r="O18" s="1" t="s">
         <v>167</v>
       </c>
@@ -9477,7 +9363,7 @@
       <c r="Q18" s="148" t="s">
         <v>229</v>
       </c>
-      <c r="R18" s="202">
+      <c r="R18" s="201">
         <v>5.0064684062236839E-2</v>
       </c>
       <c r="S18" s="191"/>
@@ -9491,7 +9377,7 @@
       <c r="V18" s="148" t="s">
         <v>229</v>
       </c>
-      <c r="W18" s="202">
+      <c r="W18" s="201">
         <v>5.0064684062236839E-2</v>
       </c>
       <c r="Y18" s="1" t="s">
@@ -9504,7 +9390,7 @@
       <c r="AA18" s="148" t="s">
         <v>229</v>
       </c>
-      <c r="AB18" s="202">
+      <c r="AB18" s="201">
         <v>5.0064684062236839E-2</v>
       </c>
     </row>
@@ -9515,25 +9401,25 @@
       <c r="D19" t="s">
         <v>214</v>
       </c>
-      <c r="E19" s="205">
+      <c r="E19" s="204">
         <v>0.19822057738765797</v>
       </c>
-      <c r="F19" s="205">
+      <c r="F19" s="204">
         <v>0.17089032059330644</v>
       </c>
-      <c r="G19" s="205">
+      <c r="G19" s="204">
         <v>0.13016666322591705</v>
       </c>
-      <c r="H19" s="205">
+      <c r="H19" s="204">
         <v>9.6441961722448732E-2</v>
       </c>
-      <c r="I19" s="205">
+      <c r="I19" s="204">
         <v>6.9833022502173214E-2</v>
       </c>
-      <c r="J19" s="205">
+      <c r="J19" s="204">
         <v>4.9653270610873525E-2</v>
       </c>
-      <c r="K19" s="205">
+      <c r="K19" s="204">
         <v>3.4816599780407721E-2</v>
       </c>
       <c r="O19" t="s">
@@ -9546,7 +9432,7 @@
       <c r="Q19" t="s">
         <v>230</v>
       </c>
-      <c r="R19" s="202">
+      <c r="R19" s="201">
         <v>6.1132650490749271E-2</v>
       </c>
       <c r="S19" s="191"/>
@@ -9560,7 +9446,7 @@
       <c r="V19" t="s">
         <v>230</v>
       </c>
-      <c r="W19" s="202">
+      <c r="W19" s="201">
         <v>6.1132650490749271E-2</v>
       </c>
       <c r="Y19" t="s">
@@ -9573,7 +9459,7 @@
       <c r="AA19" t="s">
         <v>230</v>
       </c>
-      <c r="AB19" s="202">
+      <c r="AB19" s="201">
         <v>6.1132650490749271E-2</v>
       </c>
     </row>
@@ -9584,25 +9470,25 @@
       <c r="D20" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="205">
+      <c r="E20" s="204">
         <v>0.21771665775440627</v>
       </c>
-      <c r="F20" s="205">
+      <c r="F20" s="204">
         <v>0.19238351122345129</v>
       </c>
-      <c r="G20" s="205">
+      <c r="G20" s="204">
         <v>0.15268484122735157</v>
       </c>
-      <c r="H20" s="205">
+      <c r="H20" s="204">
         <v>0.11787126733472666</v>
       </c>
-      <c r="I20" s="205">
+      <c r="I20" s="204">
         <v>8.8930047492301309E-2</v>
       </c>
-      <c r="J20" s="205">
+      <c r="J20" s="204">
         <v>6.5884205406057411E-2</v>
       </c>
-      <c r="K20" s="205">
+      <c r="K20" s="204">
         <v>4.8135509709209295E-2</v>
       </c>
       <c r="O20" t="s">
@@ -9615,7 +9501,7 @@
       <c r="Q20" t="s">
         <v>231</v>
       </c>
-      <c r="R20" s="202">
+      <c r="R20" s="201">
         <v>6.011628522297266E-2</v>
       </c>
       <c r="S20" s="191"/>
@@ -9629,7 +9515,7 @@
       <c r="V20" t="s">
         <v>231</v>
       </c>
-      <c r="W20" s="202">
+      <c r="W20" s="201">
         <v>6.011628522297266E-2</v>
       </c>
       <c r="Y20" t="s">
@@ -9642,7 +9528,7 @@
       <c r="AA20" t="s">
         <v>231</v>
       </c>
-      <c r="AB20" s="202">
+      <c r="AB20" s="201">
         <v>6.011628522297266E-2</v>
       </c>
     </row>
@@ -9653,25 +9539,25 @@
       <c r="D21" t="s">
         <v>256</v>
       </c>
-      <c r="E21" s="205">
+      <c r="E21" s="204">
         <v>0.58406276485793585</v>
       </c>
-      <c r="F21" s="205">
+      <c r="F21" s="204">
         <v>0.63672616818324224</v>
       </c>
-      <c r="G21" s="205">
+      <c r="G21" s="204">
         <v>0.71714849554673121</v>
       </c>
-      <c r="H21" s="205">
+      <c r="H21" s="204">
         <v>0.78568677094282446</v>
       </c>
-      <c r="I21" s="205">
+      <c r="I21" s="204">
         <v>0.84123693000552557</v>
       </c>
-      <c r="J21" s="205">
+      <c r="J21" s="204">
         <v>0.88446252398306902</v>
       </c>
-      <c r="K21" s="205">
+      <c r="K21" s="204">
         <v>0.91704789051038305</v>
       </c>
       <c r="O21" t="s">
@@ -9684,7 +9570,7 @@
       <c r="Q21" t="s">
         <v>232</v>
       </c>
-      <c r="R21" s="202">
+      <c r="R21" s="201">
         <v>6.2041439521472716E-2</v>
       </c>
       <c r="S21" s="191"/>
@@ -9698,7 +9584,7 @@
       <c r="V21" t="s">
         <v>232</v>
       </c>
-      <c r="W21" s="202">
+      <c r="W21" s="201">
         <v>6.2041439521472716E-2</v>
       </c>
       <c r="Y21" t="s">
@@ -9711,7 +9597,7 @@
       <c r="AA21" t="s">
         <v>232</v>
       </c>
-      <c r="AB21" s="202">
+      <c r="AB21" s="201">
         <v>6.2041439521472716E-2</v>
       </c>
     </row>
@@ -9726,7 +9612,7 @@
       <c r="Q22" t="s">
         <v>233</v>
       </c>
-      <c r="R22" s="202">
+      <c r="R22" s="201">
         <v>5.0238563001630904E-2</v>
       </c>
       <c r="S22" s="191"/>
@@ -9740,7 +9626,7 @@
       <c r="V22" t="s">
         <v>233</v>
       </c>
-      <c r="W22" s="202">
+      <c r="W22" s="201">
         <v>5.0238563001630904E-2</v>
       </c>
       <c r="Y22" t="s">
@@ -9753,18 +9639,18 @@
       <c r="AA22" t="s">
         <v>233</v>
       </c>
-      <c r="AB22" s="202">
+      <c r="AB22" s="201">
         <v>5.0238563001630904E-2</v>
       </c>
     </row>
     <row r="23" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="E23" s="194"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="194"/>
-      <c r="K23" s="194"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="193"/>
+      <c r="K23" s="193"/>
       <c r="O23" t="s">
         <v>167</v>
       </c>
@@ -9775,7 +9661,7 @@
       <c r="Q23" t="s">
         <v>234</v>
       </c>
-      <c r="R23" s="202">
+      <c r="R23" s="201">
         <v>5.3184386397899165E-2</v>
       </c>
       <c r="S23" s="191"/>
@@ -9789,7 +9675,7 @@
       <c r="V23" t="s">
         <v>234</v>
       </c>
-      <c r="W23" s="202">
+      <c r="W23" s="201">
         <v>5.3184386397899165E-2</v>
       </c>
       <c r="Y23" t="s">
@@ -9802,7 +9688,7 @@
       <c r="AA23" t="s">
         <v>234</v>
       </c>
-      <c r="AB23" s="202">
+      <c r="AB23" s="201">
         <v>5.3184386397899165E-2</v>
       </c>
     </row>
@@ -9817,7 +9703,7 @@
       <c r="Q24" t="s">
         <v>235</v>
       </c>
-      <c r="R24" s="202">
+      <c r="R24" s="201">
         <v>5.7662395688403471E-2</v>
       </c>
       <c r="S24" s="191"/>
@@ -9831,7 +9717,7 @@
       <c r="V24" t="s">
         <v>235</v>
       </c>
-      <c r="W24" s="202">
+      <c r="W24" s="201">
         <v>5.7662395688403471E-2</v>
       </c>
       <c r="Y24" t="s">
@@ -9844,7 +9730,7 @@
       <c r="AA24" t="s">
         <v>235</v>
       </c>
-      <c r="AB24" s="202">
+      <c r="AB24" s="201">
         <v>5.7662395688403471E-2</v>
       </c>
     </row>
@@ -9859,7 +9745,7 @@
       <c r="Q25" t="s">
         <v>236</v>
       </c>
-      <c r="R25" s="202">
+      <c r="R25" s="201">
         <v>5.8557745224525878E-2</v>
       </c>
       <c r="S25" s="191"/>
@@ -9873,7 +9759,7 @@
       <c r="V25" t="s">
         <v>236</v>
       </c>
-      <c r="W25" s="202">
+      <c r="W25" s="201">
         <v>5.8557745224525878E-2</v>
       </c>
       <c r="Y25" t="s">
@@ -9886,7 +9772,7 @@
       <c r="AA25" t="s">
         <v>236</v>
       </c>
-      <c r="AB25" s="202">
+      <c r="AB25" s="201">
         <v>5.8557745224525878E-2</v>
       </c>
     </row>
@@ -9909,7 +9795,7 @@
       <c r="Q26" t="s">
         <v>237</v>
       </c>
-      <c r="R26" s="202">
+      <c r="R26" s="201">
         <v>5.4169812257972488E-2</v>
       </c>
       <c r="S26" s="191"/>
@@ -9923,7 +9809,7 @@
       <c r="V26" t="s">
         <v>237</v>
       </c>
-      <c r="W26" s="202">
+      <c r="W26" s="201">
         <v>5.4169812257972488E-2</v>
       </c>
       <c r="Y26" t="s">
@@ -9936,7 +9822,7 @@
       <c r="AA26" t="s">
         <v>237</v>
       </c>
-      <c r="AB26" s="202">
+      <c r="AB26" s="201">
         <v>5.4169812257972488E-2</v>
       </c>
     </row>
@@ -9953,7 +9839,7 @@
       <c r="Q27" t="s">
         <v>238</v>
       </c>
-      <c r="R27" s="202">
+      <c r="R27" s="201">
         <v>4.1857004866670537E-2</v>
       </c>
       <c r="S27" s="191"/>
@@ -9967,7 +9853,7 @@
       <c r="V27" t="s">
         <v>238</v>
       </c>
-      <c r="W27" s="202">
+      <c r="W27" s="201">
         <v>4.1857004866670537E-2</v>
       </c>
       <c r="Y27" t="s">
@@ -9980,7 +9866,7 @@
       <c r="AA27" t="s">
         <v>238</v>
       </c>
-      <c r="AB27" s="202">
+      <c r="AB27" s="201">
         <v>4.1857004866670537E-2</v>
       </c>
     </row>
@@ -10003,7 +9889,7 @@
       <c r="Q28" t="s">
         <v>239</v>
       </c>
-      <c r="R28" s="202">
+      <c r="R28" s="201">
         <v>3.3691520594468241E-2</v>
       </c>
       <c r="S28" s="191"/>
@@ -10017,7 +9903,7 @@
       <c r="V28" t="s">
         <v>239</v>
       </c>
-      <c r="W28" s="202">
+      <c r="W28" s="201">
         <v>3.3691520594468241E-2</v>
       </c>
       <c r="Y28" t="s">
@@ -10030,7 +9916,7 @@
       <c r="AA28" t="s">
         <v>239</v>
       </c>
-      <c r="AB28" s="202">
+      <c r="AB28" s="201">
         <v>3.3691520594468241E-2</v>
       </c>
     </row>
@@ -10053,7 +9939,7 @@
       <c r="Q29" t="s">
         <v>240</v>
       </c>
-      <c r="R29" s="202">
+      <c r="R29" s="201">
         <v>3.2906492752302938E-2</v>
       </c>
       <c r="S29" s="191"/>
@@ -10067,7 +9953,7 @@
       <c r="V29" t="s">
         <v>240</v>
       </c>
-      <c r="W29" s="202">
+      <c r="W29" s="201">
         <v>3.2906492752302938E-2</v>
       </c>
       <c r="Y29" t="s">
@@ -10080,7 +9966,7 @@
       <c r="AA29" t="s">
         <v>240</v>
       </c>
-      <c r="AB29" s="202">
+      <c r="AB29" s="201">
         <v>3.2906492752302938E-2</v>
       </c>
     </row>
@@ -10095,7 +9981,7 @@
       <c r="Q30" s="148" t="s">
         <v>241</v>
       </c>
-      <c r="R30" s="202">
+      <c r="R30" s="201">
         <v>3.20626233861286E-2</v>
       </c>
       <c r="S30" s="191"/>
@@ -10109,7 +9995,7 @@
       <c r="V30" s="148" t="s">
         <v>241</v>
       </c>
-      <c r="W30" s="202">
+      <c r="W30" s="201">
         <v>3.20626233861286E-2</v>
       </c>
       <c r="Y30" s="1" t="s">
@@ -10122,7 +10008,7 @@
       <c r="AA30" s="148" t="s">
         <v>241</v>
       </c>
-      <c r="AB30" s="202">
+      <c r="AB30" s="201">
         <v>3.20626233861286E-2</v>
       </c>
     </row>
@@ -10137,7 +10023,7 @@
       <c r="Q31" s="183" t="s">
         <v>242</v>
       </c>
-      <c r="R31" s="202">
+      <c r="R31" s="201">
         <v>3.1700774081405016E-2</v>
       </c>
       <c r="S31" s="191"/>
@@ -10151,7 +10037,7 @@
       <c r="V31" s="183" t="s">
         <v>242</v>
       </c>
-      <c r="W31" s="202">
+      <c r="W31" s="201">
         <v>3.1700774081405016E-2</v>
       </c>
       <c r="Y31" s="1" t="s">
@@ -10164,7 +10050,7 @@
       <c r="AA31" s="183" t="s">
         <v>242</v>
       </c>
-      <c r="AB31" s="202">
+      <c r="AB31" s="201">
         <v>3.1700774081405016E-2</v>
       </c>
     </row>
@@ -10183,7 +10069,7 @@
       <c r="Q32" s="148" t="s">
         <v>243</v>
       </c>
-      <c r="R32" s="202">
+      <c r="R32" s="201">
         <v>3.0548494068914959E-2</v>
       </c>
       <c r="S32" s="191"/>
@@ -10197,7 +10083,7 @@
       <c r="V32" s="148" t="s">
         <v>243</v>
       </c>
-      <c r="W32" s="202">
+      <c r="W32" s="201">
         <v>3.0548494068914959E-2</v>
       </c>
       <c r="Y32" s="1" t="s">
@@ -10210,7 +10096,7 @@
       <c r="AA32" s="148" t="s">
         <v>243</v>
       </c>
-      <c r="AB32" s="202">
+      <c r="AB32" s="201">
         <v>3.0548494068914959E-2</v>
       </c>
     </row>
@@ -10230,7 +10116,7 @@
       <c r="Q33" s="183" t="s">
         <v>244</v>
       </c>
-      <c r="R33" s="202">
+      <c r="R33" s="201">
         <v>3.117830445262517E-2</v>
       </c>
       <c r="S33" s="191"/>
@@ -10244,7 +10130,7 @@
       <c r="V33" s="183" t="s">
         <v>244</v>
       </c>
-      <c r="W33" s="202">
+      <c r="W33" s="201">
         <v>3.117830445262517E-2</v>
       </c>
       <c r="Y33" s="1" t="s">
@@ -10257,7 +10143,7 @@
       <c r="AA33" s="183" t="s">
         <v>244</v>
       </c>
-      <c r="AB33" s="202">
+      <c r="AB33" s="201">
         <v>3.117830445262517E-2</v>
       </c>
     </row>
@@ -10273,7 +10159,7 @@
       <c r="Q34" t="s">
         <v>168</v>
       </c>
-      <c r="R34" s="202">
+      <c r="R34" s="201">
         <v>3.1580002137548593E-2</v>
       </c>
       <c r="T34" s="1" t="s">
@@ -10286,7 +10172,7 @@
       <c r="V34" t="s">
         <v>168</v>
       </c>
-      <c r="W34" s="202">
+      <c r="W34" s="201">
         <v>3.1580002137548593E-2</v>
       </c>
       <c r="Y34" s="1" t="s">
@@ -10299,7 +10185,7 @@
       <c r="AA34" t="s">
         <v>168</v>
       </c>
-      <c r="AB34" s="202">
+      <c r="AB34" s="201">
         <v>3.1580002137548593E-2</v>
       </c>
     </row>
@@ -10314,7 +10200,7 @@
       <c r="Q35" t="s">
         <v>169</v>
       </c>
-      <c r="R35" s="202">
+      <c r="R35" s="201">
         <v>3.1850630527954941E-2</v>
       </c>
       <c r="T35" s="1" t="s">
@@ -10327,7 +10213,7 @@
       <c r="V35" t="s">
         <v>169</v>
       </c>
-      <c r="W35" s="202">
+      <c r="W35" s="201">
         <v>3.1850630527954941E-2</v>
       </c>
       <c r="Y35" s="1" t="s">
@@ -10340,7 +10226,7 @@
       <c r="AA35" t="s">
         <v>169</v>
       </c>
-      <c r="AB35" s="202">
+      <c r="AB35" s="201">
         <v>3.1850630527954941E-2</v>
       </c>
     </row>
@@ -10359,7 +10245,7 @@
       <c r="Q36" t="s">
         <v>170</v>
       </c>
-      <c r="R36" s="202">
+      <c r="R36" s="201">
         <v>3.1481989955747081E-2</v>
       </c>
       <c r="T36" s="1" t="s">
@@ -10372,7 +10258,7 @@
       <c r="V36" t="s">
         <v>170</v>
       </c>
-      <c r="W36" s="202">
+      <c r="W36" s="201">
         <v>3.1481989955747081E-2</v>
       </c>
       <c r="Y36" s="1" t="s">
@@ -10385,7 +10271,7 @@
       <c r="AA36" t="s">
         <v>170</v>
       </c>
-      <c r="AB36" s="202">
+      <c r="AB36" s="201">
         <v>3.1481989955747081E-2</v>
       </c>
     </row>
@@ -10404,7 +10290,7 @@
       <c r="Q37" t="s">
         <v>171</v>
       </c>
-      <c r="R37" s="202">
+      <c r="R37" s="201">
         <v>3.1731466950130557E-2</v>
       </c>
       <c r="T37" s="1" t="s">
@@ -10417,7 +10303,7 @@
       <c r="V37" t="s">
         <v>171</v>
       </c>
-      <c r="W37" s="202">
+      <c r="W37" s="201">
         <v>3.1731466950130557E-2</v>
       </c>
       <c r="Y37" s="1" t="s">
@@ -10430,7 +10316,7 @@
       <c r="AA37" t="s">
         <v>171</v>
       </c>
-      <c r="AB37" s="202">
+      <c r="AB37" s="201">
         <v>3.1731466950130557E-2</v>
       </c>
     </row>
@@ -10445,7 +10331,7 @@
       <c r="Q38" t="s">
         <v>172</v>
       </c>
-      <c r="R38" s="202">
+      <c r="R38" s="201">
         <v>3.1860835358240212E-2</v>
       </c>
       <c r="T38" s="1" t="s">
@@ -10458,7 +10344,7 @@
       <c r="V38" t="s">
         <v>172</v>
       </c>
-      <c r="W38" s="202">
+      <c r="W38" s="201">
         <v>3.1860835358240212E-2</v>
       </c>
       <c r="Y38" s="1" t="s">
@@ -10471,7 +10357,7 @@
       <c r="AA38" t="s">
         <v>172</v>
       </c>
-      <c r="AB38" s="202">
+      <c r="AB38" s="201">
         <v>3.1860835358240212E-2</v>
       </c>
     </row>
@@ -10486,7 +10372,7 @@
       <c r="Q39" t="s">
         <v>173</v>
       </c>
-      <c r="R39" s="202">
+      <c r="R39" s="201">
         <v>3.2394250106746E-2</v>
       </c>
       <c r="T39" s="1" t="s">
@@ -10499,7 +10385,7 @@
       <c r="V39" t="s">
         <v>173</v>
       </c>
-      <c r="W39" s="202">
+      <c r="W39" s="201">
         <v>3.2394250106746E-2</v>
       </c>
       <c r="Y39" s="1" t="s">
@@ -10512,7 +10398,7 @@
       <c r="AA39" t="s">
         <v>173</v>
       </c>
-      <c r="AB39" s="202">
+      <c r="AB39" s="201">
         <v>3.2394250106746E-2</v>
       </c>
     </row>
@@ -10527,7 +10413,7 @@
       <c r="Q40" t="s">
         <v>174</v>
       </c>
-      <c r="R40" s="202">
+      <c r="R40" s="201">
         <v>3.241825303092484E-2</v>
       </c>
       <c r="T40" s="1" t="s">
@@ -10540,7 +10426,7 @@
       <c r="V40" t="s">
         <v>174</v>
       </c>
-      <c r="W40" s="202">
+      <c r="W40" s="201">
         <v>3.241825303092484E-2</v>
       </c>
       <c r="Y40" s="1" t="s">
@@ -10553,7 +10439,7 @@
       <c r="AA40" t="s">
         <v>174</v>
       </c>
-      <c r="AB40" s="202">
+      <c r="AB40" s="201">
         <v>3.241825303092484E-2</v>
       </c>
     </row>
@@ -10568,7 +10454,7 @@
       <c r="Q41" t="s">
         <v>175</v>
       </c>
-      <c r="R41" s="202">
+      <c r="R41" s="201">
         <v>3.5569395862328948E-2</v>
       </c>
       <c r="T41" s="1" t="s">
@@ -10581,7 +10467,7 @@
       <c r="V41" t="s">
         <v>175</v>
       </c>
-      <c r="W41" s="202">
+      <c r="W41" s="201">
         <v>3.5569395862328948E-2</v>
       </c>
       <c r="Y41" s="1" t="s">
@@ -10594,7 +10480,7 @@
       <c r="AA41" t="s">
         <v>175</v>
       </c>
-      <c r="AB41" s="202">
+      <c r="AB41" s="201">
         <v>3.5569395862328948E-2</v>
       </c>
     </row>
@@ -10609,7 +10495,7 @@
       <c r="Q42" t="s">
         <v>176</v>
       </c>
-      <c r="R42" s="202">
+      <c r="R42" s="201">
         <v>5.0064684062236839E-2</v>
       </c>
       <c r="T42" s="1" t="s">
@@ -10622,7 +10508,7 @@
       <c r="V42" t="s">
         <v>176</v>
       </c>
-      <c r="W42" s="202">
+      <c r="W42" s="201">
         <v>5.0064684062236839E-2</v>
       </c>
       <c r="Y42" s="1" t="s">
@@ -10635,7 +10521,7 @@
       <c r="AA42" t="s">
         <v>176</v>
       </c>
-      <c r="AB42" s="202">
+      <c r="AB42" s="201">
         <v>5.0064684062236839E-2</v>
       </c>
     </row>
@@ -10650,7 +10536,7 @@
       <c r="Q43" t="s">
         <v>177</v>
       </c>
-      <c r="R43" s="202">
+      <c r="R43" s="201">
         <v>6.1132650490749271E-2</v>
       </c>
       <c r="T43" s="1" t="s">
@@ -10663,7 +10549,7 @@
       <c r="V43" t="s">
         <v>177</v>
       </c>
-      <c r="W43" s="202">
+      <c r="W43" s="201">
         <v>6.1132650490749271E-2</v>
       </c>
       <c r="Y43" s="1" t="s">
@@ -10676,7 +10562,7 @@
       <c r="AA43" t="s">
         <v>177</v>
       </c>
-      <c r="AB43" s="202">
+      <c r="AB43" s="201">
         <v>6.1132650490749271E-2</v>
       </c>
     </row>
@@ -10691,7 +10577,7 @@
       <c r="Q44" t="s">
         <v>178</v>
       </c>
-      <c r="R44" s="202">
+      <c r="R44" s="201">
         <v>6.011628522297266E-2</v>
       </c>
       <c r="T44" s="1" t="s">
@@ -10704,7 +10590,7 @@
       <c r="V44" t="s">
         <v>178</v>
       </c>
-      <c r="W44" s="202">
+      <c r="W44" s="201">
         <v>6.011628522297266E-2</v>
       </c>
       <c r="Y44" s="1" t="s">
@@ -10717,7 +10603,7 @@
       <c r="AA44" t="s">
         <v>178</v>
       </c>
-      <c r="AB44" s="202">
+      <c r="AB44" s="201">
         <v>6.011628522297266E-2</v>
       </c>
     </row>
@@ -10732,7 +10618,7 @@
       <c r="Q45" t="s">
         <v>179</v>
       </c>
-      <c r="R45" s="202">
+      <c r="R45" s="201">
         <v>6.2041439521472716E-2</v>
       </c>
       <c r="T45" s="1" t="s">
@@ -10745,7 +10631,7 @@
       <c r="V45" t="s">
         <v>179</v>
       </c>
-      <c r="W45" s="202">
+      <c r="W45" s="201">
         <v>6.2041439521472716E-2</v>
       </c>
       <c r="Y45" s="1" t="s">
@@ -10758,7 +10644,7 @@
       <c r="AA45" t="s">
         <v>179</v>
       </c>
-      <c r="AB45" s="202">
+      <c r="AB45" s="201">
         <v>6.2041439521472716E-2</v>
       </c>
     </row>
@@ -10773,7 +10659,7 @@
       <c r="Q46" t="s">
         <v>180</v>
       </c>
-      <c r="R46" s="202">
+      <c r="R46" s="201">
         <v>5.0238563001630904E-2</v>
       </c>
       <c r="T46" s="1" t="s">
@@ -10786,7 +10672,7 @@
       <c r="V46" t="s">
         <v>180</v>
       </c>
-      <c r="W46" s="202">
+      <c r="W46" s="201">
         <v>5.0238563001630904E-2</v>
       </c>
       <c r="Y46" s="1" t="s">
@@ -10799,7 +10685,7 @@
       <c r="AA46" t="s">
         <v>180</v>
       </c>
-      <c r="AB46" s="202">
+      <c r="AB46" s="201">
         <v>5.0238563001630904E-2</v>
       </c>
     </row>
@@ -10814,7 +10700,7 @@
       <c r="Q47" t="s">
         <v>181</v>
       </c>
-      <c r="R47" s="202">
+      <c r="R47" s="201">
         <v>5.3184386397899165E-2</v>
       </c>
       <c r="T47" s="1" t="s">
@@ -10827,7 +10713,7 @@
       <c r="V47" t="s">
         <v>181</v>
       </c>
-      <c r="W47" s="202">
+      <c r="W47" s="201">
         <v>5.3184386397899165E-2</v>
       </c>
       <c r="Y47" s="1" t="s">
@@ -10840,7 +10726,7 @@
       <c r="AA47" t="s">
         <v>181</v>
       </c>
-      <c r="AB47" s="202">
+      <c r="AB47" s="201">
         <v>5.3184386397899165E-2</v>
       </c>
     </row>
@@ -10855,7 +10741,7 @@
       <c r="Q48" t="s">
         <v>182</v>
       </c>
-      <c r="R48" s="202">
+      <c r="R48" s="201">
         <v>5.7662395688403471E-2</v>
       </c>
       <c r="T48" s="1" t="s">
@@ -10868,7 +10754,7 @@
       <c r="V48" t="s">
         <v>182</v>
       </c>
-      <c r="W48" s="202">
+      <c r="W48" s="201">
         <v>5.7662395688403471E-2</v>
       </c>
       <c r="Y48" s="1" t="s">
@@ -10881,7 +10767,7 @@
       <c r="AA48" t="s">
         <v>182</v>
       </c>
-      <c r="AB48" s="202">
+      <c r="AB48" s="201">
         <v>5.7662395688403471E-2</v>
       </c>
     </row>
@@ -10896,7 +10782,7 @@
       <c r="Q49" t="s">
         <v>183</v>
       </c>
-      <c r="R49" s="202">
+      <c r="R49" s="201">
         <v>5.8557745224525878E-2</v>
       </c>
       <c r="T49" s="1" t="s">
@@ -10909,7 +10795,7 @@
       <c r="V49" t="s">
         <v>183</v>
       </c>
-      <c r="W49" s="202">
+      <c r="W49" s="201">
         <v>5.8557745224525878E-2</v>
       </c>
       <c r="Y49" s="1" t="s">
@@ -10922,7 +10808,7 @@
       <c r="AA49" t="s">
         <v>183</v>
       </c>
-      <c r="AB49" s="202">
+      <c r="AB49" s="201">
         <v>5.8557745224525878E-2</v>
       </c>
     </row>
@@ -10937,7 +10823,7 @@
       <c r="Q50" t="s">
         <v>184</v>
       </c>
-      <c r="R50" s="202">
+      <c r="R50" s="201">
         <v>5.4169812257972488E-2</v>
       </c>
       <c r="T50" s="1" t="s">
@@ -10950,7 +10836,7 @@
       <c r="V50" t="s">
         <v>184</v>
       </c>
-      <c r="W50" s="202">
+      <c r="W50" s="201">
         <v>5.4169812257972488E-2</v>
       </c>
       <c r="Y50" s="1" t="s">
@@ -10963,7 +10849,7 @@
       <c r="AA50" t="s">
         <v>184</v>
       </c>
-      <c r="AB50" s="202">
+      <c r="AB50" s="201">
         <v>5.4169812257972488E-2</v>
       </c>
     </row>
@@ -10978,7 +10864,7 @@
       <c r="Q51" t="s">
         <v>185</v>
       </c>
-      <c r="R51" s="202">
+      <c r="R51" s="201">
         <v>4.1857004866670537E-2</v>
       </c>
       <c r="T51" s="1" t="s">
@@ -10991,7 +10877,7 @@
       <c r="V51" t="s">
         <v>185</v>
       </c>
-      <c r="W51" s="202">
+      <c r="W51" s="201">
         <v>4.1857004866670537E-2</v>
       </c>
       <c r="Y51" s="1" t="s">
@@ -11004,7 +10890,7 @@
       <c r="AA51" t="s">
         <v>185</v>
       </c>
-      <c r="AB51" s="202">
+      <c r="AB51" s="201">
         <v>4.1857004866670537E-2</v>
       </c>
     </row>
@@ -11019,7 +10905,7 @@
       <c r="Q52" t="s">
         <v>186</v>
       </c>
-      <c r="R52" s="202">
+      <c r="R52" s="201">
         <v>3.3691520594468241E-2</v>
       </c>
       <c r="T52" s="1" t="s">
@@ -11032,7 +10918,7 @@
       <c r="V52" t="s">
         <v>186</v>
       </c>
-      <c r="W52" s="202">
+      <c r="W52" s="201">
         <v>3.3691520594468241E-2</v>
       </c>
       <c r="Y52" s="1" t="s">
@@ -11045,7 +10931,7 @@
       <c r="AA52" t="s">
         <v>186</v>
       </c>
-      <c r="AB52" s="202">
+      <c r="AB52" s="201">
         <v>3.3691520594468241E-2</v>
       </c>
     </row>
@@ -11060,7 +10946,7 @@
       <c r="Q53" t="s">
         <v>187</v>
       </c>
-      <c r="R53" s="202">
+      <c r="R53" s="201">
         <v>3.2906492752302938E-2</v>
       </c>
       <c r="T53" s="1" t="s">
@@ -11073,7 +10959,7 @@
       <c r="V53" t="s">
         <v>187</v>
       </c>
-      <c r="W53" s="202">
+      <c r="W53" s="201">
         <v>3.2906492752302938E-2</v>
       </c>
       <c r="Y53" s="1" t="s">
@@ -11086,7 +10972,7 @@
       <c r="AA53" t="s">
         <v>187</v>
       </c>
-      <c r="AB53" s="202">
+      <c r="AB53" s="201">
         <v>3.2906492752302938E-2</v>
       </c>
     </row>
@@ -11101,7 +10987,7 @@
       <c r="Q54" t="s">
         <v>188</v>
       </c>
-      <c r="R54" s="202">
+      <c r="R54" s="201">
         <v>3.20626233861286E-2</v>
       </c>
       <c r="T54" s="1" t="s">
@@ -11114,7 +11000,7 @@
       <c r="V54" t="s">
         <v>188</v>
       </c>
-      <c r="W54" s="202">
+      <c r="W54" s="201">
         <v>3.20626233861286E-2</v>
       </c>
       <c r="Y54" s="1" t="s">
@@ -11127,7 +11013,7 @@
       <c r="AA54" t="s">
         <v>188</v>
       </c>
-      <c r="AB54" s="202">
+      <c r="AB54" s="201">
         <v>3.20626233861286E-2</v>
       </c>
     </row>
@@ -11142,7 +11028,7 @@
       <c r="Q55" t="s">
         <v>189</v>
       </c>
-      <c r="R55" s="202">
+      <c r="R55" s="201">
         <v>3.1700774081405016E-2</v>
       </c>
       <c r="T55" s="1" t="s">
@@ -11155,7 +11041,7 @@
       <c r="V55" t="s">
         <v>189</v>
       </c>
-      <c r="W55" s="202">
+      <c r="W55" s="201">
         <v>3.1700774081405016E-2</v>
       </c>
       <c r="Y55" s="1" t="s">
@@ -11168,7 +11054,7 @@
       <c r="AA55" t="s">
         <v>189</v>
       </c>
-      <c r="AB55" s="202">
+      <c r="AB55" s="201">
         <v>3.1700774081405016E-2</v>
       </c>
     </row>
@@ -11183,7 +11069,7 @@
       <c r="Q56" t="s">
         <v>190</v>
       </c>
-      <c r="R56" s="202">
+      <c r="R56" s="201">
         <v>3.0548494068914959E-2</v>
       </c>
       <c r="T56" s="1" t="s">
@@ -11196,7 +11082,7 @@
       <c r="V56" t="s">
         <v>190</v>
       </c>
-      <c r="W56" s="202">
+      <c r="W56" s="201">
         <v>3.0548494068914959E-2</v>
       </c>
       <c r="Y56" s="1" t="s">
@@ -11209,7 +11095,7 @@
       <c r="AA56" t="s">
         <v>190</v>
       </c>
-      <c r="AB56" s="202">
+      <c r="AB56" s="201">
         <v>3.0548494068914959E-2</v>
       </c>
     </row>
@@ -11224,7 +11110,7 @@
       <c r="Q57" t="s">
         <v>191</v>
       </c>
-      <c r="R57" s="202">
+      <c r="R57" s="201">
         <v>3.117830445262517E-2</v>
       </c>
       <c r="T57" s="1" t="s">
@@ -11237,7 +11123,7 @@
       <c r="V57" t="s">
         <v>191</v>
       </c>
-      <c r="W57" s="202">
+      <c r="W57" s="201">
         <v>3.117830445262517E-2</v>
       </c>
       <c r="Y57" s="1" t="s">
@@ -11250,7 +11136,7 @@
       <c r="AA57" t="s">
         <v>191</v>
       </c>
-      <c r="AB57" s="202">
+      <c r="AB57" s="201">
         <v>3.117830445262517E-2</v>
       </c>
     </row>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1411346-4CE1-4CC3-83AA-53AFB982360B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{A1411346-4CE1-4CC3-83AA-53AFB982360B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E863B6FE-6D21-408F-8F40-DB01DC04A5A5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="FID_1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1558,7 +1558,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="264">
   <si>
     <t>CommName</t>
   </si>
@@ -2169,63 +2169,6 @@
     <t>DayNite</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MAN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>COALMIN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MAN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>COALIMP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MAN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>OILIMP</t>
-    </r>
-  </si>
-  <si>
     <t>ktoe</t>
   </si>
   <si>
@@ -2253,19 +2196,7 @@
     <t>MANHEAT</t>
   </si>
   <si>
-    <t>Manufacturing heat total</t>
-  </si>
-  <si>
-    <t>Manufacturing heat aggrigator</t>
-  </si>
-  <si>
-    <t>PHEAT</t>
-  </si>
-  <si>
     <t>HEAT</t>
-  </si>
-  <si>
-    <t>Manufacturing Process Heat Aggrigator</t>
   </si>
   <si>
     <t>START</t>
@@ -2472,15 +2403,6 @@
     <t>DM3 : Machine dive, lighting, cooling , refrigration etc</t>
   </si>
   <si>
-    <t>Total energy consumption</t>
-  </si>
-  <si>
-    <t>Normalized share</t>
-  </si>
-  <si>
-    <t>Ggrowth rate 2016-2023</t>
-  </si>
-  <si>
     <t>TH$2024</t>
   </si>
   <si>
@@ -2503,23 +2425,31 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>MANCOALMIN</t>
+  </si>
+  <si>
+    <t>MANCOALIMP</t>
+  </si>
+  <si>
+    <t>MANOILIMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="General_)"/>
     <numFmt numFmtId="166" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="0.000000000"/>
     <numFmt numFmtId="170" formatCode="0.000"/>
     <numFmt numFmtId="171" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2729,19 +2659,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -2764,8 +2681,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2866,17 +2789,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3112,7 +3024,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3150,9 +3062,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3390,12 +3301,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="20" fillId="8" borderId="10" xfId="7" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3427,7 +3332,6 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3450,7 +3354,6 @@
     </xf>
     <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="6"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3478,9 +3381,6 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="16" applyFont="1"/>
     <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="25" fillId="16" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3497,14 +3397,11 @@
     <xf numFmtId="1" fontId="19" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3513,47 +3410,36 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="9" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="37" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="29" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="9" fillId="15" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="23" fillId="16" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="16" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="16" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="34" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="16" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="1" fontId="33" fillId="16" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="13" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="9" fillId="20" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="37"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="38">
+  <cellStyles count="37">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="20% - Accent5 2" xfId="21" xr:uid="{E1B1E490-7605-42BA-88C1-54B79AE47809}"/>
     <cellStyle name="20% - Accent5 2 2" xfId="31" xr:uid="{9A77BCA1-6431-4844-B2C6-C94657613BD6}"/>
@@ -3563,7 +3449,6 @@
     <cellStyle name="20% - Accent5 5" xfId="33" xr:uid="{CC4422F1-4577-475D-9062-5705E5BAA574}"/>
     <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
-    <cellStyle name="Accent3" xfId="37" builtinId="37"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Comma 2 2" xfId="27" xr:uid="{0F81714B-A75F-4A57-A4C6-D6B684BC4CCE}"/>
@@ -3794,13 +3679,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3972,86 +3857,6 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2191</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>17751</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>92721</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>75778</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77100577-490B-1FEB-45C4-A6AA00BFC058}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3774260" y="3494797"/>
-          <a:ext cx="3757233" cy="922021"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>The</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t> demand driver growth rate is computed based historical growth data of the respective energy consumption between 2019 and 2023</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4509,7 +4314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40EA534-E44A-461C-9315-2313911B2BEB}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -5238,8 +5043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="C36" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5249,7 +5054,7 @@
     <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="156" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="152" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
@@ -5286,7 +5091,7 @@
       <c r="F2" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="172" t="s">
+      <c r="G2" s="167" t="s">
         <v>127</v>
       </c>
       <c r="H2" s="27" t="s">
@@ -5300,13 +5105,13 @@
       </c>
       <c r="K2" s="20"/>
       <c r="O2" s="24" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>148</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -5320,7 +5125,7 @@
       <c r="F3" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="172" t="s">
+      <c r="G3" s="167" t="s">
         <v>129</v>
       </c>
       <c r="H3" s="28" t="s">
@@ -5342,7 +5147,7 @@
       </c>
       <c r="E4" s="54"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="173"/>
+      <c r="G4" s="168"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -5367,7 +5172,7 @@
         <f>'EBF TJ'!F5*0.2777778</f>
         <v>16770.812452776001</v>
       </c>
-      <c r="G5" s="174">
+      <c r="G5" s="169">
         <f>'EBF TJ'!G5*0.2777778</f>
         <v>35.000002800000004</v>
       </c>
@@ -5408,7 +5213,7 @@
         <f>'EBF TJ'!F6*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G6" s="174">
+      <c r="G6" s="169">
         <f>'EBF TJ'!G6*0.2777778</f>
         <v>0</v>
       </c>
@@ -5448,7 +5253,7 @@
         <f>'EBF TJ'!F7*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G7" s="174">
+      <c r="G7" s="169">
         <f>'EBF TJ'!G7*0.2777778</f>
         <v>0</v>
       </c>
@@ -5485,7 +5290,7 @@
         <f t="shared" si="0"/>
         <v>16770.812452776001</v>
       </c>
-      <c r="G8" s="175">
+      <c r="G8" s="170">
         <f>SUM(G5:G7)</f>
         <v>35.000002800000004</v>
       </c>
@@ -5514,7 +5319,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="173"/>
+      <c r="G9" s="168"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -5530,7 +5335,7 @@
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
-      <c r="G10" s="176"/>
+      <c r="G10" s="171"/>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="30">
@@ -5546,20 +5351,20 @@
       <c r="C11" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121">
+      <c r="D11" s="119"/>
+      <c r="E11" s="119">
         <f>'EBF TJ'!E11*0.2777778</f>
         <v>-2.0000001600000004</v>
       </c>
-      <c r="F11" s="121">
+      <c r="F11" s="119">
         <f>'EBF TJ'!F11*0.2777778</f>
         <v>-16770.812452776001</v>
       </c>
-      <c r="G11" s="177"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
@@ -5580,7 +5385,7 @@
         <f>'EBF TJ'!F12*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G12" s="176">
+      <c r="G12" s="171">
         <f>'EBF TJ'!G12*0.2777778</f>
         <v>0</v>
       </c>
@@ -5615,7 +5420,7 @@
         <v>-59356.884748550401</v>
       </c>
       <c r="F13" s="40"/>
-      <c r="G13" s="178"/>
+      <c r="G13" s="173"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40">
@@ -5635,7 +5440,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="173"/>
+      <c r="G14" s="168"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -5660,7 +5465,7 @@
         <f>'EBF TJ'!F15*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G15" s="176">
+      <c r="G15" s="171">
         <f>'EBF TJ'!G15*0.2777778</f>
         <v>0</v>
       </c>
@@ -5700,7 +5505,7 @@
         <f>'EBF TJ'!F16*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G16" s="176">
+      <c r="G16" s="171">
         <f>'EBF TJ'!G16*0.2777778</f>
         <v>0</v>
       </c>
@@ -5740,7 +5545,7 @@
         <f>'EBF TJ'!F17*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G17" s="176">
+      <c r="G17" s="171">
         <f>'EBF TJ'!G17*0.2777778</f>
         <v>0</v>
       </c>
@@ -5761,42 +5566,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="136" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="132" t="s">
+    <row r="18" spans="2:12" s="134" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="131" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="134">
+      <c r="D18" s="132">
         <f>'EBF TJ'!D18*0.2777778</f>
         <v>7676.2275585426005</v>
       </c>
-      <c r="E18" s="134">
+      <c r="E18" s="132">
         <f>'EBF TJ'!E18*0.2777778</f>
         <v>2605.1202084096003</v>
       </c>
-      <c r="F18" s="134">
+      <c r="F18" s="132">
         <f>'EBF TJ'!F18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G18" s="176">
+      <c r="G18" s="171">
         <f>'EBF TJ'!G18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="H18" s="134">
+      <c r="H18" s="132">
         <f>'EBF TJ'!H18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="I18" s="134">
+      <c r="I18" s="132">
         <f>'EBF TJ'!I18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="J18" s="134">
+      <c r="J18" s="132">
         <f>'EBF TJ'!J18*0.2777778</f>
         <v>2861.5612011470998</v>
       </c>
-      <c r="K18" s="135">
+      <c r="K18" s="133">
         <f t="shared" si="1"/>
         <v>13142.9089680993</v>
       </c>
@@ -5820,7 +5625,7 @@
         <f>'EBF TJ'!F19*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G19" s="176">
+      <c r="G19" s="171">
         <f>'EBF TJ'!G19*0.2777778</f>
         <v>0</v>
       </c>
@@ -5860,7 +5665,7 @@
         <f>'EBF TJ'!F20*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G20" s="176">
+      <c r="G20" s="171">
         <f>'EBF TJ'!G20*0.2777778</f>
         <v>0</v>
       </c>
@@ -5900,7 +5705,7 @@
         <f>'EBF TJ'!F21*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G21" s="176">
+      <c r="G21" s="171">
         <f>'EBF TJ'!G21*0.2777778</f>
         <v>0</v>
       </c>
@@ -5940,7 +5745,7 @@
         <f>'EBF TJ'!F22*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G22" s="176">
+      <c r="G22" s="171">
         <f>'EBF TJ'!G22*0.2777778</f>
         <v>0</v>
       </c>
@@ -5980,7 +5785,7 @@
         <f>'EBF TJ'!F23*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G23" s="176">
+      <c r="G23" s="171">
         <f>'EBF TJ'!G23*0.2777778</f>
         <v>0</v>
       </c>
@@ -6020,7 +5825,7 @@
         <f>'EBF TJ'!F24*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G24" s="176">
+      <c r="G24" s="171">
         <f>'EBF TJ'!G24*0.2777778</f>
         <v>0</v>
       </c>
@@ -6057,7 +5862,7 @@
         <v>59476.115869200003</v>
       </c>
       <c r="F25" s="72"/>
-      <c r="G25" s="179"/>
+      <c r="G25" s="174"/>
       <c r="H25" s="72"/>
       <c r="I25" s="72">
         <f>SUM(I15:I24)</f>
@@ -6076,7 +5881,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="176"/>
+      <c r="G26" s="171"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -6086,7 +5891,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="176"/>
+      <c r="G27" s="171"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -6098,7 +5903,7 @@
       <c r="D28" s="35"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="176"/>
+      <c r="G28" s="171"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -6109,7 +5914,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="176"/>
+      <c r="G29" s="171"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -6120,7 +5925,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="176"/>
+      <c r="G30" s="171"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -6131,7 +5936,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="176"/>
+      <c r="G31" s="171"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -6142,7 +5947,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="176"/>
+      <c r="G32" s="171"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -6153,7 +5958,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="176"/>
+      <c r="G33" s="171"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -6164,7 +5969,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="176"/>
+      <c r="G34" s="171"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -6175,7 +5980,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="176"/>
+      <c r="G35" s="171"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -6186,7 +5991,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="176"/>
+      <c r="G36" s="171"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -6204,7 +6009,7 @@
         <v>145</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="176"/>
+      <c r="G37" s="171"/>
       <c r="H37" s="5"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -6221,7 +6026,7 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="176"/>
+      <c r="G38" s="171"/>
       <c r="H38" s="5"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
@@ -6238,7 +6043,7 @@
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="176"/>
+      <c r="G39" s="171"/>
       <c r="H39" s="5"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -6258,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="5"/>
-      <c r="G40" s="176"/>
+      <c r="G40" s="171"/>
       <c r="H40" s="5"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -6271,7 +6076,7 @@
       <c r="F44" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="G44" s="172" t="s">
+      <c r="G44" s="167" t="s">
         <v>127</v>
       </c>
       <c r="H44" s="27" t="s">
@@ -6300,7 +6105,7 @@
       <c r="F45" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="G45" s="172" t="s">
+      <c r="G45" s="167" t="s">
         <v>129</v>
       </c>
       <c r="H45" s="28" t="s">
@@ -6321,7 +6126,7 @@
         <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D46" s="109">
         <f>D18/(D18+E18)</f>
@@ -6342,7 +6147,7 @@
         <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E47" s="109">
         <f>E18/(D18+E18)</f>
@@ -6363,7 +6168,7 @@
         <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J48" s="109">
         <v>1</v>
@@ -6436,7 +6241,7 @@
   <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="M26" sqref="M26:P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6451,7 +6256,7 @@
     <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="161" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="157" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.140625" customWidth="1"/>
@@ -6554,7 +6359,7 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="137" t="s">
         <v>199</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -6596,17 +6401,17 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
       <c r="E5" s="77"/>
-      <c r="F5" s="141"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="7"/>
       <c r="M5" s="64" t="s">
         <v>74</v>
       </c>
       <c r="N5" s="68"/>
-      <c r="O5" s="139" t="s">
-        <v>203</v>
+      <c r="O5" s="195" t="s">
+        <v>261</v>
       </c>
       <c r="P5" s="64" t="s">
         <v>152</v>
@@ -6620,17 +6425,17 @@
       <c r="U5" s="64"/>
     </row>
     <row r="6" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
       <c r="E6" s="77"/>
-      <c r="F6" s="141"/>
+      <c r="F6" s="138"/>
       <c r="G6" s="7"/>
       <c r="M6" s="64" t="s">
         <v>74</v>
       </c>
       <c r="N6" s="68"/>
-      <c r="O6" s="139" t="s">
-        <v>204</v>
+      <c r="O6" s="195" t="s">
+        <v>262</v>
       </c>
       <c r="P6" s="64" t="s">
         <v>153</v>
@@ -6644,17 +6449,17 @@
       <c r="U6" s="64"/>
     </row>
     <row r="7" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="141"/>
+      <c r="F7" s="138"/>
       <c r="G7" s="7"/>
       <c r="M7" s="64" t="s">
         <v>74</v>
       </c>
       <c r="N7" s="68"/>
-      <c r="O7" s="139" t="s">
-        <v>205</v>
+      <c r="O7" s="195" t="s">
+        <v>263</v>
       </c>
       <c r="P7" s="64" t="s">
         <v>154</v>
@@ -6668,20 +6473,20 @@
       <c r="U7" s="64"/>
     </row>
     <row r="8" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
       <c r="E8" s="77"/>
-      <c r="F8" s="141"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="7"/>
-      <c r="M8" s="139" t="s">
+      <c r="M8" s="136" t="s">
         <v>46</v>
       </c>
       <c r="N8" s="68"/>
-      <c r="O8" s="139" t="s">
+      <c r="O8" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="139" t="s">
-        <v>207</v>
+      <c r="P8" s="136" t="s">
+        <v>204</v>
       </c>
       <c r="Q8" s="64" t="s">
         <v>148</v>
@@ -6692,104 +6497,104 @@
       <c r="U8" s="64"/>
     </row>
     <row r="9" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
       <c r="E9" s="77"/>
-      <c r="F9" s="141"/>
+      <c r="F9" s="138"/>
       <c r="G9" s="7"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="139"/>
       <c r="R9" s="64"/>
       <c r="S9" s="64"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="139"/>
       <c r="R10" s="64"/>
       <c r="S10" s="64"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M11" s="142"/>
-      <c r="N11" s="142"/>
-      <c r="O11" s="142"/>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="142"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="139"/>
       <c r="R11" s="64"/>
       <c r="S11" s="64"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M12" s="139"/>
+      <c r="M12" s="136"/>
       <c r="N12" s="68"/>
-      <c r="O12" s="139"/>
-      <c r="P12" s="139"/>
-      <c r="Q12" s="139"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="136"/>
       <c r="R12" s="64"/>
       <c r="S12" s="64"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M13" s="139"/>
+      <c r="M13" s="136"/>
       <c r="N13" s="68"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="139"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
       <c r="R13" s="64"/>
       <c r="S13" s="64"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M14" s="139"/>
+      <c r="M14" s="136"/>
       <c r="N14" s="68"/>
-      <c r="O14" s="139"/>
-      <c r="P14" s="139"/>
-      <c r="Q14" s="139"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
       <c r="R14" s="64"/>
       <c r="S14" s="64"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="150"/>
+      <c r="Q15" s="150"/>
       <c r="R15" s="64"/>
       <c r="S15" s="64"/>
       <c r="T15" s="64"/>
       <c r="U15" s="64"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M16" s="153"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="153"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="150"/>
+      <c r="P16" s="150"/>
+      <c r="Q16" s="150"/>
       <c r="R16" s="64"/>
       <c r="S16" s="64"/>
       <c r="T16" s="64"/>
       <c r="U16" s="64"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M17" s="139"/>
+      <c r="M17" s="136"/>
       <c r="N17" s="68"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="139"/>
-      <c r="Q17" s="139"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="136"/>
       <c r="R17" s="64"/>
       <c r="S17" s="64"/>
       <c r="T17" s="64"/>
@@ -6850,7 +6655,7 @@
       <c r="J20" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="K20" s="162"/>
+      <c r="K20" s="158"/>
       <c r="M20" s="65" t="s">
         <v>11</v>
       </c>
@@ -6903,7 +6708,7 @@
       <c r="J21" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="K21" s="163"/>
+      <c r="K21" s="159"/>
       <c r="M21" s="67" t="s">
         <v>38</v>
       </c>
@@ -6945,14 +6750,14 @@
         <v>GWh</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="I22" s="8" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
       <c r="J22" s="9"/>
-      <c r="K22" s="164"/>
+      <c r="K22" s="160"/>
       <c r="M22" s="67" t="s">
         <v>81</v>
       </c>
@@ -6978,18 +6783,18 @@
       <c r="E23" s="1">
         <v>2022</v>
       </c>
-      <c r="F23" s="140"/>
-      <c r="G23" s="190">
+      <c r="F23" s="137"/>
+      <c r="G23" s="184">
         <v>3333333.3</v>
       </c>
-      <c r="H23" s="189">
+      <c r="H23" s="183">
         <v>8.0665446383744062</v>
       </c>
       <c r="I23" s="87"/>
       <c r="J23" s="113">
         <v>8.76</v>
       </c>
-      <c r="K23" s="165"/>
+      <c r="K23" s="161"/>
       <c r="M23" s="64" t="str">
         <f>EBF!$B$5</f>
         <v>MIN</v>
@@ -7024,7 +6829,7 @@
       <c r="E24" s="1">
         <v>2022</v>
       </c>
-      <c r="F24" s="140"/>
+      <c r="F24" s="137"/>
       <c r="G24" s="60"/>
       <c r="H24" s="61">
         <v>22.318502952024048</v>
@@ -7033,7 +6838,7 @@
       <c r="J24" s="113">
         <v>8.76</v>
       </c>
-      <c r="K24" s="165"/>
+      <c r="K24" s="161"/>
       <c r="M24" s="68" t="str">
         <f>EBF!$B$6</f>
         <v>IMP</v>
@@ -7068,7 +6873,7 @@
       <c r="E25" s="1">
         <v>2022</v>
       </c>
-      <c r="F25" s="140"/>
+      <c r="F25" s="137"/>
       <c r="H25" s="49">
         <v>31.054602678959174</v>
       </c>
@@ -7076,7 +6881,7 @@
       <c r="J25" s="113">
         <v>8.76</v>
       </c>
-      <c r="K25" s="165"/>
+      <c r="K25" s="161"/>
       <c r="M25" t="str">
         <f>EBF!B6</f>
         <v>IMP</v>
@@ -7099,186 +6904,186 @@
         <v>ELCGRID</v>
       </c>
       <c r="C26" s="68"/>
-      <c r="D26" s="139" t="str">
+      <c r="D26" s="136" t="str">
         <f>O$8</f>
         <v>ELC</v>
       </c>
       <c r="E26" s="1">
         <v>2022</v>
       </c>
-      <c r="F26" s="140"/>
-      <c r="H26" s="189">
+      <c r="F26" s="137"/>
+      <c r="H26" s="183">
         <v>100</v>
       </c>
       <c r="I26" s="87"/>
       <c r="J26" s="113">
         <v>8.76</v>
       </c>
-      <c r="K26" s="165"/>
-      <c r="M26" s="141" t="s">
+      <c r="K26" s="161"/>
+      <c r="M26" s="196" t="s">
         <v>46</v>
       </c>
-      <c r="N26" s="141"/>
-      <c r="O26" s="68" t="str">
+      <c r="N26" s="196"/>
+      <c r="O26" s="195" t="str">
         <f>$M$26&amp;$C$4</f>
         <v>ELCGRID</v>
       </c>
-      <c r="P26" s="143" t="s">
+      <c r="P26" s="197" t="s">
         <v>200</v>
       </c>
       <c r="Q26" t="s">
         <v>148</v>
       </c>
-      <c r="S26" s="140" t="s">
+      <c r="S26" s="137" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B27" s="150"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="166"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="142"/>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="141"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="162"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="140"/>
+      <c r="Q27" s="138"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="166"/>
-      <c r="M28" s="149"/>
-      <c r="N28" s="149"/>
-      <c r="O28" s="150"/>
-      <c r="P28" s="152"/>
-      <c r="Q28" s="149"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="162"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="147"/>
+      <c r="P28" s="149"/>
+      <c r="Q28" s="146"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" s="150"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="166"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="166"/>
-      <c r="K29" s="166"/>
-      <c r="M29" s="149"/>
-      <c r="N29" s="149"/>
-      <c r="O29" s="150"/>
-      <c r="P29" s="152"/>
-      <c r="Q29" s="149"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="162"/>
+      <c r="K29" s="162"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="147"/>
+      <c r="P29" s="149"/>
+      <c r="Q29" s="146"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="150"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="166"/>
-      <c r="K30" s="166"/>
-      <c r="M30" s="140"/>
-      <c r="O30" s="150"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="149"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="162"/>
+      <c r="K30" s="162"/>
+      <c r="M30" s="137"/>
+      <c r="O30" s="147"/>
+      <c r="P30" s="149"/>
+      <c r="Q30" s="146"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="166"/>
-      <c r="K31" s="166"/>
-      <c r="M31" s="140"/>
-      <c r="O31" s="139"/>
-      <c r="P31" s="151"/>
-      <c r="Q31" s="149"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="162"/>
+      <c r="K31" s="162"/>
+      <c r="M31" s="137"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="148"/>
+      <c r="Q31" s="146"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="142"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="166"/>
-      <c r="K32" s="166"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="162"/>
+      <c r="K32" s="162"/>
       <c r="O32" s="68"/>
       <c r="P32" s="70"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B33" s="64"/>
       <c r="C33" s="68"/>
-      <c r="D33" s="139"/>
+      <c r="D33" s="136"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="H33" s="165"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="165"/>
-      <c r="K33" s="165"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="161"/>
       <c r="O33" s="68"/>
       <c r="P33" s="70"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B34" s="64"/>
       <c r="C34" s="68"/>
-      <c r="D34" s="139"/>
+      <c r="D34" s="136"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="165"/>
-      <c r="K34" s="165"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="161"/>
       <c r="O34" s="68"/>
       <c r="P34" s="70"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B35" s="64"/>
       <c r="C35" s="68"/>
-      <c r="D35" s="139"/>
+      <c r="D35" s="136"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="165"/>
+      <c r="H35" s="161"/>
+      <c r="I35" s="166"/>
+      <c r="J35" s="161"/>
+      <c r="K35" s="161"/>
       <c r="O35" s="68"/>
       <c r="P35" s="70"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B36" s="64"/>
       <c r="C36" s="68"/>
-      <c r="D36" s="139"/>
+      <c r="D36" s="136"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="170"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="165"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="166"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="161"/>
       <c r="O36" s="68"/>
       <c r="P36" s="70"/>
     </row>
@@ -7287,39 +7092,39 @@
       <c r="D37" s="64"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="165"/>
-      <c r="K37" s="165"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="166"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
       <c r="O37" s="68"/>
       <c r="P37" s="70"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="161"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B39" s="48"/>
       <c r="C39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="T39" s="153"/>
-      <c r="U39" s="153"/>
-      <c r="V39" s="153"/>
-      <c r="W39" s="153"/>
-      <c r="X39" s="153"/>
+      <c r="T39" s="150"/>
+      <c r="U39" s="150"/>
+      <c r="V39" s="150"/>
+      <c r="W39" s="150"/>
+      <c r="X39" s="150"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B40" s="47"/>
       <c r="C40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T40" s="153"/>
-      <c r="U40" s="153"/>
-      <c r="V40" s="153"/>
-      <c r="W40" s="153"/>
-      <c r="X40" s="153"/>
+      <c r="T40" s="150"/>
+      <c r="U40" s="150"/>
+      <c r="V40" s="150"/>
+      <c r="W40" s="150"/>
+      <c r="X40" s="150"/>
     </row>
     <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42"/>
@@ -7332,7 +7137,7 @@
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
-      <c r="K42" s="161"/>
+      <c r="K42" s="157"/>
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
@@ -7362,10 +7167,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
-  <dimension ref="B1:AF59"/>
+  <dimension ref="B1:AF55"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7549,15 +7354,15 @@
       <c r="K5" s="51"/>
       <c r="L5" s="51"/>
       <c r="M5" s="51"/>
-      <c r="X5" s="145" t="s">
+      <c r="X5" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="Y5" s="145"/>
-      <c r="Z5" s="145" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA5" s="145" t="s">
-        <v>212</v>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="142" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA5" s="142" t="s">
+        <v>209</v>
       </c>
       <c r="AB5" s="90" t="s">
         <v>148</v>
@@ -7621,17 +7426,17 @@
       <c r="AF7" s="90"/>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X8" s="145" t="s">
+      <c r="X8" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="145"/>
-      <c r="Z8" s="145" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA8" s="145" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB8" s="157" t="s">
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="142" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA8" s="142" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB8" s="153" t="s">
         <v>148</v>
       </c>
       <c r="AC8" s="90"/>
@@ -7640,82 +7445,66 @@
       <c r="AF8" s="90"/>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X9" s="145"/>
-      <c r="Y9" s="145"/>
-      <c r="Z9" s="145"/>
-      <c r="AA9" s="145"/>
-      <c r="AB9" s="157"/>
+      <c r="X9" s="142"/>
+      <c r="Y9" s="142"/>
+      <c r="Z9" s="142"/>
+      <c r="AA9" s="142"/>
+      <c r="AB9" s="153"/>
       <c r="AC9" s="90"/>
       <c r="AD9" s="90"/>
       <c r="AE9" s="90"/>
       <c r="AF9" s="90"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X10" s="169" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y10" s="169"/>
-      <c r="Z10" s="169" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA10" s="169" t="s">
-        <v>215</v>
-      </c>
-      <c r="AB10" s="157" t="s">
-        <v>148</v>
-      </c>
+      <c r="X10" s="165"/>
+      <c r="Y10" s="165"/>
+      <c r="Z10" s="165"/>
+      <c r="AA10" s="165"/>
+      <c r="AB10" s="153"/>
       <c r="AC10" s="90"/>
       <c r="AD10" s="90"/>
       <c r="AE10" s="90"/>
       <c r="AF10" s="90"/>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X11" s="157" t="s">
-        <v>74</v>
-      </c>
+      <c r="X11" s="153"/>
       <c r="Y11" s="90"/>
-      <c r="Z11" s="157" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA11" s="157" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB11" s="157" t="s">
-        <v>148</v>
-      </c>
+      <c r="Z11" s="153"/>
+      <c r="AA11" s="153"/>
+      <c r="AB11" s="153"/>
       <c r="AC11" s="90"/>
       <c r="AD11" s="90"/>
       <c r="AE11" s="90"/>
       <c r="AF11" s="90"/>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X12" s="157"/>
+      <c r="X12" s="153"/>
       <c r="Y12" s="90"/>
-      <c r="Z12" s="157"/>
-      <c r="AA12" s="157"/>
-      <c r="AB12" s="157"/>
+      <c r="Z12" s="153"/>
+      <c r="AA12" s="153"/>
+      <c r="AB12" s="153"/>
       <c r="AC12" s="90"/>
       <c r="AD12" s="90"/>
       <c r="AE12" s="90"/>
       <c r="AF12" s="90"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X13" s="157"/>
+      <c r="X13" s="153"/>
       <c r="Y13" s="90"/>
-      <c r="Z13" s="157"/>
-      <c r="AA13" s="157"/>
-      <c r="AB13" s="157"/>
+      <c r="Z13" s="153"/>
+      <c r="AA13" s="153"/>
+      <c r="AB13" s="153"/>
       <c r="AC13" s="90"/>
       <c r="AD13" s="90"/>
       <c r="AE13" s="90"/>
       <c r="AF13" s="90"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X14" s="157"/>
+      <c r="X14" s="153"/>
       <c r="Y14" s="90"/>
-      <c r="Z14" s="157"/>
-      <c r="AA14" s="157"/>
-      <c r="AB14" s="157"/>
+      <c r="Z14" s="153"/>
+      <c r="AA14" s="153"/>
+      <c r="AB14" s="153"/>
       <c r="AC14" s="90"/>
       <c r="AD14" s="90"/>
       <c r="AE14" s="90"/>
@@ -7766,28 +7555,28 @@
         <v>6</v>
       </c>
       <c r="E17" s="95" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F17" s="96" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G17" s="96" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H17" s="96" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I17" s="96" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J17" s="96" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K17" s="96" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L17" s="96" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M17" s="95" t="s">
         <v>102</v>
@@ -7799,7 +7588,7 @@
         <v>104</v>
       </c>
       <c r="P17" s="95" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="95" t="s">
         <v>156</v>
@@ -7808,16 +7597,16 @@
         <v>157</v>
       </c>
       <c r="S17" s="95" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="T17" s="95" t="s">
         <v>149</v>
       </c>
       <c r="U17" s="95" t="s">
-        <v>246</v>
-      </c>
-      <c r="V17" s="158"/>
-      <c r="W17" s="158"/>
+        <v>239</v>
+      </c>
+      <c r="V17" s="154"/>
+      <c r="W17" s="154"/>
       <c r="X17" s="91" t="s">
         <v>11</v>
       </c>
@@ -7890,7 +7679,7 @@
         <v>113</v>
       </c>
       <c r="P18" s="97" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q18" s="97" t="s">
         <v>158</v>
@@ -7899,16 +7688,16 @@
         <v>159</v>
       </c>
       <c r="S18" s="98" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="T18" s="97" t="s">
         <v>150</v>
       </c>
       <c r="U18" s="97" t="s">
-        <v>247</v>
-      </c>
-      <c r="V18" s="159"/>
-      <c r="W18" s="159"/>
+        <v>240</v>
+      </c>
+      <c r="V18" s="155"/>
+      <c r="W18" s="155"/>
       <c r="X18" s="93" t="s">
         <v>38</v>
       </c>
@@ -7947,51 +7736,51 @@
         <v>192</v>
       </c>
       <c r="F19" s="100" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G19" s="100" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H19" s="100" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I19" s="100" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J19" s="100" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K19" s="100" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L19" s="100" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M19" s="100" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N19" s="101" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O19" s="100" t="s">
         <v>108</v>
       </c>
       <c r="P19" s="100"/>
       <c r="Q19" s="100" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="R19" s="100" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="S19" s="100" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="T19" s="100"/>
       <c r="U19" s="100" t="s">
-        <v>248</v>
-      </c>
-      <c r="V19" s="160"/>
-      <c r="W19" s="160"/>
+        <v>241</v>
+      </c>
+      <c r="V19" s="156"/>
+      <c r="W19" s="156"/>
       <c r="X19" s="93" t="s">
         <v>81</v>
       </c>
@@ -8021,29 +7810,29 @@
       <c r="F20" s="102">
         <v>0.59</v>
       </c>
-      <c r="G20" s="187"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="187"/>
-      <c r="L20" s="187"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="181"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="181"/>
       <c r="M20" s="103">
         <v>0.55000000000000004</v>
       </c>
       <c r="N20" s="103">
         <v>1</v>
       </c>
-      <c r="O20" s="123">
+      <c r="O20" s="121">
         <v>25</v>
       </c>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="207">
+      <c r="P20" s="121"/>
+      <c r="Q20" s="193">
         <v>628.9</v>
       </c>
-      <c r="R20" s="208">
+      <c r="R20" s="194">
         <v>4.46</v>
       </c>
-      <c r="S20" s="208">
+      <c r="S20" s="194">
         <v>0.45</v>
       </c>
       <c r="T20" s="104">
@@ -8052,8 +7841,8 @@
       <c r="U20" s="104"/>
       <c r="V20" s="110"/>
       <c r="W20" s="110"/>
-      <c r="X20" s="148" t="s">
-        <v>218</v>
+      <c r="X20" s="145" t="s">
+        <v>212</v>
       </c>
       <c r="Z20" s="88" t="s">
         <v>141</v>
@@ -8068,10 +7857,10 @@
       <c r="AC20" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="AD20" s="157" t="s">
+      <c r="AD20" s="153" t="s">
         <v>202</v>
       </c>
-      <c r="AE20" s="157"/>
+      <c r="AE20" s="153"/>
       <c r="AF20" s="90"/>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.2">
@@ -8115,17 +7904,17 @@
       <c r="N21" s="103">
         <v>1</v>
       </c>
-      <c r="O21" s="123">
+      <c r="O21" s="121">
         <v>25</v>
       </c>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="207">
+      <c r="P21" s="121"/>
+      <c r="Q21" s="193">
         <v>628.9</v>
       </c>
-      <c r="R21" s="208">
+      <c r="R21" s="194">
         <v>4.46</v>
       </c>
-      <c r="S21" s="208">
+      <c r="S21" s="194">
         <v>0.45</v>
       </c>
       <c r="T21" s="104">
@@ -8134,8 +7923,8 @@
       <c r="U21" s="104"/>
       <c r="V21" s="110"/>
       <c r="W21" s="110"/>
-      <c r="X21" s="148" t="s">
-        <v>218</v>
+      <c r="X21" s="145" t="s">
+        <v>212</v>
       </c>
       <c r="Z21" s="88" t="s">
         <v>143</v>
@@ -8150,10 +7939,10 @@
       <c r="AC21" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="AD21" s="157" t="s">
+      <c r="AD21" s="153" t="s">
         <v>202</v>
       </c>
-      <c r="AE21" s="157"/>
+      <c r="AE21" s="153"/>
       <c r="AF21" s="90"/>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.2">
@@ -8200,14 +7989,14 @@
       <c r="O22" s="104">
         <v>25</v>
       </c>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="207">
+      <c r="P22" s="121"/>
+      <c r="Q22" s="193">
         <v>62.9</v>
       </c>
-      <c r="R22" s="208">
+      <c r="R22" s="194">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S22" s="208">
+      <c r="S22" s="194">
         <v>1.82</v>
       </c>
       <c r="T22" s="104">
@@ -8219,7 +8008,7 @@
       <c r="X22" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="Z22" s="148" t="s">
+      <c r="Z22" s="145" t="s">
         <v>151</v>
       </c>
       <c r="AA22" s="88" t="s">
@@ -8231,11 +8020,11 @@
       <c r="AC22" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="AD22" s="154" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="2:32" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD22" s="151" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="94" t="str">
         <f>Z22</f>
         <v>MANELC</v>
@@ -8249,34 +8038,34 @@
         <v>MANELC</v>
       </c>
       <c r="E23" s="105"/>
-      <c r="F23" s="147">
+      <c r="F23" s="144">
         <v>1</v>
       </c>
-      <c r="G23" s="147">
+      <c r="G23" s="144">
         <v>1</v>
       </c>
-      <c r="H23" s="147">
+      <c r="H23" s="144">
         <v>1</v>
       </c>
-      <c r="I23" s="147">
+      <c r="I23" s="144">
         <v>1</v>
       </c>
-      <c r="J23" s="147">
+      <c r="J23" s="144">
         <v>1</v>
       </c>
-      <c r="K23" s="147">
+      <c r="K23" s="144">
         <v>1</v>
       </c>
-      <c r="L23" s="147">
+      <c r="L23" s="144">
         <v>1</v>
       </c>
-      <c r="M23" s="144">
+      <c r="M23" s="141">
         <v>1</v>
       </c>
-      <c r="N23" s="144">
+      <c r="N23" s="141">
         <v>1</v>
       </c>
-      <c r="O23" s="144">
+      <c r="O23" s="141">
         <v>50</v>
       </c>
       <c r="R23" s="104"/>
@@ -8285,14 +8074,14 @@
         <v>8.76</v>
       </c>
       <c r="U23" s="104"/>
-      <c r="X23" s="144" t="s">
+      <c r="X23" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="Z23" s="144" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA23" s="144" t="s">
-        <v>213</v>
+      <c r="Z23" s="141" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA23" s="141" t="s">
+        <v>210</v>
       </c>
       <c r="AB23" s="88" t="s">
         <v>148</v>
@@ -8300,26 +8089,26 @@
       <c r="AC23" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="AD23" s="154" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="2:32" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD23" s="151" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="145"/>
-      <c r="D24" s="157" t="s">
-        <v>245</v>
-      </c>
-      <c r="E24" s="146"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="147"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="153" t="s">
+        <v>238</v>
+      </c>
+      <c r="E24" s="143"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
       <c r="R24" s="104"/>
       <c r="S24" s="104"/>
       <c r="T24" s="104"/>
@@ -8329,22 +8118,22 @@
       <c r="AB24" s="94"/>
       <c r="AC24" s="94"/>
     </row>
-    <row r="25" spans="2:32" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="145"/>
-      <c r="D25" s="157" t="s">
-        <v>245</v>
-      </c>
-      <c r="E25" s="146"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="147"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="153" t="s">
+        <v>238</v>
+      </c>
+      <c r="E25" s="143"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
       <c r="R25" s="104"/>
       <c r="S25" s="104"/>
       <c r="T25" s="104"/>
@@ -8354,18 +8143,18 @@
       <c r="AB25" s="94"/>
       <c r="AC25" s="94"/>
     </row>
-    <row r="26" spans="2:32" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="94"/>
-      <c r="C26" s="145"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="147"/>
-      <c r="L26" s="147"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
       <c r="R26" s="110"/>
       <c r="S26" s="110"/>
       <c r="T26" s="110"/>
@@ -8373,260 +8162,180 @@
       <c r="AB26" s="94"/>
       <c r="AC26" s="94"/>
     </row>
-    <row r="27" spans="2:32" s="144" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="94"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="147"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="110"/>
-      <c r="T27" s="110"/>
-      <c r="U27" s="110"/>
-      <c r="AB27" s="94"/>
-      <c r="AC27" s="94"/>
-    </row>
-    <row r="28" spans="2:32" s="144" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="X28" s="144" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z28" s="144" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA28" s="144" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB28" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC28" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD28" s="155"/>
-    </row>
-    <row r="29" spans="2:32" s="144" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="AC29" s="94"/>
-    </row>
-    <row r="30" spans="2:32" s="110" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="148"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="147"/>
-      <c r="M30" s="144"/>
-      <c r="N30" s="144"/>
-      <c r="O30" s="144"/>
-      <c r="P30" s="144"/>
-      <c r="Q30" s="144"/>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B27" s="145"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="141"/>
+      <c r="O27" s="141"/>
+      <c r="P27" s="141"/>
+      <c r="Q27" s="141"/>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B28" s="145"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="141"/>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E29" s="145"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="N29" s="164"/>
+      <c r="Q29" s="164"/>
+      <c r="AB29" s="90"/>
+      <c r="AC29" s="90"/>
+      <c r="AD29" s="151"/>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="E30" s="145"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="106"/>
+      <c r="N30" s="164"/>
+      <c r="Q30" s="164"/>
+      <c r="Y30" s="110"/>
+      <c r="AA30" s="110"/>
+      <c r="AB30" s="111"/>
+      <c r="AC30" s="111"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B31" s="148"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="147"/>
-      <c r="M31" s="144"/>
-      <c r="N31" s="144"/>
-      <c r="O31" s="144"/>
-      <c r="P31" s="144"/>
-      <c r="Q31" s="144"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="106"/>
+      <c r="N31" s="107"/>
+      <c r="Q31" s="164"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B32" s="148"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="144"/>
-      <c r="N32" s="144"/>
-      <c r="O32" s="144"/>
-      <c r="P32" s="144"/>
-      <c r="Q32" s="144"/>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="E33" s="148"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="N33" s="168"/>
-      <c r="Q33" s="168"/>
-      <c r="AB33" s="90"/>
-      <c r="AC33" s="90"/>
-      <c r="AD33" s="154"/>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="E34" s="148"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
-      <c r="N34" s="168"/>
-      <c r="Q34" s="168"/>
-      <c r="Y34" s="110"/>
-      <c r="AA34" s="110"/>
-      <c r="AB34" s="111"/>
-      <c r="AC34" s="111"/>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="E35" s="148"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
+      <c r="E32" s="145"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="106"/>
+      <c r="Q32" s="164"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="104"/>
+      <c r="C33" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="N33" s="107"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B34" s="108"/>
+      <c r="C34" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="N34" s="107"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="N35" s="107"/>
-      <c r="Q35" s="168"/>
-    </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="E36" s="148"/>
-      <c r="N36" s="107"/>
-      <c r="O36" s="106"/>
-      <c r="Q36" s="168"/>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B37" s="104"/>
-      <c r="C37" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="N37" s="107"/>
-    </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B38" s="108"/>
-      <c r="C38" s="88" t="s">
-        <v>98</v>
-      </c>
-      <c r="N38" s="107"/>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="N39" s="107"/>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="E42" s="21"/>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B45" s="94" t="str">
-        <f>Z28</f>
-        <v>PHEAT</v>
-      </c>
-      <c r="C45" s="145" t="str">
-        <f>DemTechs_INDF!D20</f>
-        <v>CEMENTHEAT</v>
-      </c>
-      <c r="D45" s="90" t="str">
-        <f>Z10</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="E45" s="146"/>
-      <c r="F45" s="147"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="147"/>
-      <c r="I45" s="147"/>
-      <c r="J45" s="147"/>
-      <c r="K45" s="147"/>
-      <c r="L45" s="147"/>
-      <c r="M45" s="144"/>
-      <c r="N45" s="144"/>
-      <c r="O45" s="144"/>
-      <c r="P45" s="144"/>
-      <c r="Q45" s="144"/>
-      <c r="R45" s="144"/>
-      <c r="S45" s="144"/>
-      <c r="T45" s="144">
-        <v>8.76</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B46" s="94" t="str">
-        <f>Z28</f>
-        <v>PHEAT</v>
-      </c>
-      <c r="C46" s="145" t="str">
-        <f>D22</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="D46" s="90" t="str">
-        <f>Z10</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="E46" s="146"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="147"/>
-      <c r="J46" s="147"/>
-      <c r="K46" s="147"/>
-      <c r="L46" s="147"/>
-      <c r="M46" s="144"/>
-      <c r="N46" s="144"/>
-      <c r="O46" s="144"/>
-      <c r="P46" s="144"/>
-      <c r="Q46" s="144"/>
-      <c r="R46" s="144"/>
-      <c r="S46" s="144"/>
-      <c r="T46" s="144">
-        <v>8.76</v>
-      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="E38" s="21"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B41" s="94"/>
+      <c r="C41" s="142"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="144"/>
+      <c r="K41" s="144"/>
+      <c r="L41" s="144"/>
+      <c r="M41" s="141"/>
+      <c r="N41" s="141"/>
+      <c r="O41" s="141"/>
+      <c r="P41" s="141"/>
+      <c r="Q41" s="141"/>
+      <c r="R41" s="141"/>
+      <c r="S41" s="141"/>
+      <c r="T41" s="141"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B42" s="94"/>
+      <c r="C42" s="142"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="144"/>
+      <c r="G42" s="144"/>
+      <c r="H42" s="144"/>
+      <c r="I42" s="144"/>
+      <c r="J42" s="144"/>
+      <c r="K42" s="144"/>
+      <c r="L42" s="144"/>
+      <c r="M42" s="141"/>
+      <c r="N42" s="141"/>
+      <c r="O42" s="141"/>
+      <c r="P42" s="141"/>
+      <c r="Q42" s="141"/>
+      <c r="R42" s="141"/>
+      <c r="S42" s="141"/>
+      <c r="T42" s="141"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="H46" s="179"/>
+      <c r="I46" s="180"/>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G49" s="145"/>
+      <c r="I49" s="145"/>
     </row>
     <row r="50" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H50" s="185"/>
-      <c r="I50" s="186"/>
-    </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G53" s="148"/>
-      <c r="I53" s="148"/>
+      <c r="G50" s="145"/>
+    </row>
+    <row r="51" spans="6:9" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="143"/>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F52" s="145"/>
+      <c r="G52" s="145"/>
     </row>
     <row r="54" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G54" s="148"/>
-    </row>
-    <row r="55" spans="6:9" s="94" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H55" s="146"/>
-    </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F56" s="148"/>
-      <c r="G56" s="148"/>
-    </row>
-    <row r="58" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F58" s="148"/>
-    </row>
-    <row r="59" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F59" s="148"/>
-      <c r="H59" s="105"/>
+      <c r="F54" s="145"/>
+    </row>
+    <row r="55" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F55" s="145"/>
+      <c r="H55" s="105"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8636,10 +8345,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
-  <dimension ref="B1:AB59"/>
+  <dimension ref="B1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView topLeftCell="B1" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8649,24 +8358,19 @@
     <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.42578125" customWidth="1"/>
-    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="8.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>75</v>
       </c>
@@ -8683,7 +8387,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>82</v>
       </c>
@@ -8698,17 +8402,14 @@
         <v>TH$2024</v>
       </c>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="K3" s="138"/>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C5" s="115" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="115"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="114" t="s">
         <v>160</v>
       </c>
@@ -8721,23 +8422,20 @@
       <c r="E6" s="114">
         <v>2022</v>
       </c>
-      <c r="L6" s="199"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="119"/>
-      <c r="Q6" s="115" t="s">
+      <c r="K6" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="V6" s="115" t="s">
+      <c r="L6" s="1"/>
+      <c r="P6" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="W6" s="1"/>
-      <c r="AA6" s="115" t="s">
+      <c r="Q6" s="1"/>
+      <c r="U6" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="1"/>
-    </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
         <v>81</v>
       </c>
@@ -8750,47 +8448,44 @@
       <c r="E7" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="L7" s="181"/>
-      <c r="M7" s="182"/>
-      <c r="N7" s="120"/>
+      <c r="I7" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="114" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="114" t="s">
+        <v>260</v>
+      </c>
+      <c r="N7" s="114" t="s">
+        <v>160</v>
+      </c>
       <c r="O7" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="114" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q7" s="114" t="s">
+        <v>260</v>
+      </c>
+      <c r="S7" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="P7" s="114" t="s">
+      <c r="T7" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="Q7" s="114" t="s">
+      <c r="U7" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="R7" s="114" t="s">
-        <v>270</v>
-      </c>
-      <c r="T7" s="114" t="s">
-        <v>160</v>
-      </c>
-      <c r="U7" s="114" t="s">
-        <v>0</v>
-      </c>
       <c r="V7" s="114" t="s">
-        <v>166</v>
-      </c>
-      <c r="W7" s="114" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y7" s="114" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z7" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="114" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB7" s="114" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="116" t="s">
         <v>87</v>
       </c>
@@ -8799,42 +8494,39 @@
       <c r="E8" s="116" t="s">
         <v>148</v>
       </c>
-      <c r="L8" s="181"/>
-      <c r="M8" s="182"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="122" t="s">
+      <c r="I8" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="P8" s="122" t="s">
+      <c r="J8" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="122"/>
-      <c r="T8" s="122" t="s">
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="N8" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="U8" s="122" t="s">
+      <c r="O8" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="V8" s="122"/>
-      <c r="W8" s="122"/>
-      <c r="Y8" s="122" t="s">
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="S8" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="Z8" s="122" t="s">
+      <c r="T8" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="AA8" s="122"/>
-      <c r="AB8" s="122"/>
-    </row>
-    <row r="9" spans="2:28" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="180" t="s">
+      <c r="U8" s="120"/>
+      <c r="V8" s="120"/>
+    </row>
+    <row r="9" spans="2:22" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="175" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="180" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="180" t="s">
+      <c r="C9" s="175" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="175" t="s">
         <v>148</v>
       </c>
       <c r="E9" s="47">
@@ -8844,45 +8536,39 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="200"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="R9" s="9"/>
-      <c r="T9" s="9" t="s">
+      <c r="L9" s="9"/>
+      <c r="N9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9" t="s">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="W9" s="9"/>
-      <c r="Y9" s="9" t="s">
+      <c r="Q9" s="9"/>
+      <c r="S9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9" t="s">
+      <c r="T9" s="9"/>
+      <c r="U9" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="AB9" s="9"/>
-    </row>
-    <row r="10" spans="2:28" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="180" t="s">
+      <c r="V9" s="9"/>
+    </row>
+    <row r="10" spans="2:22" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="175" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="180" t="s">
+      <c r="C10" s="175" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="180" t="s">
+      <c r="D10" s="175" t="s">
         <v>148</v>
       </c>
       <c r="E10" s="47">
@@ -8892,61 +8578,55 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="200"/>
-      <c r="N10" s="171"/>
-      <c r="O10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P10" s="1" t="str">
+      <c r="I10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J10" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q10" s="148" t="s">
-        <v>221</v>
-      </c>
-      <c r="R10" s="201">
+      <c r="K10" s="145" t="s">
+        <v>214</v>
+      </c>
+      <c r="L10" s="190">
         <v>3.1580002137548593E-2</v>
       </c>
-      <c r="S10" s="202"/>
-      <c r="T10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U10" s="1" t="str">
+      <c r="M10" s="191"/>
+      <c r="N10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O10" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V10" s="148" t="s">
-        <v>221</v>
-      </c>
-      <c r="W10" s="201">
+      <c r="P10" s="145" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q10" s="190">
         <v>3.1580002137548593E-2</v>
       </c>
-      <c r="Y10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z10" s="1" t="str">
+      <c r="S10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T10" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA10" s="148" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB10" s="201">
+      <c r="U10" s="145" t="s">
+        <v>214</v>
+      </c>
+      <c r="V10" s="190">
         <v>3.1580002137548593E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:28" s="161" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="180" t="s">
+    <row r="11" spans="2:22" s="157" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="175" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="180" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="180" t="s">
+      <c r="C11" s="175" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="175" t="s">
         <v>148</v>
       </c>
       <c r="E11" s="47">
@@ -8956,2204 +8636,2033 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11" s="181"/>
-      <c r="M11" s="200"/>
-      <c r="N11" s="181"/>
-      <c r="O11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P11" s="1" t="str">
+      <c r="I11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J11" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q11" s="183" t="s">
-        <v>222</v>
-      </c>
-      <c r="R11" s="201">
+      <c r="K11" s="177" t="s">
+        <v>215</v>
+      </c>
+      <c r="L11" s="190">
         <v>3.1850630527954941E-2</v>
       </c>
-      <c r="S11" s="203"/>
-      <c r="T11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U11" s="1" t="str">
+      <c r="M11" s="192"/>
+      <c r="N11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O11" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V11" s="183" t="s">
-        <v>222</v>
-      </c>
-      <c r="W11" s="201">
+      <c r="P11" s="177" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="190">
         <v>3.1850630527954941E-2</v>
       </c>
-      <c r="Y11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z11" s="1" t="str">
+      <c r="S11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T11" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA11" s="183" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB11" s="201">
+      <c r="U11" s="177" t="s">
+        <v>215</v>
+      </c>
+      <c r="V11" s="190">
         <v>3.1850630527954941E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="L12" s="181"/>
-      <c r="M12" s="182"/>
-      <c r="O12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P12" s="1" t="str">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="I12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J12" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q12" s="148" t="s">
-        <v>223</v>
-      </c>
-      <c r="R12" s="201">
+      <c r="K12" s="145" t="s">
+        <v>216</v>
+      </c>
+      <c r="L12" s="190">
         <v>3.1481989955747081E-2</v>
       </c>
-      <c r="S12" s="191"/>
-      <c r="T12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U12" s="1" t="str">
+      <c r="M12" s="185"/>
+      <c r="N12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O12" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V12" s="148" t="s">
-        <v>223</v>
-      </c>
-      <c r="W12" s="201">
+      <c r="P12" s="145" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q12" s="190">
         <v>3.1481989955747081E-2</v>
       </c>
-      <c r="Y12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z12" s="1" t="str">
+      <c r="S12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T12" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA12" s="148" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB12" s="201">
+      <c r="U12" s="145" t="s">
+        <v>216</v>
+      </c>
+      <c r="V12" s="190">
         <v>3.1481989955747081E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B13" s="181"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="194"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="181"/>
-      <c r="M13" s="182"/>
-      <c r="O13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P13" s="1" t="str">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="176"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J13" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q13" s="183" t="s">
-        <v>224</v>
-      </c>
-      <c r="R13" s="201">
+      <c r="K13" s="177" t="s">
+        <v>217</v>
+      </c>
+      <c r="L13" s="190">
         <v>3.1731466950130557E-2</v>
       </c>
-      <c r="S13" s="191"/>
-      <c r="T13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U13" s="1" t="str">
+      <c r="M13" s="185"/>
+      <c r="N13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O13" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V13" s="183" t="s">
-        <v>224</v>
-      </c>
-      <c r="W13" s="201">
+      <c r="P13" s="177" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q13" s="190">
         <v>3.1731466950130557E-2</v>
       </c>
-      <c r="Y13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z13" s="1" t="str">
+      <c r="S13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T13" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA13" s="183" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB13" s="201">
+      <c r="U13" s="177" t="s">
+        <v>217</v>
+      </c>
+      <c r="V13" s="190">
         <v>3.1731466950130557E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B14" s="181"/>
-      <c r="C14" s="181"/>
-      <c r="D14" s="181"/>
-      <c r="E14" s="181"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="194"/>
-      <c r="L14" s="181"/>
-      <c r="M14" s="182"/>
-      <c r="O14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P14" s="1" t="str">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="176"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J14" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q14" s="148" t="s">
-        <v>225</v>
-      </c>
-      <c r="R14" s="201">
+      <c r="K14" s="145" t="s">
+        <v>218</v>
+      </c>
+      <c r="L14" s="190">
         <v>3.1860835358240212E-2</v>
       </c>
-      <c r="S14" s="191"/>
-      <c r="T14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U14" s="1" t="str">
+      <c r="M14" s="185"/>
+      <c r="N14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O14" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V14" s="148" t="s">
-        <v>225</v>
-      </c>
-      <c r="W14" s="201">
+      <c r="P14" s="145" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q14" s="190">
         <v>3.1860835358240212E-2</v>
       </c>
-      <c r="Y14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z14" s="1" t="str">
+      <c r="S14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T14" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA14" s="148" t="s">
-        <v>225</v>
-      </c>
-      <c r="AB14" s="201">
+      <c r="U14" s="145" t="s">
+        <v>218</v>
+      </c>
+      <c r="V14" s="190">
         <v>3.1860835358240212E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="195"/>
-      <c r="C15" s="195"/>
-      <c r="D15" s="195"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="196"/>
-      <c r="L15" s="197"/>
-      <c r="M15" s="198"/>
-      <c r="O15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P15" s="1" t="str">
+    <row r="15" spans="2:22" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="188"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q15" s="183" t="s">
-        <v>226</v>
-      </c>
-      <c r="R15" s="201">
+      <c r="K15" s="177" t="s">
+        <v>219</v>
+      </c>
+      <c r="L15" s="190">
         <v>3.2394250106746E-2</v>
       </c>
-      <c r="S15" s="191"/>
-      <c r="T15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U15" s="1" t="str">
+      <c r="M15" s="185"/>
+      <c r="N15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O15" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V15" s="183" t="s">
-        <v>226</v>
-      </c>
-      <c r="W15" s="201">
+      <c r="P15" s="177" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q15" s="190">
         <v>3.2394250106746E-2</v>
       </c>
-      <c r="Y15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z15" s="1" t="str">
+      <c r="S15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T15" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA15" s="183" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB15" s="201">
+      <c r="U15" s="177" t="s">
+        <v>219</v>
+      </c>
+      <c r="V15" s="190">
         <v>3.2394250106746E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="195"/>
-      <c r="C16" s="195"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="196"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="196"/>
-      <c r="K16" s="196"/>
-      <c r="L16" s="197"/>
-      <c r="M16" s="206" t="s">
-        <v>262</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P16" s="1" t="str">
+    <row r="16" spans="2:22" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B16" s="188"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q16" s="148" t="s">
-        <v>227</v>
-      </c>
-      <c r="R16" s="201">
+      <c r="K16" s="145" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="190">
         <v>3.241825303092484E-2</v>
       </c>
-      <c r="S16" s="191"/>
-      <c r="T16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U16" s="1" t="str">
+      <c r="M16" s="185"/>
+      <c r="N16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O16" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V16" s="148" t="s">
-        <v>227</v>
-      </c>
-      <c r="W16" s="201">
+      <c r="P16" s="145" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q16" s="190">
         <v>3.241825303092484E-2</v>
       </c>
-      <c r="Y16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z16" s="1" t="str">
+      <c r="S16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T16" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA16" s="148" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB16" s="201">
+      <c r="U16" s="145" t="s">
+        <v>220</v>
+      </c>
+      <c r="V16" s="190">
         <v>3.241825303092484E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>260</v>
-      </c>
-      <c r="E17" s="47">
-        <f>E9+E10+E11</f>
-        <v>13142.908968099302</v>
-      </c>
-      <c r="F17" s="192">
-        <f t="shared" ref="F17:K17" si="0">$E17*(1+$M17)^(F6-$E6)</f>
-        <v>3.678856909513368E-76</v>
-      </c>
-      <c r="G17" s="192">
-        <f t="shared" si="0"/>
-        <v>3.678856909513368E-76</v>
-      </c>
-      <c r="H17" s="192">
-        <f t="shared" si="0"/>
-        <v>3.678856909513368E-76</v>
-      </c>
-      <c r="I17" s="192">
-        <f t="shared" si="0"/>
-        <v>3.678856909513368E-76</v>
-      </c>
-      <c r="J17" s="192">
-        <f t="shared" si="0"/>
-        <v>3.678856909513368E-76</v>
-      </c>
-      <c r="K17" s="192">
-        <f t="shared" si="0"/>
-        <v>3.678856909513368E-76</v>
-      </c>
-      <c r="M17" s="204">
-        <v>9.4822485813413682E-2</v>
-      </c>
-      <c r="O17" t="s">
-        <v>167</v>
-      </c>
-      <c r="P17" t="str">
+    <row r="17" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q17" t="s">
-        <v>228</v>
-      </c>
-      <c r="R17" s="201">
+      <c r="K17" t="s">
+        <v>221</v>
+      </c>
+      <c r="L17" s="190">
         <v>3.5569395862328948E-2</v>
       </c>
-      <c r="S17" s="191"/>
-      <c r="T17" t="s">
-        <v>167</v>
-      </c>
-      <c r="U17" s="1" t="str">
+      <c r="M17" s="185"/>
+      <c r="N17" t="s">
+        <v>167</v>
+      </c>
+      <c r="O17" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V17" t="s">
-        <v>228</v>
-      </c>
-      <c r="W17" s="201">
+      <c r="P17" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q17" s="190">
         <v>3.5569395862328948E-2</v>
       </c>
-      <c r="Y17" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z17" s="1" t="str">
+      <c r="S17" t="s">
+        <v>167</v>
+      </c>
+      <c r="T17" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA17" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB17" s="201">
+      <c r="U17" t="s">
+        <v>221</v>
+      </c>
+      <c r="V17" s="190">
         <v>3.5569395862328948E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="205"/>
-      <c r="O18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P18" s="1" t="str">
+    <row r="18" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="I18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q18" s="148" t="s">
-        <v>229</v>
-      </c>
-      <c r="R18" s="201">
+      <c r="K18" s="145" t="s">
+        <v>222</v>
+      </c>
+      <c r="L18" s="190">
         <v>5.0064684062236839E-2</v>
       </c>
-      <c r="S18" s="191"/>
-      <c r="T18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U18" s="1" t="str">
+      <c r="M18" s="185"/>
+      <c r="N18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V18" s="148" t="s">
-        <v>229</v>
-      </c>
-      <c r="W18" s="201">
+      <c r="P18" s="145" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q18" s="190">
         <v>5.0064684062236839E-2</v>
       </c>
-      <c r="Y18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z18" s="1" t="str">
+      <c r="S18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T18" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA18" s="148" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB18" s="201">
+      <c r="U18" s="145" t="s">
+        <v>222</v>
+      </c>
+      <c r="V18" s="190">
         <v>5.0064684062236839E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19" s="204">
-        <v>0.19822057738765797</v>
-      </c>
-      <c r="F19" s="204">
-        <v>0.17089032059330644</v>
-      </c>
-      <c r="G19" s="204">
-        <v>0.13016666322591705</v>
-      </c>
-      <c r="H19" s="204">
-        <v>9.6441961722448732E-2</v>
-      </c>
-      <c r="I19" s="204">
-        <v>6.9833022502173214E-2</v>
-      </c>
-      <c r="J19" s="204">
-        <v>4.9653270610873525E-2</v>
-      </c>
-      <c r="K19" s="204">
-        <v>3.4816599780407721E-2</v>
-      </c>
-      <c r="O19" t="s">
-        <v>167</v>
-      </c>
-      <c r="P19" t="str">
+    <row r="19" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q19" t="s">
-        <v>230</v>
-      </c>
-      <c r="R19" s="201">
+      <c r="K19" t="s">
+        <v>223</v>
+      </c>
+      <c r="L19" s="190">
         <v>6.1132650490749271E-2</v>
       </c>
-      <c r="S19" s="191"/>
-      <c r="T19" t="s">
-        <v>167</v>
-      </c>
-      <c r="U19" s="1" t="str">
+      <c r="M19" s="185"/>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V19" t="s">
-        <v>230</v>
-      </c>
-      <c r="W19" s="201">
+      <c r="P19" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q19" s="190">
         <v>6.1132650490749271E-2</v>
       </c>
-      <c r="Y19" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z19" s="1" t="str">
+      <c r="S19" t="s">
+        <v>167</v>
+      </c>
+      <c r="T19" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA19" t="s">
-        <v>230</v>
-      </c>
-      <c r="AB19" s="201">
+      <c r="U19" t="s">
+        <v>223</v>
+      </c>
+      <c r="V19" s="190">
         <v>6.1132650490749271E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="204">
-        <v>0.21771665775440627</v>
-      </c>
-      <c r="F20" s="204">
-        <v>0.19238351122345129</v>
-      </c>
-      <c r="G20" s="204">
-        <v>0.15268484122735157</v>
-      </c>
-      <c r="H20" s="204">
-        <v>0.11787126733472666</v>
-      </c>
-      <c r="I20" s="204">
-        <v>8.8930047492301309E-2</v>
-      </c>
-      <c r="J20" s="204">
-        <v>6.5884205406057411E-2</v>
-      </c>
-      <c r="K20" s="204">
-        <v>4.8135509709209295E-2</v>
-      </c>
-      <c r="O20" t="s">
-        <v>167</v>
-      </c>
-      <c r="P20" t="str">
+    <row r="20" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q20" t="s">
-        <v>231</v>
-      </c>
-      <c r="R20" s="201">
+      <c r="K20" t="s">
+        <v>224</v>
+      </c>
+      <c r="L20" s="190">
         <v>6.011628522297266E-2</v>
       </c>
-      <c r="S20" s="191"/>
-      <c r="T20" t="s">
-        <v>167</v>
-      </c>
-      <c r="U20" s="1" t="str">
+      <c r="M20" s="185"/>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V20" t="s">
-        <v>231</v>
-      </c>
-      <c r="W20" s="201">
+      <c r="P20" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q20" s="190">
         <v>6.011628522297266E-2</v>
       </c>
-      <c r="Y20" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z20" s="1" t="str">
+      <c r="S20" t="s">
+        <v>167</v>
+      </c>
+      <c r="T20" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA20" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB20" s="201">
+      <c r="U20" t="s">
+        <v>224</v>
+      </c>
+      <c r="V20" s="190">
         <v>6.011628522297266E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>261</v>
-      </c>
-      <c r="D21" t="s">
-        <v>256</v>
-      </c>
-      <c r="E21" s="204">
-        <v>0.58406276485793585</v>
-      </c>
-      <c r="F21" s="204">
-        <v>0.63672616818324224</v>
-      </c>
-      <c r="G21" s="204">
-        <v>0.71714849554673121</v>
-      </c>
-      <c r="H21" s="204">
-        <v>0.78568677094282446</v>
-      </c>
-      <c r="I21" s="204">
-        <v>0.84123693000552557</v>
-      </c>
-      <c r="J21" s="204">
-        <v>0.88446252398306902</v>
-      </c>
-      <c r="K21" s="204">
-        <v>0.91704789051038305</v>
-      </c>
-      <c r="O21" t="s">
-        <v>167</v>
-      </c>
-      <c r="P21" t="str">
+    <row r="21" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q21" t="s">
-        <v>232</v>
-      </c>
-      <c r="R21" s="201">
+      <c r="K21" t="s">
+        <v>225</v>
+      </c>
+      <c r="L21" s="190">
         <v>6.2041439521472716E-2</v>
       </c>
-      <c r="S21" s="191"/>
-      <c r="T21" t="s">
-        <v>167</v>
-      </c>
-      <c r="U21" s="1" t="str">
+      <c r="M21" s="185"/>
+      <c r="N21" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V21" t="s">
-        <v>232</v>
-      </c>
-      <c r="W21" s="201">
+      <c r="P21" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q21" s="190">
         <v>6.2041439521472716E-2</v>
       </c>
-      <c r="Y21" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z21" s="1" t="str">
+      <c r="S21" t="s">
+        <v>167</v>
+      </c>
+      <c r="T21" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA21" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB21" s="201">
+      <c r="U21" t="s">
+        <v>225</v>
+      </c>
+      <c r="V21" s="190">
         <v>6.2041439521472716E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="O22" t="s">
-        <v>167</v>
-      </c>
-      <c r="P22" t="str">
+    <row r="22" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q22" t="s">
-        <v>233</v>
-      </c>
-      <c r="R22" s="201">
+      <c r="K22" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" s="190">
         <v>5.0238563001630904E-2</v>
       </c>
-      <c r="S22" s="191"/>
-      <c r="T22" t="s">
-        <v>167</v>
-      </c>
-      <c r="U22" s="1" t="str">
+      <c r="M22" s="185"/>
+      <c r="N22" t="s">
+        <v>167</v>
+      </c>
+      <c r="O22" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V22" t="s">
-        <v>233</v>
-      </c>
-      <c r="W22" s="201">
+      <c r="P22" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q22" s="190">
         <v>5.0238563001630904E-2</v>
       </c>
-      <c r="Y22" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z22" s="1" t="str">
+      <c r="S22" t="s">
+        <v>167</v>
+      </c>
+      <c r="T22" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA22" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB22" s="201">
+      <c r="U22" t="s">
+        <v>226</v>
+      </c>
+      <c r="V22" s="190">
         <v>5.0238563001630904E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="193"/>
-      <c r="K23" s="193"/>
-      <c r="O23" t="s">
-        <v>167</v>
-      </c>
-      <c r="P23" t="str">
+    <row r="23" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+      <c r="I23" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q23" t="s">
-        <v>234</v>
-      </c>
-      <c r="R23" s="201">
+      <c r="K23" t="s">
+        <v>227</v>
+      </c>
+      <c r="L23" s="190">
         <v>5.3184386397899165E-2</v>
       </c>
-      <c r="S23" s="191"/>
-      <c r="T23" t="s">
-        <v>167</v>
-      </c>
-      <c r="U23" s="1" t="str">
+      <c r="M23" s="185"/>
+      <c r="N23" t="s">
+        <v>167</v>
+      </c>
+      <c r="O23" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V23" t="s">
-        <v>234</v>
-      </c>
-      <c r="W23" s="201">
+      <c r="P23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q23" s="190">
         <v>5.3184386397899165E-2</v>
       </c>
-      <c r="Y23" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z23" s="1" t="str">
+      <c r="S23" t="s">
+        <v>167</v>
+      </c>
+      <c r="T23" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA23" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB23" s="201">
+      <c r="U23" t="s">
+        <v>227</v>
+      </c>
+      <c r="V23" s="190">
         <v>5.3184386397899165E-2</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="O24" t="s">
-        <v>167</v>
-      </c>
-      <c r="P24" t="str">
+    <row r="24" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q24" t="s">
-        <v>235</v>
-      </c>
-      <c r="R24" s="201">
+      <c r="K24" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" s="190">
         <v>5.7662395688403471E-2</v>
       </c>
-      <c r="S24" s="191"/>
-      <c r="T24" t="s">
-        <v>167</v>
-      </c>
-      <c r="U24" s="1" t="str">
+      <c r="M24" s="185"/>
+      <c r="N24" t="s">
+        <v>167</v>
+      </c>
+      <c r="O24" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V24" t="s">
-        <v>235</v>
-      </c>
-      <c r="W24" s="201">
+      <c r="P24" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q24" s="190">
         <v>5.7662395688403471E-2</v>
       </c>
-      <c r="Y24" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z24" s="1" t="str">
+      <c r="S24" t="s">
+        <v>167</v>
+      </c>
+      <c r="T24" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA24" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB24" s="201">
+      <c r="U24" t="s">
+        <v>228</v>
+      </c>
+      <c r="V24" s="190">
         <v>5.7662395688403471E-2</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="O25" t="s">
-        <v>167</v>
-      </c>
-      <c r="P25" t="str">
+    <row r="25" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q25" t="s">
-        <v>236</v>
-      </c>
-      <c r="R25" s="201">
+      <c r="K25" t="s">
+        <v>229</v>
+      </c>
+      <c r="L25" s="190">
         <v>5.8557745224525878E-2</v>
       </c>
-      <c r="S25" s="191"/>
-      <c r="T25" t="s">
-        <v>167</v>
-      </c>
-      <c r="U25" s="1" t="str">
+      <c r="M25" s="185"/>
+      <c r="N25" t="s">
+        <v>167</v>
+      </c>
+      <c r="O25" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V25" t="s">
-        <v>236</v>
-      </c>
-      <c r="W25" s="201">
+      <c r="P25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q25" s="190">
         <v>5.8557745224525878E-2</v>
       </c>
-      <c r="Y25" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z25" s="1" t="str">
+      <c r="S25" t="s">
+        <v>167</v>
+      </c>
+      <c r="T25" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA25" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB25" s="201">
+      <c r="U25" t="s">
+        <v>229</v>
+      </c>
+      <c r="V25" s="190">
         <v>5.8557745224525878E-2</v>
       </c>
     </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D26" s="109"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="167"/>
-      <c r="O26" t="s">
-        <v>167</v>
-      </c>
-      <c r="P26" t="str">
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q26" t="s">
-        <v>237</v>
-      </c>
-      <c r="R26" s="201">
+      <c r="K26" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" s="190">
         <v>5.4169812257972488E-2</v>
       </c>
-      <c r="S26" s="191"/>
-      <c r="T26" t="s">
-        <v>167</v>
-      </c>
-      <c r="U26" s="1" t="str">
+      <c r="M26" s="185"/>
+      <c r="N26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O26" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V26" t="s">
-        <v>237</v>
-      </c>
-      <c r="W26" s="201">
+      <c r="P26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q26" s="190">
         <v>5.4169812257972488E-2</v>
       </c>
-      <c r="Y26" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z26" s="1" t="str">
+      <c r="S26" t="s">
+        <v>167</v>
+      </c>
+      <c r="T26" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA26" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB26" s="201">
+      <c r="U26" t="s">
+        <v>230</v>
+      </c>
+      <c r="V26" s="190">
         <v>5.4169812257972488E-2</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D27" s="109"/>
       <c r="E27" s="5"/>
-      <c r="O27" t="s">
-        <v>167</v>
-      </c>
-      <c r="P27" t="str">
+      <c r="I27" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q27" t="s">
-        <v>238</v>
-      </c>
-      <c r="R27" s="201">
+      <c r="K27" t="s">
+        <v>231</v>
+      </c>
+      <c r="L27" s="190">
         <v>4.1857004866670537E-2</v>
       </c>
-      <c r="S27" s="191"/>
-      <c r="T27" t="s">
-        <v>167</v>
-      </c>
-      <c r="U27" s="1" t="str">
+      <c r="M27" s="185"/>
+      <c r="N27" t="s">
+        <v>167</v>
+      </c>
+      <c r="O27" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V27" t="s">
-        <v>238</v>
-      </c>
-      <c r="W27" s="201">
+      <c r="P27" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q27" s="190">
         <v>4.1857004866670537E-2</v>
       </c>
-      <c r="Y27" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z27" s="1" t="str">
+      <c r="S27" t="s">
+        <v>167</v>
+      </c>
+      <c r="T27" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA27" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB27" s="201">
+      <c r="U27" t="s">
+        <v>231</v>
+      </c>
+      <c r="V27" s="190">
         <v>4.1857004866670537E-2</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D28" s="109"/>
       <c r="E28" s="109"/>
       <c r="F28" s="109"/>
       <c r="G28" s="109"/>
       <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="O28" t="s">
-        <v>167</v>
-      </c>
-      <c r="P28" t="str">
+      <c r="I28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J28" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q28" t="s">
-        <v>239</v>
-      </c>
-      <c r="R28" s="201">
+      <c r="K28" t="s">
+        <v>232</v>
+      </c>
+      <c r="L28" s="190">
         <v>3.3691520594468241E-2</v>
       </c>
-      <c r="S28" s="191"/>
-      <c r="T28" t="s">
-        <v>167</v>
-      </c>
-      <c r="U28" s="1" t="str">
+      <c r="M28" s="185"/>
+      <c r="N28" t="s">
+        <v>167</v>
+      </c>
+      <c r="O28" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V28" t="s">
-        <v>239</v>
-      </c>
-      <c r="W28" s="201">
+      <c r="P28" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q28" s="190">
         <v>3.3691520594468241E-2</v>
       </c>
-      <c r="Y28" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z28" s="1" t="str">
+      <c r="S28" t="s">
+        <v>167</v>
+      </c>
+      <c r="T28" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA28" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB28" s="201">
+      <c r="U28" t="s">
+        <v>232</v>
+      </c>
+      <c r="V28" s="190">
         <v>3.3691520594468241E-2</v>
       </c>
     </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D29" s="109"/>
       <c r="E29" s="109"/>
       <c r="F29" s="109"/>
       <c r="G29" s="109"/>
       <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="O29" t="s">
-        <v>167</v>
-      </c>
-      <c r="P29" t="str">
+      <c r="I29" t="s">
+        <v>167</v>
+      </c>
+      <c r="J29" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q29" t="s">
-        <v>240</v>
-      </c>
-      <c r="R29" s="201">
+      <c r="K29" t="s">
+        <v>233</v>
+      </c>
+      <c r="L29" s="190">
         <v>3.2906492752302938E-2</v>
       </c>
-      <c r="S29" s="191"/>
-      <c r="T29" t="s">
-        <v>167</v>
-      </c>
-      <c r="U29" s="1" t="str">
+      <c r="M29" s="185"/>
+      <c r="N29" t="s">
+        <v>167</v>
+      </c>
+      <c r="O29" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V29" t="s">
-        <v>240</v>
-      </c>
-      <c r="W29" s="201">
+      <c r="P29" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q29" s="190">
         <v>3.2906492752302938E-2</v>
       </c>
-      <c r="Y29" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z29" s="1" t="str">
+      <c r="S29" t="s">
+        <v>167</v>
+      </c>
+      <c r="T29" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA29" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB29" s="201">
+      <c r="U29" t="s">
+        <v>233</v>
+      </c>
+      <c r="V29" s="190">
         <v>3.2906492752302938E-2</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="O30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P30" s="1" t="str">
+    <row r="30" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="I30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J30" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q30" s="148" t="s">
-        <v>241</v>
-      </c>
-      <c r="R30" s="201">
+      <c r="K30" s="145" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" s="190">
         <v>3.20626233861286E-2</v>
       </c>
-      <c r="S30" s="191"/>
-      <c r="T30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U30" s="1" t="str">
+      <c r="M30" s="185"/>
+      <c r="N30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O30" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V30" s="148" t="s">
-        <v>241</v>
-      </c>
-      <c r="W30" s="201">
+      <c r="P30" s="145" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q30" s="190">
         <v>3.20626233861286E-2</v>
       </c>
-      <c r="Y30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z30" s="1" t="str">
+      <c r="S30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T30" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA30" s="148" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB30" s="201">
+      <c r="U30" s="145" t="s">
+        <v>234</v>
+      </c>
+      <c r="V30" s="190">
         <v>3.20626233861286E-2</v>
       </c>
     </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="O31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P31" s="1" t="str">
+    <row r="31" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="I31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J31" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q31" s="183" t="s">
-        <v>242</v>
-      </c>
-      <c r="R31" s="201">
+      <c r="K31" s="177" t="s">
+        <v>235</v>
+      </c>
+      <c r="L31" s="190">
         <v>3.1700774081405016E-2</v>
       </c>
-      <c r="S31" s="191"/>
-      <c r="T31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U31" s="1" t="str">
+      <c r="M31" s="185"/>
+      <c r="N31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O31" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V31" s="183" t="s">
-        <v>242</v>
-      </c>
-      <c r="W31" s="201">
+      <c r="P31" s="177" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q31" s="190">
         <v>3.1700774081405016E-2</v>
       </c>
-      <c r="Y31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z31" s="1" t="str">
+      <c r="S31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T31" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA31" s="183" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB31" s="201">
+      <c r="U31" s="177" t="s">
+        <v>235</v>
+      </c>
+      <c r="V31" s="190">
         <v>3.1700774081405016E-2</v>
       </c>
     </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="E32" s="5">
-        <f>EBF!J19</f>
-        <v>150.60848427090019</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P32" s="1" t="str">
+    <row r="32" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E32" s="5"/>
+      <c r="I32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J32" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q32" s="148" t="s">
-        <v>243</v>
-      </c>
-      <c r="R32" s="201">
+      <c r="K32" s="145" t="s">
+        <v>236</v>
+      </c>
+      <c r="L32" s="190">
         <v>3.0548494068914959E-2</v>
       </c>
-      <c r="S32" s="191"/>
-      <c r="T32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U32" s="1" t="str">
+      <c r="M32" s="185"/>
+      <c r="N32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O32" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V32" s="148" t="s">
-        <v>243</v>
-      </c>
-      <c r="W32" s="201">
+      <c r="P32" s="145" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q32" s="190">
         <v>3.0548494068914959E-2</v>
       </c>
-      <c r="Y32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z32" s="1" t="str">
+      <c r="S32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T32" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA32" s="148" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB32" s="201">
+      <c r="U32" s="145" t="s">
+        <v>236</v>
+      </c>
+      <c r="V32" s="190">
         <v>3.0548494068914959E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
-      <c r="E33" s="5">
-        <f>EBF!E19</f>
-        <v>8781.4640358504003</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P33" s="1" t="str">
+      <c r="E33" s="5"/>
+      <c r="I33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J33" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q33" s="183" t="s">
-        <v>244</v>
-      </c>
-      <c r="R33" s="201">
+      <c r="K33" s="177" t="s">
+        <v>237</v>
+      </c>
+      <c r="L33" s="190">
         <v>3.117830445262517E-2</v>
       </c>
-      <c r="S33" s="191"/>
-      <c r="T33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U33" s="1" t="str">
+      <c r="M33" s="185"/>
+      <c r="N33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O33" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V33" s="183" t="s">
-        <v>244</v>
-      </c>
-      <c r="W33" s="201">
+      <c r="P33" s="177" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q33" s="190">
         <v>3.117830445262517E-2</v>
       </c>
-      <c r="Y33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z33" s="1" t="str">
+      <c r="S33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T33" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA33" s="183" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB33" s="201">
+      <c r="U33" s="177" t="s">
+        <v>237</v>
+      </c>
+      <c r="V33" s="190">
         <v>3.117830445262517E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
-      <c r="O34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P34" s="1" t="str">
+      <c r="I34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J34" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="K34" t="s">
         <v>168</v>
       </c>
-      <c r="R34" s="201">
+      <c r="L34" s="190">
         <v>3.1580002137548593E-2</v>
       </c>
-      <c r="T34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U34" s="1" t="str">
+      <c r="N34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O34" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V34" t="s">
+      <c r="P34" t="s">
         <v>168</v>
       </c>
-      <c r="W34" s="201">
+      <c r="Q34" s="190">
         <v>3.1580002137548593E-2</v>
       </c>
-      <c r="Y34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z34" s="1" t="str">
+      <c r="S34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T34" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="U34" t="s">
         <v>168</v>
       </c>
-      <c r="AB34" s="201">
+      <c r="V34" s="190">
         <v>3.1580002137548593E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O35" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P35" s="1" t="str">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J35" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="K35" t="s">
         <v>169</v>
       </c>
-      <c r="R35" s="201">
+      <c r="L35" s="190">
         <v>3.1850630527954941E-2</v>
       </c>
-      <c r="T35" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U35" s="1" t="str">
+      <c r="N35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O35" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V35" t="s">
+      <c r="P35" t="s">
         <v>169</v>
       </c>
-      <c r="W35" s="201">
+      <c r="Q35" s="190">
         <v>3.1850630527954941E-2</v>
       </c>
-      <c r="Y35" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z35" s="1" t="str">
+      <c r="S35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T35" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="U35" t="s">
         <v>169</v>
       </c>
-      <c r="AB35" s="201">
+      <c r="V35" s="190">
         <v>3.1850630527954941E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B36" s="118"/>
       <c r="C36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="O36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P36" s="1" t="str">
+      <c r="I36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J36" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="K36" t="s">
         <v>170</v>
       </c>
-      <c r="R36" s="201">
+      <c r="L36" s="190">
         <v>3.1481989955747081E-2</v>
       </c>
-      <c r="T36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U36" s="1" t="str">
+      <c r="N36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O36" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V36" t="s">
+      <c r="P36" t="s">
         <v>170</v>
       </c>
-      <c r="W36" s="201">
+      <c r="Q36" s="190">
         <v>3.1481989955747081E-2</v>
       </c>
-      <c r="Y36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z36" s="1" t="str">
+      <c r="S36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T36" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="U36" t="s">
         <v>170</v>
       </c>
-      <c r="AB36" s="201">
+      <c r="V36" s="190">
         <v>3.1481989955747081E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="47"/>
       <c r="C37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="O37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P37" s="1" t="str">
+      <c r="I37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J37" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="K37" t="s">
         <v>171</v>
       </c>
-      <c r="R37" s="201">
+      <c r="L37" s="190">
         <v>3.1731466950130557E-2</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U37" s="1" t="str">
+      <c r="N37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O37" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V37" t="s">
+      <c r="P37" t="s">
         <v>171</v>
       </c>
-      <c r="W37" s="201">
+      <c r="Q37" s="190">
         <v>3.1731466950130557E-2</v>
       </c>
-      <c r="Y37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z37" s="1" t="str">
+      <c r="S37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T37" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="U37" t="s">
         <v>171</v>
       </c>
-      <c r="AB37" s="201">
+      <c r="V37" s="190">
         <v>3.1731466950130557E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P38" s="1" t="str">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J38" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="K38" t="s">
         <v>172</v>
       </c>
-      <c r="R38" s="201">
+      <c r="L38" s="190">
         <v>3.1860835358240212E-2</v>
       </c>
-      <c r="T38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U38" s="1" t="str">
+      <c r="N38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O38" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V38" t="s">
+      <c r="P38" t="s">
         <v>172</v>
       </c>
-      <c r="W38" s="201">
+      <c r="Q38" s="190">
         <v>3.1860835358240212E-2</v>
       </c>
-      <c r="Y38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z38" s="1" t="str">
+      <c r="S38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T38" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="U38" t="s">
         <v>172</v>
       </c>
-      <c r="AB38" s="201">
+      <c r="V38" s="190">
         <v>3.1860835358240212E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P39" s="1" t="str">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J39" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="K39" t="s">
         <v>173</v>
       </c>
-      <c r="R39" s="201">
+      <c r="L39" s="190">
         <v>3.2394250106746E-2</v>
       </c>
-      <c r="T39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U39" s="1" t="str">
+      <c r="N39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O39" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V39" t="s">
+      <c r="P39" t="s">
         <v>173</v>
       </c>
-      <c r="W39" s="201">
+      <c r="Q39" s="190">
         <v>3.2394250106746E-2</v>
       </c>
-      <c r="Y39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z39" s="1" t="str">
+      <c r="S39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T39" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="U39" t="s">
         <v>173</v>
       </c>
-      <c r="AB39" s="201">
+      <c r="V39" s="190">
         <v>3.2394250106746E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P40" s="1" t="str">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J40" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="K40" t="s">
         <v>174</v>
       </c>
-      <c r="R40" s="201">
+      <c r="L40" s="190">
         <v>3.241825303092484E-2</v>
       </c>
-      <c r="T40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U40" s="1" t="str">
+      <c r="N40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O40" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V40" t="s">
+      <c r="P40" t="s">
         <v>174</v>
       </c>
-      <c r="W40" s="201">
+      <c r="Q40" s="190">
         <v>3.241825303092484E-2</v>
       </c>
-      <c r="Y40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z40" s="1" t="str">
+      <c r="S40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T40" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="U40" t="s">
         <v>174</v>
       </c>
-      <c r="AB40" s="201">
+      <c r="V40" s="190">
         <v>3.241825303092484E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P41" s="1" t="str">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J41" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="K41" t="s">
         <v>175</v>
       </c>
-      <c r="R41" s="201">
+      <c r="L41" s="190">
         <v>3.5569395862328948E-2</v>
       </c>
-      <c r="T41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U41" s="1" t="str">
+      <c r="N41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O41" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V41" t="s">
+      <c r="P41" t="s">
         <v>175</v>
       </c>
-      <c r="W41" s="201">
+      <c r="Q41" s="190">
         <v>3.5569395862328948E-2</v>
       </c>
-      <c r="Y41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z41" s="1" t="str">
+      <c r="S41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T41" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="U41" t="s">
         <v>175</v>
       </c>
-      <c r="AB41" s="201">
+      <c r="V41" s="190">
         <v>3.5569395862328948E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P42" s="1" t="str">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J42" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="K42" t="s">
         <v>176</v>
       </c>
-      <c r="R42" s="201">
+      <c r="L42" s="190">
         <v>5.0064684062236839E-2</v>
       </c>
-      <c r="T42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U42" s="1" t="str">
+      <c r="N42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O42" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V42" t="s">
+      <c r="P42" t="s">
         <v>176</v>
       </c>
-      <c r="W42" s="201">
+      <c r="Q42" s="190">
         <v>5.0064684062236839E-2</v>
       </c>
-      <c r="Y42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z42" s="1" t="str">
+      <c r="S42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T42" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="U42" t="s">
         <v>176</v>
       </c>
-      <c r="AB42" s="201">
+      <c r="V42" s="190">
         <v>5.0064684062236839E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O43" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P43" s="1" t="str">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J43" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="K43" t="s">
         <v>177</v>
       </c>
-      <c r="R43" s="201">
+      <c r="L43" s="190">
         <v>6.1132650490749271E-2</v>
       </c>
-      <c r="T43" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U43" s="1" t="str">
+      <c r="N43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O43" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V43" t="s">
+      <c r="P43" t="s">
         <v>177</v>
       </c>
-      <c r="W43" s="201">
+      <c r="Q43" s="190">
         <v>6.1132650490749271E-2</v>
       </c>
-      <c r="Y43" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z43" s="1" t="str">
+      <c r="S43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T43" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="U43" t="s">
         <v>177</v>
       </c>
-      <c r="AB43" s="201">
+      <c r="V43" s="190">
         <v>6.1132650490749271E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P44" s="1" t="str">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J44" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="K44" t="s">
         <v>178</v>
       </c>
-      <c r="R44" s="201">
+      <c r="L44" s="190">
         <v>6.011628522297266E-2</v>
       </c>
-      <c r="T44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U44" s="1" t="str">
+      <c r="N44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O44" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V44" t="s">
+      <c r="P44" t="s">
         <v>178</v>
       </c>
-      <c r="W44" s="201">
+      <c r="Q44" s="190">
         <v>6.011628522297266E-2</v>
       </c>
-      <c r="Y44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z44" s="1" t="str">
+      <c r="S44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T44" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="U44" t="s">
         <v>178</v>
       </c>
-      <c r="AB44" s="201">
+      <c r="V44" s="190">
         <v>6.011628522297266E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P45" s="1" t="str">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J45" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="K45" t="s">
         <v>179</v>
       </c>
-      <c r="R45" s="201">
+      <c r="L45" s="190">
         <v>6.2041439521472716E-2</v>
       </c>
-      <c r="T45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U45" s="1" t="str">
+      <c r="N45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O45" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V45" t="s">
+      <c r="P45" t="s">
         <v>179</v>
       </c>
-      <c r="W45" s="201">
+      <c r="Q45" s="190">
         <v>6.2041439521472716E-2</v>
       </c>
-      <c r="Y45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z45" s="1" t="str">
+      <c r="S45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T45" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="U45" t="s">
         <v>179</v>
       </c>
-      <c r="AB45" s="201">
+      <c r="V45" s="190">
         <v>6.2041439521472716E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O46" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P46" s="1" t="str">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J46" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="K46" t="s">
         <v>180</v>
       </c>
-      <c r="R46" s="201">
+      <c r="L46" s="190">
         <v>5.0238563001630904E-2</v>
       </c>
-      <c r="T46" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U46" s="1" t="str">
+      <c r="N46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O46" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V46" t="s">
+      <c r="P46" t="s">
         <v>180</v>
       </c>
-      <c r="W46" s="201">
+      <c r="Q46" s="190">
         <v>5.0238563001630904E-2</v>
       </c>
-      <c r="Y46" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z46" s="1" t="str">
+      <c r="S46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T46" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="U46" t="s">
         <v>180</v>
       </c>
-      <c r="AB46" s="201">
+      <c r="V46" s="190">
         <v>5.0238563001630904E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O47" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P47" s="1" t="str">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J47" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="K47" t="s">
         <v>181</v>
       </c>
-      <c r="R47" s="201">
+      <c r="L47" s="190">
         <v>5.3184386397899165E-2</v>
       </c>
-      <c r="T47" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U47" s="1" t="str">
+      <c r="N47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O47" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V47" t="s">
+      <c r="P47" t="s">
         <v>181</v>
       </c>
-      <c r="W47" s="201">
+      <c r="Q47" s="190">
         <v>5.3184386397899165E-2</v>
       </c>
-      <c r="Y47" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z47" s="1" t="str">
+      <c r="S47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T47" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="U47" t="s">
         <v>181</v>
       </c>
-      <c r="AB47" s="201">
+      <c r="V47" s="190">
         <v>5.3184386397899165E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O48" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P48" s="1" t="str">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J48" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="K48" t="s">
         <v>182</v>
       </c>
-      <c r="R48" s="201">
+      <c r="L48" s="190">
         <v>5.7662395688403471E-2</v>
       </c>
-      <c r="T48" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U48" s="1" t="str">
+      <c r="N48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O48" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V48" t="s">
+      <c r="P48" t="s">
         <v>182</v>
       </c>
-      <c r="W48" s="201">
+      <c r="Q48" s="190">
         <v>5.7662395688403471E-2</v>
       </c>
-      <c r="Y48" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z48" s="1" t="str">
+      <c r="S48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T48" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="U48" t="s">
         <v>182</v>
       </c>
-      <c r="AB48" s="201">
+      <c r="V48" s="190">
         <v>5.7662395688403471E-2</v>
       </c>
     </row>
-    <row r="49" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P49" s="1" t="str">
+    <row r="49" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J49" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="K49" t="s">
         <v>183</v>
       </c>
-      <c r="R49" s="201">
+      <c r="L49" s="190">
         <v>5.8557745224525878E-2</v>
       </c>
-      <c r="T49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U49" s="1" t="str">
+      <c r="N49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O49" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V49" t="s">
+      <c r="P49" t="s">
         <v>183</v>
       </c>
-      <c r="W49" s="201">
+      <c r="Q49" s="190">
         <v>5.8557745224525878E-2</v>
       </c>
-      <c r="Y49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z49" s="1" t="str">
+      <c r="S49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T49" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="U49" t="s">
         <v>183</v>
       </c>
-      <c r="AB49" s="201">
+      <c r="V49" s="190">
         <v>5.8557745224525878E-2</v>
       </c>
     </row>
-    <row r="50" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P50" s="1" t="str">
+    <row r="50" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J50" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="K50" t="s">
         <v>184</v>
       </c>
-      <c r="R50" s="201">
+      <c r="L50" s="190">
         <v>5.4169812257972488E-2</v>
       </c>
-      <c r="T50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U50" s="1" t="str">
+      <c r="N50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O50" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V50" t="s">
+      <c r="P50" t="s">
         <v>184</v>
       </c>
-      <c r="W50" s="201">
+      <c r="Q50" s="190">
         <v>5.4169812257972488E-2</v>
       </c>
-      <c r="Y50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z50" s="1" t="str">
+      <c r="S50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T50" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="U50" t="s">
         <v>184</v>
       </c>
-      <c r="AB50" s="201">
+      <c r="V50" s="190">
         <v>5.4169812257972488E-2</v>
       </c>
     </row>
-    <row r="51" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P51" s="1" t="str">
+    <row r="51" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J51" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="K51" t="s">
         <v>185</v>
       </c>
-      <c r="R51" s="201">
+      <c r="L51" s="190">
         <v>4.1857004866670537E-2</v>
       </c>
-      <c r="T51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U51" s="1" t="str">
+      <c r="N51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O51" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V51" t="s">
+      <c r="P51" t="s">
         <v>185</v>
       </c>
-      <c r="W51" s="201">
+      <c r="Q51" s="190">
         <v>4.1857004866670537E-2</v>
       </c>
-      <c r="Y51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z51" s="1" t="str">
+      <c r="S51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T51" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="U51" t="s">
         <v>185</v>
       </c>
-      <c r="AB51" s="201">
+      <c r="V51" s="190">
         <v>4.1857004866670537E-2</v>
       </c>
     </row>
-    <row r="52" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P52" s="1" t="str">
+    <row r="52" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J52" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="K52" t="s">
         <v>186</v>
       </c>
-      <c r="R52" s="201">
+      <c r="L52" s="190">
         <v>3.3691520594468241E-2</v>
       </c>
-      <c r="T52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U52" s="1" t="str">
+      <c r="N52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O52" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V52" t="s">
+      <c r="P52" t="s">
         <v>186</v>
       </c>
-      <c r="W52" s="201">
+      <c r="Q52" s="190">
         <v>3.3691520594468241E-2</v>
       </c>
-      <c r="Y52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z52" s="1" t="str">
+      <c r="S52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T52" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="U52" t="s">
         <v>186</v>
       </c>
-      <c r="AB52" s="201">
+      <c r="V52" s="190">
         <v>3.3691520594468241E-2</v>
       </c>
     </row>
-    <row r="53" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O53" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P53" s="1" t="str">
+    <row r="53" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J53" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="K53" t="s">
         <v>187</v>
       </c>
-      <c r="R53" s="201">
+      <c r="L53" s="190">
         <v>3.2906492752302938E-2</v>
       </c>
-      <c r="T53" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U53" s="1" t="str">
+      <c r="N53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O53" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V53" t="s">
+      <c r="P53" t="s">
         <v>187</v>
       </c>
-      <c r="W53" s="201">
+      <c r="Q53" s="190">
         <v>3.2906492752302938E-2</v>
       </c>
-      <c r="Y53" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z53" s="1" t="str">
+      <c r="S53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T53" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="U53" t="s">
         <v>187</v>
       </c>
-      <c r="AB53" s="201">
+      <c r="V53" s="190">
         <v>3.2906492752302938E-2</v>
       </c>
     </row>
-    <row r="54" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O54" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P54" s="1" t="str">
+    <row r="54" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J54" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="K54" t="s">
         <v>188</v>
       </c>
-      <c r="R54" s="201">
+      <c r="L54" s="190">
         <v>3.20626233861286E-2</v>
       </c>
-      <c r="T54" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U54" s="1" t="str">
+      <c r="N54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O54" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V54" t="s">
+      <c r="P54" t="s">
         <v>188</v>
       </c>
-      <c r="W54" s="201">
+      <c r="Q54" s="190">
         <v>3.20626233861286E-2</v>
       </c>
-      <c r="Y54" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z54" s="1" t="str">
+      <c r="S54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T54" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="U54" t="s">
         <v>188</v>
       </c>
-      <c r="AB54" s="201">
+      <c r="V54" s="190">
         <v>3.20626233861286E-2</v>
       </c>
     </row>
-    <row r="55" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P55" s="1" t="str">
+    <row r="55" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J55" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="K55" t="s">
         <v>189</v>
       </c>
-      <c r="R55" s="201">
+      <c r="L55" s="190">
         <v>3.1700774081405016E-2</v>
       </c>
-      <c r="T55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U55" s="1" t="str">
+      <c r="N55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O55" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V55" t="s">
+      <c r="P55" t="s">
         <v>189</v>
       </c>
-      <c r="W55" s="201">
+      <c r="Q55" s="190">
         <v>3.1700774081405016E-2</v>
       </c>
-      <c r="Y55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z55" s="1" t="str">
+      <c r="S55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T55" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="U55" t="s">
         <v>189</v>
       </c>
-      <c r="AB55" s="201">
+      <c r="V55" s="190">
         <v>3.1700774081405016E-2</v>
       </c>
     </row>
-    <row r="56" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P56" s="1" t="str">
+    <row r="56" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J56" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="K56" t="s">
         <v>190</v>
       </c>
-      <c r="R56" s="201">
+      <c r="L56" s="190">
         <v>3.0548494068914959E-2</v>
       </c>
-      <c r="T56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U56" s="1" t="str">
+      <c r="N56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O56" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V56" t="s">
+      <c r="P56" t="s">
         <v>190</v>
       </c>
-      <c r="W56" s="201">
+      <c r="Q56" s="190">
         <v>3.0548494068914959E-2</v>
       </c>
-      <c r="Y56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z56" s="1" t="str">
+      <c r="S56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T56" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="U56" t="s">
         <v>190</v>
       </c>
-      <c r="AB56" s="201">
+      <c r="V56" s="190">
         <v>3.0548494068914959E-2</v>
       </c>
     </row>
-    <row r="57" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O57" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P57" s="1" t="str">
+    <row r="57" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J57" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="K57" t="s">
         <v>191</v>
       </c>
-      <c r="R57" s="201">
+      <c r="L57" s="190">
         <v>3.117830445262517E-2</v>
       </c>
-      <c r="T57" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U57" s="1" t="str">
+      <c r="N57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O57" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V57" t="s">
+      <c r="P57" t="s">
         <v>191</v>
       </c>
-      <c r="W57" s="201">
+      <c r="Q57" s="190">
         <v>3.117830445262517E-2</v>
       </c>
-      <c r="Y57" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z57" s="1" t="str">
+      <c r="S57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T57" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="U57" t="s">
         <v>191</v>
       </c>
-      <c r="AB57" s="201">
+      <c r="V57" s="190">
         <v>3.117830445262517E-2</v>
       </c>
     </row>
-    <row r="58" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O58" s="1"/>
-      <c r="P58" s="140"/>
-      <c r="Q58" s="140"/>
-      <c r="R58" s="188"/>
-    </row>
-    <row r="59" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="R59" s="140"/>
+    <row r="58" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="I58" s="1"/>
+      <c r="J58" s="137"/>
+      <c r="K58" s="137"/>
+      <c r="L58" s="182"/>
+    </row>
+    <row r="59" spans="9:22" x14ac:dyDescent="0.2">
+      <c r="L59" s="137"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11174,103 +10683,103 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="122" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
     </row>
     <row r="4" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
     </row>
     <row r="5" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="124" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="127"/>
+      <c r="C5" s="125"/>
     </row>
     <row r="6" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="128" t="str">
+      <c r="C6" s="126" t="str">
         <f>PRI_Sector_Fuels!O5</f>
         <v>MANCOALMIN</v>
       </c>
-      <c r="D6" s="128" t="str">
+      <c r="D6" s="126" t="str">
         <f>PRI_Sector_Fuels!O6</f>
         <v>MANCOALIMP</v>
       </c>
-      <c r="E6" s="128" t="str">
+      <c r="E6" s="126" t="str">
         <f>PRI_Sector_Fuels!O7</f>
         <v>MANOILIMP</v>
       </c>
-      <c r="F6" s="128" t="str">
+      <c r="F6" s="126" t="str">
         <f>PRI_Sector_Fuels!O8</f>
         <v>ELC</v>
       </c>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="127" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="127" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="129" t="s">
+      <c r="E7" s="127" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="129" t="s">
+      <c r="F7" s="127" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="130" t="str">
+      <c r="B9" s="128" t="str">
         <f>DemTechs_INDF!Z7</f>
         <v>MANCO2</v>
       </c>
-      <c r="C9" s="131">
+      <c r="C9" s="129">
         <v>0.34100000000000003</v>
       </c>
-      <c r="D9" s="131">
+      <c r="D9" s="129">
         <v>0.34100000000000003</v>
       </c>
-      <c r="E9" s="131">
+      <c r="E9" s="129">
         <v>0.25900000000000001</v>
       </c>
-      <c r="F9" s="131">
+      <c r="F9" s="129">
         <v>0</v>
       </c>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
       <c r="I9" s="1"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{A1411346-4CE1-4CC3-83AA-53AFB982360B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E863B6FE-6D21-408F-8F40-DB01DC04A5A5}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{A1411346-4CE1-4CC3-83AA-53AFB982360B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF7378DD-6F73-4249-9055-1E90AE7755DD}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="FID_1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1558,7 +1558,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="265">
   <si>
     <t>CommName</t>
   </si>
@@ -2435,6 +2435,9 @@
   <si>
     <t>MANOILIMP</t>
   </si>
+  <si>
+    <t>ETH</t>
+  </si>
 </sst>
 </file>
 
@@ -2444,10 +2447,10 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="General_)"/>
     <numFmt numFmtId="166" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.000000000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.000000000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000000000"/>
   </numFmts>
   <fonts count="38" x14ac:knownFonts="1">
     <font>
@@ -3377,7 +3380,7 @@
     </xf>
     <xf numFmtId="2" fontId="9" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="25" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="16" applyFont="1"/>
     <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="25" fillId="16" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3408,7 +3411,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="9" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="29" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3416,7 +3419,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="23" fillId="16" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3426,7 +3429,7 @@
     <xf numFmtId="1" fontId="33" fillId="16" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3964,6 +3967,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4314,7 +4321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40EA534-E44A-461C-9315-2313911B2BEB}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -6241,7 +6248,7 @@
   <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26:P26"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6409,7 +6416,9 @@
       <c r="M5" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="N5" s="68"/>
+      <c r="N5" s="68" t="s">
+        <v>264</v>
+      </c>
       <c r="O5" s="195" t="s">
         <v>261</v>
       </c>
@@ -6433,7 +6442,9 @@
       <c r="M6" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="68"/>
+      <c r="N6" s="68" t="s">
+        <v>264</v>
+      </c>
       <c r="O6" s="195" t="s">
         <v>262</v>
       </c>
@@ -6457,7 +6468,9 @@
       <c r="M7" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="N7" s="68"/>
+      <c r="N7" s="68" t="s">
+        <v>264</v>
+      </c>
       <c r="O7" s="195" t="s">
         <v>263</v>
       </c>
@@ -6481,7 +6494,9 @@
       <c r="M8" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="68"/>
+      <c r="N8" s="68" t="s">
+        <v>264</v>
+      </c>
       <c r="O8" s="136" t="s">
         <v>46</v>
       </c>
@@ -6799,7 +6814,9 @@
         <f>EBF!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="N23" s="68"/>
+      <c r="N23" s="68" t="s">
+        <v>264</v>
+      </c>
       <c r="O23" s="68" t="str">
         <f>$M$23&amp;$C$2</f>
         <v>MINCOA</v>
@@ -6843,7 +6860,9 @@
         <f>EBF!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="N24" s="68"/>
+      <c r="N24" s="68" t="s">
+        <v>264</v>
+      </c>
       <c r="O24" s="68" t="str">
         <f>$M$24&amp;$C$2</f>
         <v>IMPCOA</v>
@@ -6886,6 +6905,9 @@
         <f>EBF!B6</f>
         <v>IMP</v>
       </c>
+      <c r="N25" s="68" t="s">
+        <v>264</v>
+      </c>
       <c r="O25" s="68" t="str">
         <f>$M$25&amp;$C$3</f>
         <v>IMPOIL</v>
@@ -6923,7 +6945,9 @@
       <c r="M26" s="196" t="s">
         <v>46</v>
       </c>
-      <c r="N26" s="196"/>
+      <c r="N26" s="68" t="s">
+        <v>264</v>
+      </c>
       <c r="O26" s="195" t="str">
         <f>$M$26&amp;$C$4</f>
         <v>ELCGRID</v>
@@ -6950,7 +6974,7 @@
       <c r="J27" s="162"/>
       <c r="K27" s="162"/>
       <c r="M27" s="138"/>
-      <c r="N27" s="138"/>
+      <c r="N27" s="68"/>
       <c r="O27" s="139"/>
       <c r="P27" s="140"/>
       <c r="Q27" s="138"/>
@@ -7169,8 +7193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF55"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView topLeftCell="H12" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7357,7 +7381,9 @@
       <c r="X5" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="Y5" s="142"/>
+      <c r="Y5" s="142" t="s">
+        <v>264</v>
+      </c>
       <c r="Z5" s="142" t="s">
         <v>211</v>
       </c>
@@ -7388,7 +7414,9 @@
       <c r="X6" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="Y6" s="90"/>
+      <c r="Y6" s="142" t="s">
+        <v>264</v>
+      </c>
       <c r="Z6" s="90" t="s">
         <v>151</v>
       </c>
@@ -7407,7 +7435,9 @@
       <c r="X7" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="Y7" s="90"/>
+      <c r="Y7" s="142" t="s">
+        <v>264</v>
+      </c>
       <c r="Z7" s="90" t="str">
         <f>$B$2&amp;EBF!C53</f>
         <v>MANCO2</v>
@@ -7429,7 +7459,9 @@
       <c r="X8" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="142"/>
+      <c r="Y8" s="142" t="s">
+        <v>264</v>
+      </c>
       <c r="Z8" s="142" t="s">
         <v>249</v>
       </c>
@@ -7844,6 +7876,9 @@
       <c r="X20" s="145" t="s">
         <v>212</v>
       </c>
+      <c r="Y20" s="145" t="s">
+        <v>264</v>
+      </c>
       <c r="Z20" s="88" t="s">
         <v>141</v>
       </c>
@@ -7926,6 +7961,9 @@
       <c r="X21" s="145" t="s">
         <v>212</v>
       </c>
+      <c r="Y21" s="145" t="s">
+        <v>264</v>
+      </c>
       <c r="Z21" s="88" t="s">
         <v>143</v>
       </c>
@@ -8008,6 +8046,9 @@
       <c r="X22" s="88" t="s">
         <v>109</v>
       </c>
+      <c r="Y22" s="145" t="s">
+        <v>264</v>
+      </c>
       <c r="Z22" s="145" t="s">
         <v>151</v>
       </c>
@@ -8076,6 +8117,9 @@
       <c r="U23" s="104"/>
       <c r="X23" s="141" t="s">
         <v>109</v>
+      </c>
+      <c r="Y23" s="145" t="s">
+        <v>264</v>
       </c>
       <c r="Z23" s="141" t="s">
         <v>249</v>
@@ -8347,8 +8391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:V59"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8485,7 +8529,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="116" t="s">
         <v>87</v>
       </c>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{A1411346-4CE1-4CC3-83AA-53AFB982360B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF7378DD-6F73-4249-9055-1E90AE7755DD}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{A1411346-4CE1-4CC3-83AA-53AFB982360B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4191A22F-18BE-4F3E-99C8-C682E7BB66DA}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1558,7 +1558,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="264">
   <si>
     <t>CommName</t>
   </si>
@@ -2434,9 +2434,6 @@
   </si>
   <si>
     <t>MANOILIMP</t>
-  </si>
-  <si>
-    <t>ETH</t>
   </si>
 </sst>
 </file>
@@ -6247,8 +6244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6416,9 +6413,7 @@
       <c r="M5" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="N5" s="68" t="s">
-        <v>264</v>
-      </c>
+      <c r="N5" s="68"/>
       <c r="O5" s="195" t="s">
         <v>261</v>
       </c>
@@ -6442,9 +6437,7 @@
       <c r="M6" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="68" t="s">
-        <v>264</v>
-      </c>
+      <c r="N6" s="68"/>
       <c r="O6" s="195" t="s">
         <v>262</v>
       </c>
@@ -6468,9 +6461,7 @@
       <c r="M7" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="N7" s="68" t="s">
-        <v>264</v>
-      </c>
+      <c r="N7" s="68"/>
       <c r="O7" s="195" t="s">
         <v>263</v>
       </c>
@@ -6494,9 +6485,7 @@
       <c r="M8" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="68" t="s">
-        <v>264</v>
-      </c>
+      <c r="N8" s="68"/>
       <c r="O8" s="136" t="s">
         <v>46</v>
       </c>
@@ -6814,9 +6803,7 @@
         <f>EBF!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="N23" s="68" t="s">
-        <v>264</v>
-      </c>
+      <c r="N23" s="68"/>
       <c r="O23" s="68" t="str">
         <f>$M$23&amp;$C$2</f>
         <v>MINCOA</v>
@@ -6860,9 +6847,7 @@
         <f>EBF!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="N24" s="68" t="s">
-        <v>264</v>
-      </c>
+      <c r="N24" s="68"/>
       <c r="O24" s="68" t="str">
         <f>$M$24&amp;$C$2</f>
         <v>IMPCOA</v>
@@ -6905,9 +6890,7 @@
         <f>EBF!B6</f>
         <v>IMP</v>
       </c>
-      <c r="N25" s="68" t="s">
-        <v>264</v>
-      </c>
+      <c r="N25" s="68"/>
       <c r="O25" s="68" t="str">
         <f>$M$25&amp;$C$3</f>
         <v>IMPOIL</v>
@@ -6945,9 +6928,7 @@
       <c r="M26" s="196" t="s">
         <v>46</v>
       </c>
-      <c r="N26" s="68" t="s">
-        <v>264</v>
-      </c>
+      <c r="N26" s="68"/>
       <c r="O26" s="195" t="str">
         <f>$M$26&amp;$C$4</f>
         <v>ELCGRID</v>
@@ -7193,8 +7174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF55"/>
   <sheetViews>
-    <sheetView topLeftCell="H12" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7381,9 +7362,7 @@
       <c r="X5" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="Y5" s="142" t="s">
-        <v>264</v>
-      </c>
+      <c r="Y5" s="142"/>
       <c r="Z5" s="142" t="s">
         <v>211</v>
       </c>
@@ -7414,9 +7393,7 @@
       <c r="X6" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="Y6" s="142" t="s">
-        <v>264</v>
-      </c>
+      <c r="Y6" s="142"/>
       <c r="Z6" s="90" t="s">
         <v>151</v>
       </c>
@@ -7435,9 +7412,7 @@
       <c r="X7" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="Y7" s="142" t="s">
-        <v>264</v>
-      </c>
+      <c r="Y7" s="142"/>
       <c r="Z7" s="90" t="str">
         <f>$B$2&amp;EBF!C53</f>
         <v>MANCO2</v>
@@ -7459,9 +7434,7 @@
       <c r="X8" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="142" t="s">
-        <v>264</v>
-      </c>
+      <c r="Y8" s="142"/>
       <c r="Z8" s="142" t="s">
         <v>249</v>
       </c>
@@ -7876,9 +7849,7 @@
       <c r="X20" s="145" t="s">
         <v>212</v>
       </c>
-      <c r="Y20" s="145" t="s">
-        <v>264</v>
-      </c>
+      <c r="Y20" s="145"/>
       <c r="Z20" s="88" t="s">
         <v>141</v>
       </c>
@@ -7961,9 +7932,7 @@
       <c r="X21" s="145" t="s">
         <v>212</v>
       </c>
-      <c r="Y21" s="145" t="s">
-        <v>264</v>
-      </c>
+      <c r="Y21" s="145"/>
       <c r="Z21" s="88" t="s">
         <v>143</v>
       </c>
@@ -8046,9 +8015,7 @@
       <c r="X22" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="Y22" s="145" t="s">
-        <v>264</v>
-      </c>
+      <c r="Y22" s="145"/>
       <c r="Z22" s="145" t="s">
         <v>151</v>
       </c>
@@ -8118,9 +8085,7 @@
       <c r="X23" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="Y23" s="145" t="s">
-        <v>264</v>
-      </c>
+      <c r="Y23" s="145"/>
       <c r="Z23" s="141" t="s">
         <v>249</v>
       </c>
@@ -8391,7 +8356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{A1411346-4CE1-4CC3-83AA-53AFB982360B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4191A22F-18BE-4F3E-99C8-C682E7BB66DA}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{39A858FD-F737-4F32-9E7E-F07CAE2559F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8411051-BFDA-428E-93F3-97C1E6DACDA2}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1558,7 +1558,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="267">
   <si>
     <t>CommName</t>
   </si>
@@ -2169,6 +2169,63 @@
     <t>DayNite</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>COALMIN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>COALIMP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OILIMP</t>
+    </r>
+  </si>
+  <si>
     <t>ktoe</t>
   </si>
   <si>
@@ -2196,7 +2253,19 @@
     <t>MANHEAT</t>
   </si>
   <si>
+    <t>Manufacturing heat total</t>
+  </si>
+  <si>
+    <t>Manufacturing heat aggrigator</t>
+  </si>
+  <si>
+    <t>PHEAT</t>
+  </si>
+  <si>
     <t>HEAT</t>
+  </si>
+  <si>
+    <t>Manufacturing Process Heat Aggrigator</t>
   </si>
   <si>
     <t>START</t>
@@ -2423,33 +2492,19 @@
   <si>
     <t>2024THUSD/MW</t>
   </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>MANCOALMIN</t>
-  </si>
-  <si>
-    <t>MANCOALIMP</t>
-  </si>
-  <si>
-    <t>MANOILIMP</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="General_)"/>
     <numFmt numFmtId="166" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.000000000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2680,12 +2735,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -3063,7 +3112,7 @@
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3332,6 +3381,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3354,6 +3404,7 @@
     </xf>
     <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="6"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3377,7 +3428,6 @@
     </xf>
     <xf numFmtId="2" fontId="9" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="25" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="16" applyFont="1"/>
     <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="25" fillId="16" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3400,15 +3450,12 @@
     <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="9" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="29" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3417,26 +3464,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="23" fillId="16" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="16" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -3679,13 +3711,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3860,6 +3892,86 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2191</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>92721</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>75778</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77100577-490B-1FEB-45C4-A6AA00BFC058}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3774260" y="3494797"/>
+          <a:ext cx="3757233" cy="922021"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> demand driver growth rate is computed based historical growth data of the respective energy consumption between 2019 and 2023</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -3962,10 +4074,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5047,8 +5155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="C36" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="C1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5058,7 +5166,7 @@
     <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="152" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="154" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
@@ -5095,7 +5203,7 @@
       <c r="F2" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="167" t="s">
+      <c r="G2" s="168" t="s">
         <v>127</v>
       </c>
       <c r="H2" s="27" t="s">
@@ -5109,13 +5217,13 @@
       </c>
       <c r="K2" s="20"/>
       <c r="O2" s="24" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>148</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -5129,7 +5237,7 @@
       <c r="F3" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="167" t="s">
+      <c r="G3" s="168" t="s">
         <v>129</v>
       </c>
       <c r="H3" s="28" t="s">
@@ -5151,7 +5259,7 @@
       </c>
       <c r="E4" s="54"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="168"/>
+      <c r="G4" s="169"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -5176,7 +5284,7 @@
         <f>'EBF TJ'!F5*0.2777778</f>
         <v>16770.812452776001</v>
       </c>
-      <c r="G5" s="169">
+      <c r="G5" s="170">
         <f>'EBF TJ'!G5*0.2777778</f>
         <v>35.000002800000004</v>
       </c>
@@ -5217,7 +5325,7 @@
         <f>'EBF TJ'!F6*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G6" s="169">
+      <c r="G6" s="170">
         <f>'EBF TJ'!G6*0.2777778</f>
         <v>0</v>
       </c>
@@ -5257,7 +5365,7 @@
         <f>'EBF TJ'!F7*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G7" s="169">
+      <c r="G7" s="170">
         <f>'EBF TJ'!G7*0.2777778</f>
         <v>0</v>
       </c>
@@ -5294,7 +5402,7 @@
         <f t="shared" si="0"/>
         <v>16770.812452776001</v>
       </c>
-      <c r="G8" s="170">
+      <c r="G8" s="171">
         <f>SUM(G5:G7)</f>
         <v>35.000002800000004</v>
       </c>
@@ -5323,7 +5431,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="168"/>
+      <c r="G9" s="169"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -5339,7 +5447,7 @@
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
-      <c r="G10" s="171"/>
+      <c r="G10" s="172"/>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="30">
@@ -5364,7 +5472,7 @@
         <f>'EBF TJ'!F11*0.2777778</f>
         <v>-16770.812452776001</v>
       </c>
-      <c r="G11" s="172"/>
+      <c r="G11" s="173"/>
       <c r="H11" s="119"/>
       <c r="I11" s="119"/>
       <c r="J11" s="119"/>
@@ -5389,7 +5497,7 @@
         <f>'EBF TJ'!F12*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G12" s="171">
+      <c r="G12" s="172">
         <f>'EBF TJ'!G12*0.2777778</f>
         <v>0</v>
       </c>
@@ -5424,7 +5532,7 @@
         <v>-59356.884748550401</v>
       </c>
       <c r="F13" s="40"/>
-      <c r="G13" s="173"/>
+      <c r="G13" s="174"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40">
@@ -5444,7 +5552,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="168"/>
+      <c r="G14" s="169"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -5469,7 +5577,7 @@
         <f>'EBF TJ'!F15*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G15" s="171">
+      <c r="G15" s="172">
         <f>'EBF TJ'!G15*0.2777778</f>
         <v>0</v>
       </c>
@@ -5509,7 +5617,7 @@
         <f>'EBF TJ'!F16*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G16" s="171">
+      <c r="G16" s="172">
         <f>'EBF TJ'!G16*0.2777778</f>
         <v>0</v>
       </c>
@@ -5549,7 +5657,7 @@
         <f>'EBF TJ'!F17*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G17" s="171">
+      <c r="G17" s="172">
         <f>'EBF TJ'!G17*0.2777778</f>
         <v>0</v>
       </c>
@@ -5589,7 +5697,7 @@
         <f>'EBF TJ'!F18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G18" s="171">
+      <c r="G18" s="172">
         <f>'EBF TJ'!G18*0.2777778</f>
         <v>0</v>
       </c>
@@ -5629,7 +5737,7 @@
         <f>'EBF TJ'!F19*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G19" s="171">
+      <c r="G19" s="172">
         <f>'EBF TJ'!G19*0.2777778</f>
         <v>0</v>
       </c>
@@ -5669,7 +5777,7 @@
         <f>'EBF TJ'!F20*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G20" s="171">
+      <c r="G20" s="172">
         <f>'EBF TJ'!G20*0.2777778</f>
         <v>0</v>
       </c>
@@ -5709,7 +5817,7 @@
         <f>'EBF TJ'!F21*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G21" s="171">
+      <c r="G21" s="172">
         <f>'EBF TJ'!G21*0.2777778</f>
         <v>0</v>
       </c>
@@ -5749,7 +5857,7 @@
         <f>'EBF TJ'!F22*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G22" s="171">
+      <c r="G22" s="172">
         <f>'EBF TJ'!G22*0.2777778</f>
         <v>0</v>
       </c>
@@ -5789,7 +5897,7 @@
         <f>'EBF TJ'!F23*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G23" s="171">
+      <c r="G23" s="172">
         <f>'EBF TJ'!G23*0.2777778</f>
         <v>0</v>
       </c>
@@ -5829,7 +5937,7 @@
         <f>'EBF TJ'!F24*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G24" s="171">
+      <c r="G24" s="172">
         <f>'EBF TJ'!G24*0.2777778</f>
         <v>0</v>
       </c>
@@ -5866,7 +5974,7 @@
         <v>59476.115869200003</v>
       </c>
       <c r="F25" s="72"/>
-      <c r="G25" s="174"/>
+      <c r="G25" s="175"/>
       <c r="H25" s="72"/>
       <c r="I25" s="72">
         <f>SUM(I15:I24)</f>
@@ -5885,7 +5993,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="171"/>
+      <c r="G26" s="172"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -5895,7 +6003,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="171"/>
+      <c r="G27" s="172"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -5907,7 +6015,7 @@
       <c r="D28" s="35"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="171"/>
+      <c r="G28" s="172"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -5918,7 +6026,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="171"/>
+      <c r="G29" s="172"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -5929,7 +6037,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="171"/>
+      <c r="G30" s="172"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -5940,7 +6048,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="171"/>
+      <c r="G31" s="172"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -5951,7 +6059,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="171"/>
+      <c r="G32" s="172"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -5962,7 +6070,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="171"/>
+      <c r="G33" s="172"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -5973,7 +6081,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="171"/>
+      <c r="G34" s="172"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -5984,7 +6092,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="171"/>
+      <c r="G35" s="172"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -5995,7 +6103,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="171"/>
+      <c r="G36" s="172"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -6013,7 +6121,7 @@
         <v>145</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="171"/>
+      <c r="G37" s="172"/>
       <c r="H37" s="5"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -6030,7 +6138,7 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="171"/>
+      <c r="G38" s="172"/>
       <c r="H38" s="5"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
@@ -6047,7 +6155,7 @@
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="171"/>
+      <c r="G39" s="172"/>
       <c r="H39" s="5"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -6067,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="5"/>
-      <c r="G40" s="171"/>
+      <c r="G40" s="172"/>
       <c r="H40" s="5"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -6080,7 +6188,7 @@
       <c r="F44" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="G44" s="167" t="s">
+      <c r="G44" s="168" t="s">
         <v>127</v>
       </c>
       <c r="H44" s="27" t="s">
@@ -6109,7 +6217,7 @@
       <c r="F45" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="G45" s="167" t="s">
+      <c r="G45" s="168" t="s">
         <v>129</v>
       </c>
       <c r="H45" s="28" t="s">
@@ -6130,7 +6238,7 @@
         <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D46" s="109">
         <f>D18/(D18+E18)</f>
@@ -6151,7 +6259,7 @@
         <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E47" s="109">
         <f>E18/(D18+E18)</f>
@@ -6172,7 +6280,7 @@
         <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J48" s="109">
         <v>1</v>
@@ -6245,7 +6353,7 @@
   <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23:N26"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6260,7 +6368,7 @@
     <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="157" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="159" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.140625" customWidth="1"/>
@@ -6363,7 +6471,7 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="138" t="s">
         <v>199</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -6405,17 +6513,17 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
       <c r="E5" s="77"/>
-      <c r="F5" s="138"/>
+      <c r="F5" s="139"/>
       <c r="G5" s="7"/>
       <c r="M5" s="64" t="s">
         <v>74</v>
       </c>
       <c r="N5" s="68"/>
-      <c r="O5" s="195" t="s">
-        <v>261</v>
+      <c r="O5" s="137" t="s">
+        <v>203</v>
       </c>
       <c r="P5" s="64" t="s">
         <v>152</v>
@@ -6429,17 +6537,17 @@
       <c r="U5" s="64"/>
     </row>
     <row r="6" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
       <c r="E6" s="77"/>
-      <c r="F6" s="138"/>
+      <c r="F6" s="139"/>
       <c r="G6" s="7"/>
       <c r="M6" s="64" t="s">
         <v>74</v>
       </c>
       <c r="N6" s="68"/>
-      <c r="O6" s="195" t="s">
-        <v>262</v>
+      <c r="O6" s="137" t="s">
+        <v>204</v>
       </c>
       <c r="P6" s="64" t="s">
         <v>153</v>
@@ -6453,17 +6561,17 @@
       <c r="U6" s="64"/>
     </row>
     <row r="7" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="138"/>
+      <c r="F7" s="139"/>
       <c r="G7" s="7"/>
       <c r="M7" s="64" t="s">
         <v>74</v>
       </c>
       <c r="N7" s="68"/>
-      <c r="O7" s="195" t="s">
-        <v>263</v>
+      <c r="O7" s="137" t="s">
+        <v>205</v>
       </c>
       <c r="P7" s="64" t="s">
         <v>154</v>
@@ -6477,20 +6585,20 @@
       <c r="U7" s="64"/>
     </row>
     <row r="8" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
       <c r="E8" s="77"/>
-      <c r="F8" s="138"/>
+      <c r="F8" s="139"/>
       <c r="G8" s="7"/>
-      <c r="M8" s="136" t="s">
+      <c r="M8" s="137" t="s">
         <v>46</v>
       </c>
       <c r="N8" s="68"/>
-      <c r="O8" s="136" t="s">
+      <c r="O8" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="136" t="s">
-        <v>204</v>
+      <c r="P8" s="137" t="s">
+        <v>207</v>
       </c>
       <c r="Q8" s="64" t="s">
         <v>148</v>
@@ -6501,104 +6609,104 @@
       <c r="U8" s="64"/>
     </row>
     <row r="9" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
       <c r="E9" s="77"/>
-      <c r="F9" s="138"/>
+      <c r="F9" s="139"/>
       <c r="G9" s="7"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="139"/>
-      <c r="Q9" s="139"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140"/>
       <c r="R9" s="64"/>
       <c r="S9" s="64"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M10" s="139"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="139"/>
-      <c r="P10" s="139"/>
-      <c r="Q10" s="139"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="140"/>
       <c r="R10" s="64"/>
       <c r="S10" s="64"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="139"/>
-      <c r="P11" s="139"/>
-      <c r="Q11" s="139"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="140"/>
       <c r="R11" s="64"/>
       <c r="S11" s="64"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M12" s="136"/>
+      <c r="M12" s="137"/>
       <c r="N12" s="68"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="136"/>
-      <c r="Q12" s="136"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="137"/>
       <c r="R12" s="64"/>
       <c r="S12" s="64"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M13" s="136"/>
+      <c r="M13" s="137"/>
       <c r="N13" s="68"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="136"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="137"/>
       <c r="R13" s="64"/>
       <c r="S13" s="64"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M14" s="136"/>
+      <c r="M14" s="137"/>
       <c r="N14" s="68"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="136"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="137"/>
       <c r="R14" s="64"/>
       <c r="S14" s="64"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M15" s="150"/>
-      <c r="N15" s="150"/>
-      <c r="O15" s="150"/>
-      <c r="P15" s="150"/>
-      <c r="Q15" s="150"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
       <c r="R15" s="64"/>
       <c r="S15" s="64"/>
       <c r="T15" s="64"/>
       <c r="U15" s="64"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M16" s="150"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="150"/>
-      <c r="P16" s="150"/>
-      <c r="Q16" s="150"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="151"/>
       <c r="R16" s="64"/>
       <c r="S16" s="64"/>
       <c r="T16" s="64"/>
       <c r="U16" s="64"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M17" s="136"/>
+      <c r="M17" s="137"/>
       <c r="N17" s="68"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="136"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137"/>
       <c r="R17" s="64"/>
       <c r="S17" s="64"/>
       <c r="T17" s="64"/>
@@ -6659,7 +6767,7 @@
       <c r="J20" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="K20" s="158"/>
+      <c r="K20" s="160"/>
       <c r="M20" s="65" t="s">
         <v>11</v>
       </c>
@@ -6712,7 +6820,7 @@
       <c r="J21" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="K21" s="159"/>
+      <c r="K21" s="161"/>
       <c r="M21" s="67" t="s">
         <v>38</v>
       </c>
@@ -6754,14 +6862,14 @@
         <v>GWh</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="I22" s="8" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
       <c r="J22" s="9"/>
-      <c r="K22" s="160"/>
+      <c r="K22" s="162"/>
       <c r="M22" s="67" t="s">
         <v>81</v>
       </c>
@@ -6787,7 +6895,7 @@
       <c r="E23" s="1">
         <v>2022</v>
       </c>
-      <c r="F23" s="137"/>
+      <c r="F23" s="138"/>
       <c r="G23" s="184">
         <v>3333333.3</v>
       </c>
@@ -6798,7 +6906,7 @@
       <c r="J23" s="113">
         <v>8.76</v>
       </c>
-      <c r="K23" s="161"/>
+      <c r="K23" s="163"/>
       <c r="M23" s="64" t="str">
         <f>EBF!$B$5</f>
         <v>MIN</v>
@@ -6833,7 +6941,7 @@
       <c r="E24" s="1">
         <v>2022</v>
       </c>
-      <c r="F24" s="137"/>
+      <c r="F24" s="138"/>
       <c r="G24" s="60"/>
       <c r="H24" s="61">
         <v>22.318502952024048</v>
@@ -6842,7 +6950,7 @@
       <c r="J24" s="113">
         <v>8.76</v>
       </c>
-      <c r="K24" s="161"/>
+      <c r="K24" s="163"/>
       <c r="M24" s="68" t="str">
         <f>EBF!$B$6</f>
         <v>IMP</v>
@@ -6877,7 +6985,7 @@
       <c r="E25" s="1">
         <v>2022</v>
       </c>
-      <c r="F25" s="137"/>
+      <c r="F25" s="138"/>
       <c r="H25" s="49">
         <v>31.054602678959174</v>
       </c>
@@ -6885,12 +6993,11 @@
       <c r="J25" s="113">
         <v>8.76</v>
       </c>
-      <c r="K25" s="161"/>
+      <c r="K25" s="163"/>
       <c r="M25" t="str">
         <f>EBF!B6</f>
         <v>IMP</v>
       </c>
-      <c r="N25" s="68"/>
       <c r="O25" s="68" t="str">
         <f>$M$25&amp;$C$3</f>
         <v>IMPOIL</v>
@@ -6909,14 +7016,14 @@
         <v>ELCGRID</v>
       </c>
       <c r="C26" s="68"/>
-      <c r="D26" s="136" t="str">
+      <c r="D26" s="137" t="str">
         <f>O$8</f>
         <v>ELC</v>
       </c>
       <c r="E26" s="1">
         <v>2022</v>
       </c>
-      <c r="F26" s="137"/>
+      <c r="F26" s="138"/>
       <c r="H26" s="183">
         <v>100</v>
       </c>
@@ -6924,171 +7031,171 @@
       <c r="J26" s="113">
         <v>8.76</v>
       </c>
-      <c r="K26" s="161"/>
-      <c r="M26" s="196" t="s">
+      <c r="K26" s="163"/>
+      <c r="M26" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="N26" s="68"/>
-      <c r="O26" s="195" t="str">
+      <c r="N26" s="139"/>
+      <c r="O26" s="68" t="str">
         <f>$M$26&amp;$C$4</f>
         <v>ELCGRID</v>
       </c>
-      <c r="P26" s="197" t="s">
+      <c r="P26" s="141" t="s">
         <v>200</v>
       </c>
       <c r="Q26" t="s">
         <v>148</v>
       </c>
-      <c r="S26" s="137" t="s">
+      <c r="S26" s="138" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="162"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="139"/>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="138"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="164"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="139"/>
+      <c r="O27" s="140"/>
+      <c r="P27" s="141"/>
+      <c r="Q27" s="139"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="162"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="147"/>
-      <c r="P28" s="149"/>
-      <c r="Q28" s="146"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="147"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="162"/>
-      <c r="I29" s="166"/>
-      <c r="J29" s="162"/>
-      <c r="K29" s="162"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="146"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="149"/>
-      <c r="Q29" s="146"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
+      <c r="M29" s="147"/>
+      <c r="N29" s="147"/>
+      <c r="O29" s="148"/>
+      <c r="P29" s="150"/>
+      <c r="Q29" s="147"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="147"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="162"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="162"/>
-      <c r="K30" s="162"/>
-      <c r="M30" s="137"/>
-      <c r="O30" s="147"/>
-      <c r="P30" s="149"/>
-      <c r="Q30" s="146"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="164"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="164"/>
+      <c r="K30" s="164"/>
+      <c r="M30" s="138"/>
+      <c r="O30" s="148"/>
+      <c r="P30" s="150"/>
+      <c r="Q30" s="147"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="166"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="162"/>
-      <c r="M31" s="137"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="148"/>
-      <c r="Q31" s="146"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="164"/>
+      <c r="M31" s="138"/>
+      <c r="O31" s="137"/>
+      <c r="P31" s="149"/>
+      <c r="Q31" s="147"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="139"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="166"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="162"/>
+      <c r="B32" s="140"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="164"/>
       <c r="O32" s="68"/>
       <c r="P32" s="70"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B33" s="64"/>
       <c r="C33" s="68"/>
-      <c r="D33" s="136"/>
+      <c r="D33" s="137"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="166"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="161"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="163"/>
+      <c r="K33" s="163"/>
       <c r="O33" s="68"/>
       <c r="P33" s="70"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B34" s="64"/>
       <c r="C34" s="68"/>
-      <c r="D34" s="136"/>
+      <c r="D34" s="137"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="166"/>
-      <c r="J34" s="161"/>
-      <c r="K34" s="161"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="163"/>
+      <c r="K34" s="163"/>
       <c r="O34" s="68"/>
       <c r="P34" s="70"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B35" s="64"/>
       <c r="C35" s="68"/>
-      <c r="D35" s="136"/>
+      <c r="D35" s="137"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="H35" s="161"/>
-      <c r="I35" s="166"/>
-      <c r="J35" s="161"/>
-      <c r="K35" s="161"/>
+      <c r="H35" s="163"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="163"/>
+      <c r="K35" s="163"/>
       <c r="O35" s="68"/>
       <c r="P35" s="70"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B36" s="64"/>
       <c r="C36" s="68"/>
-      <c r="D36" s="136"/>
+      <c r="D36" s="137"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="166"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="161"/>
+      <c r="H36" s="163"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="163"/>
+      <c r="K36" s="163"/>
       <c r="O36" s="68"/>
       <c r="P36" s="70"/>
     </row>
@@ -7097,39 +7204,39 @@
       <c r="D37" s="64"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="166"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="161"/>
+      <c r="H37" s="163"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="163"/>
+      <c r="K37" s="163"/>
       <c r="O37" s="68"/>
       <c r="P37" s="70"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="157"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="159"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B39" s="48"/>
       <c r="C39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="T39" s="150"/>
-      <c r="U39" s="150"/>
-      <c r="V39" s="150"/>
-      <c r="W39" s="150"/>
-      <c r="X39" s="150"/>
+      <c r="T39" s="151"/>
+      <c r="U39" s="151"/>
+      <c r="V39" s="151"/>
+      <c r="W39" s="151"/>
+      <c r="X39" s="151"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B40" s="47"/>
       <c r="C40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T40" s="150"/>
-      <c r="U40" s="150"/>
-      <c r="V40" s="150"/>
-      <c r="W40" s="150"/>
-      <c r="X40" s="150"/>
+      <c r="T40" s="151"/>
+      <c r="U40" s="151"/>
+      <c r="V40" s="151"/>
+      <c r="W40" s="151"/>
+      <c r="X40" s="151"/>
     </row>
     <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42"/>
@@ -7142,7 +7249,7 @@
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
-      <c r="K42" s="157"/>
+      <c r="K42" s="159"/>
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
@@ -7172,10 +7279,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
-  <dimension ref="B1:AF55"/>
+  <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView topLeftCell="D6" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7359,15 +7466,15 @@
       <c r="K5" s="51"/>
       <c r="L5" s="51"/>
       <c r="M5" s="51"/>
-      <c r="X5" s="142" t="s">
+      <c r="X5" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="142" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA5" s="142" t="s">
-        <v>209</v>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA5" s="143" t="s">
+        <v>212</v>
       </c>
       <c r="AB5" s="90" t="s">
         <v>148</v>
@@ -7393,7 +7500,7 @@
       <c r="X6" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="Y6" s="142"/>
+      <c r="Y6" s="90"/>
       <c r="Z6" s="90" t="s">
         <v>151</v>
       </c>
@@ -7412,7 +7519,7 @@
       <c r="X7" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="Y7" s="142"/>
+      <c r="Y7" s="90"/>
       <c r="Z7" s="90" t="str">
         <f>$B$2&amp;EBF!C53</f>
         <v>MANCO2</v>
@@ -7431,17 +7538,17 @@
       <c r="AF7" s="90"/>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X8" s="142" t="s">
+      <c r="X8" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="142"/>
-      <c r="Z8" s="142" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA8" s="142" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB8" s="153" t="s">
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="143" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA8" s="143" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB8" s="155" t="s">
         <v>148</v>
       </c>
       <c r="AC8" s="90"/>
@@ -7450,66 +7557,82 @@
       <c r="AF8" s="90"/>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X9" s="142"/>
-      <c r="Y9" s="142"/>
-      <c r="Z9" s="142"/>
-      <c r="AA9" s="142"/>
-      <c r="AB9" s="153"/>
+      <c r="X9" s="143"/>
+      <c r="Y9" s="143"/>
+      <c r="Z9" s="143"/>
+      <c r="AA9" s="143"/>
+      <c r="AB9" s="155"/>
       <c r="AC9" s="90"/>
       <c r="AD9" s="90"/>
       <c r="AE9" s="90"/>
       <c r="AF9" s="90"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X10" s="165"/>
-      <c r="Y10" s="165"/>
-      <c r="Z10" s="165"/>
-      <c r="AA10" s="165"/>
-      <c r="AB10" s="153"/>
+      <c r="X10" s="166" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y10" s="166"/>
+      <c r="Z10" s="166" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA10" s="166" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB10" s="155" t="s">
+        <v>148</v>
+      </c>
       <c r="AC10" s="90"/>
       <c r="AD10" s="90"/>
       <c r="AE10" s="90"/>
       <c r="AF10" s="90"/>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X11" s="153"/>
+      <c r="X11" s="155" t="s">
+        <v>74</v>
+      </c>
       <c r="Y11" s="90"/>
-      <c r="Z11" s="153"/>
-      <c r="AA11" s="153"/>
-      <c r="AB11" s="153"/>
+      <c r="Z11" s="155" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA11" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB11" s="155" t="s">
+        <v>148</v>
+      </c>
       <c r="AC11" s="90"/>
       <c r="AD11" s="90"/>
       <c r="AE11" s="90"/>
       <c r="AF11" s="90"/>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X12" s="153"/>
+      <c r="X12" s="155"/>
       <c r="Y12" s="90"/>
-      <c r="Z12" s="153"/>
-      <c r="AA12" s="153"/>
-      <c r="AB12" s="153"/>
+      <c r="Z12" s="155"/>
+      <c r="AA12" s="155"/>
+      <c r="AB12" s="155"/>
       <c r="AC12" s="90"/>
       <c r="AD12" s="90"/>
       <c r="AE12" s="90"/>
       <c r="AF12" s="90"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X13" s="153"/>
+      <c r="X13" s="155"/>
       <c r="Y13" s="90"/>
-      <c r="Z13" s="153"/>
-      <c r="AA13" s="153"/>
-      <c r="AB13" s="153"/>
+      <c r="Z13" s="155"/>
+      <c r="AA13" s="155"/>
+      <c r="AB13" s="155"/>
       <c r="AC13" s="90"/>
       <c r="AD13" s="90"/>
       <c r="AE13" s="90"/>
       <c r="AF13" s="90"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X14" s="153"/>
+      <c r="X14" s="155"/>
       <c r="Y14" s="90"/>
-      <c r="Z14" s="153"/>
-      <c r="AA14" s="153"/>
-      <c r="AB14" s="153"/>
+      <c r="Z14" s="155"/>
+      <c r="AA14" s="155"/>
+      <c r="AB14" s="155"/>
       <c r="AC14" s="90"/>
       <c r="AD14" s="90"/>
       <c r="AE14" s="90"/>
@@ -7560,28 +7683,28 @@
         <v>6</v>
       </c>
       <c r="E17" s="95" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F17" s="96" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G17" s="96" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H17" s="96" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I17" s="96" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J17" s="96" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="K17" s="96" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L17" s="96" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M17" s="95" t="s">
         <v>102</v>
@@ -7593,7 +7716,7 @@
         <v>104</v>
       </c>
       <c r="P17" s="95" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="95" t="s">
         <v>156</v>
@@ -7602,16 +7725,16 @@
         <v>157</v>
       </c>
       <c r="S17" s="95" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="T17" s="95" t="s">
         <v>149</v>
       </c>
       <c r="U17" s="95" t="s">
-        <v>239</v>
-      </c>
-      <c r="V17" s="154"/>
-      <c r="W17" s="154"/>
+        <v>246</v>
+      </c>
+      <c r="V17" s="156"/>
+      <c r="W17" s="156"/>
       <c r="X17" s="91" t="s">
         <v>11</v>
       </c>
@@ -7684,7 +7807,7 @@
         <v>113</v>
       </c>
       <c r="P18" s="97" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q18" s="97" t="s">
         <v>158</v>
@@ -7693,16 +7816,16 @@
         <v>159</v>
       </c>
       <c r="S18" s="98" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="T18" s="97" t="s">
         <v>150</v>
       </c>
       <c r="U18" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="V18" s="155"/>
-      <c r="W18" s="155"/>
+        <v>247</v>
+      </c>
+      <c r="V18" s="157"/>
+      <c r="W18" s="157"/>
       <c r="X18" s="93" t="s">
         <v>38</v>
       </c>
@@ -7741,51 +7864,51 @@
         <v>192</v>
       </c>
       <c r="F19" s="100" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G19" s="100" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H19" s="100" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I19" s="100" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J19" s="100" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K19" s="100" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L19" s="100" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M19" s="100" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N19" s="101" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O19" s="100" t="s">
         <v>108</v>
       </c>
       <c r="P19" s="100"/>
       <c r="Q19" s="100" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="R19" s="100" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="S19" s="100" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="T19" s="100"/>
       <c r="U19" s="100" t="s">
-        <v>241</v>
-      </c>
-      <c r="V19" s="156"/>
-      <c r="W19" s="156"/>
+        <v>248</v>
+      </c>
+      <c r="V19" s="158"/>
+      <c r="W19" s="158"/>
       <c r="X19" s="93" t="s">
         <v>81</v>
       </c>
@@ -7831,13 +7954,13 @@
         <v>25</v>
       </c>
       <c r="P20" s="121"/>
-      <c r="Q20" s="193">
+      <c r="Q20" s="189">
         <v>628.9</v>
       </c>
-      <c r="R20" s="194">
+      <c r="R20" s="190">
         <v>4.46</v>
       </c>
-      <c r="S20" s="194">
+      <c r="S20" s="190">
         <v>0.45</v>
       </c>
       <c r="T20" s="104">
@@ -7846,10 +7969,9 @@
       <c r="U20" s="104"/>
       <c r="V20" s="110"/>
       <c r="W20" s="110"/>
-      <c r="X20" s="145" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y20" s="145"/>
+      <c r="X20" s="146" t="s">
+        <v>218</v>
+      </c>
       <c r="Z20" s="88" t="s">
         <v>141</v>
       </c>
@@ -7863,10 +7985,10 @@
       <c r="AC20" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="AD20" s="153" t="s">
+      <c r="AD20" s="155" t="s">
         <v>202</v>
       </c>
-      <c r="AE20" s="153"/>
+      <c r="AE20" s="155"/>
       <c r="AF20" s="90"/>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.2">
@@ -7914,13 +8036,13 @@
         <v>25</v>
       </c>
       <c r="P21" s="121"/>
-      <c r="Q21" s="193">
+      <c r="Q21" s="189">
         <v>628.9</v>
       </c>
-      <c r="R21" s="194">
+      <c r="R21" s="190">
         <v>4.46</v>
       </c>
-      <c r="S21" s="194">
+      <c r="S21" s="190">
         <v>0.45</v>
       </c>
       <c r="T21" s="104">
@@ -7929,10 +8051,9 @@
       <c r="U21" s="104"/>
       <c r="V21" s="110"/>
       <c r="W21" s="110"/>
-      <c r="X21" s="145" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y21" s="145"/>
+      <c r="X21" s="146" t="s">
+        <v>218</v>
+      </c>
       <c r="Z21" s="88" t="s">
         <v>143</v>
       </c>
@@ -7946,10 +8067,10 @@
       <c r="AC21" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="AD21" s="153" t="s">
+      <c r="AD21" s="155" t="s">
         <v>202</v>
       </c>
-      <c r="AE21" s="153"/>
+      <c r="AE21" s="155"/>
       <c r="AF21" s="90"/>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.2">
@@ -7997,13 +8118,13 @@
         <v>25</v>
       </c>
       <c r="P22" s="121"/>
-      <c r="Q22" s="193">
+      <c r="Q22" s="189">
         <v>62.9</v>
       </c>
-      <c r="R22" s="194">
+      <c r="R22" s="190">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S22" s="194">
+      <c r="S22" s="190">
         <v>1.82</v>
       </c>
       <c r="T22" s="104">
@@ -8015,8 +8136,7 @@
       <c r="X22" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="Y22" s="145"/>
-      <c r="Z22" s="145" t="s">
+      <c r="Z22" s="146" t="s">
         <v>151</v>
       </c>
       <c r="AA22" s="88" t="s">
@@ -8028,11 +8148,11 @@
       <c r="AC22" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="AD22" s="151" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD22" s="152" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="94" t="str">
         <f>Z22</f>
         <v>MANELC</v>
@@ -8046,34 +8166,34 @@
         <v>MANELC</v>
       </c>
       <c r="E23" s="105"/>
-      <c r="F23" s="144">
+      <c r="F23" s="145">
         <v>1</v>
       </c>
-      <c r="G23" s="144">
+      <c r="G23" s="145">
         <v>1</v>
       </c>
-      <c r="H23" s="144">
+      <c r="H23" s="145">
         <v>1</v>
       </c>
-      <c r="I23" s="144">
+      <c r="I23" s="145">
         <v>1</v>
       </c>
-      <c r="J23" s="144">
+      <c r="J23" s="145">
         <v>1</v>
       </c>
-      <c r="K23" s="144">
+      <c r="K23" s="145">
         <v>1</v>
       </c>
-      <c r="L23" s="144">
+      <c r="L23" s="145">
         <v>1</v>
       </c>
-      <c r="M23" s="141">
+      <c r="M23" s="142">
         <v>1</v>
       </c>
-      <c r="N23" s="141">
+      <c r="N23" s="142">
         <v>1</v>
       </c>
-      <c r="O23" s="141">
+      <c r="O23" s="142">
         <v>50</v>
       </c>
       <c r="R23" s="104"/>
@@ -8082,15 +8202,14 @@
         <v>8.76</v>
       </c>
       <c r="U23" s="104"/>
-      <c r="X23" s="141" t="s">
+      <c r="X23" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="Y23" s="145"/>
-      <c r="Z23" s="141" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA23" s="141" t="s">
-        <v>210</v>
+      <c r="Z23" s="142" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA23" s="142" t="s">
+        <v>213</v>
       </c>
       <c r="AB23" s="88" t="s">
         <v>148</v>
@@ -8098,26 +8217,26 @@
       <c r="AC23" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="AD23" s="151" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD23" s="152" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="142"/>
-      <c r="D24" s="153" t="s">
-        <v>238</v>
-      </c>
-      <c r="E24" s="143"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="144"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="155" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" s="144"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="145"/>
       <c r="R24" s="104"/>
       <c r="S24" s="104"/>
       <c r="T24" s="104"/>
@@ -8127,22 +8246,22 @@
       <c r="AB24" s="94"/>
       <c r="AC24" s="94"/>
     </row>
-    <row r="25" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:32" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="142"/>
-      <c r="D25" s="153" t="s">
-        <v>238</v>
-      </c>
-      <c r="E25" s="143"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="144"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="155" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="144"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="145"/>
       <c r="R25" s="104"/>
       <c r="S25" s="104"/>
       <c r="T25" s="104"/>
@@ -8152,18 +8271,18 @@
       <c r="AB25" s="94"/>
       <c r="AC25" s="94"/>
     </row>
-    <row r="26" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:32" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="94"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="145"/>
       <c r="R26" s="110"/>
       <c r="S26" s="110"/>
       <c r="T26" s="110"/>
@@ -8171,177 +8290,257 @@
       <c r="AB26" s="94"/>
       <c r="AC26" s="94"/>
     </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B27" s="145"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="141"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="141"/>
-    </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B28" s="145"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-    </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E29" s="145"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="N29" s="164"/>
-      <c r="Q29" s="164"/>
-      <c r="AB29" s="90"/>
-      <c r="AC29" s="90"/>
-      <c r="AD29" s="151"/>
-    </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E30" s="145"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="N30" s="164"/>
-      <c r="Q30" s="164"/>
-      <c r="Y30" s="110"/>
-      <c r="AA30" s="110"/>
-      <c r="AB30" s="111"/>
-      <c r="AC30" s="111"/>
+    <row r="27" spans="2:32" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="94"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="145"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="110"/>
+      <c r="U27" s="110"/>
+      <c r="AB27" s="94"/>
+      <c r="AC27" s="94"/>
+    </row>
+    <row r="28" spans="2:32" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X28" s="142" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z28" s="142" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA28" s="142" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB28" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC28" s="94" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD28" s="153"/>
+    </row>
+    <row r="29" spans="2:32" s="142" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC29" s="94"/>
+    </row>
+    <row r="30" spans="2:32" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="146"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="145"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="142"/>
+      <c r="P30" s="142"/>
+      <c r="Q30" s="142"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E31" s="145"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106"/>
-      <c r="N31" s="107"/>
-      <c r="Q31" s="164"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="145"/>
+      <c r="M31" s="142"/>
+      <c r="N31" s="142"/>
+      <c r="O31" s="142"/>
+      <c r="P31" s="142"/>
+      <c r="Q31" s="142"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="E32" s="145"/>
-      <c r="N32" s="107"/>
-      <c r="O32" s="106"/>
-      <c r="Q32" s="164"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="104"/>
-      <c r="C33" s="88" t="s">
+      <c r="B32" s="146"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="142"/>
+      <c r="N32" s="142"/>
+      <c r="O32" s="142"/>
+      <c r="P32" s="142"/>
+      <c r="Q32" s="142"/>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="E33" s="146"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="N33" s="165"/>
+      <c r="Q33" s="165"/>
+      <c r="AB33" s="90"/>
+      <c r="AC33" s="90"/>
+      <c r="AD33" s="152"/>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="E34" s="146"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="N34" s="165"/>
+      <c r="Q34" s="165"/>
+      <c r="Y34" s="110"/>
+      <c r="AA34" s="110"/>
+      <c r="AB34" s="111"/>
+      <c r="AC34" s="111"/>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="E35" s="146"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="N35" s="107"/>
+      <c r="Q35" s="165"/>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="E36" s="146"/>
+      <c r="N36" s="107"/>
+      <c r="O36" s="106"/>
+      <c r="Q36" s="165"/>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B37" s="104"/>
+      <c r="C37" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="N33" s="107"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="108"/>
-      <c r="C34" s="88" t="s">
+      <c r="N37" s="107"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B38" s="108"/>
+      <c r="C38" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="N34" s="107"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="N35" s="107"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="E38" s="21"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="94"/>
-      <c r="C41" s="142"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="143"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="144"/>
-      <c r="K41" s="144"/>
-      <c r="L41" s="144"/>
-      <c r="M41" s="141"/>
-      <c r="N41" s="141"/>
-      <c r="O41" s="141"/>
-      <c r="P41" s="141"/>
-      <c r="Q41" s="141"/>
-      <c r="R41" s="141"/>
-      <c r="S41" s="141"/>
-      <c r="T41" s="141"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="94"/>
-      <c r="C42" s="142"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144"/>
-      <c r="J42" s="144"/>
-      <c r="K42" s="144"/>
-      <c r="L42" s="144"/>
-      <c r="M42" s="141"/>
-      <c r="N42" s="141"/>
-      <c r="O42" s="141"/>
-      <c r="P42" s="141"/>
-      <c r="Q42" s="141"/>
-      <c r="R42" s="141"/>
-      <c r="S42" s="141"/>
-      <c r="T42" s="141"/>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="H46" s="179"/>
-      <c r="I46" s="180"/>
-    </row>
-    <row r="49" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G49" s="145"/>
-      <c r="I49" s="145"/>
+      <c r="N38" s="107"/>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="N39" s="107"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="E42" s="21"/>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B45" s="94" t="str">
+        <f>Z28</f>
+        <v>PHEAT</v>
+      </c>
+      <c r="C45" s="143" t="str">
+        <f>DemTechs_INDF!D20</f>
+        <v>CEMENTHEAT</v>
+      </c>
+      <c r="D45" s="90" t="str">
+        <f>Z10</f>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E45" s="144"/>
+      <c r="F45" s="145"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="145"/>
+      <c r="J45" s="145"/>
+      <c r="K45" s="145"/>
+      <c r="L45" s="145"/>
+      <c r="M45" s="142"/>
+      <c r="N45" s="142"/>
+      <c r="O45" s="142"/>
+      <c r="P45" s="142"/>
+      <c r="Q45" s="142"/>
+      <c r="R45" s="142"/>
+      <c r="S45" s="142"/>
+      <c r="T45" s="142">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B46" s="94" t="str">
+        <f>Z28</f>
+        <v>PHEAT</v>
+      </c>
+      <c r="C46" s="143" t="str">
+        <f>D22</f>
+        <v>MANHEAT</v>
+      </c>
+      <c r="D46" s="90" t="str">
+        <f>Z10</f>
+        <v>MANHEAT</v>
+      </c>
+      <c r="E46" s="144"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="145"/>
+      <c r="I46" s="145"/>
+      <c r="J46" s="145"/>
+      <c r="K46" s="145"/>
+      <c r="L46" s="145"/>
+      <c r="M46" s="142"/>
+      <c r="N46" s="142"/>
+      <c r="O46" s="142"/>
+      <c r="P46" s="142"/>
+      <c r="Q46" s="142"/>
+      <c r="R46" s="142"/>
+      <c r="S46" s="142"/>
+      <c r="T46" s="142">
+        <v>8.76</v>
+      </c>
     </row>
     <row r="50" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G50" s="145"/>
-    </row>
-    <row r="51" spans="6:9" s="94" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="143"/>
-    </row>
-    <row r="52" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F52" s="145"/>
-      <c r="G52" s="145"/>
+      <c r="H50" s="179"/>
+      <c r="I50" s="180"/>
+    </row>
+    <row r="53" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G53" s="146"/>
+      <c r="I53" s="146"/>
     </row>
     <row r="54" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F54" s="145"/>
-    </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F55" s="145"/>
-      <c r="H55" s="105"/>
+      <c r="G54" s="146"/>
+    </row>
+    <row r="55" spans="6:9" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="144"/>
+    </row>
+    <row r="56" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F56" s="146"/>
+      <c r="G56" s="146"/>
+    </row>
+    <row r="58" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F58" s="146"/>
+    </row>
+    <row r="59" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F59" s="146"/>
+      <c r="H59" s="105"/>
     </row>
   </sheetData>
   <phoneticPr fontId="34" type="noConversion"/>
@@ -8354,10 +8553,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
-  <dimension ref="B1:V59"/>
+  <dimension ref="B1:AB59"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8367,19 +8566,25 @@
     <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="8.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.42578125" customWidth="1"/>
+    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>75</v>
       </c>
@@ -8396,7 +8601,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>82</v>
       </c>
@@ -8411,14 +8616,17 @@
         <v>TH$2024</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="K3" s="136"/>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C5" s="115" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="115"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B6" s="114" t="s">
         <v>160</v>
       </c>
@@ -8431,20 +8639,20 @@
       <c r="E6" s="114">
         <v>2022</v>
       </c>
-      <c r="K6" s="115" t="s">
+      <c r="Q6" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="P6" s="115" t="s">
+      <c r="R6" s="1"/>
+      <c r="V6" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="U6" s="115" t="s">
+      <c r="W6" s="1"/>
+      <c r="AA6" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
         <v>81</v>
       </c>
@@ -8457,44 +8665,44 @@
       <c r="E7" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="114" t="s">
+      <c r="O7" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="J7" s="114" t="s">
+      <c r="P7" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="114" t="s">
+      <c r="Q7" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="L7" s="114" t="s">
-        <v>260</v>
-      </c>
-      <c r="N7" s="114" t="s">
+      <c r="R7" s="114">
+        <v>2022</v>
+      </c>
+      <c r="T7" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="O7" s="114" t="s">
+      <c r="U7" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="P7" s="114" t="s">
+      <c r="V7" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="Q7" s="114" t="s">
-        <v>260</v>
-      </c>
-      <c r="S7" s="114" t="s">
+      <c r="W7" s="114">
+        <v>2022</v>
+      </c>
+      <c r="Y7" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="T7" s="114" t="s">
+      <c r="Z7" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="114" t="s">
+      <c r="AA7" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="V7" s="114" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB7" s="114">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="116" t="s">
         <v>87</v>
       </c>
@@ -8503,39 +8711,39 @@
       <c r="E8" s="116" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="120" t="s">
+      <c r="O8" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="120" t="s">
+      <c r="P8" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="N8" s="120" t="s">
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="T8" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="120" t="s">
+      <c r="U8" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="120"/>
-      <c r="S8" s="120" t="s">
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="Y8" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="T8" s="120" t="s">
+      <c r="Z8" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="U8" s="120"/>
-      <c r="V8" s="120"/>
-    </row>
-    <row r="9" spans="2:22" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="175" t="s">
+      <c r="AA8" s="120"/>
+      <c r="AB8" s="120"/>
+    </row>
+    <row r="9" spans="2:28" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="175" t="s">
-        <v>211</v>
-      </c>
-      <c r="D9" s="175" t="s">
+      <c r="C9" s="176" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="176" t="s">
         <v>148</v>
       </c>
       <c r="E9" s="47">
@@ -8545,39 +8753,45 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="I9" s="9" t="s">
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9" t="s">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="N9" s="9" t="s">
+      <c r="R9" s="9"/>
+      <c r="T9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9" t="s">
+      <c r="U9" s="9"/>
+      <c r="V9" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="Q9" s="9"/>
-      <c r="S9" s="9" t="s">
+      <c r="W9" s="9"/>
+      <c r="Y9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9" t="s">
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="V9" s="9"/>
-    </row>
-    <row r="10" spans="2:22" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="175" t="s">
+      <c r="AB9" s="9"/>
+    </row>
+    <row r="10" spans="2:28" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="175" t="s">
+      <c r="C10" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="175" t="s">
+      <c r="D10" s="176" t="s">
         <v>148</v>
       </c>
       <c r="E10" s="47">
@@ -8587,55 +8801,61 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="I10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J10" s="1" t="str">
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K10" s="145" t="s">
-        <v>214</v>
-      </c>
-      <c r="L10" s="190">
+      <c r="Q10" s="146" t="s">
+        <v>221</v>
+      </c>
+      <c r="R10" s="186">
         <v>3.1580002137548593E-2</v>
       </c>
-      <c r="M10" s="191"/>
-      <c r="N10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O10" s="1" t="str">
+      <c r="S10" s="187"/>
+      <c r="T10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U10" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P10" s="145" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q10" s="190">
+      <c r="V10" s="146" t="s">
+        <v>221</v>
+      </c>
+      <c r="W10" s="186">
         <v>3.1580002137548593E-2</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T10" s="1" t="str">
+      <c r="Y10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z10" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U10" s="145" t="s">
-        <v>214</v>
-      </c>
-      <c r="V10" s="190">
+      <c r="AA10" s="146" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB10" s="186">
         <v>3.1580002137548593E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:22" s="157" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="175" t="s">
+    <row r="11" spans="2:28" s="159" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="175" t="s">
-        <v>249</v>
-      </c>
-      <c r="D11" s="175" t="s">
+      <c r="C11" s="176" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="176" t="s">
         <v>148</v>
       </c>
       <c r="E11" s="47">
@@ -8645,2033 +8865,2016 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="I11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J11" s="1" t="str">
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P11" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K11" s="177" t="s">
-        <v>215</v>
-      </c>
-      <c r="L11" s="190">
+      <c r="Q11" s="177" t="s">
+        <v>222</v>
+      </c>
+      <c r="R11" s="186">
         <v>3.1850630527954941E-2</v>
       </c>
-      <c r="M11" s="192"/>
-      <c r="N11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O11" s="1" t="str">
+      <c r="S11" s="188"/>
+      <c r="T11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U11" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P11" s="177" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q11" s="190">
+      <c r="V11" s="177" t="s">
+        <v>222</v>
+      </c>
+      <c r="W11" s="186">
         <v>3.1850630527954941E-2</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T11" s="1" t="str">
+      <c r="Y11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z11" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U11" s="177" t="s">
-        <v>215</v>
-      </c>
-      <c r="V11" s="190">
+      <c r="AA11" s="177" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB11" s="186">
         <v>3.1850630527954941E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B12" s="135"/>
       <c r="C12" s="135"/>
       <c r="D12" s="135"/>
       <c r="E12" s="135"/>
-      <c r="I12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J12" s="1" t="str">
+      <c r="O12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P12" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K12" s="145" t="s">
-        <v>216</v>
-      </c>
-      <c r="L12" s="190">
+      <c r="Q12" s="146" t="s">
+        <v>223</v>
+      </c>
+      <c r="R12" s="186">
         <v>3.1481989955747081E-2</v>
       </c>
-      <c r="M12" s="185"/>
-      <c r="N12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O12" s="1" t="str">
+      <c r="S12" s="185"/>
+      <c r="T12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U12" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P12" s="145" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q12" s="190">
+      <c r="V12" s="146" t="s">
+        <v>223</v>
+      </c>
+      <c r="W12" s="186">
         <v>3.1481989955747081E-2</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T12" s="1" t="str">
+      <c r="Y12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z12" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U12" s="145" t="s">
-        <v>216</v>
-      </c>
-      <c r="V12" s="190">
+      <c r="AA12" s="146" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB12" s="186">
         <v>3.1481989955747081E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="176"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="187"/>
-      <c r="I13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J13" s="1" t="str">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P13" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K13" s="177" t="s">
-        <v>217</v>
-      </c>
-      <c r="L13" s="190">
+      <c r="Q13" s="177" t="s">
+        <v>224</v>
+      </c>
+      <c r="R13" s="186">
         <v>3.1731466950130557E-2</v>
       </c>
-      <c r="M13" s="185"/>
-      <c r="N13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O13" s="1" t="str">
+      <c r="S13" s="185"/>
+      <c r="T13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U13" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P13" s="177" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q13" s="190">
+      <c r="V13" s="177" t="s">
+        <v>224</v>
+      </c>
+      <c r="W13" s="186">
         <v>3.1731466950130557E-2</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T13" s="1" t="str">
+      <c r="Y13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z13" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U13" s="177" t="s">
-        <v>217</v>
-      </c>
-      <c r="V13" s="190">
+      <c r="AA13" s="177" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB13" s="186">
         <v>3.1731466950130557E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="176"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J14" s="1" t="str">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P14" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K14" s="145" t="s">
-        <v>218</v>
-      </c>
-      <c r="L14" s="190">
+      <c r="Q14" s="146" t="s">
+        <v>225</v>
+      </c>
+      <c r="R14" s="186">
         <v>3.1860835358240212E-2</v>
       </c>
-      <c r="M14" s="185"/>
-      <c r="N14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O14" s="1" t="str">
+      <c r="S14" s="185"/>
+      <c r="T14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U14" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P14" s="145" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q14" s="190">
+      <c r="V14" s="146" t="s">
+        <v>225</v>
+      </c>
+      <c r="W14" s="186">
         <v>3.1860835358240212E-2</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T14" s="1" t="str">
+      <c r="Y14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z14" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U14" s="145" t="s">
-        <v>218</v>
-      </c>
-      <c r="V14" s="190">
+      <c r="AA14" s="146" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB14" s="186">
         <v>3.1860835358240212E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="188"/>
-      <c r="C15" s="188"/>
-      <c r="D15" s="188"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J15" s="1" t="str">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P15" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K15" s="177" t="s">
-        <v>219</v>
-      </c>
-      <c r="L15" s="190">
+      <c r="Q15" s="177" t="s">
+        <v>226</v>
+      </c>
+      <c r="R15" s="186">
         <v>3.2394250106746E-2</v>
       </c>
-      <c r="M15" s="185"/>
-      <c r="N15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O15" s="1" t="str">
+      <c r="S15" s="185"/>
+      <c r="T15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U15" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P15" s="177" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q15" s="190">
+      <c r="V15" s="177" t="s">
+        <v>226</v>
+      </c>
+      <c r="W15" s="186">
         <v>3.2394250106746E-2</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T15" s="1" t="str">
+      <c r="Y15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z15" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U15" s="177" t="s">
-        <v>219</v>
-      </c>
-      <c r="V15" s="190">
+      <c r="AA15" s="177" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB15" s="186">
         <v>3.2394250106746E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:22" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="188"/>
-      <c r="C16" s="188"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J16" s="1" t="str">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P16" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K16" s="145" t="s">
-        <v>220</v>
-      </c>
-      <c r="L16" s="190">
+      <c r="Q16" s="146" t="s">
+        <v>227</v>
+      </c>
+      <c r="R16" s="186">
         <v>3.241825303092484E-2</v>
       </c>
-      <c r="M16" s="185"/>
-      <c r="N16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O16" s="1" t="str">
+      <c r="S16" s="185"/>
+      <c r="T16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U16" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P16" s="145" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q16" s="190">
+      <c r="V16" s="146" t="s">
+        <v>227</v>
+      </c>
+      <c r="W16" s="186">
         <v>3.241825303092484E-2</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T16" s="1" t="str">
+      <c r="Y16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z16" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U16" s="145" t="s">
-        <v>220</v>
-      </c>
-      <c r="V16" s="190">
+      <c r="AA16" s="146" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB16" s="186">
         <v>3.241825303092484E-2</v>
       </c>
     </row>
-    <row r="17" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="I17" t="s">
-        <v>167</v>
-      </c>
-      <c r="J17" t="str">
+    <row r="17" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O17" t="s">
+        <v>167</v>
+      </c>
+      <c r="P17" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K17" t="s">
-        <v>221</v>
-      </c>
-      <c r="L17" s="190">
+      <c r="Q17" t="s">
+        <v>228</v>
+      </c>
+      <c r="R17" s="186">
         <v>3.5569395862328948E-2</v>
       </c>
-      <c r="M17" s="185"/>
-      <c r="N17" t="s">
-        <v>167</v>
-      </c>
-      <c r="O17" s="1" t="str">
+      <c r="S17" s="185"/>
+      <c r="T17" t="s">
+        <v>167</v>
+      </c>
+      <c r="U17" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P17" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q17" s="190">
+      <c r="V17" t="s">
+        <v>228</v>
+      </c>
+      <c r="W17" s="186">
         <v>3.5569395862328948E-2</v>
       </c>
-      <c r="S17" t="s">
-        <v>167</v>
-      </c>
-      <c r="T17" s="1" t="str">
+      <c r="Y17" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z17" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U17" t="s">
-        <v>221</v>
-      </c>
-      <c r="V17" s="190">
+      <c r="AA17" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB17" s="186">
         <v>3.5569395862328948E-2</v>
       </c>
     </row>
-    <row r="18" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="I18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J18" s="1" t="str">
+    <row r="18" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P18" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K18" s="145" t="s">
-        <v>222</v>
-      </c>
-      <c r="L18" s="190">
+      <c r="Q18" s="146" t="s">
+        <v>229</v>
+      </c>
+      <c r="R18" s="186">
         <v>5.0064684062236839E-2</v>
       </c>
-      <c r="M18" s="185"/>
-      <c r="N18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O18" s="1" t="str">
+      <c r="S18" s="185"/>
+      <c r="T18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U18" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P18" s="145" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q18" s="190">
+      <c r="V18" s="146" t="s">
+        <v>229</v>
+      </c>
+      <c r="W18" s="186">
         <v>5.0064684062236839E-2</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T18" s="1" t="str">
+      <c r="Y18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z18" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U18" s="145" t="s">
-        <v>222</v>
-      </c>
-      <c r="V18" s="190">
+      <c r="AA18" s="146" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB18" s="186">
         <v>5.0064684062236839E-2</v>
       </c>
     </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="I19" t="s">
-        <v>167</v>
-      </c>
-      <c r="J19" t="str">
+    <row r="19" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O19" t="s">
+        <v>167</v>
+      </c>
+      <c r="P19" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K19" t="s">
-        <v>223</v>
-      </c>
-      <c r="L19" s="190">
+      <c r="Q19" t="s">
+        <v>230</v>
+      </c>
+      <c r="R19" s="186">
         <v>6.1132650490749271E-2</v>
       </c>
-      <c r="M19" s="185"/>
-      <c r="N19" t="s">
-        <v>167</v>
-      </c>
-      <c r="O19" s="1" t="str">
+      <c r="S19" s="185"/>
+      <c r="T19" t="s">
+        <v>167</v>
+      </c>
+      <c r="U19" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P19" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q19" s="190">
+      <c r="V19" t="s">
+        <v>230</v>
+      </c>
+      <c r="W19" s="186">
         <v>6.1132650490749271E-2</v>
       </c>
-      <c r="S19" t="s">
-        <v>167</v>
-      </c>
-      <c r="T19" s="1" t="str">
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z19" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U19" t="s">
-        <v>223</v>
-      </c>
-      <c r="V19" s="190">
+      <c r="AA19" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB19" s="186">
         <v>6.1132650490749271E-2</v>
       </c>
     </row>
-    <row r="20" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="I20" t="s">
-        <v>167</v>
-      </c>
-      <c r="J20" t="str">
+    <row r="20" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O20" t="s">
+        <v>167</v>
+      </c>
+      <c r="P20" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K20" t="s">
-        <v>224</v>
-      </c>
-      <c r="L20" s="190">
+      <c r="Q20" t="s">
+        <v>231</v>
+      </c>
+      <c r="R20" s="186">
         <v>6.011628522297266E-2</v>
       </c>
-      <c r="M20" s="185"/>
-      <c r="N20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O20" s="1" t="str">
+      <c r="S20" s="185"/>
+      <c r="T20" t="s">
+        <v>167</v>
+      </c>
+      <c r="U20" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P20" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q20" s="190">
+      <c r="V20" t="s">
+        <v>231</v>
+      </c>
+      <c r="W20" s="186">
         <v>6.011628522297266E-2</v>
       </c>
-      <c r="S20" t="s">
-        <v>167</v>
-      </c>
-      <c r="T20" s="1" t="str">
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z20" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U20" t="s">
-        <v>224</v>
-      </c>
-      <c r="V20" s="190">
+      <c r="AA20" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB20" s="186">
         <v>6.011628522297266E-2</v>
       </c>
     </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="I21" t="s">
-        <v>167</v>
-      </c>
-      <c r="J21" t="str">
+    <row r="21" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O21" t="s">
+        <v>167</v>
+      </c>
+      <c r="P21" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K21" t="s">
-        <v>225</v>
-      </c>
-      <c r="L21" s="190">
+      <c r="Q21" t="s">
+        <v>232</v>
+      </c>
+      <c r="R21" s="186">
         <v>6.2041439521472716E-2</v>
       </c>
-      <c r="M21" s="185"/>
-      <c r="N21" t="s">
-        <v>167</v>
-      </c>
-      <c r="O21" s="1" t="str">
+      <c r="S21" s="185"/>
+      <c r="T21" t="s">
+        <v>167</v>
+      </c>
+      <c r="U21" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P21" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q21" s="190">
+      <c r="V21" t="s">
+        <v>232</v>
+      </c>
+      <c r="W21" s="186">
         <v>6.2041439521472716E-2</v>
       </c>
-      <c r="S21" t="s">
-        <v>167</v>
-      </c>
-      <c r="T21" s="1" t="str">
+      <c r="Y21" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z21" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U21" t="s">
-        <v>225</v>
-      </c>
-      <c r="V21" s="190">
+      <c r="AA21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB21" s="186">
         <v>6.2041439521472716E-2</v>
       </c>
     </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="I22" t="s">
-        <v>167</v>
-      </c>
-      <c r="J22" t="str">
+    <row r="22" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O22" t="s">
+        <v>167</v>
+      </c>
+      <c r="P22" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K22" t="s">
-        <v>226</v>
-      </c>
-      <c r="L22" s="190">
+      <c r="Q22" t="s">
+        <v>233</v>
+      </c>
+      <c r="R22" s="186">
         <v>5.0238563001630904E-2</v>
       </c>
-      <c r="M22" s="185"/>
-      <c r="N22" t="s">
-        <v>167</v>
-      </c>
-      <c r="O22" s="1" t="str">
+      <c r="S22" s="185"/>
+      <c r="T22" t="s">
+        <v>167</v>
+      </c>
+      <c r="U22" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P22" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q22" s="190">
+      <c r="V22" t="s">
+        <v>233</v>
+      </c>
+      <c r="W22" s="186">
         <v>5.0238563001630904E-2</v>
       </c>
-      <c r="S22" t="s">
-        <v>167</v>
-      </c>
-      <c r="T22" s="1" t="str">
+      <c r="Y22" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z22" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U22" t="s">
-        <v>226</v>
-      </c>
-      <c r="V22" s="190">
+      <c r="AA22" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB22" s="186">
         <v>5.0238563001630904E-2</v>
       </c>
     </row>
-    <row r="23" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="E23" s="186"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="186"/>
-      <c r="I23" t="s">
-        <v>167</v>
-      </c>
-      <c r="J23" t="str">
+    <row r="23" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O23" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K23" t="s">
-        <v>227</v>
-      </c>
-      <c r="L23" s="190">
+      <c r="Q23" t="s">
+        <v>234</v>
+      </c>
+      <c r="R23" s="186">
         <v>5.3184386397899165E-2</v>
       </c>
-      <c r="M23" s="185"/>
-      <c r="N23" t="s">
-        <v>167</v>
-      </c>
-      <c r="O23" s="1" t="str">
+      <c r="S23" s="185"/>
+      <c r="T23" t="s">
+        <v>167</v>
+      </c>
+      <c r="U23" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P23" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q23" s="190">
+      <c r="V23" t="s">
+        <v>234</v>
+      </c>
+      <c r="W23" s="186">
         <v>5.3184386397899165E-2</v>
       </c>
-      <c r="S23" t="s">
-        <v>167</v>
-      </c>
-      <c r="T23" s="1" t="str">
+      <c r="Y23" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z23" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U23" t="s">
-        <v>227</v>
-      </c>
-      <c r="V23" s="190">
+      <c r="AA23" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB23" s="186">
         <v>5.3184386397899165E-2</v>
       </c>
     </row>
-    <row r="24" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="I24" t="s">
-        <v>167</v>
-      </c>
-      <c r="J24" t="str">
+    <row r="24" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O24" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K24" t="s">
-        <v>228</v>
-      </c>
-      <c r="L24" s="190">
+      <c r="Q24" t="s">
+        <v>235</v>
+      </c>
+      <c r="R24" s="186">
         <v>5.7662395688403471E-2</v>
       </c>
-      <c r="M24" s="185"/>
-      <c r="N24" t="s">
-        <v>167</v>
-      </c>
-      <c r="O24" s="1" t="str">
+      <c r="S24" s="185"/>
+      <c r="T24" t="s">
+        <v>167</v>
+      </c>
+      <c r="U24" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P24" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q24" s="190">
+      <c r="V24" t="s">
+        <v>235</v>
+      </c>
+      <c r="W24" s="186">
         <v>5.7662395688403471E-2</v>
       </c>
-      <c r="S24" t="s">
-        <v>167</v>
-      </c>
-      <c r="T24" s="1" t="str">
+      <c r="Y24" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z24" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U24" t="s">
-        <v>228</v>
-      </c>
-      <c r="V24" s="190">
+      <c r="AA24" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB24" s="186">
         <v>5.7662395688403471E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="I25" t="s">
-        <v>167</v>
-      </c>
-      <c r="J25" t="str">
+    <row r="25" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O25" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K25" t="s">
-        <v>229</v>
-      </c>
-      <c r="L25" s="190">
+      <c r="Q25" t="s">
+        <v>236</v>
+      </c>
+      <c r="R25" s="186">
         <v>5.8557745224525878E-2</v>
       </c>
-      <c r="M25" s="185"/>
-      <c r="N25" t="s">
-        <v>167</v>
-      </c>
-      <c r="O25" s="1" t="str">
+      <c r="S25" s="185"/>
+      <c r="T25" t="s">
+        <v>167</v>
+      </c>
+      <c r="U25" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P25" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q25" s="190">
+      <c r="V25" t="s">
+        <v>236</v>
+      </c>
+      <c r="W25" s="186">
         <v>5.8557745224525878E-2</v>
       </c>
-      <c r="S25" t="s">
-        <v>167</v>
-      </c>
-      <c r="T25" s="1" t="str">
+      <c r="Y25" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z25" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U25" t="s">
-        <v>229</v>
-      </c>
-      <c r="V25" s="190">
+      <c r="AA25" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB25" s="186">
         <v>5.8557745224525878E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D26" s="109"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" t="s">
-        <v>167</v>
-      </c>
-      <c r="J26" t="str">
+      <c r="O26" t="s">
+        <v>167</v>
+      </c>
+      <c r="P26" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K26" t="s">
-        <v>230</v>
-      </c>
-      <c r="L26" s="190">
+      <c r="Q26" t="s">
+        <v>237</v>
+      </c>
+      <c r="R26" s="186">
         <v>5.4169812257972488E-2</v>
       </c>
-      <c r="M26" s="185"/>
-      <c r="N26" t="s">
-        <v>167</v>
-      </c>
-      <c r="O26" s="1" t="str">
+      <c r="S26" s="185"/>
+      <c r="T26" t="s">
+        <v>167</v>
+      </c>
+      <c r="U26" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P26" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q26" s="190">
+      <c r="V26" t="s">
+        <v>237</v>
+      </c>
+      <c r="W26" s="186">
         <v>5.4169812257972488E-2</v>
       </c>
-      <c r="S26" t="s">
-        <v>167</v>
-      </c>
-      <c r="T26" s="1" t="str">
+      <c r="Y26" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z26" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U26" t="s">
-        <v>230</v>
-      </c>
-      <c r="V26" s="190">
+      <c r="AA26" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB26" s="186">
         <v>5.4169812257972488E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D27" s="109"/>
       <c r="E27" s="5"/>
-      <c r="I27" t="s">
-        <v>167</v>
-      </c>
-      <c r="J27" t="str">
+      <c r="O27" t="s">
+        <v>167</v>
+      </c>
+      <c r="P27" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K27" t="s">
-        <v>231</v>
-      </c>
-      <c r="L27" s="190">
+      <c r="Q27" t="s">
+        <v>238</v>
+      </c>
+      <c r="R27" s="186">
         <v>4.1857004866670537E-2</v>
       </c>
-      <c r="M27" s="185"/>
-      <c r="N27" t="s">
-        <v>167</v>
-      </c>
-      <c r="O27" s="1" t="str">
+      <c r="S27" s="185"/>
+      <c r="T27" t="s">
+        <v>167</v>
+      </c>
+      <c r="U27" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P27" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q27" s="190">
+      <c r="V27" t="s">
+        <v>238</v>
+      </c>
+      <c r="W27" s="186">
         <v>4.1857004866670537E-2</v>
       </c>
-      <c r="S27" t="s">
-        <v>167</v>
-      </c>
-      <c r="T27" s="1" t="str">
+      <c r="Y27" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z27" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U27" t="s">
-        <v>231</v>
-      </c>
-      <c r="V27" s="190">
+      <c r="AA27" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB27" s="186">
         <v>4.1857004866670537E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D28" s="109"/>
       <c r="E28" s="109"/>
       <c r="F28" s="109"/>
       <c r="G28" s="109"/>
       <c r="H28" s="109"/>
-      <c r="I28" t="s">
-        <v>167</v>
-      </c>
-      <c r="J28" t="str">
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="109"/>
+      <c r="O28" t="s">
+        <v>167</v>
+      </c>
+      <c r="P28" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K28" t="s">
-        <v>232</v>
-      </c>
-      <c r="L28" s="190">
+      <c r="Q28" t="s">
+        <v>239</v>
+      </c>
+      <c r="R28" s="186">
         <v>3.3691520594468241E-2</v>
       </c>
-      <c r="M28" s="185"/>
-      <c r="N28" t="s">
-        <v>167</v>
-      </c>
-      <c r="O28" s="1" t="str">
+      <c r="S28" s="185"/>
+      <c r="T28" t="s">
+        <v>167</v>
+      </c>
+      <c r="U28" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P28" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q28" s="190">
+      <c r="V28" t="s">
+        <v>239</v>
+      </c>
+      <c r="W28" s="186">
         <v>3.3691520594468241E-2</v>
       </c>
-      <c r="S28" t="s">
-        <v>167</v>
-      </c>
-      <c r="T28" s="1" t="str">
+      <c r="Y28" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z28" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U28" t="s">
-        <v>232</v>
-      </c>
-      <c r="V28" s="190">
+      <c r="AA28" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB28" s="186">
         <v>3.3691520594468241E-2</v>
       </c>
     </row>
-    <row r="29" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D29" s="109"/>
       <c r="E29" s="109"/>
       <c r="F29" s="109"/>
       <c r="G29" s="109"/>
       <c r="H29" s="109"/>
-      <c r="I29" t="s">
-        <v>167</v>
-      </c>
-      <c r="J29" t="str">
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="O29" t="s">
+        <v>167</v>
+      </c>
+      <c r="P29" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K29" t="s">
-        <v>233</v>
-      </c>
-      <c r="L29" s="190">
+      <c r="Q29" t="s">
+        <v>240</v>
+      </c>
+      <c r="R29" s="186">
         <v>3.2906492752302938E-2</v>
       </c>
-      <c r="M29" s="185"/>
-      <c r="N29" t="s">
-        <v>167</v>
-      </c>
-      <c r="O29" s="1" t="str">
+      <c r="S29" s="185"/>
+      <c r="T29" t="s">
+        <v>167</v>
+      </c>
+      <c r="U29" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P29" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q29" s="190">
+      <c r="V29" t="s">
+        <v>240</v>
+      </c>
+      <c r="W29" s="186">
         <v>3.2906492752302938E-2</v>
       </c>
-      <c r="S29" t="s">
-        <v>167</v>
-      </c>
-      <c r="T29" s="1" t="str">
+      <c r="Y29" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z29" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U29" t="s">
-        <v>233</v>
-      </c>
-      <c r="V29" s="190">
+      <c r="AA29" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB29" s="186">
         <v>3.2906492752302938E-2</v>
       </c>
     </row>
-    <row r="30" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="I30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J30" s="1" t="str">
+    <row r="30" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P30" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K30" s="145" t="s">
-        <v>234</v>
-      </c>
-      <c r="L30" s="190">
+      <c r="Q30" s="146" t="s">
+        <v>241</v>
+      </c>
+      <c r="R30" s="186">
         <v>3.20626233861286E-2</v>
       </c>
-      <c r="M30" s="185"/>
-      <c r="N30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O30" s="1" t="str">
+      <c r="S30" s="185"/>
+      <c r="T30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U30" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P30" s="145" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q30" s="190">
+      <c r="V30" s="146" t="s">
+        <v>241</v>
+      </c>
+      <c r="W30" s="186">
         <v>3.20626233861286E-2</v>
       </c>
-      <c r="S30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T30" s="1" t="str">
+      <c r="Y30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z30" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U30" s="145" t="s">
-        <v>234</v>
-      </c>
-      <c r="V30" s="190">
+      <c r="AA30" s="146" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB30" s="186">
         <v>3.20626233861286E-2</v>
       </c>
     </row>
-    <row r="31" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="I31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J31" s="1" t="str">
+    <row r="31" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="O31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P31" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K31" s="177" t="s">
-        <v>235</v>
-      </c>
-      <c r="L31" s="190">
+      <c r="Q31" s="177" t="s">
+        <v>242</v>
+      </c>
+      <c r="R31" s="186">
         <v>3.1700774081405016E-2</v>
       </c>
-      <c r="M31" s="185"/>
-      <c r="N31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O31" s="1" t="str">
+      <c r="S31" s="185"/>
+      <c r="T31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U31" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P31" s="177" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q31" s="190">
+      <c r="V31" s="177" t="s">
+        <v>242</v>
+      </c>
+      <c r="W31" s="186">
         <v>3.1700774081405016E-2</v>
       </c>
-      <c r="S31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T31" s="1" t="str">
+      <c r="Y31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z31" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U31" s="177" t="s">
-        <v>235</v>
-      </c>
-      <c r="V31" s="190">
+      <c r="AA31" s="177" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB31" s="186">
         <v>3.1700774081405016E-2</v>
       </c>
     </row>
-    <row r="32" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="E32" s="5"/>
-      <c r="I32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J32" s="1" t="str">
+    <row r="32" spans="4:28" x14ac:dyDescent="0.2">
+      <c r="E32" s="5">
+        <f>EBF!J19</f>
+        <v>150.60848427090019</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P32" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K32" s="145" t="s">
-        <v>236</v>
-      </c>
-      <c r="L32" s="190">
+      <c r="Q32" s="146" t="s">
+        <v>243</v>
+      </c>
+      <c r="R32" s="186">
         <v>3.0548494068914959E-2</v>
       </c>
-      <c r="M32" s="185"/>
-      <c r="N32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O32" s="1" t="str">
+      <c r="S32" s="185"/>
+      <c r="T32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U32" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P32" s="145" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q32" s="190">
+      <c r="V32" s="146" t="s">
+        <v>243</v>
+      </c>
+      <c r="W32" s="186">
         <v>3.0548494068914959E-2</v>
       </c>
-      <c r="S32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T32" s="1" t="str">
+      <c r="Y32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z32" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U32" s="145" t="s">
-        <v>236</v>
-      </c>
-      <c r="V32" s="190">
+      <c r="AA32" s="146" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB32" s="186">
         <v>3.0548494068914959E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
-      <c r="E33" s="5"/>
-      <c r="I33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J33" s="1" t="str">
+      <c r="E33" s="5">
+        <f>EBF!E19</f>
+        <v>8781.4640358504003</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P33" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K33" s="177" t="s">
-        <v>237</v>
-      </c>
-      <c r="L33" s="190">
+      <c r="Q33" s="177" t="s">
+        <v>244</v>
+      </c>
+      <c r="R33" s="186">
         <v>3.117830445262517E-2</v>
       </c>
-      <c r="M33" s="185"/>
-      <c r="N33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O33" s="1" t="str">
+      <c r="S33" s="185"/>
+      <c r="T33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U33" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P33" s="177" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q33" s="190">
+      <c r="V33" s="177" t="s">
+        <v>244</v>
+      </c>
+      <c r="W33" s="186">
         <v>3.117830445262517E-2</v>
       </c>
-      <c r="S33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T33" s="1" t="str">
+      <c r="Y33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z33" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U33" s="177" t="s">
-        <v>237</v>
-      </c>
-      <c r="V33" s="190">
+      <c r="AA33" s="177" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB33" s="186">
         <v>3.117830445262517E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
-      <c r="I34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J34" s="1" t="str">
+      <c r="O34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P34" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K34" t="s">
+      <c r="Q34" t="s">
         <v>168</v>
       </c>
-      <c r="L34" s="190">
+      <c r="R34" s="186">
         <v>3.1580002137548593E-2</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O34" s="1" t="str">
+      <c r="T34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U34" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P34" t="s">
+      <c r="V34" t="s">
         <v>168</v>
       </c>
-      <c r="Q34" s="190">
+      <c r="W34" s="186">
         <v>3.1580002137548593E-2</v>
       </c>
-      <c r="S34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T34" s="1" t="str">
+      <c r="Y34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z34" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U34" t="s">
+      <c r="AA34" t="s">
         <v>168</v>
       </c>
-      <c r="V34" s="190">
+      <c r="AB34" s="186">
         <v>3.1580002137548593E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I35" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J35" s="1" t="str">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P35" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K35" t="s">
+      <c r="Q35" t="s">
         <v>169</v>
       </c>
-      <c r="L35" s="190">
+      <c r="R35" s="186">
         <v>3.1850630527954941E-2</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O35" s="1" t="str">
+      <c r="T35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U35" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P35" t="s">
+      <c r="V35" t="s">
         <v>169</v>
       </c>
-      <c r="Q35" s="190">
+      <c r="W35" s="186">
         <v>3.1850630527954941E-2</v>
       </c>
-      <c r="S35" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T35" s="1" t="str">
+      <c r="Y35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z35" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U35" t="s">
+      <c r="AA35" t="s">
         <v>169</v>
       </c>
-      <c r="V35" s="190">
+      <c r="AB35" s="186">
         <v>3.1850630527954941E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B36" s="118"/>
       <c r="C36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J36" s="1" t="str">
+      <c r="O36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P36" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K36" t="s">
+      <c r="Q36" t="s">
         <v>170</v>
       </c>
-      <c r="L36" s="190">
+      <c r="R36" s="186">
         <v>3.1481989955747081E-2</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O36" s="1" t="str">
+      <c r="T36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U36" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P36" t="s">
+      <c r="V36" t="s">
         <v>170</v>
       </c>
-      <c r="Q36" s="190">
+      <c r="W36" s="186">
         <v>3.1481989955747081E-2</v>
       </c>
-      <c r="S36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T36" s="1" t="str">
+      <c r="Y36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z36" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U36" t="s">
+      <c r="AA36" t="s">
         <v>170</v>
       </c>
-      <c r="V36" s="190">
+      <c r="AB36" s="186">
         <v>3.1481989955747081E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="47"/>
       <c r="C37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J37" s="1" t="str">
+      <c r="O37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P37" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K37" t="s">
+      <c r="Q37" t="s">
         <v>171</v>
       </c>
-      <c r="L37" s="190">
+      <c r="R37" s="186">
         <v>3.1731466950130557E-2</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O37" s="1" t="str">
+      <c r="T37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U37" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P37" t="s">
+      <c r="V37" t="s">
         <v>171</v>
       </c>
-      <c r="Q37" s="190">
+      <c r="W37" s="186">
         <v>3.1731466950130557E-2</v>
       </c>
-      <c r="S37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T37" s="1" t="str">
+      <c r="Y37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z37" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U37" t="s">
+      <c r="AA37" t="s">
         <v>171</v>
       </c>
-      <c r="V37" s="190">
+      <c r="AB37" s="186">
         <v>3.1731466950130557E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J38" s="1" t="str">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P38" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K38" t="s">
+      <c r="Q38" t="s">
         <v>172</v>
       </c>
-      <c r="L38" s="190">
+      <c r="R38" s="186">
         <v>3.1860835358240212E-2</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O38" s="1" t="str">
+      <c r="T38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U38" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P38" t="s">
+      <c r="V38" t="s">
         <v>172</v>
       </c>
-      <c r="Q38" s="190">
+      <c r="W38" s="186">
         <v>3.1860835358240212E-2</v>
       </c>
-      <c r="S38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T38" s="1" t="str">
+      <c r="Y38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z38" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U38" t="s">
+      <c r="AA38" t="s">
         <v>172</v>
       </c>
-      <c r="V38" s="190">
+      <c r="AB38" s="186">
         <v>3.1860835358240212E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J39" s="1" t="str">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P39" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K39" t="s">
+      <c r="Q39" t="s">
         <v>173</v>
       </c>
-      <c r="L39" s="190">
+      <c r="R39" s="186">
         <v>3.2394250106746E-2</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O39" s="1" t="str">
+      <c r="T39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U39" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P39" t="s">
+      <c r="V39" t="s">
         <v>173</v>
       </c>
-      <c r="Q39" s="190">
+      <c r="W39" s="186">
         <v>3.2394250106746E-2</v>
       </c>
-      <c r="S39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T39" s="1" t="str">
+      <c r="Y39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z39" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U39" t="s">
+      <c r="AA39" t="s">
         <v>173</v>
       </c>
-      <c r="V39" s="190">
+      <c r="AB39" s="186">
         <v>3.2394250106746E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J40" s="1" t="str">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P40" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K40" t="s">
+      <c r="Q40" t="s">
         <v>174</v>
       </c>
-      <c r="L40" s="190">
+      <c r="R40" s="186">
         <v>3.241825303092484E-2</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O40" s="1" t="str">
+      <c r="T40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U40" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P40" t="s">
+      <c r="V40" t="s">
         <v>174</v>
       </c>
-      <c r="Q40" s="190">
+      <c r="W40" s="186">
         <v>3.241825303092484E-2</v>
       </c>
-      <c r="S40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T40" s="1" t="str">
+      <c r="Y40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z40" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U40" t="s">
+      <c r="AA40" t="s">
         <v>174</v>
       </c>
-      <c r="V40" s="190">
+      <c r="AB40" s="186">
         <v>3.241825303092484E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J41" s="1" t="str">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P41" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K41" t="s">
+      <c r="Q41" t="s">
         <v>175</v>
       </c>
-      <c r="L41" s="190">
+      <c r="R41" s="186">
         <v>3.5569395862328948E-2</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O41" s="1" t="str">
+      <c r="T41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U41" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P41" t="s">
+      <c r="V41" t="s">
         <v>175</v>
       </c>
-      <c r="Q41" s="190">
+      <c r="W41" s="186">
         <v>3.5569395862328948E-2</v>
       </c>
-      <c r="S41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T41" s="1" t="str">
+      <c r="Y41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z41" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U41" t="s">
+      <c r="AA41" t="s">
         <v>175</v>
       </c>
-      <c r="V41" s="190">
+      <c r="AB41" s="186">
         <v>3.5569395862328948E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J42" s="1" t="str">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P42" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K42" t="s">
+      <c r="Q42" t="s">
         <v>176</v>
       </c>
-      <c r="L42" s="190">
+      <c r="R42" s="186">
         <v>5.0064684062236839E-2</v>
       </c>
-      <c r="N42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O42" s="1" t="str">
+      <c r="T42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U42" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P42" t="s">
+      <c r="V42" t="s">
         <v>176</v>
       </c>
-      <c r="Q42" s="190">
+      <c r="W42" s="186">
         <v>5.0064684062236839E-2</v>
       </c>
-      <c r="S42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T42" s="1" t="str">
+      <c r="Y42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z42" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U42" t="s">
+      <c r="AA42" t="s">
         <v>176</v>
       </c>
-      <c r="V42" s="190">
+      <c r="AB42" s="186">
         <v>5.0064684062236839E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I43" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J43" s="1" t="str">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P43" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K43" t="s">
+      <c r="Q43" t="s">
         <v>177</v>
       </c>
-      <c r="L43" s="190">
+      <c r="R43" s="186">
         <v>6.1132650490749271E-2</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O43" s="1" t="str">
+      <c r="T43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U43" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P43" t="s">
+      <c r="V43" t="s">
         <v>177</v>
       </c>
-      <c r="Q43" s="190">
+      <c r="W43" s="186">
         <v>6.1132650490749271E-2</v>
       </c>
-      <c r="S43" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T43" s="1" t="str">
+      <c r="Y43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z43" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U43" t="s">
+      <c r="AA43" t="s">
         <v>177</v>
       </c>
-      <c r="V43" s="190">
+      <c r="AB43" s="186">
         <v>6.1132650490749271E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J44" s="1" t="str">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P44" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K44" t="s">
+      <c r="Q44" t="s">
         <v>178</v>
       </c>
-      <c r="L44" s="190">
+      <c r="R44" s="186">
         <v>6.011628522297266E-2</v>
       </c>
-      <c r="N44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O44" s="1" t="str">
+      <c r="T44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U44" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P44" t="s">
+      <c r="V44" t="s">
         <v>178</v>
       </c>
-      <c r="Q44" s="190">
+      <c r="W44" s="186">
         <v>6.011628522297266E-2</v>
       </c>
-      <c r="S44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T44" s="1" t="str">
+      <c r="Y44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z44" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U44" t="s">
+      <c r="AA44" t="s">
         <v>178</v>
       </c>
-      <c r="V44" s="190">
+      <c r="AB44" s="186">
         <v>6.011628522297266E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J45" s="1" t="str">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P45" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K45" t="s">
+      <c r="Q45" t="s">
         <v>179</v>
       </c>
-      <c r="L45" s="190">
+      <c r="R45" s="186">
         <v>6.2041439521472716E-2</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O45" s="1" t="str">
+      <c r="T45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U45" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P45" t="s">
+      <c r="V45" t="s">
         <v>179</v>
       </c>
-      <c r="Q45" s="190">
+      <c r="W45" s="186">
         <v>6.2041439521472716E-2</v>
       </c>
-      <c r="S45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T45" s="1" t="str">
+      <c r="Y45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z45" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U45" t="s">
+      <c r="AA45" t="s">
         <v>179</v>
       </c>
-      <c r="V45" s="190">
+      <c r="AB45" s="186">
         <v>6.2041439521472716E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I46" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J46" s="1" t="str">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P46" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K46" t="s">
+      <c r="Q46" t="s">
         <v>180</v>
       </c>
-      <c r="L46" s="190">
+      <c r="R46" s="186">
         <v>5.0238563001630904E-2</v>
       </c>
-      <c r="N46" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O46" s="1" t="str">
+      <c r="T46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U46" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P46" t="s">
+      <c r="V46" t="s">
         <v>180</v>
       </c>
-      <c r="Q46" s="190">
+      <c r="W46" s="186">
         <v>5.0238563001630904E-2</v>
       </c>
-      <c r="S46" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T46" s="1" t="str">
+      <c r="Y46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z46" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U46" t="s">
+      <c r="AA46" t="s">
         <v>180</v>
       </c>
-      <c r="V46" s="190">
+      <c r="AB46" s="186">
         <v>5.0238563001630904E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I47" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J47" s="1" t="str">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P47" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K47" t="s">
+      <c r="Q47" t="s">
         <v>181</v>
       </c>
-      <c r="L47" s="190">
+      <c r="R47" s="186">
         <v>5.3184386397899165E-2</v>
       </c>
-      <c r="N47" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O47" s="1" t="str">
+      <c r="T47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U47" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P47" t="s">
+      <c r="V47" t="s">
         <v>181</v>
       </c>
-      <c r="Q47" s="190">
+      <c r="W47" s="186">
         <v>5.3184386397899165E-2</v>
       </c>
-      <c r="S47" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T47" s="1" t="str">
+      <c r="Y47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z47" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U47" t="s">
+      <c r="AA47" t="s">
         <v>181</v>
       </c>
-      <c r="V47" s="190">
+      <c r="AB47" s="186">
         <v>5.3184386397899165E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="I48" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J48" s="1" t="str">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="O48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P48" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K48" t="s">
+      <c r="Q48" t="s">
         <v>182</v>
       </c>
-      <c r="L48" s="190">
+      <c r="R48" s="186">
         <v>5.7662395688403471E-2</v>
       </c>
-      <c r="N48" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O48" s="1" t="str">
+      <c r="T48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U48" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P48" t="s">
+      <c r="V48" t="s">
         <v>182</v>
       </c>
-      <c r="Q48" s="190">
+      <c r="W48" s="186">
         <v>5.7662395688403471E-2</v>
       </c>
-      <c r="S48" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T48" s="1" t="str">
+      <c r="Y48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z48" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U48" t="s">
+      <c r="AA48" t="s">
         <v>182</v>
       </c>
-      <c r="V48" s="190">
+      <c r="AB48" s="186">
         <v>5.7662395688403471E-2</v>
       </c>
     </row>
-    <row r="49" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J49" s="1" t="str">
+    <row r="49" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P49" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K49" t="s">
+      <c r="Q49" t="s">
         <v>183</v>
       </c>
-      <c r="L49" s="190">
+      <c r="R49" s="186">
         <v>5.8557745224525878E-2</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O49" s="1" t="str">
+      <c r="T49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U49" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P49" t="s">
+      <c r="V49" t="s">
         <v>183</v>
       </c>
-      <c r="Q49" s="190">
+      <c r="W49" s="186">
         <v>5.8557745224525878E-2</v>
       </c>
-      <c r="S49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T49" s="1" t="str">
+      <c r="Y49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z49" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U49" t="s">
+      <c r="AA49" t="s">
         <v>183</v>
       </c>
-      <c r="V49" s="190">
+      <c r="AB49" s="186">
         <v>5.8557745224525878E-2</v>
       </c>
     </row>
-    <row r="50" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J50" s="1" t="str">
+    <row r="50" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P50" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K50" t="s">
+      <c r="Q50" t="s">
         <v>184</v>
       </c>
-      <c r="L50" s="190">
+      <c r="R50" s="186">
         <v>5.4169812257972488E-2</v>
       </c>
-      <c r="N50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O50" s="1" t="str">
+      <c r="T50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U50" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P50" t="s">
+      <c r="V50" t="s">
         <v>184</v>
       </c>
-      <c r="Q50" s="190">
+      <c r="W50" s="186">
         <v>5.4169812257972488E-2</v>
       </c>
-      <c r="S50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T50" s="1" t="str">
+      <c r="Y50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z50" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U50" t="s">
+      <c r="AA50" t="s">
         <v>184</v>
       </c>
-      <c r="V50" s="190">
+      <c r="AB50" s="186">
         <v>5.4169812257972488E-2</v>
       </c>
     </row>
-    <row r="51" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J51" s="1" t="str">
+    <row r="51" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P51" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K51" t="s">
+      <c r="Q51" t="s">
         <v>185</v>
       </c>
-      <c r="L51" s="190">
+      <c r="R51" s="186">
         <v>4.1857004866670537E-2</v>
       </c>
-      <c r="N51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O51" s="1" t="str">
+      <c r="T51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U51" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P51" t="s">
+      <c r="V51" t="s">
         <v>185</v>
       </c>
-      <c r="Q51" s="190">
+      <c r="W51" s="186">
         <v>4.1857004866670537E-2</v>
       </c>
-      <c r="S51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T51" s="1" t="str">
+      <c r="Y51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z51" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U51" t="s">
+      <c r="AA51" t="s">
         <v>185</v>
       </c>
-      <c r="V51" s="190">
+      <c r="AB51" s="186">
         <v>4.1857004866670537E-2</v>
       </c>
     </row>
-    <row r="52" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J52" s="1" t="str">
+    <row r="52" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P52" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K52" t="s">
+      <c r="Q52" t="s">
         <v>186</v>
       </c>
-      <c r="L52" s="190">
+      <c r="R52" s="186">
         <v>3.3691520594468241E-2</v>
       </c>
-      <c r="N52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O52" s="1" t="str">
+      <c r="T52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U52" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P52" t="s">
+      <c r="V52" t="s">
         <v>186</v>
       </c>
-      <c r="Q52" s="190">
+      <c r="W52" s="186">
         <v>3.3691520594468241E-2</v>
       </c>
-      <c r="S52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T52" s="1" t="str">
+      <c r="Y52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z52" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U52" t="s">
+      <c r="AA52" t="s">
         <v>186</v>
       </c>
-      <c r="V52" s="190">
+      <c r="AB52" s="186">
         <v>3.3691520594468241E-2</v>
       </c>
     </row>
-    <row r="53" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I53" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J53" s="1" t="str">
+    <row r="53" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P53" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K53" t="s">
+      <c r="Q53" t="s">
         <v>187</v>
       </c>
-      <c r="L53" s="190">
+      <c r="R53" s="186">
         <v>3.2906492752302938E-2</v>
       </c>
-      <c r="N53" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O53" s="1" t="str">
+      <c r="T53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U53" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P53" t="s">
+      <c r="V53" t="s">
         <v>187</v>
       </c>
-      <c r="Q53" s="190">
+      <c r="W53" s="186">
         <v>3.2906492752302938E-2</v>
       </c>
-      <c r="S53" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T53" s="1" t="str">
+      <c r="Y53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z53" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U53" t="s">
+      <c r="AA53" t="s">
         <v>187</v>
       </c>
-      <c r="V53" s="190">
+      <c r="AB53" s="186">
         <v>3.2906492752302938E-2</v>
       </c>
     </row>
-    <row r="54" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I54" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J54" s="1" t="str">
+    <row r="54" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P54" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K54" t="s">
+      <c r="Q54" t="s">
         <v>188</v>
       </c>
-      <c r="L54" s="190">
+      <c r="R54" s="186">
         <v>3.20626233861286E-2</v>
       </c>
-      <c r="N54" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O54" s="1" t="str">
+      <c r="T54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U54" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P54" t="s">
+      <c r="V54" t="s">
         <v>188</v>
       </c>
-      <c r="Q54" s="190">
+      <c r="W54" s="186">
         <v>3.20626233861286E-2</v>
       </c>
-      <c r="S54" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T54" s="1" t="str">
+      <c r="Y54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z54" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U54" t="s">
+      <c r="AA54" t="s">
         <v>188</v>
       </c>
-      <c r="V54" s="190">
+      <c r="AB54" s="186">
         <v>3.20626233861286E-2</v>
       </c>
     </row>
-    <row r="55" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J55" s="1" t="str">
+    <row r="55" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P55" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K55" t="s">
+      <c r="Q55" t="s">
         <v>189</v>
       </c>
-      <c r="L55" s="190">
+      <c r="R55" s="186">
         <v>3.1700774081405016E-2</v>
       </c>
-      <c r="N55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O55" s="1" t="str">
+      <c r="T55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U55" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P55" t="s">
+      <c r="V55" t="s">
         <v>189</v>
       </c>
-      <c r="Q55" s="190">
+      <c r="W55" s="186">
         <v>3.1700774081405016E-2</v>
       </c>
-      <c r="S55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T55" s="1" t="str">
+      <c r="Y55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z55" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U55" t="s">
+      <c r="AA55" t="s">
         <v>189</v>
       </c>
-      <c r="V55" s="190">
+      <c r="AB55" s="186">
         <v>3.1700774081405016E-2</v>
       </c>
     </row>
-    <row r="56" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J56" s="1" t="str">
+    <row r="56" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P56" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K56" t="s">
+      <c r="Q56" t="s">
         <v>190</v>
       </c>
-      <c r="L56" s="190">
+      <c r="R56" s="186">
         <v>3.0548494068914959E-2</v>
       </c>
-      <c r="N56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O56" s="1" t="str">
+      <c r="T56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U56" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P56" t="s">
+      <c r="V56" t="s">
         <v>190</v>
       </c>
-      <c r="Q56" s="190">
+      <c r="W56" s="186">
         <v>3.0548494068914959E-2</v>
       </c>
-      <c r="S56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T56" s="1" t="str">
+      <c r="Y56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z56" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U56" t="s">
+      <c r="AA56" t="s">
         <v>190</v>
       </c>
-      <c r="V56" s="190">
+      <c r="AB56" s="186">
         <v>3.0548494068914959E-2</v>
       </c>
     </row>
-    <row r="57" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I57" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J57" s="1" t="str">
+    <row r="57" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P57" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="K57" t="s">
+      <c r="Q57" t="s">
         <v>191</v>
       </c>
-      <c r="L57" s="190">
+      <c r="R57" s="186">
         <v>3.117830445262517E-2</v>
       </c>
-      <c r="N57" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O57" s="1" t="str">
+      <c r="T57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U57" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="P57" t="s">
+      <c r="V57" t="s">
         <v>191</v>
       </c>
-      <c r="Q57" s="190">
+      <c r="W57" s="186">
         <v>3.117830445262517E-2</v>
       </c>
-      <c r="S57" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="T57" s="1" t="str">
+      <c r="Y57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z57" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="U57" t="s">
+      <c r="AA57" t="s">
         <v>191</v>
       </c>
-      <c r="V57" s="190">
+      <c r="AB57" s="186">
         <v>3.117830445262517E-2</v>
       </c>
     </row>
-    <row r="58" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="I58" s="1"/>
-      <c r="J58" s="137"/>
-      <c r="K58" s="137"/>
-      <c r="L58" s="182"/>
-    </row>
-    <row r="59" spans="9:22" x14ac:dyDescent="0.2">
-      <c r="L59" s="137"/>
+    <row r="58" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="O58" s="1"/>
+      <c r="P58" s="138"/>
+      <c r="Q58" s="138"/>
+      <c r="R58" s="182"/>
+    </row>
+    <row r="59" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="R59" s="138"/>
     </row>
   </sheetData>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{39A858FD-F737-4F32-9E7E-F07CAE2559F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8411051-BFDA-428E-93F3-97C1E6DACDA2}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{39A858FD-F737-4F32-9E7E-F07CAE2559F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD612D1A-00E9-42E9-A695-CA19DCEAB02D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1558,7 +1558,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="263">
   <si>
     <t>CommName</t>
   </si>
@@ -2253,19 +2253,7 @@
     <t>MANHEAT</t>
   </si>
   <si>
-    <t>Manufacturing heat total</t>
-  </si>
-  <si>
-    <t>Manufacturing heat aggrigator</t>
-  </si>
-  <si>
-    <t>PHEAT</t>
-  </si>
-  <si>
     <t>HEAT</t>
-  </si>
-  <si>
-    <t>Manufacturing Process Heat Aggrigator</t>
   </si>
   <si>
     <t>START</t>
@@ -2501,8 +2489,8 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="General_)"/>
     <numFmt numFmtId="166" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="169" formatCode="0.000000000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="37" x14ac:knownFonts="1">
     <font>
@@ -3112,7 +3100,7 @@
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3381,7 +3369,6 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3455,7 +3442,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="9" fillId="15" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="35" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="29" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3463,7 +3450,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3892,86 +3879,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2191</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>17751</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>92721</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>75778</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77100577-490B-1FEB-45C4-A6AA00BFC058}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3774260" y="3494797"/>
-          <a:ext cx="3757233" cy="922021"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>The</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t> demand driver growth rate is computed based historical growth data of the respective energy consumption between 2019 and 2023</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -4074,6 +3981,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5166,7 +5077,7 @@
     <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="154" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="153" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
@@ -5203,7 +5114,7 @@
       <c r="F2" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="168" t="s">
+      <c r="G2" s="167" t="s">
         <v>127</v>
       </c>
       <c r="H2" s="27" t="s">
@@ -5217,7 +5128,7 @@
       </c>
       <c r="K2" s="20"/>
       <c r="O2" s="24" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>148</v>
@@ -5237,7 +5148,7 @@
       <c r="F3" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="168" t="s">
+      <c r="G3" s="167" t="s">
         <v>129</v>
       </c>
       <c r="H3" s="28" t="s">
@@ -5259,7 +5170,7 @@
       </c>
       <c r="E4" s="54"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="169"/>
+      <c r="G4" s="168"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -5284,7 +5195,7 @@
         <f>'EBF TJ'!F5*0.2777778</f>
         <v>16770.812452776001</v>
       </c>
-      <c r="G5" s="170">
+      <c r="G5" s="169">
         <f>'EBF TJ'!G5*0.2777778</f>
         <v>35.000002800000004</v>
       </c>
@@ -5325,7 +5236,7 @@
         <f>'EBF TJ'!F6*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G6" s="170">
+      <c r="G6" s="169">
         <f>'EBF TJ'!G6*0.2777778</f>
         <v>0</v>
       </c>
@@ -5365,7 +5276,7 @@
         <f>'EBF TJ'!F7*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G7" s="170">
+      <c r="G7" s="169">
         <f>'EBF TJ'!G7*0.2777778</f>
         <v>0</v>
       </c>
@@ -5402,7 +5313,7 @@
         <f t="shared" si="0"/>
         <v>16770.812452776001</v>
       </c>
-      <c r="G8" s="171">
+      <c r="G8" s="170">
         <f>SUM(G5:G7)</f>
         <v>35.000002800000004</v>
       </c>
@@ -5431,7 +5342,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="169"/>
+      <c r="G9" s="168"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -5447,7 +5358,7 @@
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
-      <c r="G10" s="172"/>
+      <c r="G10" s="171"/>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="30">
@@ -5472,7 +5383,7 @@
         <f>'EBF TJ'!F11*0.2777778</f>
         <v>-16770.812452776001</v>
       </c>
-      <c r="G11" s="173"/>
+      <c r="G11" s="172"/>
       <c r="H11" s="119"/>
       <c r="I11" s="119"/>
       <c r="J11" s="119"/>
@@ -5497,7 +5408,7 @@
         <f>'EBF TJ'!F12*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G12" s="172">
+      <c r="G12" s="171">
         <f>'EBF TJ'!G12*0.2777778</f>
         <v>0</v>
       </c>
@@ -5532,7 +5443,7 @@
         <v>-59356.884748550401</v>
       </c>
       <c r="F13" s="40"/>
-      <c r="G13" s="174"/>
+      <c r="G13" s="173"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40">
@@ -5552,7 +5463,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="169"/>
+      <c r="G14" s="168"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -5577,7 +5488,7 @@
         <f>'EBF TJ'!F15*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G15" s="172">
+      <c r="G15" s="171">
         <f>'EBF TJ'!G15*0.2777778</f>
         <v>0</v>
       </c>
@@ -5617,7 +5528,7 @@
         <f>'EBF TJ'!F16*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G16" s="172">
+      <c r="G16" s="171">
         <f>'EBF TJ'!G16*0.2777778</f>
         <v>0</v>
       </c>
@@ -5657,7 +5568,7 @@
         <f>'EBF TJ'!F17*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G17" s="172">
+      <c r="G17" s="171">
         <f>'EBF TJ'!G17*0.2777778</f>
         <v>0</v>
       </c>
@@ -5697,7 +5608,7 @@
         <f>'EBF TJ'!F18*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G18" s="172">
+      <c r="G18" s="171">
         <f>'EBF TJ'!G18*0.2777778</f>
         <v>0</v>
       </c>
@@ -5737,7 +5648,7 @@
         <f>'EBF TJ'!F19*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G19" s="172">
+      <c r="G19" s="171">
         <f>'EBF TJ'!G19*0.2777778</f>
         <v>0</v>
       </c>
@@ -5777,7 +5688,7 @@
         <f>'EBF TJ'!F20*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <f>'EBF TJ'!G20*0.2777778</f>
         <v>0</v>
       </c>
@@ -5817,7 +5728,7 @@
         <f>'EBF TJ'!F21*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G21" s="172">
+      <c r="G21" s="171">
         <f>'EBF TJ'!G21*0.2777778</f>
         <v>0</v>
       </c>
@@ -5857,7 +5768,7 @@
         <f>'EBF TJ'!F22*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G22" s="172">
+      <c r="G22" s="171">
         <f>'EBF TJ'!G22*0.2777778</f>
         <v>0</v>
       </c>
@@ -5897,7 +5808,7 @@
         <f>'EBF TJ'!F23*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G23" s="172">
+      <c r="G23" s="171">
         <f>'EBF TJ'!G23*0.2777778</f>
         <v>0</v>
       </c>
@@ -5937,7 +5848,7 @@
         <f>'EBF TJ'!F24*0.2777778</f>
         <v>0</v>
       </c>
-      <c r="G24" s="172">
+      <c r="G24" s="171">
         <f>'EBF TJ'!G24*0.2777778</f>
         <v>0</v>
       </c>
@@ -5974,7 +5885,7 @@
         <v>59476.115869200003</v>
       </c>
       <c r="F25" s="72"/>
-      <c r="G25" s="175"/>
+      <c r="G25" s="174"/>
       <c r="H25" s="72"/>
       <c r="I25" s="72">
         <f>SUM(I15:I24)</f>
@@ -5993,7 +5904,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="172"/>
+      <c r="G26" s="171"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -6003,7 +5914,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="172"/>
+      <c r="G27" s="171"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -6015,7 +5926,7 @@
       <c r="D28" s="35"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="172"/>
+      <c r="G28" s="171"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -6026,7 +5937,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="172"/>
+      <c r="G29" s="171"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -6037,7 +5948,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="172"/>
+      <c r="G30" s="171"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -6048,7 +5959,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="172"/>
+      <c r="G31" s="171"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -6059,7 +5970,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="172"/>
+      <c r="G32" s="171"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -6070,7 +5981,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="172"/>
+      <c r="G33" s="171"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -6081,7 +5992,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="172"/>
+      <c r="G34" s="171"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -6092,7 +6003,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="172"/>
+      <c r="G35" s="171"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -6103,7 +6014,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="172"/>
+      <c r="G36" s="171"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -6121,7 +6032,7 @@
         <v>145</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="172"/>
+      <c r="G37" s="171"/>
       <c r="H37" s="5"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -6138,7 +6049,7 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="172"/>
+      <c r="G38" s="171"/>
       <c r="H38" s="5"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
@@ -6155,7 +6066,7 @@
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="172"/>
+      <c r="G39" s="171"/>
       <c r="H39" s="5"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -6175,7 +6086,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="5"/>
-      <c r="G40" s="172"/>
+      <c r="G40" s="171"/>
       <c r="H40" s="5"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -6188,7 +6099,7 @@
       <c r="F44" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="G44" s="168" t="s">
+      <c r="G44" s="167" t="s">
         <v>127</v>
       </c>
       <c r="H44" s="27" t="s">
@@ -6217,7 +6128,7 @@
       <c r="F45" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="G45" s="168" t="s">
+      <c r="G45" s="167" t="s">
         <v>129</v>
       </c>
       <c r="H45" s="28" t="s">
@@ -6238,7 +6149,7 @@
         <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D46" s="109">
         <f>D18/(D18+E18)</f>
@@ -6259,7 +6170,7 @@
         <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E47" s="109">
         <f>E18/(D18+E18)</f>
@@ -6280,7 +6191,7 @@
         <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J48" s="109">
         <v>1</v>
@@ -6352,8 +6263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6368,7 +6279,7 @@
     <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="159" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="158" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.140625" customWidth="1"/>
@@ -6471,7 +6382,7 @@
       </c>
     </row>
     <row r="4" spans="2:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="137" t="s">
         <v>199</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -6513,16 +6424,16 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
       <c r="E5" s="77"/>
-      <c r="F5" s="139"/>
+      <c r="F5" s="138"/>
       <c r="G5" s="7"/>
       <c r="M5" s="64" t="s">
         <v>74</v>
       </c>
       <c r="N5" s="68"/>
-      <c r="O5" s="137" t="s">
+      <c r="O5" s="136" t="s">
         <v>203</v>
       </c>
       <c r="P5" s="64" t="s">
@@ -6537,16 +6448,16 @@
       <c r="U5" s="64"/>
     </row>
     <row r="6" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
       <c r="E6" s="77"/>
-      <c r="F6" s="139"/>
+      <c r="F6" s="138"/>
       <c r="G6" s="7"/>
       <c r="M6" s="64" t="s">
         <v>74</v>
       </c>
       <c r="N6" s="68"/>
-      <c r="O6" s="137" t="s">
+      <c r="O6" s="136" t="s">
         <v>204</v>
       </c>
       <c r="P6" s="64" t="s">
@@ -6561,16 +6472,16 @@
       <c r="U6" s="64"/>
     </row>
     <row r="7" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="139"/>
+      <c r="F7" s="138"/>
       <c r="G7" s="7"/>
       <c r="M7" s="64" t="s">
         <v>74</v>
       </c>
       <c r="N7" s="68"/>
-      <c r="O7" s="137" t="s">
+      <c r="O7" s="136" t="s">
         <v>205</v>
       </c>
       <c r="P7" s="64" t="s">
@@ -6585,19 +6496,19 @@
       <c r="U7" s="64"/>
     </row>
     <row r="8" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
       <c r="E8" s="77"/>
-      <c r="F8" s="139"/>
+      <c r="F8" s="138"/>
       <c r="G8" s="7"/>
-      <c r="M8" s="137" t="s">
+      <c r="M8" s="136" t="s">
         <v>46</v>
       </c>
       <c r="N8" s="68"/>
-      <c r="O8" s="137" t="s">
+      <c r="O8" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="137" t="s">
+      <c r="P8" s="136" t="s">
         <v>207</v>
       </c>
       <c r="Q8" s="64" t="s">
@@ -6609,104 +6520,104 @@
       <c r="U8" s="64"/>
     </row>
     <row r="9" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
       <c r="E9" s="77"/>
-      <c r="F9" s="139"/>
+      <c r="F9" s="138"/>
       <c r="G9" s="7"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="140"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="140"/>
-      <c r="Q9" s="140"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="139"/>
       <c r="R9" s="64"/>
       <c r="S9" s="64"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M10" s="140"/>
-      <c r="N10" s="140"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="140"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="139"/>
       <c r="R10" s="64"/>
       <c r="S10" s="64"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M11" s="140"/>
-      <c r="N11" s="140"/>
-      <c r="O11" s="140"/>
-      <c r="P11" s="140"/>
-      <c r="Q11" s="140"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="139"/>
       <c r="R11" s="64"/>
       <c r="S11" s="64"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M12" s="137"/>
+      <c r="M12" s="136"/>
       <c r="N12" s="68"/>
-      <c r="O12" s="137"/>
-      <c r="P12" s="137"/>
-      <c r="Q12" s="137"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="136"/>
       <c r="R12" s="64"/>
       <c r="S12" s="64"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M13" s="137"/>
+      <c r="M13" s="136"/>
       <c r="N13" s="68"/>
-      <c r="O13" s="137"/>
-      <c r="P13" s="137"/>
-      <c r="Q13" s="137"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
       <c r="R13" s="64"/>
       <c r="S13" s="64"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M14" s="137"/>
+      <c r="M14" s="136"/>
       <c r="N14" s="68"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="137"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
       <c r="R14" s="64"/>
       <c r="S14" s="64"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="151"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="150"/>
+      <c r="Q15" s="150"/>
       <c r="R15" s="64"/>
       <c r="S15" s="64"/>
       <c r="T15" s="64"/>
       <c r="U15" s="64"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="151"/>
-      <c r="Q16" s="151"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="150"/>
+      <c r="P16" s="150"/>
+      <c r="Q16" s="150"/>
       <c r="R16" s="64"/>
       <c r="S16" s="64"/>
       <c r="T16" s="64"/>
       <c r="U16" s="64"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M17" s="137"/>
+      <c r="M17" s="136"/>
       <c r="N17" s="68"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="136"/>
       <c r="R17" s="64"/>
       <c r="S17" s="64"/>
       <c r="T17" s="64"/>
@@ -6767,7 +6678,7 @@
       <c r="J20" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="K20" s="160"/>
+      <c r="K20" s="159"/>
       <c r="M20" s="65" t="s">
         <v>11</v>
       </c>
@@ -6820,7 +6731,7 @@
       <c r="J21" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="K21" s="161"/>
+      <c r="K21" s="160"/>
       <c r="M21" s="67" t="s">
         <v>38</v>
       </c>
@@ -6862,14 +6773,14 @@
         <v>GWh</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I22" s="8" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
       <c r="J22" s="9"/>
-      <c r="K22" s="162"/>
+      <c r="K22" s="161"/>
       <c r="M22" s="67" t="s">
         <v>81</v>
       </c>
@@ -6895,18 +6806,18 @@
       <c r="E23" s="1">
         <v>2022</v>
       </c>
-      <c r="F23" s="138"/>
-      <c r="G23" s="184">
+      <c r="F23" s="137"/>
+      <c r="G23" s="183">
         <v>3333333.3</v>
       </c>
-      <c r="H23" s="183">
+      <c r="H23" s="182">
         <v>8.0665446383744062</v>
       </c>
       <c r="I23" s="87"/>
       <c r="J23" s="113">
         <v>8.76</v>
       </c>
-      <c r="K23" s="163"/>
+      <c r="K23" s="162"/>
       <c r="M23" s="64" t="str">
         <f>EBF!$B$5</f>
         <v>MIN</v>
@@ -6941,7 +6852,7 @@
       <c r="E24" s="1">
         <v>2022</v>
       </c>
-      <c r="F24" s="138"/>
+      <c r="F24" s="137"/>
       <c r="G24" s="60"/>
       <c r="H24" s="61">
         <v>22.318502952024048</v>
@@ -6950,7 +6861,7 @@
       <c r="J24" s="113">
         <v>8.76</v>
       </c>
-      <c r="K24" s="163"/>
+      <c r="K24" s="162"/>
       <c r="M24" s="68" t="str">
         <f>EBF!$B$6</f>
         <v>IMP</v>
@@ -6985,7 +6896,7 @@
       <c r="E25" s="1">
         <v>2022</v>
       </c>
-      <c r="F25" s="138"/>
+      <c r="F25" s="137"/>
       <c r="H25" s="49">
         <v>31.054602678959174</v>
       </c>
@@ -6993,7 +6904,7 @@
       <c r="J25" s="113">
         <v>8.76</v>
       </c>
-      <c r="K25" s="163"/>
+      <c r="K25" s="162"/>
       <c r="M25" t="str">
         <f>EBF!B6</f>
         <v>IMP</v>
@@ -7016,186 +6927,186 @@
         <v>ELCGRID</v>
       </c>
       <c r="C26" s="68"/>
-      <c r="D26" s="137" t="str">
+      <c r="D26" s="136" t="str">
         <f>O$8</f>
         <v>ELC</v>
       </c>
       <c r="E26" s="1">
         <v>2022</v>
       </c>
-      <c r="F26" s="138"/>
-      <c r="H26" s="183">
+      <c r="F26" s="137"/>
+      <c r="H26" s="182">
         <v>100</v>
       </c>
       <c r="I26" s="87"/>
       <c r="J26" s="113">
         <v>8.76</v>
       </c>
-      <c r="K26" s="163"/>
-      <c r="M26" s="139" t="s">
+      <c r="K26" s="162"/>
+      <c r="M26" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="N26" s="139"/>
+      <c r="N26" s="138"/>
       <c r="O26" s="68" t="str">
         <f>$M$26&amp;$C$4</f>
         <v>ELCGRID</v>
       </c>
-      <c r="P26" s="141" t="s">
+      <c r="P26" s="140" t="s">
         <v>200</v>
       </c>
       <c r="Q26" t="s">
         <v>148</v>
       </c>
-      <c r="S26" s="138" t="s">
+      <c r="S26" s="137" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B27" s="148"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="164"/>
-      <c r="K27" s="164"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="139"/>
-      <c r="O27" s="140"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="139"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="140"/>
+      <c r="Q27" s="138"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="164"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="147"/>
-      <c r="O28" s="148"/>
-      <c r="P28" s="150"/>
-      <c r="Q28" s="147"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="147"/>
+      <c r="P28" s="149"/>
+      <c r="Q28" s="146"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" s="148"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="164"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="148"/>
-      <c r="P29" s="150"/>
-      <c r="Q29" s="147"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="163"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="147"/>
+      <c r="P29" s="149"/>
+      <c r="Q29" s="146"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="164"/>
-      <c r="K30" s="164"/>
-      <c r="M30" s="138"/>
-      <c r="O30" s="148"/>
-      <c r="P30" s="150"/>
-      <c r="Q30" s="147"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
+      <c r="M30" s="137"/>
+      <c r="O30" s="147"/>
+      <c r="P30" s="149"/>
+      <c r="Q30" s="146"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="148"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="164"/>
-      <c r="K31" s="164"/>
-      <c r="M31" s="138"/>
-      <c r="O31" s="137"/>
-      <c r="P31" s="149"/>
-      <c r="Q31" s="147"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="163"/>
+      <c r="M31" s="137"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="148"/>
+      <c r="Q31" s="146"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="140"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="167"/>
-      <c r="J32" s="164"/>
-      <c r="K32" s="164"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="163"/>
       <c r="O32" s="68"/>
       <c r="P32" s="70"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B33" s="64"/>
       <c r="C33" s="68"/>
-      <c r="D33" s="137"/>
+      <c r="D33" s="136"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="163"/>
-      <c r="K33" s="163"/>
+      <c r="H33" s="162"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="162"/>
+      <c r="K33" s="162"/>
       <c r="O33" s="68"/>
       <c r="P33" s="70"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B34" s="64"/>
       <c r="C34" s="68"/>
-      <c r="D34" s="137"/>
+      <c r="D34" s="136"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="H34" s="163"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="163"/>
-      <c r="K34" s="163"/>
+      <c r="H34" s="162"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="162"/>
+      <c r="K34" s="162"/>
       <c r="O34" s="68"/>
       <c r="P34" s="70"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B35" s="64"/>
       <c r="C35" s="68"/>
-      <c r="D35" s="137"/>
+      <c r="D35" s="136"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="H35" s="163"/>
-      <c r="I35" s="167"/>
-      <c r="J35" s="163"/>
-      <c r="K35" s="163"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="166"/>
+      <c r="J35" s="162"/>
+      <c r="K35" s="162"/>
       <c r="O35" s="68"/>
       <c r="P35" s="70"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B36" s="64"/>
       <c r="C36" s="68"/>
-      <c r="D36" s="137"/>
+      <c r="D36" s="136"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="H36" s="163"/>
-      <c r="I36" s="167"/>
-      <c r="J36" s="163"/>
-      <c r="K36" s="163"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="166"/>
+      <c r="J36" s="162"/>
+      <c r="K36" s="162"/>
       <c r="O36" s="68"/>
       <c r="P36" s="70"/>
     </row>
@@ -7204,39 +7115,39 @@
       <c r="D37" s="64"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="H37" s="163"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="163"/>
-      <c r="K37" s="163"/>
+      <c r="H37" s="162"/>
+      <c r="I37" s="166"/>
+      <c r="J37" s="162"/>
+      <c r="K37" s="162"/>
       <c r="O37" s="68"/>
       <c r="P37" s="70"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="H38" s="159"/>
-      <c r="I38" s="159"/>
-      <c r="J38" s="159"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="158"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B39" s="48"/>
       <c r="C39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="T39" s="151"/>
-      <c r="U39" s="151"/>
-      <c r="V39" s="151"/>
-      <c r="W39" s="151"/>
-      <c r="X39" s="151"/>
+      <c r="T39" s="150"/>
+      <c r="U39" s="150"/>
+      <c r="V39" s="150"/>
+      <c r="W39" s="150"/>
+      <c r="X39" s="150"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B40" s="47"/>
       <c r="C40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T40" s="151"/>
-      <c r="U40" s="151"/>
-      <c r="V40" s="151"/>
-      <c r="W40" s="151"/>
-      <c r="X40" s="151"/>
+      <c r="T40" s="150"/>
+      <c r="U40" s="150"/>
+      <c r="V40" s="150"/>
+      <c r="W40" s="150"/>
+      <c r="X40" s="150"/>
     </row>
     <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42"/>
@@ -7249,7 +7160,7 @@
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
-      <c r="K42" s="159"/>
+      <c r="K42" s="158"/>
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
@@ -7281,8 +7192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView topLeftCell="F9" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7466,14 +7377,14 @@
       <c r="K5" s="51"/>
       <c r="L5" s="51"/>
       <c r="M5" s="51"/>
-      <c r="X5" s="143" t="s">
+      <c r="X5" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="Y5" s="143"/>
-      <c r="Z5" s="143" t="s">
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="142" t="s">
         <v>214</v>
       </c>
-      <c r="AA5" s="143" t="s">
+      <c r="AA5" s="142" t="s">
         <v>212</v>
       </c>
       <c r="AB5" s="90" t="s">
@@ -7538,17 +7449,17 @@
       <c r="AF7" s="90"/>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X8" s="143" t="s">
+      <c r="X8" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="143" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA8" s="143" t="s">
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="142" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA8" s="142" t="s">
         <v>213</v>
       </c>
-      <c r="AB8" s="155" t="s">
+      <c r="AB8" s="154" t="s">
         <v>148</v>
       </c>
       <c r="AC8" s="90"/>
@@ -7557,82 +7468,66 @@
       <c r="AF8" s="90"/>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X9" s="143"/>
-      <c r="Y9" s="143"/>
-      <c r="Z9" s="143"/>
-      <c r="AA9" s="143"/>
-      <c r="AB9" s="155"/>
+      <c r="X9" s="142"/>
+      <c r="Y9" s="142"/>
+      <c r="Z9" s="142"/>
+      <c r="AA9" s="142"/>
+      <c r="AB9" s="154"/>
       <c r="AC9" s="90"/>
       <c r="AD9" s="90"/>
       <c r="AE9" s="90"/>
       <c r="AF9" s="90"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X10" s="166" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y10" s="166"/>
-      <c r="Z10" s="166" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA10" s="166" t="s">
-        <v>215</v>
-      </c>
-      <c r="AB10" s="155" t="s">
-        <v>148</v>
-      </c>
+      <c r="X10" s="165"/>
+      <c r="Y10" s="165"/>
+      <c r="Z10" s="165"/>
+      <c r="AA10" s="165"/>
+      <c r="AB10" s="154"/>
       <c r="AC10" s="90"/>
       <c r="AD10" s="90"/>
       <c r="AE10" s="90"/>
       <c r="AF10" s="90"/>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X11" s="155" t="s">
-        <v>74</v>
-      </c>
+      <c r="X11" s="154"/>
       <c r="Y11" s="90"/>
-      <c r="Z11" s="155" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA11" s="155" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB11" s="155" t="s">
-        <v>148</v>
-      </c>
+      <c r="Z11" s="154"/>
+      <c r="AA11" s="154"/>
+      <c r="AB11" s="154"/>
       <c r="AC11" s="90"/>
       <c r="AD11" s="90"/>
       <c r="AE11" s="90"/>
       <c r="AF11" s="90"/>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X12" s="155"/>
+      <c r="X12" s="154"/>
       <c r="Y12" s="90"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="155"/>
-      <c r="AB12" s="155"/>
+      <c r="Z12" s="154"/>
+      <c r="AA12" s="154"/>
+      <c r="AB12" s="154"/>
       <c r="AC12" s="90"/>
       <c r="AD12" s="90"/>
       <c r="AE12" s="90"/>
       <c r="AF12" s="90"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X13" s="155"/>
+      <c r="X13" s="154"/>
       <c r="Y13" s="90"/>
-      <c r="Z13" s="155"/>
-      <c r="AA13" s="155"/>
-      <c r="AB13" s="155"/>
+      <c r="Z13" s="154"/>
+      <c r="AA13" s="154"/>
+      <c r="AB13" s="154"/>
       <c r="AC13" s="90"/>
       <c r="AD13" s="90"/>
       <c r="AE13" s="90"/>
       <c r="AF13" s="90"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="X14" s="155"/>
+      <c r="X14" s="154"/>
       <c r="Y14" s="90"/>
-      <c r="Z14" s="155"/>
-      <c r="AA14" s="155"/>
-      <c r="AB14" s="155"/>
+      <c r="Z14" s="154"/>
+      <c r="AA14" s="154"/>
+      <c r="AB14" s="154"/>
       <c r="AC14" s="90"/>
       <c r="AD14" s="90"/>
       <c r="AE14" s="90"/>
@@ -7683,28 +7578,28 @@
         <v>6</v>
       </c>
       <c r="E17" s="95" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F17" s="96" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" s="96" t="s">
+        <v>248</v>
+      </c>
+      <c r="I17" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="J17" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="G17" s="96" t="s">
+      <c r="K17" s="96" t="s">
         <v>251</v>
       </c>
-      <c r="H17" s="96" t="s">
-        <v>252</v>
-      </c>
-      <c r="I17" s="96" t="s">
-        <v>253</v>
-      </c>
-      <c r="J17" s="96" t="s">
-        <v>254</v>
-      </c>
-      <c r="K17" s="96" t="s">
-        <v>255</v>
-      </c>
       <c r="L17" s="96" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M17" s="95" t="s">
         <v>102</v>
@@ -7725,16 +7620,16 @@
         <v>157</v>
       </c>
       <c r="S17" s="95" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="T17" s="95" t="s">
         <v>149</v>
       </c>
       <c r="U17" s="95" t="s">
-        <v>246</v>
-      </c>
-      <c r="V17" s="156"/>
-      <c r="W17" s="156"/>
+        <v>242</v>
+      </c>
+      <c r="V17" s="155"/>
+      <c r="W17" s="155"/>
       <c r="X17" s="91" t="s">
         <v>11</v>
       </c>
@@ -7816,16 +7711,16 @@
         <v>159</v>
       </c>
       <c r="S18" s="98" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="T18" s="97" t="s">
         <v>150</v>
       </c>
       <c r="U18" s="97" t="s">
-        <v>247</v>
-      </c>
-      <c r="V18" s="157"/>
-      <c r="W18" s="157"/>
+        <v>243</v>
+      </c>
+      <c r="V18" s="156"/>
+      <c r="W18" s="156"/>
       <c r="X18" s="93" t="s">
         <v>38</v>
       </c>
@@ -7884,31 +7779,27 @@
       <c r="L19" s="100" t="s">
         <v>208</v>
       </c>
-      <c r="M19" s="100" t="s">
-        <v>208</v>
-      </c>
-      <c r="N19" s="101" t="s">
-        <v>208</v>
-      </c>
+      <c r="M19" s="100"/>
+      <c r="N19" s="101"/>
       <c r="O19" s="100" t="s">
         <v>108</v>
       </c>
       <c r="P19" s="100"/>
       <c r="Q19" s="100" t="s">
+        <v>258</v>
+      </c>
+      <c r="R19" s="100" t="s">
         <v>262</v>
       </c>
-      <c r="R19" s="100" t="s">
-        <v>266</v>
-      </c>
       <c r="S19" s="100" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="T19" s="100"/>
       <c r="U19" s="100" t="s">
-        <v>248</v>
-      </c>
-      <c r="V19" s="158"/>
-      <c r="W19" s="158"/>
+        <v>244</v>
+      </c>
+      <c r="V19" s="157"/>
+      <c r="W19" s="157"/>
       <c r="X19" s="93" t="s">
         <v>81</v>
       </c>
@@ -7938,12 +7829,12 @@
       <c r="F20" s="102">
         <v>0.59</v>
       </c>
-      <c r="G20" s="181"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="181"/>
-      <c r="K20" s="181"/>
-      <c r="L20" s="181"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="180"/>
+      <c r="L20" s="180"/>
       <c r="M20" s="103">
         <v>0.55000000000000004</v>
       </c>
@@ -7954,13 +7845,13 @@
         <v>25</v>
       </c>
       <c r="P20" s="121"/>
-      <c r="Q20" s="189">
+      <c r="Q20" s="188">
         <v>628.9</v>
       </c>
-      <c r="R20" s="190">
+      <c r="R20" s="189">
         <v>4.46</v>
       </c>
-      <c r="S20" s="190">
+      <c r="S20" s="189">
         <v>0.45</v>
       </c>
       <c r="T20" s="104">
@@ -7969,8 +7860,8 @@
       <c r="U20" s="104"/>
       <c r="V20" s="110"/>
       <c r="W20" s="110"/>
-      <c r="X20" s="146" t="s">
-        <v>218</v>
+      <c r="X20" s="145" t="s">
+        <v>215</v>
       </c>
       <c r="Z20" s="88" t="s">
         <v>141</v>
@@ -7985,10 +7876,10 @@
       <c r="AC20" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="AD20" s="155" t="s">
+      <c r="AD20" s="154" t="s">
         <v>202</v>
       </c>
-      <c r="AE20" s="155"/>
+      <c r="AE20" s="154"/>
       <c r="AF20" s="90"/>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.2">
@@ -8036,13 +7927,13 @@
         <v>25</v>
       </c>
       <c r="P21" s="121"/>
-      <c r="Q21" s="189">
+      <c r="Q21" s="188">
         <v>628.9</v>
       </c>
-      <c r="R21" s="190">
+      <c r="R21" s="189">
         <v>4.46</v>
       </c>
-      <c r="S21" s="190">
+      <c r="S21" s="189">
         <v>0.45</v>
       </c>
       <c r="T21" s="104">
@@ -8051,8 +7942,8 @@
       <c r="U21" s="104"/>
       <c r="V21" s="110"/>
       <c r="W21" s="110"/>
-      <c r="X21" s="146" t="s">
-        <v>218</v>
+      <c r="X21" s="145" t="s">
+        <v>215</v>
       </c>
       <c r="Z21" s="88" t="s">
         <v>143</v>
@@ -8067,10 +7958,10 @@
       <c r="AC21" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="AD21" s="155" t="s">
+      <c r="AD21" s="154" t="s">
         <v>202</v>
       </c>
-      <c r="AE21" s="155"/>
+      <c r="AE21" s="154"/>
       <c r="AF21" s="90"/>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.2">
@@ -8118,13 +8009,13 @@
         <v>25</v>
       </c>
       <c r="P22" s="121"/>
-      <c r="Q22" s="189">
+      <c r="Q22" s="188">
         <v>62.9</v>
       </c>
-      <c r="R22" s="190">
+      <c r="R22" s="189">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S22" s="190">
+      <c r="S22" s="189">
         <v>1.82</v>
       </c>
       <c r="T22" s="104">
@@ -8136,7 +8027,7 @@
       <c r="X22" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="Z22" s="146" t="s">
+      <c r="Z22" s="145" t="s">
         <v>151</v>
       </c>
       <c r="AA22" s="88" t="s">
@@ -8148,11 +8039,11 @@
       <c r="AC22" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="AD22" s="152" t="s">
+      <c r="AD22" s="151" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="2:32" s="142" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="94" t="str">
         <f>Z22</f>
         <v>MANELC</v>
@@ -8166,34 +8057,34 @@
         <v>MANELC</v>
       </c>
       <c r="E23" s="105"/>
-      <c r="F23" s="145">
+      <c r="F23" s="144">
         <v>1</v>
       </c>
-      <c r="G23" s="145">
+      <c r="G23" s="144">
         <v>1</v>
       </c>
-      <c r="H23" s="145">
+      <c r="H23" s="144">
         <v>1</v>
       </c>
-      <c r="I23" s="145">
+      <c r="I23" s="144">
         <v>1</v>
       </c>
-      <c r="J23" s="145">
+      <c r="J23" s="144">
         <v>1</v>
       </c>
-      <c r="K23" s="145">
+      <c r="K23" s="144">
         <v>1</v>
       </c>
-      <c r="L23" s="145">
+      <c r="L23" s="144">
         <v>1</v>
       </c>
-      <c r="M23" s="142">
+      <c r="M23" s="141">
         <v>1</v>
       </c>
-      <c r="N23" s="142">
+      <c r="N23" s="141">
         <v>1</v>
       </c>
-      <c r="O23" s="142">
+      <c r="O23" s="141">
         <v>50</v>
       </c>
       <c r="R23" s="104"/>
@@ -8202,13 +8093,13 @@
         <v>8.76</v>
       </c>
       <c r="U23" s="104"/>
-      <c r="X23" s="142" t="s">
+      <c r="X23" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="Z23" s="142" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA23" s="142" t="s">
+      <c r="Z23" s="141" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA23" s="141" t="s">
         <v>213</v>
       </c>
       <c r="AB23" s="88" t="s">
@@ -8217,26 +8108,26 @@
       <c r="AC23" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="AD23" s="152" t="s">
+      <c r="AD23" s="151" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="2:32" s="142" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="143"/>
-      <c r="D24" s="155" t="s">
-        <v>245</v>
-      </c>
-      <c r="E24" s="144"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="145"/>
-      <c r="L24" s="145"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="154" t="s">
+        <v>241</v>
+      </c>
+      <c r="E24" s="143"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
       <c r="R24" s="104"/>
       <c r="S24" s="104"/>
       <c r="T24" s="104"/>
@@ -8246,22 +8137,22 @@
       <c r="AB24" s="94"/>
       <c r="AC24" s="94"/>
     </row>
-    <row r="25" spans="2:32" s="142" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="143"/>
-      <c r="D25" s="155" t="s">
-        <v>245</v>
-      </c>
-      <c r="E25" s="144"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="145"/>
-      <c r="L25" s="145"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="154" t="s">
+        <v>241</v>
+      </c>
+      <c r="E25" s="143"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
       <c r="R25" s="104"/>
       <c r="S25" s="104"/>
       <c r="T25" s="104"/>
@@ -8271,18 +8162,18 @@
       <c r="AB25" s="94"/>
       <c r="AC25" s="94"/>
     </row>
-    <row r="26" spans="2:32" s="142" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="94"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="145"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
       <c r="R26" s="110"/>
       <c r="S26" s="110"/>
       <c r="T26" s="110"/>
@@ -8290,18 +8181,18 @@
       <c r="AB26" s="94"/>
       <c r="AC26" s="94"/>
     </row>
-    <row r="27" spans="2:32" s="142" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="94"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="145"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="144"/>
       <c r="R27" s="110"/>
       <c r="S27" s="110"/>
       <c r="T27" s="110"/>
@@ -8309,83 +8200,70 @@
       <c r="AB27" s="94"/>
       <c r="AC27" s="94"/>
     </row>
-    <row r="28" spans="2:32" s="142" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="X28" s="142" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z28" s="142" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA28" s="142" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB28" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC28" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD28" s="153"/>
-    </row>
-    <row r="29" spans="2:32" s="142" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB28" s="94"/>
+      <c r="AC28" s="94"/>
+      <c r="AD28" s="152"/>
+    </row>
+    <row r="29" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AC29" s="94"/>
     </row>
     <row r="30" spans="2:32" s="110" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="146"/>
+      <c r="B30" s="145"/>
       <c r="C30" s="90"/>
       <c r="D30" s="90"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="145"/>
-      <c r="M30" s="142"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="142"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="142"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="141"/>
+      <c r="O30" s="141"/>
+      <c r="P30" s="141"/>
+      <c r="Q30" s="141"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B31" s="146"/>
+      <c r="B31" s="145"/>
       <c r="C31" s="90"/>
       <c r="D31" s="90"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="145"/>
-      <c r="M31" s="142"/>
-      <c r="N31" s="142"/>
-      <c r="O31" s="142"/>
-      <c r="P31" s="142"/>
-      <c r="Q31" s="142"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="144"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="141"/>
+      <c r="P31" s="141"/>
+      <c r="Q31" s="141"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B32" s="146"/>
+      <c r="B32" s="145"/>
       <c r="C32" s="90"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="145"/>
-      <c r="M32" s="142"/>
-      <c r="N32" s="142"/>
-      <c r="O32" s="142"/>
-      <c r="P32" s="142"/>
-      <c r="Q32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
+      <c r="O32" s="141"/>
+      <c r="P32" s="141"/>
+      <c r="Q32" s="141"/>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="E33" s="146"/>
+      <c r="E33" s="145"/>
       <c r="F33" s="106"/>
       <c r="G33" s="106"/>
       <c r="H33" s="106"/>
@@ -8393,14 +8271,14 @@
       <c r="J33" s="106"/>
       <c r="K33" s="106"/>
       <c r="L33" s="106"/>
-      <c r="N33" s="165"/>
-      <c r="Q33" s="165"/>
+      <c r="N33" s="164"/>
+      <c r="Q33" s="164"/>
       <c r="AB33" s="90"/>
       <c r="AC33" s="90"/>
-      <c r="AD33" s="152"/>
+      <c r="AD33" s="151"/>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="E34" s="146"/>
+      <c r="E34" s="145"/>
       <c r="F34" s="106"/>
       <c r="G34" s="106"/>
       <c r="H34" s="106"/>
@@ -8408,15 +8286,15 @@
       <c r="J34" s="106"/>
       <c r="K34" s="106"/>
       <c r="L34" s="106"/>
-      <c r="N34" s="165"/>
-      <c r="Q34" s="165"/>
+      <c r="N34" s="164"/>
+      <c r="Q34" s="164"/>
       <c r="Y34" s="110"/>
       <c r="AA34" s="110"/>
       <c r="AB34" s="111"/>
       <c r="AC34" s="111"/>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="E35" s="146"/>
+      <c r="E35" s="145"/>
       <c r="F35" s="106"/>
       <c r="G35" s="106"/>
       <c r="H35" s="106"/>
@@ -8425,13 +8303,13 @@
       <c r="K35" s="106"/>
       <c r="L35" s="106"/>
       <c r="N35" s="107"/>
-      <c r="Q35" s="165"/>
+      <c r="Q35" s="164"/>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="E36" s="146"/>
+      <c r="E36" s="145"/>
       <c r="N36" s="107"/>
       <c r="O36" s="106"/>
-      <c r="Q36" s="165"/>
+      <c r="Q36" s="164"/>
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="104"/>
@@ -8454,92 +8332,70 @@
       <c r="E42" s="21"/>
     </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B45" s="94" t="str">
-        <f>Z28</f>
-        <v>PHEAT</v>
-      </c>
-      <c r="C45" s="143" t="str">
-        <f>DemTechs_INDF!D20</f>
-        <v>CEMENTHEAT</v>
-      </c>
-      <c r="D45" s="90" t="str">
-        <f>Z10</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="E45" s="144"/>
-      <c r="F45" s="145"/>
-      <c r="G45" s="145"/>
-      <c r="H45" s="145"/>
-      <c r="I45" s="145"/>
-      <c r="J45" s="145"/>
-      <c r="K45" s="145"/>
-      <c r="L45" s="145"/>
-      <c r="M45" s="142"/>
-      <c r="N45" s="142"/>
-      <c r="O45" s="142"/>
-      <c r="P45" s="142"/>
-      <c r="Q45" s="142"/>
-      <c r="R45" s="142"/>
-      <c r="S45" s="142"/>
-      <c r="T45" s="142">
-        <v>8.76</v>
-      </c>
+      <c r="B45" s="94"/>
+      <c r="C45" s="142"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="144"/>
+      <c r="K45" s="144"/>
+      <c r="L45" s="144"/>
+      <c r="M45" s="141"/>
+      <c r="N45" s="141"/>
+      <c r="O45" s="141"/>
+      <c r="P45" s="141"/>
+      <c r="Q45" s="141"/>
+      <c r="R45" s="141"/>
+      <c r="S45" s="141"/>
+      <c r="T45" s="141"/>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B46" s="94" t="str">
-        <f>Z28</f>
-        <v>PHEAT</v>
-      </c>
-      <c r="C46" s="143" t="str">
-        <f>D22</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="D46" s="90" t="str">
-        <f>Z10</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="E46" s="144"/>
-      <c r="F46" s="145"/>
-      <c r="G46" s="145"/>
-      <c r="H46" s="145"/>
-      <c r="I46" s="145"/>
-      <c r="J46" s="145"/>
-      <c r="K46" s="145"/>
-      <c r="L46" s="145"/>
-      <c r="M46" s="142"/>
-      <c r="N46" s="142"/>
-      <c r="O46" s="142"/>
-      <c r="P46" s="142"/>
-      <c r="Q46" s="142"/>
-      <c r="R46" s="142"/>
-      <c r="S46" s="142"/>
-      <c r="T46" s="142">
-        <v>8.76</v>
-      </c>
+      <c r="B46" s="94"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="144"/>
+      <c r="K46" s="144"/>
+      <c r="L46" s="144"/>
+      <c r="M46" s="141"/>
+      <c r="N46" s="141"/>
+      <c r="O46" s="141"/>
+      <c r="P46" s="141"/>
+      <c r="Q46" s="141"/>
+      <c r="R46" s="141"/>
+      <c r="S46" s="141"/>
+      <c r="T46" s="141"/>
     </row>
     <row r="50" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H50" s="179"/>
-      <c r="I50" s="180"/>
+      <c r="H50" s="178"/>
+      <c r="I50" s="179"/>
     </row>
     <row r="53" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G53" s="146"/>
-      <c r="I53" s="146"/>
+      <c r="G53" s="145"/>
+      <c r="I53" s="145"/>
     </row>
     <row r="54" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G54" s="146"/>
+      <c r="G54" s="145"/>
     </row>
     <row r="55" spans="6:9" s="94" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H55" s="144"/>
+      <c r="H55" s="143"/>
     </row>
     <row r="56" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F56" s="146"/>
-      <c r="G56" s="146"/>
+      <c r="F56" s="145"/>
+      <c r="G56" s="145"/>
     </row>
     <row r="58" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F58" s="146"/>
+      <c r="F58" s="145"/>
     </row>
     <row r="59" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F59" s="146"/>
+      <c r="F59" s="145"/>
       <c r="H59" s="105"/>
     </row>
   </sheetData>
@@ -8553,38 +8409,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
-  <dimension ref="B1:AB59"/>
+  <dimension ref="B1:U59"/>
   <sheetViews>
-    <sheetView zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="A8" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.42578125" customWidth="1"/>
-    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="22" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>75</v>
       </c>
@@ -8601,7 +8444,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>82</v>
       </c>
@@ -8616,17 +8459,14 @@
         <v>TH$2024</v>
       </c>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="K3" s="136"/>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C5" s="115" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="115"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="114" t="s">
         <v>160</v>
       </c>
@@ -8639,20 +8479,20 @@
       <c r="E6" s="114">
         <v>2022</v>
       </c>
-      <c r="Q6" s="115" t="s">
+      <c r="J6" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="V6" s="115" t="s">
+      <c r="K6" s="1"/>
+      <c r="O6" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="W6" s="1"/>
-      <c r="AA6" s="115" t="s">
+      <c r="P6" s="1"/>
+      <c r="T6" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="1"/>
-    </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="117" t="s">
         <v>81</v>
       </c>
@@ -8665,44 +8505,44 @@
       <c r="E7" s="117" t="s">
         <v>164</v>
       </c>
+      <c r="H7" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="114" t="s">
+        <v>166</v>
+      </c>
+      <c r="K7" s="114">
+        <v>2022</v>
+      </c>
+      <c r="M7" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="N7" s="114" t="s">
+        <v>0</v>
+      </c>
       <c r="O7" s="114" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" s="114">
+        <v>2022</v>
+      </c>
+      <c r="R7" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="P7" s="114" t="s">
+      <c r="S7" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="Q7" s="114" t="s">
+      <c r="T7" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="R7" s="114">
+      <c r="U7" s="114">
         <v>2022</v>
       </c>
-      <c r="T7" s="114" t="s">
-        <v>160</v>
-      </c>
-      <c r="U7" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="V7" s="114" t="s">
-        <v>166</v>
-      </c>
-      <c r="W7" s="114">
-        <v>2022</v>
-      </c>
-      <c r="Y7" s="114" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z7" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="114" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB7" s="114">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:21" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="116" t="s">
         <v>87</v>
       </c>
@@ -8711,39 +8551,39 @@
       <c r="E8" s="116" t="s">
         <v>148</v>
       </c>
-      <c r="O8" s="120" t="s">
+      <c r="H8" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="P8" s="120" t="s">
+      <c r="I8" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="120"/>
-      <c r="T8" s="120" t="s">
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="M8" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="U8" s="120" t="s">
+      <c r="N8" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="V8" s="120"/>
-      <c r="W8" s="120"/>
-      <c r="Y8" s="120" t="s">
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="R8" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="Z8" s="120" t="s">
+      <c r="S8" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="AA8" s="120"/>
-      <c r="AB8" s="120"/>
-    </row>
-    <row r="9" spans="2:28" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="176" t="s">
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+    </row>
+    <row r="9" spans="2:21" s="20" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="175" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="176" t="s">
+      <c r="C9" s="175" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="176" t="s">
+      <c r="D9" s="175" t="s">
         <v>148</v>
       </c>
       <c r="E9" s="47">
@@ -8752,46 +8592,39 @@
       </c>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
+      <c r="H9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="M9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="9"/>
       <c r="O9" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="P9" s="9"/>
+      <c r="R9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9" t="s">
+      <c r="S9" s="9"/>
+      <c r="T9" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="R9" s="9"/>
-      <c r="T9" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="U9" s="9"/>
-      <c r="V9" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="W9" s="9"/>
-      <c r="Y9" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB9" s="9"/>
-    </row>
-    <row r="10" spans="2:28" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="176" t="s">
+    </row>
+    <row r="10" spans="2:21" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="175" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="176" t="s">
+      <c r="C10" s="175" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="176" t="s">
+      <c r="D10" s="175" t="s">
         <v>148</v>
       </c>
       <c r="E10" s="47">
@@ -8800,62 +8633,55 @@
       </c>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P10" s="1" t="str">
+      <c r="H10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q10" s="146" t="s">
-        <v>221</v>
-      </c>
-      <c r="R10" s="186">
+      <c r="J10" s="145" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="185">
         <v>3.1580002137548593E-2</v>
       </c>
-      <c r="S10" s="187"/>
-      <c r="T10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U10" s="1" t="str">
+      <c r="L10" s="186"/>
+      <c r="M10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N10" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V10" s="146" t="s">
-        <v>221</v>
-      </c>
-      <c r="W10" s="186">
+      <c r="O10" s="145" t="s">
+        <v>217</v>
+      </c>
+      <c r="P10" s="185">
         <v>3.1580002137548593E-2</v>
       </c>
-      <c r="Y10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z10" s="1" t="str">
+      <c r="R10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S10" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA10" s="146" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB10" s="186">
+      <c r="T10" s="145" t="s">
+        <v>217</v>
+      </c>
+      <c r="U10" s="185">
         <v>3.1580002137548593E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:28" s="159" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="176" t="s">
+    <row r="11" spans="2:21" s="158" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="175" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="176" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="176" t="s">
+      <c r="C11" s="175" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="175" t="s">
         <v>148</v>
       </c>
       <c r="E11" s="47">
@@ -8864,2017 +8690,1993 @@
       </c>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P11" s="1" t="str">
+      <c r="H11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I11" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q11" s="177" t="s">
-        <v>222</v>
-      </c>
-      <c r="R11" s="186">
+      <c r="J11" s="176" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" s="185">
         <v>3.1850630527954941E-2</v>
       </c>
-      <c r="S11" s="188"/>
-      <c r="T11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U11" s="1" t="str">
+      <c r="L11" s="187"/>
+      <c r="M11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N11" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V11" s="177" t="s">
-        <v>222</v>
-      </c>
-      <c r="W11" s="186">
+      <c r="O11" s="176" t="s">
+        <v>218</v>
+      </c>
+      <c r="P11" s="185">
         <v>3.1850630527954941E-2</v>
       </c>
-      <c r="Y11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z11" s="1" t="str">
+      <c r="R11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S11" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA11" s="177" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB11" s="186">
+      <c r="T11" s="176" t="s">
+        <v>218</v>
+      </c>
+      <c r="U11" s="185">
         <v>3.1850630527954941E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="135"/>
       <c r="C12" s="135"/>
       <c r="D12" s="135"/>
       <c r="E12" s="135"/>
-      <c r="O12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P12" s="1" t="str">
+      <c r="H12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q12" s="146" t="s">
-        <v>223</v>
-      </c>
-      <c r="R12" s="186">
+      <c r="J12" s="145" t="s">
+        <v>219</v>
+      </c>
+      <c r="K12" s="185">
         <v>3.1481989955747081E-2</v>
       </c>
-      <c r="S12" s="185"/>
-      <c r="T12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U12" s="1" t="str">
+      <c r="L12" s="184"/>
+      <c r="M12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N12" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V12" s="146" t="s">
-        <v>223</v>
-      </c>
-      <c r="W12" s="186">
+      <c r="O12" s="145" t="s">
+        <v>219</v>
+      </c>
+      <c r="P12" s="185">
         <v>3.1481989955747081E-2</v>
       </c>
-      <c r="Y12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z12" s="1" t="str">
+      <c r="R12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S12" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA12" s="146" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB12" s="186">
+      <c r="T12" s="145" t="s">
+        <v>219</v>
+      </c>
+      <c r="U12" s="185">
         <v>3.1481989955747081E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P13" s="1" t="str">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="H13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q13" s="177" t="s">
-        <v>224</v>
-      </c>
-      <c r="R13" s="186">
+      <c r="J13" s="176" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="185">
         <v>3.1731466950130557E-2</v>
       </c>
-      <c r="S13" s="185"/>
-      <c r="T13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U13" s="1" t="str">
+      <c r="L13" s="184"/>
+      <c r="M13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N13" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V13" s="177" t="s">
-        <v>224</v>
-      </c>
-      <c r="W13" s="186">
+      <c r="O13" s="176" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="185">
         <v>3.1731466950130557E-2</v>
       </c>
-      <c r="Y13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z13" s="1" t="str">
+      <c r="R13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S13" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA13" s="177" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB13" s="186">
+      <c r="T13" s="176" t="s">
+        <v>220</v>
+      </c>
+      <c r="U13" s="185">
         <v>3.1731466950130557E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P14" s="1" t="str">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="H14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q14" s="146" t="s">
-        <v>225</v>
-      </c>
-      <c r="R14" s="186">
+      <c r="J14" s="145" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="185">
         <v>3.1860835358240212E-2</v>
       </c>
-      <c r="S14" s="185"/>
-      <c r="T14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U14" s="1" t="str">
+      <c r="L14" s="184"/>
+      <c r="M14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N14" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V14" s="146" t="s">
-        <v>225</v>
-      </c>
-      <c r="W14" s="186">
+      <c r="O14" s="145" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="185">
         <v>3.1860835358240212E-2</v>
       </c>
-      <c r="Y14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z14" s="1" t="str">
+      <c r="R14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S14" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA14" s="146" t="s">
-        <v>225</v>
-      </c>
-      <c r="AB14" s="186">
+      <c r="T14" s="145" t="s">
+        <v>221</v>
+      </c>
+      <c r="U14" s="185">
         <v>3.1860835358240212E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P15" s="1" t="str">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="H15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q15" s="177" t="s">
-        <v>226</v>
-      </c>
-      <c r="R15" s="186">
+      <c r="J15" s="176" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" s="185">
         <v>3.2394250106746E-2</v>
       </c>
-      <c r="S15" s="185"/>
-      <c r="T15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U15" s="1" t="str">
+      <c r="L15" s="184"/>
+      <c r="M15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N15" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V15" s="177" t="s">
-        <v>226</v>
-      </c>
-      <c r="W15" s="186">
+      <c r="O15" s="176" t="s">
+        <v>222</v>
+      </c>
+      <c r="P15" s="185">
         <v>3.2394250106746E-2</v>
       </c>
-      <c r="Y15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z15" s="1" t="str">
+      <c r="R15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S15" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA15" s="177" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB15" s="186">
+      <c r="T15" s="176" t="s">
+        <v>222</v>
+      </c>
+      <c r="U15" s="185">
         <v>3.2394250106746E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P16" s="1" t="str">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="H16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q16" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="R16" s="186">
+      <c r="J16" s="145" t="s">
+        <v>223</v>
+      </c>
+      <c r="K16" s="185">
         <v>3.241825303092484E-2</v>
       </c>
-      <c r="S16" s="185"/>
-      <c r="T16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U16" s="1" t="str">
+      <c r="L16" s="184"/>
+      <c r="M16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N16" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V16" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="W16" s="186">
+      <c r="O16" s="145" t="s">
+        <v>223</v>
+      </c>
+      <c r="P16" s="185">
         <v>3.241825303092484E-2</v>
       </c>
-      <c r="Y16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z16" s="1" t="str">
+      <c r="R16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S16" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA16" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB16" s="186">
+      <c r="T16" s="145" t="s">
+        <v>223</v>
+      </c>
+      <c r="U16" s="185">
         <v>3.241825303092484E-2</v>
       </c>
     </row>
-    <row r="17" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="O17" t="s">
-        <v>167</v>
-      </c>
-      <c r="P17" t="str">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q17" t="s">
-        <v>228</v>
-      </c>
-      <c r="R17" s="186">
+      <c r="J17" t="s">
+        <v>224</v>
+      </c>
+      <c r="K17" s="185">
         <v>3.5569395862328948E-2</v>
       </c>
-      <c r="S17" s="185"/>
-      <c r="T17" t="s">
-        <v>167</v>
-      </c>
-      <c r="U17" s="1" t="str">
+      <c r="L17" s="184"/>
+      <c r="M17" t="s">
+        <v>167</v>
+      </c>
+      <c r="N17" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V17" t="s">
-        <v>228</v>
-      </c>
-      <c r="W17" s="186">
+      <c r="O17" t="s">
+        <v>224</v>
+      </c>
+      <c r="P17" s="185">
         <v>3.5569395862328948E-2</v>
       </c>
-      <c r="Y17" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z17" s="1" t="str">
+      <c r="R17" t="s">
+        <v>167</v>
+      </c>
+      <c r="S17" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA17" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB17" s="186">
+      <c r="T17" t="s">
+        <v>224</v>
+      </c>
+      <c r="U17" s="185">
         <v>3.5569395862328948E-2</v>
       </c>
     </row>
-    <row r="18" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="O18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P18" s="1" t="str">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="H18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q18" s="146" t="s">
-        <v>229</v>
-      </c>
-      <c r="R18" s="186">
+      <c r="J18" s="145" t="s">
+        <v>225</v>
+      </c>
+      <c r="K18" s="185">
         <v>5.0064684062236839E-2</v>
       </c>
-      <c r="S18" s="185"/>
-      <c r="T18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U18" s="1" t="str">
+      <c r="L18" s="184"/>
+      <c r="M18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N18" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V18" s="146" t="s">
-        <v>229</v>
-      </c>
-      <c r="W18" s="186">
+      <c r="O18" s="145" t="s">
+        <v>225</v>
+      </c>
+      <c r="P18" s="185">
         <v>5.0064684062236839E-2</v>
       </c>
-      <c r="Y18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z18" s="1" t="str">
+      <c r="R18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S18" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA18" s="146" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB18" s="186">
+      <c r="T18" s="145" t="s">
+        <v>225</v>
+      </c>
+      <c r="U18" s="185">
         <v>5.0064684062236839E-2</v>
       </c>
     </row>
-    <row r="19" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="O19" t="s">
-        <v>167</v>
-      </c>
-      <c r="P19" t="str">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q19" t="s">
-        <v>230</v>
-      </c>
-      <c r="R19" s="186">
+      <c r="J19" t="s">
+        <v>226</v>
+      </c>
+      <c r="K19" s="185">
         <v>6.1132650490749271E-2</v>
       </c>
-      <c r="S19" s="185"/>
-      <c r="T19" t="s">
-        <v>167</v>
-      </c>
-      <c r="U19" s="1" t="str">
+      <c r="L19" s="184"/>
+      <c r="M19" t="s">
+        <v>167</v>
+      </c>
+      <c r="N19" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V19" t="s">
-        <v>230</v>
-      </c>
-      <c r="W19" s="186">
+      <c r="O19" t="s">
+        <v>226</v>
+      </c>
+      <c r="P19" s="185">
         <v>6.1132650490749271E-2</v>
       </c>
-      <c r="Y19" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z19" s="1" t="str">
+      <c r="R19" t="s">
+        <v>167</v>
+      </c>
+      <c r="S19" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA19" t="s">
-        <v>230</v>
-      </c>
-      <c r="AB19" s="186">
+      <c r="T19" t="s">
+        <v>226</v>
+      </c>
+      <c r="U19" s="185">
         <v>6.1132650490749271E-2</v>
       </c>
     </row>
-    <row r="20" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="O20" t="s">
-        <v>167</v>
-      </c>
-      <c r="P20" t="str">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q20" t="s">
-        <v>231</v>
-      </c>
-      <c r="R20" s="186">
+      <c r="J20" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" s="185">
         <v>6.011628522297266E-2</v>
       </c>
-      <c r="S20" s="185"/>
-      <c r="T20" t="s">
-        <v>167</v>
-      </c>
-      <c r="U20" s="1" t="str">
+      <c r="L20" s="184"/>
+      <c r="M20" t="s">
+        <v>167</v>
+      </c>
+      <c r="N20" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V20" t="s">
-        <v>231</v>
-      </c>
-      <c r="W20" s="186">
+      <c r="O20" t="s">
+        <v>227</v>
+      </c>
+      <c r="P20" s="185">
         <v>6.011628522297266E-2</v>
       </c>
-      <c r="Y20" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z20" s="1" t="str">
+      <c r="R20" t="s">
+        <v>167</v>
+      </c>
+      <c r="S20" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA20" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB20" s="186">
+      <c r="T20" t="s">
+        <v>227</v>
+      </c>
+      <c r="U20" s="185">
         <v>6.011628522297266E-2</v>
       </c>
     </row>
-    <row r="21" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="O21" t="s">
-        <v>167</v>
-      </c>
-      <c r="P21" t="str">
+    <row r="21" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q21" t="s">
-        <v>232</v>
-      </c>
-      <c r="R21" s="186">
+      <c r="J21" t="s">
+        <v>228</v>
+      </c>
+      <c r="K21" s="185">
         <v>6.2041439521472716E-2</v>
       </c>
-      <c r="S21" s="185"/>
-      <c r="T21" t="s">
-        <v>167</v>
-      </c>
-      <c r="U21" s="1" t="str">
+      <c r="L21" s="184"/>
+      <c r="M21" t="s">
+        <v>167</v>
+      </c>
+      <c r="N21" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V21" t="s">
-        <v>232</v>
-      </c>
-      <c r="W21" s="186">
+      <c r="O21" t="s">
+        <v>228</v>
+      </c>
+      <c r="P21" s="185">
         <v>6.2041439521472716E-2</v>
       </c>
-      <c r="Y21" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z21" s="1" t="str">
+      <c r="R21" t="s">
+        <v>167</v>
+      </c>
+      <c r="S21" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA21" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB21" s="186">
+      <c r="T21" t="s">
+        <v>228</v>
+      </c>
+      <c r="U21" s="185">
         <v>6.2041439521472716E-2</v>
       </c>
     </row>
-    <row r="22" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="O22" t="s">
-        <v>167</v>
-      </c>
-      <c r="P22" t="str">
+    <row r="22" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q22" t="s">
-        <v>233</v>
-      </c>
-      <c r="R22" s="186">
+      <c r="J22" t="s">
+        <v>229</v>
+      </c>
+      <c r="K22" s="185">
         <v>5.0238563001630904E-2</v>
       </c>
-      <c r="S22" s="185"/>
-      <c r="T22" t="s">
-        <v>167</v>
-      </c>
-      <c r="U22" s="1" t="str">
+      <c r="L22" s="184"/>
+      <c r="M22" t="s">
+        <v>167</v>
+      </c>
+      <c r="N22" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V22" t="s">
-        <v>233</v>
-      </c>
-      <c r="W22" s="186">
+      <c r="O22" t="s">
+        <v>229</v>
+      </c>
+      <c r="P22" s="185">
         <v>5.0238563001630904E-2</v>
       </c>
-      <c r="Y22" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z22" s="1" t="str">
+      <c r="R22" t="s">
+        <v>167</v>
+      </c>
+      <c r="S22" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA22" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB22" s="186">
+      <c r="T22" t="s">
+        <v>229</v>
+      </c>
+      <c r="U22" s="185">
         <v>5.0238563001630904E-2</v>
       </c>
     </row>
-    <row r="23" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="O23" t="s">
-        <v>167</v>
-      </c>
-      <c r="P23" t="str">
+    <row r="23" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q23" t="s">
-        <v>234</v>
-      </c>
-      <c r="R23" s="186">
+      <c r="J23" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" s="185">
         <v>5.3184386397899165E-2</v>
       </c>
-      <c r="S23" s="185"/>
-      <c r="T23" t="s">
-        <v>167</v>
-      </c>
-      <c r="U23" s="1" t="str">
+      <c r="L23" s="184"/>
+      <c r="M23" t="s">
+        <v>167</v>
+      </c>
+      <c r="N23" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V23" t="s">
-        <v>234</v>
-      </c>
-      <c r="W23" s="186">
+      <c r="O23" t="s">
+        <v>230</v>
+      </c>
+      <c r="P23" s="185">
         <v>5.3184386397899165E-2</v>
       </c>
-      <c r="Y23" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z23" s="1" t="str">
+      <c r="R23" t="s">
+        <v>167</v>
+      </c>
+      <c r="S23" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA23" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB23" s="186">
+      <c r="T23" t="s">
+        <v>230</v>
+      </c>
+      <c r="U23" s="185">
         <v>5.3184386397899165E-2</v>
       </c>
     </row>
-    <row r="24" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="O24" t="s">
-        <v>167</v>
-      </c>
-      <c r="P24" t="str">
+    <row r="24" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>167</v>
+      </c>
+      <c r="I24" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q24" t="s">
-        <v>235</v>
-      </c>
-      <c r="R24" s="186">
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" s="185">
         <v>5.7662395688403471E-2</v>
       </c>
-      <c r="S24" s="185"/>
-      <c r="T24" t="s">
-        <v>167</v>
-      </c>
-      <c r="U24" s="1" t="str">
+      <c r="L24" s="184"/>
+      <c r="M24" t="s">
+        <v>167</v>
+      </c>
+      <c r="N24" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V24" t="s">
-        <v>235</v>
-      </c>
-      <c r="W24" s="186">
+      <c r="O24" t="s">
+        <v>231</v>
+      </c>
+      <c r="P24" s="185">
         <v>5.7662395688403471E-2</v>
       </c>
-      <c r="Y24" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z24" s="1" t="str">
+      <c r="R24" t="s">
+        <v>167</v>
+      </c>
+      <c r="S24" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA24" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB24" s="186">
+      <c r="T24" t="s">
+        <v>231</v>
+      </c>
+      <c r="U24" s="185">
         <v>5.7662395688403471E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="O25" t="s">
-        <v>167</v>
-      </c>
-      <c r="P25" t="str">
+    <row r="25" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q25" t="s">
-        <v>236</v>
-      </c>
-      <c r="R25" s="186">
+      <c r="J25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" s="185">
         <v>5.8557745224525878E-2</v>
       </c>
-      <c r="S25" s="185"/>
-      <c r="T25" t="s">
-        <v>167</v>
-      </c>
-      <c r="U25" s="1" t="str">
+      <c r="L25" s="184"/>
+      <c r="M25" t="s">
+        <v>167</v>
+      </c>
+      <c r="N25" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V25" t="s">
-        <v>236</v>
-      </c>
-      <c r="W25" s="186">
+      <c r="O25" t="s">
+        <v>232</v>
+      </c>
+      <c r="P25" s="185">
         <v>5.8557745224525878E-2</v>
       </c>
-      <c r="Y25" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z25" s="1" t="str">
+      <c r="R25" t="s">
+        <v>167</v>
+      </c>
+      <c r="S25" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA25" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB25" s="186">
+      <c r="T25" t="s">
+        <v>232</v>
+      </c>
+      <c r="U25" s="185">
         <v>5.8557745224525878E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D26" s="109"/>
-      <c r="O26" t="s">
-        <v>167</v>
-      </c>
-      <c r="P26" t="str">
+      <c r="H26" t="s">
+        <v>167</v>
+      </c>
+      <c r="I26" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q26" t="s">
-        <v>237</v>
-      </c>
-      <c r="R26" s="186">
+      <c r="J26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K26" s="185">
         <v>5.4169812257972488E-2</v>
       </c>
-      <c r="S26" s="185"/>
-      <c r="T26" t="s">
-        <v>167</v>
-      </c>
-      <c r="U26" s="1" t="str">
+      <c r="L26" s="184"/>
+      <c r="M26" t="s">
+        <v>167</v>
+      </c>
+      <c r="N26" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V26" t="s">
-        <v>237</v>
-      </c>
-      <c r="W26" s="186">
+      <c r="O26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P26" s="185">
         <v>5.4169812257972488E-2</v>
       </c>
-      <c r="Y26" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z26" s="1" t="str">
+      <c r="R26" t="s">
+        <v>167</v>
+      </c>
+      <c r="S26" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA26" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB26" s="186">
+      <c r="T26" t="s">
+        <v>233</v>
+      </c>
+      <c r="U26" s="185">
         <v>5.4169812257972488E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D27" s="109"/>
       <c r="E27" s="5"/>
-      <c r="O27" t="s">
-        <v>167</v>
-      </c>
-      <c r="P27" t="str">
+      <c r="H27" t="s">
+        <v>167</v>
+      </c>
+      <c r="I27" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q27" t="s">
-        <v>238</v>
-      </c>
-      <c r="R27" s="186">
+      <c r="J27" t="s">
+        <v>234</v>
+      </c>
+      <c r="K27" s="185">
         <v>4.1857004866670537E-2</v>
       </c>
-      <c r="S27" s="185"/>
-      <c r="T27" t="s">
-        <v>167</v>
-      </c>
-      <c r="U27" s="1" t="str">
+      <c r="L27" s="184"/>
+      <c r="M27" t="s">
+        <v>167</v>
+      </c>
+      <c r="N27" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V27" t="s">
-        <v>238</v>
-      </c>
-      <c r="W27" s="186">
+      <c r="O27" t="s">
+        <v>234</v>
+      </c>
+      <c r="P27" s="185">
         <v>4.1857004866670537E-2</v>
       </c>
-      <c r="Y27" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z27" s="1" t="str">
+      <c r="R27" t="s">
+        <v>167</v>
+      </c>
+      <c r="S27" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA27" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB27" s="186">
+      <c r="T27" t="s">
+        <v>234</v>
+      </c>
+      <c r="U27" s="185">
         <v>4.1857004866670537E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D28" s="109"/>
       <c r="E28" s="109"/>
       <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="O28" t="s">
-        <v>167</v>
-      </c>
-      <c r="P28" t="str">
+      <c r="H28" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q28" t="s">
-        <v>239</v>
-      </c>
-      <c r="R28" s="186">
+      <c r="J28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" s="185">
         <v>3.3691520594468241E-2</v>
       </c>
-      <c r="S28" s="185"/>
-      <c r="T28" t="s">
-        <v>167</v>
-      </c>
-      <c r="U28" s="1" t="str">
+      <c r="L28" s="184"/>
+      <c r="M28" t="s">
+        <v>167</v>
+      </c>
+      <c r="N28" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V28" t="s">
-        <v>239</v>
-      </c>
-      <c r="W28" s="186">
+      <c r="O28" t="s">
+        <v>235</v>
+      </c>
+      <c r="P28" s="185">
         <v>3.3691520594468241E-2</v>
       </c>
-      <c r="Y28" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z28" s="1" t="str">
+      <c r="R28" t="s">
+        <v>167</v>
+      </c>
+      <c r="S28" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA28" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB28" s="186">
+      <c r="T28" t="s">
+        <v>235</v>
+      </c>
+      <c r="U28" s="185">
         <v>3.3691520594468241E-2</v>
       </c>
     </row>
-    <row r="29" spans="4:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D29" s="109"/>
       <c r="E29" s="109"/>
       <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="O29" t="s">
-        <v>167</v>
-      </c>
-      <c r="P29" t="str">
+      <c r="H29" t="s">
+        <v>167</v>
+      </c>
+      <c r="I29" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q29" t="s">
-        <v>240</v>
-      </c>
-      <c r="R29" s="186">
+      <c r="J29" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" s="185">
         <v>3.2906492752302938E-2</v>
       </c>
-      <c r="S29" s="185"/>
-      <c r="T29" t="s">
-        <v>167</v>
-      </c>
-      <c r="U29" s="1" t="str">
+      <c r="L29" s="184"/>
+      <c r="M29" t="s">
+        <v>167</v>
+      </c>
+      <c r="N29" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V29" t="s">
-        <v>240</v>
-      </c>
-      <c r="W29" s="186">
+      <c r="O29" t="s">
+        <v>236</v>
+      </c>
+      <c r="P29" s="185">
         <v>3.2906492752302938E-2</v>
       </c>
-      <c r="Y29" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z29" s="1" t="str">
+      <c r="R29" t="s">
+        <v>167</v>
+      </c>
+      <c r="S29" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA29" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB29" s="186">
+      <c r="T29" t="s">
+        <v>236</v>
+      </c>
+      <c r="U29" s="185">
         <v>3.2906492752302938E-2</v>
       </c>
     </row>
-    <row r="30" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="O30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P30" s="1" t="str">
+    <row r="30" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="H30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I30" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q30" s="146" t="s">
-        <v>241</v>
-      </c>
-      <c r="R30" s="186">
+      <c r="J30" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="K30" s="185">
         <v>3.20626233861286E-2</v>
       </c>
-      <c r="S30" s="185"/>
-      <c r="T30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U30" s="1" t="str">
+      <c r="L30" s="184"/>
+      <c r="M30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N30" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V30" s="146" t="s">
-        <v>241</v>
-      </c>
-      <c r="W30" s="186">
+      <c r="O30" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="P30" s="185">
         <v>3.20626233861286E-2</v>
       </c>
-      <c r="Y30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z30" s="1" t="str">
+      <c r="R30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S30" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA30" s="146" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB30" s="186">
+      <c r="T30" s="145" t="s">
+        <v>237</v>
+      </c>
+      <c r="U30" s="185">
         <v>3.20626233861286E-2</v>
       </c>
     </row>
-    <row r="31" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="O31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P31" s="1" t="str">
+    <row r="31" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="H31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I31" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q31" s="177" t="s">
-        <v>242</v>
-      </c>
-      <c r="R31" s="186">
+      <c r="J31" s="176" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" s="185">
         <v>3.1700774081405016E-2</v>
       </c>
-      <c r="S31" s="185"/>
-      <c r="T31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U31" s="1" t="str">
+      <c r="L31" s="184"/>
+      <c r="M31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N31" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V31" s="177" t="s">
-        <v>242</v>
-      </c>
-      <c r="W31" s="186">
+      <c r="O31" s="176" t="s">
+        <v>238</v>
+      </c>
+      <c r="P31" s="185">
         <v>3.1700774081405016E-2</v>
       </c>
-      <c r="Y31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z31" s="1" t="str">
+      <c r="R31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S31" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA31" s="177" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB31" s="186">
+      <c r="T31" s="176" t="s">
+        <v>238</v>
+      </c>
+      <c r="U31" s="185">
         <v>3.1700774081405016E-2</v>
       </c>
     </row>
-    <row r="32" spans="4:28" x14ac:dyDescent="0.2">
-      <c r="E32" s="5">
-        <f>EBF!J19</f>
-        <v>150.60848427090019</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P32" s="1" t="str">
+    <row r="32" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="E32" s="5"/>
+      <c r="H32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I32" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q32" s="146" t="s">
-        <v>243</v>
-      </c>
-      <c r="R32" s="186">
+      <c r="J32" s="145" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" s="185">
         <v>3.0548494068914959E-2</v>
       </c>
-      <c r="S32" s="185"/>
-      <c r="T32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U32" s="1" t="str">
+      <c r="L32" s="184"/>
+      <c r="M32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N32" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V32" s="146" t="s">
-        <v>243</v>
-      </c>
-      <c r="W32" s="186">
+      <c r="O32" s="145" t="s">
+        <v>239</v>
+      </c>
+      <c r="P32" s="185">
         <v>3.0548494068914959E-2</v>
       </c>
-      <c r="Y32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z32" s="1" t="str">
+      <c r="R32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S32" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA32" s="146" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB32" s="186">
+      <c r="T32" s="145" t="s">
+        <v>239</v>
+      </c>
+      <c r="U32" s="185">
         <v>3.0548494068914959E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
-      <c r="E33" s="5">
-        <f>EBF!E19</f>
-        <v>8781.4640358504003</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P33" s="1" t="str">
+      <c r="E33" s="5"/>
+      <c r="H33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I33" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q33" s="177" t="s">
-        <v>244</v>
-      </c>
-      <c r="R33" s="186">
+      <c r="J33" s="176" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" s="185">
         <v>3.117830445262517E-2</v>
       </c>
-      <c r="S33" s="185"/>
-      <c r="T33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U33" s="1" t="str">
+      <c r="L33" s="184"/>
+      <c r="M33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N33" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V33" s="177" t="s">
-        <v>244</v>
-      </c>
-      <c r="W33" s="186">
+      <c r="O33" s="176" t="s">
+        <v>240</v>
+      </c>
+      <c r="P33" s="185">
         <v>3.117830445262517E-2</v>
       </c>
-      <c r="Y33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z33" s="1" t="str">
+      <c r="R33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S33" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA33" s="177" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB33" s="186">
+      <c r="T33" s="176" t="s">
+        <v>240</v>
+      </c>
+      <c r="U33" s="185">
         <v>3.117830445262517E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
-      <c r="O34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P34" s="1" t="str">
+      <c r="H34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I34" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="J34" t="s">
         <v>168</v>
       </c>
-      <c r="R34" s="186">
+      <c r="K34" s="185">
         <v>3.1580002137548593E-2</v>
       </c>
-      <c r="T34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U34" s="1" t="str">
+      <c r="M34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N34" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V34" t="s">
+      <c r="O34" t="s">
         <v>168</v>
       </c>
-      <c r="W34" s="186">
+      <c r="P34" s="185">
         <v>3.1580002137548593E-2</v>
       </c>
-      <c r="Y34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z34" s="1" t="str">
+      <c r="R34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S34" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="T34" t="s">
         <v>168</v>
       </c>
-      <c r="AB34" s="186">
+      <c r="U34" s="185">
         <v>3.1580002137548593E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O35" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P35" s="1" t="str">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="H35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I35" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="J35" t="s">
         <v>169</v>
       </c>
-      <c r="R35" s="186">
+      <c r="K35" s="185">
         <v>3.1850630527954941E-2</v>
       </c>
-      <c r="T35" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U35" s="1" t="str">
+      <c r="M35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N35" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V35" t="s">
+      <c r="O35" t="s">
         <v>169</v>
       </c>
-      <c r="W35" s="186">
+      <c r="P35" s="185">
         <v>3.1850630527954941E-2</v>
       </c>
-      <c r="Y35" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z35" s="1" t="str">
+      <c r="R35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S35" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="T35" t="s">
         <v>169</v>
       </c>
-      <c r="AB35" s="186">
+      <c r="U35" s="185">
         <v>3.1850630527954941E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" s="118"/>
       <c r="C36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="O36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P36" s="1" t="str">
+      <c r="H36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="J36" t="s">
         <v>170</v>
       </c>
-      <c r="R36" s="186">
+      <c r="K36" s="185">
         <v>3.1481989955747081E-2</v>
       </c>
-      <c r="T36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U36" s="1" t="str">
+      <c r="M36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N36" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V36" t="s">
+      <c r="O36" t="s">
         <v>170</v>
       </c>
-      <c r="W36" s="186">
+      <c r="P36" s="185">
         <v>3.1481989955747081E-2</v>
       </c>
-      <c r="Y36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z36" s="1" t="str">
+      <c r="R36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S36" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="T36" t="s">
         <v>170</v>
       </c>
-      <c r="AB36" s="186">
+      <c r="U36" s="185">
         <v>3.1481989955747081E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="47"/>
       <c r="C37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="O37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P37" s="1" t="str">
+      <c r="H37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I37" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="J37" t="s">
         <v>171</v>
       </c>
-      <c r="R37" s="186">
+      <c r="K37" s="185">
         <v>3.1731466950130557E-2</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U37" s="1" t="str">
+      <c r="M37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N37" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V37" t="s">
+      <c r="O37" t="s">
         <v>171</v>
       </c>
-      <c r="W37" s="186">
+      <c r="P37" s="185">
         <v>3.1731466950130557E-2</v>
       </c>
-      <c r="Y37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z37" s="1" t="str">
+      <c r="R37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S37" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="T37" t="s">
         <v>171</v>
       </c>
-      <c r="AB37" s="186">
+      <c r="U37" s="185">
         <v>3.1731466950130557E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P38" s="1" t="str">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="H38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I38" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="J38" t="s">
         <v>172</v>
       </c>
-      <c r="R38" s="186">
+      <c r="K38" s="185">
         <v>3.1860835358240212E-2</v>
       </c>
-      <c r="T38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U38" s="1" t="str">
+      <c r="M38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N38" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V38" t="s">
+      <c r="O38" t="s">
         <v>172</v>
       </c>
-      <c r="W38" s="186">
+      <c r="P38" s="185">
         <v>3.1860835358240212E-2</v>
       </c>
-      <c r="Y38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z38" s="1" t="str">
+      <c r="R38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S38" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="T38" t="s">
         <v>172</v>
       </c>
-      <c r="AB38" s="186">
+      <c r="U38" s="185">
         <v>3.1860835358240212E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P39" s="1" t="str">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="H39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I39" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="J39" t="s">
         <v>173</v>
       </c>
-      <c r="R39" s="186">
+      <c r="K39" s="185">
         <v>3.2394250106746E-2</v>
       </c>
-      <c r="T39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U39" s="1" t="str">
+      <c r="M39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N39" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V39" t="s">
+      <c r="O39" t="s">
         <v>173</v>
       </c>
-      <c r="W39" s="186">
+      <c r="P39" s="185">
         <v>3.2394250106746E-2</v>
       </c>
-      <c r="Y39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z39" s="1" t="str">
+      <c r="R39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S39" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="T39" t="s">
         <v>173</v>
       </c>
-      <c r="AB39" s="186">
+      <c r="U39" s="185">
         <v>3.2394250106746E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P40" s="1" t="str">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="H40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I40" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="J40" t="s">
         <v>174</v>
       </c>
-      <c r="R40" s="186">
+      <c r="K40" s="185">
         <v>3.241825303092484E-2</v>
       </c>
-      <c r="T40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U40" s="1" t="str">
+      <c r="M40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N40" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V40" t="s">
+      <c r="O40" t="s">
         <v>174</v>
       </c>
-      <c r="W40" s="186">
+      <c r="P40" s="185">
         <v>3.241825303092484E-2</v>
       </c>
-      <c r="Y40" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z40" s="1" t="str">
+      <c r="R40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S40" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="T40" t="s">
         <v>174</v>
       </c>
-      <c r="AB40" s="186">
+      <c r="U40" s="185">
         <v>3.241825303092484E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P41" s="1" t="str">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="H41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I41" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="J41" t="s">
         <v>175</v>
       </c>
-      <c r="R41" s="186">
+      <c r="K41" s="185">
         <v>3.5569395862328948E-2</v>
       </c>
-      <c r="T41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U41" s="1" t="str">
+      <c r="M41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N41" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V41" t="s">
+      <c r="O41" t="s">
         <v>175</v>
       </c>
-      <c r="W41" s="186">
+      <c r="P41" s="185">
         <v>3.5569395862328948E-2</v>
       </c>
-      <c r="Y41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z41" s="1" t="str">
+      <c r="R41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S41" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="T41" t="s">
         <v>175</v>
       </c>
-      <c r="AB41" s="186">
+      <c r="U41" s="185">
         <v>3.5569395862328948E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P42" s="1" t="str">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="H42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I42" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="J42" t="s">
         <v>176</v>
       </c>
-      <c r="R42" s="186">
+      <c r="K42" s="185">
         <v>5.0064684062236839E-2</v>
       </c>
-      <c r="T42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U42" s="1" t="str">
+      <c r="M42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N42" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V42" t="s">
+      <c r="O42" t="s">
         <v>176</v>
       </c>
-      <c r="W42" s="186">
+      <c r="P42" s="185">
         <v>5.0064684062236839E-2</v>
       </c>
-      <c r="Y42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z42" s="1" t="str">
+      <c r="R42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S42" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="T42" t="s">
         <v>176</v>
       </c>
-      <c r="AB42" s="186">
+      <c r="U42" s="185">
         <v>5.0064684062236839E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O43" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P43" s="1" t="str">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="H43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I43" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="J43" t="s">
         <v>177</v>
       </c>
-      <c r="R43" s="186">
+      <c r="K43" s="185">
         <v>6.1132650490749271E-2</v>
       </c>
-      <c r="T43" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U43" s="1" t="str">
+      <c r="M43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N43" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V43" t="s">
+      <c r="O43" t="s">
         <v>177</v>
       </c>
-      <c r="W43" s="186">
+      <c r="P43" s="185">
         <v>6.1132650490749271E-2</v>
       </c>
-      <c r="Y43" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z43" s="1" t="str">
+      <c r="R43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S43" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="T43" t="s">
         <v>177</v>
       </c>
-      <c r="AB43" s="186">
+      <c r="U43" s="185">
         <v>6.1132650490749271E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P44" s="1" t="str">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="H44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I44" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="J44" t="s">
         <v>178</v>
       </c>
-      <c r="R44" s="186">
+      <c r="K44" s="185">
         <v>6.011628522297266E-2</v>
       </c>
-      <c r="T44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U44" s="1" t="str">
+      <c r="M44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N44" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V44" t="s">
+      <c r="O44" t="s">
         <v>178</v>
       </c>
-      <c r="W44" s="186">
+      <c r="P44" s="185">
         <v>6.011628522297266E-2</v>
       </c>
-      <c r="Y44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z44" s="1" t="str">
+      <c r="R44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S44" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="T44" t="s">
         <v>178</v>
       </c>
-      <c r="AB44" s="186">
+      <c r="U44" s="185">
         <v>6.011628522297266E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P45" s="1" t="str">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="H45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I45" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="J45" t="s">
         <v>179</v>
       </c>
-      <c r="R45" s="186">
+      <c r="K45" s="185">
         <v>6.2041439521472716E-2</v>
       </c>
-      <c r="T45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U45" s="1" t="str">
+      <c r="M45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N45" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V45" t="s">
+      <c r="O45" t="s">
         <v>179</v>
       </c>
-      <c r="W45" s="186">
+      <c r="P45" s="185">
         <v>6.2041439521472716E-2</v>
       </c>
-      <c r="Y45" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z45" s="1" t="str">
+      <c r="R45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S45" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="T45" t="s">
         <v>179</v>
       </c>
-      <c r="AB45" s="186">
+      <c r="U45" s="185">
         <v>6.2041439521472716E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O46" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P46" s="1" t="str">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="H46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I46" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="J46" t="s">
         <v>180</v>
       </c>
-      <c r="R46" s="186">
+      <c r="K46" s="185">
         <v>5.0238563001630904E-2</v>
       </c>
-      <c r="T46" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U46" s="1" t="str">
+      <c r="M46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N46" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V46" t="s">
+      <c r="O46" t="s">
         <v>180</v>
       </c>
-      <c r="W46" s="186">
+      <c r="P46" s="185">
         <v>5.0238563001630904E-2</v>
       </c>
-      <c r="Y46" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z46" s="1" t="str">
+      <c r="R46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S46" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="T46" t="s">
         <v>180</v>
       </c>
-      <c r="AB46" s="186">
+      <c r="U46" s="185">
         <v>5.0238563001630904E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O47" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P47" s="1" t="str">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="H47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I47" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="J47" t="s">
         <v>181</v>
       </c>
-      <c r="R47" s="186">
+      <c r="K47" s="185">
         <v>5.3184386397899165E-2</v>
       </c>
-      <c r="T47" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U47" s="1" t="str">
+      <c r="M47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N47" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V47" t="s">
+      <c r="O47" t="s">
         <v>181</v>
       </c>
-      <c r="W47" s="186">
+      <c r="P47" s="185">
         <v>5.3184386397899165E-2</v>
       </c>
-      <c r="Y47" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z47" s="1" t="str">
+      <c r="R47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S47" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="T47" t="s">
         <v>181</v>
       </c>
-      <c r="AB47" s="186">
+      <c r="U47" s="185">
         <v>5.3184386397899165E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="O48" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P48" s="1" t="str">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="H48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I48" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="J48" t="s">
         <v>182</v>
       </c>
-      <c r="R48" s="186">
+      <c r="K48" s="185">
         <v>5.7662395688403471E-2</v>
       </c>
-      <c r="T48" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U48" s="1" t="str">
+      <c r="M48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N48" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V48" t="s">
+      <c r="O48" t="s">
         <v>182</v>
       </c>
-      <c r="W48" s="186">
+      <c r="P48" s="185">
         <v>5.7662395688403471E-2</v>
       </c>
-      <c r="Y48" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z48" s="1" t="str">
+      <c r="R48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S48" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="T48" t="s">
         <v>182</v>
       </c>
-      <c r="AB48" s="186">
+      <c r="U48" s="185">
         <v>5.7662395688403471E-2</v>
       </c>
     </row>
-    <row r="49" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P49" s="1" t="str">
+    <row r="49" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I49" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="J49" t="s">
         <v>183</v>
       </c>
-      <c r="R49" s="186">
+      <c r="K49" s="185">
         <v>5.8557745224525878E-2</v>
       </c>
-      <c r="T49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U49" s="1" t="str">
+      <c r="M49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N49" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V49" t="s">
+      <c r="O49" t="s">
         <v>183</v>
       </c>
-      <c r="W49" s="186">
+      <c r="P49" s="185">
         <v>5.8557745224525878E-2</v>
       </c>
-      <c r="Y49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z49" s="1" t="str">
+      <c r="R49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S49" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="T49" t="s">
         <v>183</v>
       </c>
-      <c r="AB49" s="186">
+      <c r="U49" s="185">
         <v>5.8557745224525878E-2</v>
       </c>
     </row>
-    <row r="50" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P50" s="1" t="str">
+    <row r="50" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I50" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="J50" t="s">
         <v>184</v>
       </c>
-      <c r="R50" s="186">
+      <c r="K50" s="185">
         <v>5.4169812257972488E-2</v>
       </c>
-      <c r="T50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U50" s="1" t="str">
+      <c r="M50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N50" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V50" t="s">
+      <c r="O50" t="s">
         <v>184</v>
       </c>
-      <c r="W50" s="186">
+      <c r="P50" s="185">
         <v>5.4169812257972488E-2</v>
       </c>
-      <c r="Y50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z50" s="1" t="str">
+      <c r="R50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S50" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="T50" t="s">
         <v>184</v>
       </c>
-      <c r="AB50" s="186">
+      <c r="U50" s="185">
         <v>5.4169812257972488E-2</v>
       </c>
     </row>
-    <row r="51" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P51" s="1" t="str">
+    <row r="51" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I51" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="J51" t="s">
         <v>185</v>
       </c>
-      <c r="R51" s="186">
+      <c r="K51" s="185">
         <v>4.1857004866670537E-2</v>
       </c>
-      <c r="T51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U51" s="1" t="str">
+      <c r="M51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N51" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V51" t="s">
+      <c r="O51" t="s">
         <v>185</v>
       </c>
-      <c r="W51" s="186">
+      <c r="P51" s="185">
         <v>4.1857004866670537E-2</v>
       </c>
-      <c r="Y51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z51" s="1" t="str">
+      <c r="R51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S51" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="T51" t="s">
         <v>185</v>
       </c>
-      <c r="AB51" s="186">
+      <c r="U51" s="185">
         <v>4.1857004866670537E-2</v>
       </c>
     </row>
-    <row r="52" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P52" s="1" t="str">
+    <row r="52" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I52" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="J52" t="s">
         <v>186</v>
       </c>
-      <c r="R52" s="186">
+      <c r="K52" s="185">
         <v>3.3691520594468241E-2</v>
       </c>
-      <c r="T52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U52" s="1" t="str">
+      <c r="M52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N52" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V52" t="s">
+      <c r="O52" t="s">
         <v>186</v>
       </c>
-      <c r="W52" s="186">
+      <c r="P52" s="185">
         <v>3.3691520594468241E-2</v>
       </c>
-      <c r="Y52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z52" s="1" t="str">
+      <c r="R52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S52" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="T52" t="s">
         <v>186</v>
       </c>
-      <c r="AB52" s="186">
+      <c r="U52" s="185">
         <v>3.3691520594468241E-2</v>
       </c>
     </row>
-    <row r="53" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O53" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P53" s="1" t="str">
+    <row r="53" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I53" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="J53" t="s">
         <v>187</v>
       </c>
-      <c r="R53" s="186">
+      <c r="K53" s="185">
         <v>3.2906492752302938E-2</v>
       </c>
-      <c r="T53" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U53" s="1" t="str">
+      <c r="M53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N53" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V53" t="s">
+      <c r="O53" t="s">
         <v>187</v>
       </c>
-      <c r="W53" s="186">
+      <c r="P53" s="185">
         <v>3.2906492752302938E-2</v>
       </c>
-      <c r="Y53" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z53" s="1" t="str">
+      <c r="R53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S53" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="T53" t="s">
         <v>187</v>
       </c>
-      <c r="AB53" s="186">
+      <c r="U53" s="185">
         <v>3.2906492752302938E-2</v>
       </c>
     </row>
-    <row r="54" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O54" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P54" s="1" t="str">
+    <row r="54" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I54" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="J54" t="s">
         <v>188</v>
       </c>
-      <c r="R54" s="186">
+      <c r="K54" s="185">
         <v>3.20626233861286E-2</v>
       </c>
-      <c r="T54" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U54" s="1" t="str">
+      <c r="M54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N54" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V54" t="s">
+      <c r="O54" t="s">
         <v>188</v>
       </c>
-      <c r="W54" s="186">
+      <c r="P54" s="185">
         <v>3.20626233861286E-2</v>
       </c>
-      <c r="Y54" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z54" s="1" t="str">
+      <c r="R54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S54" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="T54" t="s">
         <v>188</v>
       </c>
-      <c r="AB54" s="186">
+      <c r="U54" s="185">
         <v>3.20626233861286E-2</v>
       </c>
     </row>
-    <row r="55" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P55" s="1" t="str">
+    <row r="55" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I55" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="J55" t="s">
         <v>189</v>
       </c>
-      <c r="R55" s="186">
+      <c r="K55" s="185">
         <v>3.1700774081405016E-2</v>
       </c>
-      <c r="T55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U55" s="1" t="str">
+      <c r="M55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N55" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V55" t="s">
+      <c r="O55" t="s">
         <v>189</v>
       </c>
-      <c r="W55" s="186">
+      <c r="P55" s="185">
         <v>3.1700774081405016E-2</v>
       </c>
-      <c r="Y55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z55" s="1" t="str">
+      <c r="R55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S55" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="T55" t="s">
         <v>189</v>
       </c>
-      <c r="AB55" s="186">
+      <c r="U55" s="185">
         <v>3.1700774081405016E-2</v>
       </c>
     </row>
-    <row r="56" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P56" s="1" t="str">
+    <row r="56" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I56" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="J56" t="s">
         <v>190</v>
       </c>
-      <c r="R56" s="186">
+      <c r="K56" s="185">
         <v>3.0548494068914959E-2</v>
       </c>
-      <c r="T56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U56" s="1" t="str">
+      <c r="M56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N56" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V56" t="s">
+      <c r="O56" t="s">
         <v>190</v>
       </c>
-      <c r="W56" s="186">
+      <c r="P56" s="185">
         <v>3.0548494068914959E-2</v>
       </c>
-      <c r="Y56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z56" s="1" t="str">
+      <c r="R56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S56" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="T56" t="s">
         <v>190</v>
       </c>
-      <c r="AB56" s="186">
+      <c r="U56" s="185">
         <v>3.0548494068914959E-2</v>
       </c>
     </row>
-    <row r="57" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O57" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P57" s="1" t="str">
+    <row r="57" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I57" s="1" t="str">
         <f>DemTechs_INDF!Z$6</f>
         <v>MANELC</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="J57" t="s">
         <v>191</v>
       </c>
-      <c r="R57" s="186">
+      <c r="K57" s="185">
         <v>3.117830445262517E-2</v>
       </c>
-      <c r="T57" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U57" s="1" t="str">
+      <c r="M57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N57" s="1" t="str">
         <f>DemTechs_INDF!Z$5</f>
         <v>MANHEAT</v>
       </c>
-      <c r="V57" t="s">
+      <c r="O57" t="s">
         <v>191</v>
       </c>
-      <c r="W57" s="186">
+      <c r="P57" s="185">
         <v>3.117830445262517E-2</v>
       </c>
-      <c r="Y57" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z57" s="1" t="str">
+      <c r="R57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S57" s="1" t="str">
         <f>DemTechs_INDF!Z$8</f>
         <v>CEMENTHEAT</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="T57" t="s">
         <v>191</v>
       </c>
-      <c r="AB57" s="186">
+      <c r="U57" s="185">
         <v>3.117830445262517E-2</v>
       </c>
     </row>
-    <row r="58" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="O58" s="1"/>
-      <c r="P58" s="138"/>
-      <c r="Q58" s="138"/>
-      <c r="R58" s="182"/>
-    </row>
-    <row r="59" spans="15:28" x14ac:dyDescent="0.2">
-      <c r="R59" s="138"/>
+    <row r="58" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="H58" s="1"/>
+      <c r="I58" s="137"/>
+      <c r="J58" s="137"/>
+      <c r="K58" s="181"/>
+    </row>
+    <row r="59" spans="8:21" x14ac:dyDescent="0.2">
+      <c r="K59" s="137"/>
     </row>
   </sheetData>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10882,7 +10684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E959CB-7164-414F-B6F7-22B95D131062}">
   <dimension ref="B3:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -10964,13 +10766,13 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{39A858FD-F737-4F32-9E7E-F07CAE2559F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD612D1A-00E9-42E9-A695-CA19DCEAB02D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695CB326-1C9F-4FDF-8009-B92C838E177A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -3983,10 +3983,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4338,7 +4334,7 @@
   <dimension ref="B1:R67"/>
   <sheetViews>
     <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5066,7 +5062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView topLeftCell="C9" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -6263,8 +6259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7192,8 +7188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView topLeftCell="F9" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="P15" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8411,8 +8407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:U59"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A15" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34:U57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8424,7 +8420,15 @@
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="22" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="7.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="7.5703125" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="15" x14ac:dyDescent="0.25">
@@ -8644,7 +8648,7 @@
         <v>217</v>
       </c>
       <c r="K10" s="185">
-        <v>3.1580002137548593E-2</v>
+        <v>3.3566276423652626E-2</v>
       </c>
       <c r="L10" s="186"/>
       <c r="M10" s="1" t="s">
@@ -8658,7 +8662,7 @@
         <v>217</v>
       </c>
       <c r="P10" s="185">
-        <v>3.1580002137548593E-2</v>
+        <v>3.3566276423652626E-2</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>167</v>
@@ -8671,7 +8675,7 @@
         <v>217</v>
       </c>
       <c r="U10" s="185">
-        <v>3.1580002137548593E-2</v>
+        <v>3.3566276423652626E-2</v>
       </c>
     </row>
     <row r="11" spans="2:21" s="158" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -8701,7 +8705,7 @@
         <v>218</v>
       </c>
       <c r="K11" s="185">
-        <v>3.1850630527954941E-2</v>
+        <v>3.3302706089073604E-2</v>
       </c>
       <c r="L11" s="187"/>
       <c r="M11" s="1" t="s">
@@ -8715,7 +8719,7 @@
         <v>218</v>
       </c>
       <c r="P11" s="185">
-        <v>3.1850630527954941E-2</v>
+        <v>3.3302706089073604E-2</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>167</v>
@@ -8728,7 +8732,7 @@
         <v>218</v>
       </c>
       <c r="U11" s="185">
-        <v>3.1850630527954941E-2</v>
+        <v>3.3302706089073604E-2</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
@@ -8747,7 +8751,7 @@
         <v>219</v>
       </c>
       <c r="K12" s="185">
-        <v>3.1481989955747081E-2</v>
+        <v>3.3481814338032219E-2</v>
       </c>
       <c r="L12" s="184"/>
       <c r="M12" s="1" t="s">
@@ -8761,7 +8765,7 @@
         <v>219</v>
       </c>
       <c r="P12" s="185">
-        <v>3.1481989955747081E-2</v>
+        <v>3.3481814338032219E-2</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>167</v>
@@ -8774,7 +8778,7 @@
         <v>219</v>
       </c>
       <c r="U12" s="185">
-        <v>3.1481989955747081E-2</v>
+        <v>3.3481814338032219E-2</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
@@ -8789,7 +8793,7 @@
         <v>220</v>
       </c>
       <c r="K13" s="185">
-        <v>3.1731466950130557E-2</v>
+        <v>3.3611381763990082E-2</v>
       </c>
       <c r="L13" s="184"/>
       <c r="M13" s="1" t="s">
@@ -8803,7 +8807,7 @@
         <v>220</v>
       </c>
       <c r="P13" s="185">
-        <v>3.1731466950130557E-2</v>
+        <v>3.3611381763990082E-2</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>167</v>
@@ -8816,7 +8820,7 @@
         <v>220</v>
       </c>
       <c r="U13" s="185">
-        <v>3.1731466950130557E-2</v>
+        <v>3.3611381763990082E-2</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
@@ -8831,7 +8835,7 @@
         <v>221</v>
       </c>
       <c r="K14" s="185">
-        <v>3.1860835358240212E-2</v>
+        <v>3.4004820718610197E-2</v>
       </c>
       <c r="L14" s="184"/>
       <c r="M14" s="1" t="s">
@@ -8845,7 +8849,7 @@
         <v>221</v>
       </c>
       <c r="P14" s="185">
-        <v>3.1860835358240212E-2</v>
+        <v>3.4004820718610197E-2</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>167</v>
@@ -8858,7 +8862,7 @@
         <v>221</v>
       </c>
       <c r="U14" s="185">
-        <v>3.1860835358240212E-2</v>
+        <v>3.4004820718610197E-2</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
@@ -8873,7 +8877,7 @@
         <v>222</v>
       </c>
       <c r="K15" s="185">
-        <v>3.2394250106746E-2</v>
+        <v>3.4081384083392653E-2</v>
       </c>
       <c r="L15" s="184"/>
       <c r="M15" s="1" t="s">
@@ -8887,7 +8891,7 @@
         <v>222</v>
       </c>
       <c r="P15" s="185">
-        <v>3.2394250106746E-2</v>
+        <v>3.4081384083392653E-2</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>167</v>
@@ -8900,7 +8904,7 @@
         <v>222</v>
       </c>
       <c r="U15" s="185">
-        <v>3.2394250106746E-2</v>
+        <v>3.4081384083392653E-2</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
@@ -8915,7 +8919,7 @@
         <v>223</v>
       </c>
       <c r="K16" s="185">
-        <v>3.241825303092484E-2</v>
+        <v>3.3156795624830704E-2</v>
       </c>
       <c r="L16" s="184"/>
       <c r="M16" s="1" t="s">
@@ -8929,7 +8933,7 @@
         <v>223</v>
       </c>
       <c r="P16" s="185">
-        <v>3.241825303092484E-2</v>
+        <v>3.3156795624830704E-2</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>167</v>
@@ -8942,7 +8946,7 @@
         <v>223</v>
       </c>
       <c r="U16" s="185">
-        <v>3.241825303092484E-2</v>
+        <v>3.3156795624830704E-2</v>
       </c>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.2">
@@ -8957,7 +8961,7 @@
         <v>224</v>
       </c>
       <c r="K17" s="185">
-        <v>3.5569395862328948E-2</v>
+        <v>3.6518070997817571E-2</v>
       </c>
       <c r="L17" s="184"/>
       <c r="M17" t="s">
@@ -8971,7 +8975,7 @@
         <v>224</v>
       </c>
       <c r="P17" s="185">
-        <v>3.5569395862328948E-2</v>
+        <v>3.6518070997817571E-2</v>
       </c>
       <c r="R17" t="s">
         <v>167</v>
@@ -8984,7 +8988,7 @@
         <v>224</v>
       </c>
       <c r="U17" s="185">
-        <v>3.5569395862328948E-2</v>
+        <v>3.6518070997817571E-2</v>
       </c>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.2">
@@ -8999,7 +9003,7 @@
         <v>225</v>
       </c>
       <c r="K18" s="185">
-        <v>5.0064684062236839E-2</v>
+        <v>4.7257353018906531E-2</v>
       </c>
       <c r="L18" s="184"/>
       <c r="M18" s="1" t="s">
@@ -9013,7 +9017,7 @@
         <v>225</v>
       </c>
       <c r="P18" s="185">
-        <v>5.0064684062236839E-2</v>
+        <v>4.7257353018906531E-2</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>167</v>
@@ -9026,7 +9030,7 @@
         <v>225</v>
       </c>
       <c r="U18" s="185">
-        <v>5.0064684062236839E-2</v>
+        <v>4.7257353018906531E-2</v>
       </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.2">
@@ -9041,7 +9045,7 @@
         <v>226</v>
       </c>
       <c r="K19" s="185">
-        <v>6.1132650490749271E-2</v>
+        <v>5.6756578785819259E-2</v>
       </c>
       <c r="L19" s="184"/>
       <c r="M19" t="s">
@@ -9055,7 +9059,7 @@
         <v>226</v>
       </c>
       <c r="P19" s="185">
-        <v>6.1132650490749271E-2</v>
+        <v>5.6756578785819259E-2</v>
       </c>
       <c r="R19" t="s">
         <v>167</v>
@@ -9068,7 +9072,7 @@
         <v>226</v>
       </c>
       <c r="U19" s="185">
-        <v>6.1132650490749271E-2</v>
+        <v>5.6756578785819259E-2</v>
       </c>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.2">
@@ -9083,7 +9087,7 @@
         <v>227</v>
       </c>
       <c r="K20" s="185">
-        <v>6.011628522297266E-2</v>
+        <v>5.5715023853427123E-2</v>
       </c>
       <c r="L20" s="184"/>
       <c r="M20" t="s">
@@ -9097,7 +9101,7 @@
         <v>227</v>
       </c>
       <c r="P20" s="185">
-        <v>6.011628522297266E-2</v>
+        <v>5.5715023853427123E-2</v>
       </c>
       <c r="R20" t="s">
         <v>167</v>
@@ -9110,7 +9114,7 @@
         <v>227</v>
       </c>
       <c r="U20" s="185">
-        <v>6.011628522297266E-2</v>
+        <v>5.5715023853427123E-2</v>
       </c>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.2">
@@ -9125,7 +9129,7 @@
         <v>228</v>
       </c>
       <c r="K21" s="185">
-        <v>6.2041439521472716E-2</v>
+        <v>5.6345483069498978E-2</v>
       </c>
       <c r="L21" s="184"/>
       <c r="M21" t="s">
@@ -9139,7 +9143,7 @@
         <v>228</v>
       </c>
       <c r="P21" s="185">
-        <v>6.2041439521472716E-2</v>
+        <v>5.6345483069498978E-2</v>
       </c>
       <c r="R21" t="s">
         <v>167</v>
@@ -9152,7 +9156,7 @@
         <v>228</v>
       </c>
       <c r="U21" s="185">
-        <v>6.2041439521472716E-2</v>
+        <v>5.6345483069498978E-2</v>
       </c>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.2">
@@ -9167,7 +9171,7 @@
         <v>229</v>
       </c>
       <c r="K22" s="185">
-        <v>5.0238563001630904E-2</v>
+        <v>4.8662133827205516E-2</v>
       </c>
       <c r="L22" s="184"/>
       <c r="M22" t="s">
@@ -9181,7 +9185,7 @@
         <v>229</v>
       </c>
       <c r="P22" s="185">
-        <v>5.0238563001630904E-2</v>
+        <v>4.8662133827205516E-2</v>
       </c>
       <c r="R22" t="s">
         <v>167</v>
@@ -9194,7 +9198,7 @@
         <v>229</v>
       </c>
       <c r="U22" s="185">
-        <v>5.0238563001630904E-2</v>
+        <v>4.8662133827205516E-2</v>
       </c>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.2">
@@ -9209,7 +9213,7 @@
         <v>230</v>
       </c>
       <c r="K23" s="185">
-        <v>5.3184386397899165E-2</v>
+        <v>5.0293526586567008E-2</v>
       </c>
       <c r="L23" s="184"/>
       <c r="M23" t="s">
@@ -9223,7 +9227,7 @@
         <v>230</v>
       </c>
       <c r="P23" s="185">
-        <v>5.3184386397899165E-2</v>
+        <v>5.0293526586567008E-2</v>
       </c>
       <c r="R23" t="s">
         <v>167</v>
@@ -9236,7 +9240,7 @@
         <v>230</v>
       </c>
       <c r="U23" s="185">
-        <v>5.3184386397899165E-2</v>
+        <v>5.0293526586567008E-2</v>
       </c>
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.2">
@@ -9251,7 +9255,7 @@
         <v>231</v>
       </c>
       <c r="K24" s="185">
-        <v>5.7662395688403471E-2</v>
+        <v>5.2523087098903048E-2</v>
       </c>
       <c r="L24" s="184"/>
       <c r="M24" t="s">
@@ -9265,7 +9269,7 @@
         <v>231</v>
       </c>
       <c r="P24" s="185">
-        <v>5.7662395688403471E-2</v>
+        <v>5.2523087098903048E-2</v>
       </c>
       <c r="R24" t="s">
         <v>167</v>
@@ -9278,7 +9282,7 @@
         <v>231</v>
       </c>
       <c r="U24" s="185">
-        <v>5.7662395688403471E-2</v>
+        <v>5.2523087098903048E-2</v>
       </c>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.2">
@@ -9293,7 +9297,7 @@
         <v>232</v>
       </c>
       <c r="K25" s="185">
-        <v>5.8557745224525878E-2</v>
+        <v>5.4966761848993004E-2</v>
       </c>
       <c r="L25" s="184"/>
       <c r="M25" t="s">
@@ -9307,7 +9311,7 @@
         <v>232</v>
       </c>
       <c r="P25" s="185">
-        <v>5.8557745224525878E-2</v>
+        <v>5.4966761848993004E-2</v>
       </c>
       <c r="R25" t="s">
         <v>167</v>
@@ -9320,7 +9324,7 @@
         <v>232</v>
       </c>
       <c r="U25" s="185">
-        <v>5.8557745224525878E-2</v>
+        <v>5.4966761848993004E-2</v>
       </c>
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.2">
@@ -9336,7 +9340,7 @@
         <v>233</v>
       </c>
       <c r="K26" s="185">
-        <v>5.4169812257972488E-2</v>
+        <v>5.3016988893511453E-2</v>
       </c>
       <c r="L26" s="184"/>
       <c r="M26" t="s">
@@ -9350,7 +9354,7 @@
         <v>233</v>
       </c>
       <c r="P26" s="185">
-        <v>5.4169812257972488E-2</v>
+        <v>5.3016988893511453E-2</v>
       </c>
       <c r="R26" t="s">
         <v>167</v>
@@ -9363,7 +9367,7 @@
         <v>233</v>
       </c>
       <c r="U26" s="185">
-        <v>5.4169812257972488E-2</v>
+        <v>5.3016988893511453E-2</v>
       </c>
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.2">
@@ -9380,7 +9384,7 @@
         <v>234</v>
       </c>
       <c r="K27" s="185">
-        <v>4.1857004866670537E-2</v>
+        <v>4.4273060594597062E-2</v>
       </c>
       <c r="L27" s="184"/>
       <c r="M27" t="s">
@@ -9394,7 +9398,7 @@
         <v>234</v>
       </c>
       <c r="P27" s="185">
-        <v>4.1857004866670537E-2</v>
+        <v>4.4273060594597062E-2</v>
       </c>
       <c r="R27" t="s">
         <v>167</v>
@@ -9407,7 +9411,7 @@
         <v>234</v>
       </c>
       <c r="U27" s="185">
-        <v>4.1857004866670537E-2</v>
+        <v>4.4273060594597062E-2</v>
       </c>
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.2">
@@ -9425,7 +9429,7 @@
         <v>235</v>
       </c>
       <c r="K28" s="185">
-        <v>3.3691520594468241E-2</v>
+        <v>3.6258449498494133E-2</v>
       </c>
       <c r="L28" s="184"/>
       <c r="M28" t="s">
@@ -9439,7 +9443,7 @@
         <v>235</v>
       </c>
       <c r="P28" s="185">
-        <v>3.3691520594468241E-2</v>
+        <v>3.6258449498494133E-2</v>
       </c>
       <c r="R28" t="s">
         <v>167</v>
@@ -9452,7 +9456,7 @@
         <v>235</v>
       </c>
       <c r="U28" s="185">
-        <v>3.3691520594468241E-2</v>
+        <v>3.6258449498494133E-2</v>
       </c>
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.2">
@@ -9470,7 +9474,7 @@
         <v>236</v>
       </c>
       <c r="K29" s="185">
-        <v>3.2906492752302938E-2</v>
+        <v>3.6040655779430726E-2</v>
       </c>
       <c r="L29" s="184"/>
       <c r="M29" t="s">
@@ -9484,7 +9488,7 @@
         <v>236</v>
       </c>
       <c r="P29" s="185">
-        <v>3.2906492752302938E-2</v>
+        <v>3.6040655779430726E-2</v>
       </c>
       <c r="R29" t="s">
         <v>167</v>
@@ -9497,7 +9501,7 @@
         <v>236</v>
       </c>
       <c r="U29" s="185">
-        <v>3.2906492752302938E-2</v>
+        <v>3.6040655779430726E-2</v>
       </c>
     </row>
     <row r="30" spans="4:21" x14ac:dyDescent="0.2">
@@ -9512,7 +9516,7 @@
         <v>237</v>
       </c>
       <c r="K30" s="185">
-        <v>3.20626233861286E-2</v>
+        <v>3.5097781406108856E-2</v>
       </c>
       <c r="L30" s="184"/>
       <c r="M30" s="1" t="s">
@@ -9526,7 +9530,7 @@
         <v>237</v>
       </c>
       <c r="P30" s="185">
-        <v>3.20626233861286E-2</v>
+        <v>3.5097781406108856E-2</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>167</v>
@@ -9539,7 +9543,7 @@
         <v>237</v>
       </c>
       <c r="U30" s="185">
-        <v>3.20626233861286E-2</v>
+        <v>3.5097781406108856E-2</v>
       </c>
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.2">
@@ -9554,7 +9558,7 @@
         <v>238</v>
       </c>
       <c r="K31" s="185">
-        <v>3.1700774081405016E-2</v>
+        <v>3.482493578674286E-2</v>
       </c>
       <c r="L31" s="184"/>
       <c r="M31" s="1" t="s">
@@ -9568,7 +9572,7 @@
         <v>238</v>
       </c>
       <c r="P31" s="185">
-        <v>3.1700774081405016E-2</v>
+        <v>3.482493578674286E-2</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>167</v>
@@ -9581,7 +9585,7 @@
         <v>238</v>
       </c>
       <c r="U31" s="185">
-        <v>3.1700774081405016E-2</v>
+        <v>3.482493578674286E-2</v>
       </c>
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.2">
@@ -9597,7 +9601,7 @@
         <v>239</v>
       </c>
       <c r="K32" s="185">
-        <v>3.0548494068914959E-2</v>
+        <v>3.2564766705734945E-2</v>
       </c>
       <c r="L32" s="184"/>
       <c r="M32" s="1" t="s">
@@ -9611,7 +9615,7 @@
         <v>239</v>
       </c>
       <c r="P32" s="185">
-        <v>3.0548494068914959E-2</v>
+        <v>3.2564766705734945E-2</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>167</v>
@@ -9624,7 +9628,7 @@
         <v>239</v>
       </c>
       <c r="U32" s="185">
-        <v>3.0548494068914959E-2</v>
+        <v>3.2564766705734945E-2</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
@@ -9641,7 +9645,7 @@
         <v>240</v>
       </c>
       <c r="K33" s="185">
-        <v>3.117830445262517E-2</v>
+        <v>3.3680163206659841E-2</v>
       </c>
       <c r="L33" s="184"/>
       <c r="M33" s="1" t="s">
@@ -9655,7 +9659,7 @@
         <v>240</v>
       </c>
       <c r="P33" s="185">
-        <v>3.117830445262517E-2</v>
+        <v>3.3680163206659841E-2</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>167</v>
@@ -9668,7 +9672,7 @@
         <v>240</v>
       </c>
       <c r="U33" s="185">
-        <v>3.117830445262517E-2</v>
+        <v>3.3680163206659841E-2</v>
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
@@ -9684,7 +9688,7 @@
         <v>168</v>
       </c>
       <c r="K34" s="185">
-        <v>3.1580002137548593E-2</v>
+        <v>3.0835149280259575E-2</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>167</v>
@@ -9697,7 +9701,7 @@
         <v>168</v>
       </c>
       <c r="P34" s="185">
-        <v>3.1580002137548593E-2</v>
+        <v>3.0835149280259575E-2</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>167</v>
@@ -9710,7 +9714,7 @@
         <v>168</v>
       </c>
       <c r="U34" s="185">
-        <v>3.1580002137548593E-2</v>
+        <v>3.0835149280259575E-2</v>
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
@@ -9725,7 +9729,7 @@
         <v>169</v>
       </c>
       <c r="K35" s="185">
-        <v>3.1850630527954941E-2</v>
+        <v>3.1306102192535441E-2</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>167</v>
@@ -9738,7 +9742,7 @@
         <v>169</v>
       </c>
       <c r="P35" s="185">
-        <v>3.1850630527954941E-2</v>
+        <v>3.1306102192535441E-2</v>
       </c>
       <c r="R35" s="1" t="s">
         <v>167</v>
@@ -9751,7 +9755,7 @@
         <v>169</v>
       </c>
       <c r="U35" s="185">
-        <v>3.1850630527954941E-2</v>
+        <v>3.1306102192535441E-2</v>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.2">
@@ -9770,7 +9774,7 @@
         <v>170</v>
       </c>
       <c r="K36" s="185">
-        <v>3.1481989955747081E-2</v>
+        <v>3.0732055812390149E-2</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>167</v>
@@ -9783,7 +9787,7 @@
         <v>170</v>
       </c>
       <c r="P36" s="185">
-        <v>3.1481989955747081E-2</v>
+        <v>3.0732055812390149E-2</v>
       </c>
       <c r="R36" s="1" t="s">
         <v>167</v>
@@ -9796,7 +9800,7 @@
         <v>170</v>
       </c>
       <c r="U36" s="185">
-        <v>3.1481989955747081E-2</v>
+        <v>3.0732055812390149E-2</v>
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
@@ -9815,7 +9819,7 @@
         <v>171</v>
       </c>
       <c r="K37" s="185">
-        <v>3.1731466950130557E-2</v>
+        <v>3.1026498894933252E-2</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>167</v>
@@ -9828,7 +9832,7 @@
         <v>171</v>
       </c>
       <c r="P37" s="185">
-        <v>3.1731466950130557E-2</v>
+        <v>3.1026498894933252E-2</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>167</v>
@@ -9841,7 +9845,7 @@
         <v>171</v>
       </c>
       <c r="U37" s="185">
-        <v>3.1731466950130557E-2</v>
+        <v>3.1026498894933252E-2</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
@@ -9856,7 +9860,7 @@
         <v>172</v>
       </c>
       <c r="K38" s="185">
-        <v>3.1860835358240212E-2</v>
+        <v>3.1056840848101456E-2</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>167</v>
@@ -9869,7 +9873,7 @@
         <v>172</v>
       </c>
       <c r="P38" s="185">
-        <v>3.1860835358240212E-2</v>
+        <v>3.1056840848101456E-2</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>167</v>
@@ -9882,7 +9886,7 @@
         <v>172</v>
       </c>
       <c r="U38" s="185">
-        <v>3.1860835358240212E-2</v>
+        <v>3.1056840848101456E-2</v>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
@@ -9897,7 +9901,7 @@
         <v>173</v>
       </c>
       <c r="K39" s="185">
-        <v>3.2394250106746E-2</v>
+        <v>3.1761574865503496E-2</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>167</v>
@@ -9910,7 +9914,7 @@
         <v>173</v>
       </c>
       <c r="P39" s="185">
-        <v>3.2394250106746E-2</v>
+        <v>3.1761574865503496E-2</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>167</v>
@@ -9923,7 +9927,7 @@
         <v>173</v>
       </c>
       <c r="U39" s="185">
-        <v>3.2394250106746E-2</v>
+        <v>3.1761574865503496E-2</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
@@ -9938,7 +9942,7 @@
         <v>174</v>
       </c>
       <c r="K40" s="185">
-        <v>3.241825303092484E-2</v>
+        <v>3.2141299558210122E-2</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>167</v>
@@ -9951,7 +9955,7 @@
         <v>174</v>
       </c>
       <c r="P40" s="185">
-        <v>3.241825303092484E-2</v>
+        <v>3.2141299558210122E-2</v>
       </c>
       <c r="R40" s="1" t="s">
         <v>167</v>
@@ -9964,7 +9968,7 @@
         <v>174</v>
       </c>
       <c r="U40" s="185">
-        <v>3.241825303092484E-2</v>
+        <v>3.2141299558210122E-2</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
@@ -9979,7 +9983,7 @@
         <v>175</v>
       </c>
       <c r="K41" s="185">
-        <v>3.5569395862328948E-2</v>
+        <v>3.5213642686520726E-2</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>167</v>
@@ -9992,7 +9996,7 @@
         <v>175</v>
       </c>
       <c r="P41" s="185">
-        <v>3.5569395862328948E-2</v>
+        <v>3.5213642686520726E-2</v>
       </c>
       <c r="R41" s="1" t="s">
         <v>167</v>
@@ -10005,7 +10009,7 @@
         <v>175</v>
       </c>
       <c r="U41" s="185">
-        <v>3.5569395862328948E-2</v>
+        <v>3.5213642686520726E-2</v>
       </c>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.2">
@@ -10020,7 +10024,7 @@
         <v>176</v>
       </c>
       <c r="K42" s="185">
-        <v>5.0064684062236839E-2</v>
+        <v>5.1117433203485711E-2</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>167</v>
@@ -10033,7 +10037,7 @@
         <v>176</v>
       </c>
       <c r="P42" s="185">
-        <v>5.0064684062236839E-2</v>
+        <v>5.1117433203485711E-2</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>167</v>
@@ -10046,7 +10050,7 @@
         <v>176</v>
       </c>
       <c r="U42" s="185">
-        <v>5.0064684062236839E-2</v>
+        <v>5.1117433203485711E-2</v>
       </c>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.2">
@@ -10061,7 +10065,7 @@
         <v>177</v>
       </c>
       <c r="K43" s="185">
-        <v>6.1132650490749271E-2</v>
+        <v>6.2773677380098022E-2</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>167</v>
@@ -10074,7 +10078,7 @@
         <v>177</v>
       </c>
       <c r="P43" s="185">
-        <v>6.1132650490749271E-2</v>
+        <v>6.2773677380098022E-2</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>167</v>
@@ -10087,7 +10091,7 @@
         <v>177</v>
       </c>
       <c r="U43" s="185">
-        <v>6.1132650490749271E-2</v>
+        <v>6.2773677380098022E-2</v>
       </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.2">
@@ -10102,7 +10106,7 @@
         <v>178</v>
       </c>
       <c r="K44" s="185">
-        <v>6.011628522297266E-2</v>
+        <v>6.1766758236552227E-2</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>167</v>
@@ -10115,7 +10119,7 @@
         <v>178</v>
       </c>
       <c r="P44" s="185">
-        <v>6.011628522297266E-2</v>
+        <v>6.1766758236552227E-2</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>167</v>
@@ -10128,7 +10132,7 @@
         <v>178</v>
       </c>
       <c r="U44" s="185">
-        <v>6.011628522297266E-2</v>
+        <v>6.1766758236552227E-2</v>
       </c>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.2">
@@ -10143,7 +10147,7 @@
         <v>179</v>
       </c>
       <c r="K45" s="185">
-        <v>6.2041439521472716E-2</v>
+        <v>6.4177423190962854E-2</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>167</v>
@@ -10156,7 +10160,7 @@
         <v>179</v>
       </c>
       <c r="P45" s="185">
-        <v>6.2041439521472716E-2</v>
+        <v>6.4177423190962854E-2</v>
       </c>
       <c r="R45" s="1" t="s">
         <v>167</v>
@@ -10169,7 +10173,7 @@
         <v>179</v>
       </c>
       <c r="U45" s="185">
-        <v>6.2041439521472716E-2</v>
+        <v>6.4177423190962854E-2</v>
       </c>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.2">
@@ -10184,7 +10188,7 @@
         <v>180</v>
       </c>
       <c r="K46" s="185">
-        <v>5.0238563001630904E-2</v>
+        <v>5.0829723942040425E-2</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>167</v>
@@ -10197,7 +10201,7 @@
         <v>180</v>
       </c>
       <c r="P46" s="185">
-        <v>5.0238563001630904E-2</v>
+        <v>5.0829723942040425E-2</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>167</v>
@@ -10210,7 +10214,7 @@
         <v>180</v>
       </c>
       <c r="U46" s="185">
-        <v>5.0238563001630904E-2</v>
+        <v>5.0829723942040425E-2</v>
       </c>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.2">
@@ -10225,7 +10229,7 @@
         <v>181</v>
       </c>
       <c r="K47" s="185">
-        <v>5.3184386397899165E-2</v>
+        <v>5.4268458827148723E-2</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>167</v>
@@ -10238,7 +10242,7 @@
         <v>181</v>
       </c>
       <c r="P47" s="185">
-        <v>5.3184386397899165E-2</v>
+        <v>5.4268458827148723E-2</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>167</v>
@@ -10251,7 +10255,7 @@
         <v>181</v>
       </c>
       <c r="U47" s="185">
-        <v>5.3184386397899165E-2</v>
+        <v>5.4268458827148723E-2</v>
       </c>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.2">
@@ -10266,7 +10270,7 @@
         <v>182</v>
       </c>
       <c r="K48" s="185">
-        <v>5.7662395688403471E-2</v>
+        <v>5.9589636409466136E-2</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>167</v>
@@ -10279,7 +10283,7 @@
         <v>182</v>
       </c>
       <c r="P48" s="185">
-        <v>5.7662395688403471E-2</v>
+        <v>5.9589636409466136E-2</v>
       </c>
       <c r="R48" s="1" t="s">
         <v>167</v>
@@ -10292,7 +10296,7 @@
         <v>182</v>
       </c>
       <c r="U48" s="185">
-        <v>5.7662395688403471E-2</v>
+        <v>5.9589636409466136E-2</v>
       </c>
     </row>
     <row r="49" spans="8:21" x14ac:dyDescent="0.2">
@@ -10307,7 +10311,7 @@
         <v>183</v>
       </c>
       <c r="K49" s="185">
-        <v>5.8557745224525878E-2</v>
+        <v>5.9904363990350699E-2</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>167</v>
@@ -10320,7 +10324,7 @@
         <v>183</v>
       </c>
       <c r="P49" s="185">
-        <v>5.8557745224525878E-2</v>
+        <v>5.9904363990350699E-2</v>
       </c>
       <c r="R49" s="1" t="s">
         <v>167</v>
@@ -10333,7 +10337,7 @@
         <v>183</v>
       </c>
       <c r="U49" s="185">
-        <v>5.8557745224525878E-2</v>
+        <v>5.9904363990350699E-2</v>
       </c>
     </row>
     <row r="50" spans="8:21" x14ac:dyDescent="0.2">
@@ -10348,7 +10352,7 @@
         <v>184</v>
       </c>
       <c r="K50" s="185">
-        <v>5.4169812257972488E-2</v>
+        <v>5.4602121019645386E-2</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>167</v>
@@ -10361,7 +10365,7 @@
         <v>184</v>
       </c>
       <c r="P50" s="185">
-        <v>5.4169812257972488E-2</v>
+        <v>5.4602121019645386E-2</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>167</v>
@@ -10374,7 +10378,7 @@
         <v>184</v>
       </c>
       <c r="U50" s="185">
-        <v>5.4169812257972488E-2</v>
+        <v>5.4602121019645386E-2</v>
       </c>
     </row>
     <row r="51" spans="8:21" x14ac:dyDescent="0.2">
@@ -10389,7 +10393,7 @@
         <v>185</v>
       </c>
       <c r="K51" s="185">
-        <v>4.1857004866670537E-2</v>
+        <v>4.095098396869809E-2</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>167</v>
@@ -10402,7 +10406,7 @@
         <v>185</v>
       </c>
       <c r="P51" s="185">
-        <v>4.1857004866670537E-2</v>
+        <v>4.095098396869809E-2</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>167</v>
@@ -10415,7 +10419,7 @@
         <v>185</v>
       </c>
       <c r="U51" s="185">
-        <v>4.1857004866670537E-2</v>
+        <v>4.095098396869809E-2</v>
       </c>
     </row>
     <row r="52" spans="8:21" x14ac:dyDescent="0.2">
@@ -10430,7 +10434,7 @@
         <v>186</v>
       </c>
       <c r="K52" s="185">
-        <v>3.3691520594468241E-2</v>
+        <v>3.2728922255458537E-2</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>167</v>
@@ -10443,7 +10447,7 @@
         <v>186</v>
       </c>
       <c r="P52" s="185">
-        <v>3.3691520594468241E-2</v>
+        <v>3.2728922255458537E-2</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>167</v>
@@ -10456,7 +10460,7 @@
         <v>186</v>
       </c>
       <c r="U52" s="185">
-        <v>3.3691520594468241E-2</v>
+        <v>3.2728922255458537E-2</v>
       </c>
     </row>
     <row r="53" spans="8:21" x14ac:dyDescent="0.2">
@@ -10471,7 +10475,7 @@
         <v>187</v>
       </c>
       <c r="K53" s="185">
-        <v>3.2906492752302938E-2</v>
+        <v>3.1731181617130018E-2</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>167</v>
@@ -10484,7 +10488,7 @@
         <v>187</v>
       </c>
       <c r="P53" s="185">
-        <v>3.2906492752302938E-2</v>
+        <v>3.1731181617130018E-2</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>167</v>
@@ -10497,7 +10501,7 @@
         <v>187</v>
       </c>
       <c r="U53" s="185">
-        <v>3.2906492752302938E-2</v>
+        <v>3.1731181617130018E-2</v>
       </c>
     </row>
     <row r="54" spans="8:21" x14ac:dyDescent="0.2">
@@ -10512,7 +10516,7 @@
         <v>188</v>
       </c>
       <c r="K54" s="185">
-        <v>3.20626233861286E-2</v>
+        <v>3.0924439128636003E-2</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>167</v>
@@ -10525,7 +10529,7 @@
         <v>188</v>
       </c>
       <c r="P54" s="185">
-        <v>3.20626233861286E-2</v>
+        <v>3.0924439128636003E-2</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>167</v>
@@ -10538,7 +10542,7 @@
         <v>188</v>
       </c>
       <c r="U54" s="185">
-        <v>3.20626233861286E-2</v>
+        <v>3.0924439128636003E-2</v>
       </c>
     </row>
     <row r="55" spans="8:21" x14ac:dyDescent="0.2">
@@ -10553,7 +10557,7 @@
         <v>189</v>
       </c>
       <c r="K55" s="185">
-        <v>3.1700774081405016E-2</v>
+        <v>3.0529213441903326E-2</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>167</v>
@@ -10566,7 +10570,7 @@
         <v>189</v>
       </c>
       <c r="P55" s="185">
-        <v>3.1700774081405016E-2</v>
+        <v>3.0529213441903326E-2</v>
       </c>
       <c r="R55" s="1" t="s">
         <v>167</v>
@@ -10579,7 +10583,7 @@
         <v>189</v>
       </c>
       <c r="U55" s="185">
-        <v>3.1700774081405016E-2</v>
+        <v>3.0529213441903326E-2</v>
       </c>
     </row>
     <row r="56" spans="8:21" x14ac:dyDescent="0.2">
@@ -10594,7 +10598,7 @@
         <v>190</v>
       </c>
       <c r="K56" s="185">
-        <v>3.0548494068914959E-2</v>
+        <v>2.9792391830107463E-2</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>167</v>
@@ -10607,7 +10611,7 @@
         <v>190</v>
       </c>
       <c r="P56" s="185">
-        <v>3.0548494068914959E-2</v>
+        <v>2.9792391830107463E-2</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>167</v>
@@ -10620,7 +10624,7 @@
         <v>190</v>
       </c>
       <c r="U56" s="185">
-        <v>3.0548494068914959E-2</v>
+        <v>2.9792391830107463E-2</v>
       </c>
     </row>
     <row r="57" spans="8:21" x14ac:dyDescent="0.2">
@@ -10635,7 +10639,7 @@
         <v>191</v>
       </c>
       <c r="K57" s="185">
-        <v>3.117830445262517E-2</v>
+        <v>3.0240107419862172E-2</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>167</v>
@@ -10648,7 +10652,7 @@
         <v>191</v>
       </c>
       <c r="P57" s="185">
-        <v>3.117830445262517E-2</v>
+        <v>3.0240107419862172E-2</v>
       </c>
       <c r="R57" s="1" t="s">
         <v>167</v>
@@ -10661,7 +10665,7 @@
         <v>191</v>
       </c>
       <c r="U57" s="185">
-        <v>3.117830445262517E-2</v>
+        <v>3.0240107419862172E-2</v>
       </c>
     </row>
     <row r="58" spans="8:21" x14ac:dyDescent="0.2">
@@ -10684,7 +10688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E959CB-7164-414F-B6F7-22B95D131062}">
   <dimension ref="B3:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695CB326-1C9F-4FDF-8009-B92C838E177A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{695CB326-1C9F-4FDF-8009-B92C838E177A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{237C71FA-D898-449B-A9EC-EF7403480433}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1558,7 +1558,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="263">
   <si>
     <t>CommName</t>
   </si>
@@ -6259,8 +6259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" topLeftCell="K6" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23:S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6439,7 +6439,9 @@
         <v>148</v>
       </c>
       <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
+      <c r="S5" s="137" t="s">
+        <v>202</v>
+      </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
     </row>
@@ -6463,7 +6465,9 @@
         <v>148</v>
       </c>
       <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
+      <c r="S6" s="137" t="s">
+        <v>202</v>
+      </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
     </row>
@@ -6487,7 +6491,9 @@
         <v>148</v>
       </c>
       <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
+      <c r="S7" s="137" t="s">
+        <v>202</v>
+      </c>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
     </row>
@@ -6511,7 +6517,9 @@
         <v>148</v>
       </c>
       <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
+      <c r="S8" s="137" t="s">
+        <v>202</v>
+      </c>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
     </row>
@@ -6831,7 +6839,9 @@
         <v>148</v>
       </c>
       <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
+      <c r="S23" s="137" t="s">
+        <v>202</v>
+      </c>
       <c r="T23" s="68"/>
       <c r="U23" s="68"/>
     </row>
@@ -6875,7 +6885,9 @@
         <v>148</v>
       </c>
       <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
+      <c r="S24" s="137" t="s">
+        <v>202</v>
+      </c>
       <c r="T24" s="68"/>
       <c r="U24" s="68"/>
     </row>
@@ -6915,6 +6927,9 @@
       </c>
       <c r="Q25" t="s">
         <v>148</v>
+      </c>
+      <c r="S25" s="137" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
@@ -7188,7 +7203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView topLeftCell="P15" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
@@ -8407,8 +8422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:U59"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34:U57"/>
+    <sheetView zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{695CB326-1C9F-4FDF-8009-B92C838E177A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{237C71FA-D898-449B-A9EC-EF7403480433}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03991E27-A7CE-422D-A493-266C3D35EE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -3485,9 +3485,9 @@
     <cellStyle name="Normal 8 2" xfId="28" xr:uid="{C94D68A9-0F9F-49C7-A496-97D6E4CFF1B0}"/>
     <cellStyle name="Normal 9 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Per cent" xfId="16" builtinId="5"/>
     <cellStyle name="Per cent 2" xfId="24" xr:uid="{2C564A4B-D800-4EE4-B939-9255D7A664BB}"/>
     <cellStyle name="Per cent 3" xfId="36" xr:uid="{030604DF-87E3-428A-B61C-D3C093606D31}"/>
-    <cellStyle name="Percent" xfId="16" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Percent 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Percent 3 2" xfId="29" xr:uid="{E6B199C5-EFD9-4EA1-A159-C95FD8F6F260}"/>
@@ -4337,31 +4337,31 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="O1" s="12"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D2" s="27" t="s">
         <v>44</v>
       </c>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
       <c r="D3" s="28" t="s">
         <v>155</v>
@@ -4412,7 +4412,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C4" s="57" t="s">
         <v>49</v>
       </c>
@@ -4424,7 +4424,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
         <v>50</v>
       </c>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
         <v>52</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>225037.94899999999</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
         <v>116</v>
       </c>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="K7" s="26"/>
     </row>
-    <row r="8" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="53" t="s">
         <v>110</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>2102286.7409999999</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
       <c r="C9" s="59" t="s">
         <v>54</v>
@@ -4556,7 +4556,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="39"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>55</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>-209</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
         <v>46</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>6292.8000000000102</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
         <v>58</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>-1977483.48</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
       <c r="C13" s="38" t="s">
         <v>59</v>
@@ -4677,7 +4677,7 @@
         <v>-1971399.6799999999</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
       <c r="C14" s="59" t="s">
         <v>60</v>
@@ -4691,7 +4691,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="39"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
         <v>61</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>1415286.2489999998</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>63</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>27360.052000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
         <v>65</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
         <v>121</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>47314.468500000003</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
         <v>123</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>32155.458499999997</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
         <v>67</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>7289.8130000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
         <v>68</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>100932.34299999999</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
         <v>70</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>7289.8130000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
         <v>83</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>4304.424</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>84</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>45897</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
         <v>86</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>1687829.6209999998</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -4958,67 +4958,67 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="49" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J49" s="109"/>
       <c r="K49" s="112"/>
     </row>
-    <row r="50" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J50" s="109"/>
       <c r="K50" s="112"/>
     </row>
-    <row r="51" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J51" s="109"/>
       <c r="K51" s="112"/>
     </row>
-    <row r="52" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J52" s="109"/>
       <c r="K52" s="112"/>
     </row>
-    <row r="53" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J53" s="109"/>
       <c r="K53" s="112"/>
     </row>
-    <row r="54" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J54" s="109"/>
       <c r="K54" s="112"/>
     </row>
-    <row r="55" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J55" s="109"/>
       <c r="K55" s="112"/>
     </row>
-    <row r="56" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J56" s="109"/>
       <c r="K56" s="112"/>
     </row>
-    <row r="57" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J57" s="109"/>
       <c r="K57" s="112"/>
     </row>
-    <row r="58" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J58" s="109"/>
       <c r="K58" s="112"/>
     </row>
-    <row r="59" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J59" s="109"/>
       <c r="K59" s="112"/>
     </row>
-    <row r="60" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J60" s="109"/>
       <c r="K60" s="112"/>
     </row>
-    <row r="61" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J61" s="109"/>
       <c r="K61" s="112"/>
     </row>
-    <row r="62" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J62" s="109"/>
       <c r="K62" s="112"/>
     </row>
-    <row r="63" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J63" s="109"/>
       <c r="K63" s="112"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C65" s="78" t="s">
         <v>134</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>133</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="29" t="s">
         <v>121</v>
       </c>
@@ -5066,27 +5066,27 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="153" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="10" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="153" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="10" width="13.33203125" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N1" s="12" t="s">
         <v>90</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D2" s="27" t="s">
         <v>44</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
       <c r="D3" s="28" t="s">
         <v>155</v>
@@ -5160,7 +5160,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C4" s="57" t="s">
         <v>49</v>
       </c>
@@ -5172,7 +5172,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
         <v>50</v>
       </c>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
         <v>52</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>62510.546389732197</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
         <v>116</v>
       </c>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="K7" s="26"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="53" t="s">
         <v>110</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>583968.58588414988</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="59" t="s">
         <v>54</v>
@@ -5344,7 +5344,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="39"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="29" t="s">
         <v>55</v>
       </c>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="29" t="s">
         <v>46</v>
       </c>
@@ -5385,7 +5385,7 @@
       <c r="J11" s="119"/>
       <c r="K11" s="119"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="29" t="s">
         <v>58</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>-549301.01061074401</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
       <c r="C13" s="38" t="s">
         <v>59</v>
@@ -5451,7 +5451,7 @@
         <v>-549301.01061074401</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="23"/>
       <c r="C14" s="59" t="s">
         <v>60</v>
@@ -5465,7 +5465,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="39"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="29" t="s">
         <v>61</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>393135.1006174722</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="29" t="s">
         <v>63</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>7600.0150524456003</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="29" t="s">
         <v>65</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="134" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" s="134" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="130" t="s">
         <v>121</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>13142.9089680993</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="29" t="s">
         <v>123</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>8932.0725201213008</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
         <v>67</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>2024.9482175514001</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="29" t="s">
         <v>68</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>28036.764187385401</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="29" t="s">
         <v>70</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>2024.9482175514001</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="29" t="s">
         <v>83</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>1195.6734289872002</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="29" t="s">
         <v>84</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>12749.167686600002</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
         <v>86</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>468841.59889621375</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -5906,7 +5906,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -5917,7 +5917,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="5"/>
@@ -5929,7 +5929,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -5940,7 +5940,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -5951,7 +5951,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -5962,7 +5962,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -5973,7 +5973,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -5984,7 +5984,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -5995,7 +5995,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -6006,7 +6006,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -6017,7 +6017,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>146</v>
       </c>
@@ -6035,7 +6035,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="14" t="s">
         <v>94</v>
       </c>
@@ -6052,7 +6052,7 @@
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="16" t="s">
         <v>95</v>
       </c>
@@ -6069,7 +6069,7 @@
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>147</v>
       </c>
@@ -6085,7 +6085,7 @@
       <c r="G40" s="171"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D44" s="27" t="s">
         <v>44</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>132</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>121</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>DM1: Cement heat</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>121</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>DM2: Non-cement process heat</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>121</v>
       </c>
@@ -6201,19 +6201,19 @@
         <v>DM3 : Machine dive, lighting, cooling , refrigration etc</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J49" s="109"/>
       <c r="K49" s="112"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J50" s="109"/>
       <c r="K50" s="112"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J51" s="109"/>
       <c r="K51" s="112"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C53" s="78" t="s">
         <v>134</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>133</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="29" t="s">
         <v>121</v>
       </c>
@@ -6259,36 +6259,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K6" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+    <sheetView topLeftCell="K6" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
       <selection activeCell="S23" sqref="S23:S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="158" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="158" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" customWidth="1"/>
+    <col min="15" max="15" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.109375" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" customWidth="1"/>
+    <col min="19" max="19" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
         <v>75</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="str">
         <f>EBF!D2</f>
@@ -6335,7 +6335,7 @@
       <c r="T2" s="64"/>
       <c r="U2" s="64"/>
     </row>
-    <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>45</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="137" t="s">
         <v>199</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="138"/>
       <c r="D5" s="138"/>
       <c r="E5" s="77"/>
@@ -6445,7 +6445,7 @@
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
     </row>
-    <row r="6" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C6" s="138"/>
       <c r="D6" s="138"/>
       <c r="E6" s="77"/>
@@ -6471,7 +6471,7 @@
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
     </row>
-    <row r="7" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" s="138"/>
       <c r="D7" s="138"/>
       <c r="E7" s="77"/>
@@ -6497,7 +6497,7 @@
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
     </row>
-    <row r="8" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8" s="138"/>
       <c r="D8" s="138"/>
       <c r="E8" s="77"/>
@@ -6523,7 +6523,7 @@
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
     </row>
-    <row r="9" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C9" s="138"/>
       <c r="D9" s="138"/>
       <c r="E9" s="77"/>
@@ -6539,7 +6539,7 @@
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M10" s="139"/>
       <c r="N10" s="139"/>
       <c r="O10" s="139"/>
@@ -6550,7 +6550,7 @@
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M11" s="139"/>
       <c r="N11" s="139"/>
       <c r="O11" s="139"/>
@@ -6561,7 +6561,7 @@
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M12" s="136"/>
       <c r="N12" s="68"/>
       <c r="O12" s="136"/>
@@ -6572,7 +6572,7 @@
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M13" s="136"/>
       <c r="N13" s="68"/>
       <c r="O13" s="136"/>
@@ -6583,7 +6583,7 @@
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M14" s="136"/>
       <c r="N14" s="68"/>
       <c r="O14" s="136"/>
@@ -6594,7 +6594,7 @@
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M15" s="150"/>
       <c r="N15" s="150"/>
       <c r="O15" s="150"/>
@@ -6605,7 +6605,7 @@
       <c r="T15" s="64"/>
       <c r="U15" s="64"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M16" s="150"/>
       <c r="N16" s="150"/>
       <c r="O16" s="150"/>
@@ -6616,7 +6616,7 @@
       <c r="T16" s="64"/>
       <c r="U16" s="64"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M17" s="136"/>
       <c r="N17" s="68"/>
       <c r="O17" s="136"/>
@@ -6627,7 +6627,7 @@
       <c r="T17" s="64"/>
       <c r="U17" s="64"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -6637,7 +6637,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
@@ -6654,7 +6654,7 @@
       <c r="T19" s="68"/>
       <c r="U19" s="68"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
         <v>39</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>87</v>
       </c>
@@ -6797,7 +6797,7 @@
       <c r="T22" s="69"/>
       <c r="U22" s="69"/>
     </row>
-    <row r="23" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="64" t="str">
         <f>O23</f>
         <v>MINCOA</v>
@@ -6845,7 +6845,7 @@
       <c r="T23" s="68"/>
       <c r="U23" s="68"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="64" t="str">
         <f t="shared" ref="B24:B25" si="0">O24</f>
         <v>IMPCOA</v>
@@ -6891,7 +6891,7 @@
       <c r="T24" s="68"/>
       <c r="U24" s="68"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="64" t="str">
         <f t="shared" si="0"/>
         <v>IMPOIL</v>
@@ -6932,7 +6932,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="64" t="str">
         <f>O26</f>
         <v>ELCGRID</v>
@@ -6972,7 +6972,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="147"/>
       <c r="C27" s="147"/>
       <c r="D27" s="136"/>
@@ -6989,7 +6989,7 @@
       <c r="P27" s="140"/>
       <c r="Q27" s="138"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="147"/>
       <c r="C28" s="147"/>
       <c r="D28" s="136"/>
@@ -7006,7 +7006,7 @@
       <c r="P28" s="149"/>
       <c r="Q28" s="146"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="147"/>
       <c r="C29" s="147"/>
       <c r="D29" s="147"/>
@@ -7023,7 +7023,7 @@
       <c r="P29" s="149"/>
       <c r="Q29" s="146"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="147"/>
       <c r="C30" s="147"/>
       <c r="D30" s="147"/>
@@ -7039,7 +7039,7 @@
       <c r="P30" s="149"/>
       <c r="Q30" s="146"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="147"/>
       <c r="C31" s="147"/>
       <c r="D31" s="147"/>
@@ -7055,7 +7055,7 @@
       <c r="P31" s="148"/>
       <c r="Q31" s="146"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="139"/>
       <c r="C32" s="139"/>
       <c r="D32" s="139"/>
@@ -7069,7 +7069,7 @@
       <c r="O32" s="68"/>
       <c r="P32" s="70"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B33" s="64"/>
       <c r="C33" s="68"/>
       <c r="D33" s="136"/>
@@ -7082,7 +7082,7 @@
       <c r="O33" s="68"/>
       <c r="P33" s="70"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B34" s="64"/>
       <c r="C34" s="68"/>
       <c r="D34" s="136"/>
@@ -7095,7 +7095,7 @@
       <c r="O34" s="68"/>
       <c r="P34" s="70"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B35" s="64"/>
       <c r="C35" s="68"/>
       <c r="D35" s="136"/>
@@ -7108,7 +7108,7 @@
       <c r="O35" s="68"/>
       <c r="P35" s="70"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B36" s="64"/>
       <c r="C36" s="68"/>
       <c r="D36" s="136"/>
@@ -7121,7 +7121,7 @@
       <c r="O36" s="68"/>
       <c r="P36" s="70"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B37" s="64"/>
       <c r="D37" s="64"/>
       <c r="E37" s="1"/>
@@ -7133,12 +7133,12 @@
       <c r="O37" s="68"/>
       <c r="P37" s="70"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H38" s="158"/>
       <c r="I38" s="158"/>
       <c r="J38" s="158"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B39" s="48"/>
       <c r="C39" s="1" t="s">
         <v>97</v>
@@ -7149,7 +7149,7 @@
       <c r="W39" s="150"/>
       <c r="X39" s="150"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B40" s="47"/>
       <c r="C40" s="1" t="s">
         <v>98</v>
@@ -7160,7 +7160,7 @@
       <c r="W40" s="150"/>
       <c r="X40" s="150"/>
     </row>
-    <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -7184,10 +7184,10 @@
       <c r="U42"/>
       <c r="V42"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="V43" s="1"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
   </sheetData>
@@ -7207,35 +7207,35 @@
       <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="88" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="88" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="88" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="88" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="88" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="88" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="13.140625" style="88" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="13.109375" style="88" customWidth="1"/>
     <col min="13" max="13" width="12" style="88" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" style="88" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="88" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" style="88" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="88" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="88" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="8.140625" style="88" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.140625" style="88" customWidth="1"/>
-    <col min="26" max="26" width="15.85546875" style="88" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="63.85546875" style="88" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.28515625" style="88" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.7109375" style="88" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" style="88" customWidth="1"/>
-    <col min="31" max="31" width="13.85546875" style="88" customWidth="1"/>
-    <col min="32" max="32" width="8.42578125" style="88" customWidth="1"/>
-    <col min="33" max="16384" width="8.85546875" style="88"/>
+    <col min="18" max="23" width="8.109375" style="88" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.109375" style="88" customWidth="1"/>
+    <col min="26" max="26" width="15.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="63.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.33203125" style="88" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" style="88" customWidth="1"/>
+    <col min="30" max="30" width="13.44140625" style="88" customWidth="1"/>
+    <col min="31" max="31" width="13.88671875" style="88" customWidth="1"/>
+    <col min="32" max="32" width="8.44140625" style="88" customWidth="1"/>
+    <col min="33" max="16384" width="8.88671875" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>75</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="2:32" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="str">
         <f>EBF!B18</f>
         <v>MAN</v>
@@ -7305,7 +7305,7 @@
       <c r="AE2" s="90"/>
       <c r="AF2" s="90"/>
     </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
       <c r="X3" s="91" t="s">
         <v>7</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:32" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:32" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
       <c r="D4" s="51"/>
@@ -7375,7 +7375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
@@ -7406,7 +7406,7 @@
       <c r="AE5" s="90"/>
       <c r="AF5" s="90"/>
     </row>
-    <row r="6" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -7437,7 +7437,7 @@
       <c r="AE6" s="90"/>
       <c r="AF6" s="90"/>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="X7" s="90" t="s">
         <v>139</v>
       </c>
@@ -7459,7 +7459,7 @@
       <c r="AE7" s="90"/>
       <c r="AF7" s="90"/>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="X8" s="142" t="s">
         <v>82</v>
       </c>
@@ -7478,7 +7478,7 @@
       <c r="AE8" s="90"/>
       <c r="AF8" s="90"/>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="X9" s="142"/>
       <c r="Y9" s="142"/>
       <c r="Z9" s="142"/>
@@ -7489,7 +7489,7 @@
       <c r="AE9" s="90"/>
       <c r="AF9" s="90"/>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="X10" s="165"/>
       <c r="Y10" s="165"/>
       <c r="Z10" s="165"/>
@@ -7500,7 +7500,7 @@
       <c r="AE10" s="90"/>
       <c r="AF10" s="90"/>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="X11" s="154"/>
       <c r="Y11" s="90"/>
       <c r="Z11" s="154"/>
@@ -7511,7 +7511,7 @@
       <c r="AE11" s="90"/>
       <c r="AF11" s="90"/>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="X12" s="154"/>
       <c r="Y12" s="90"/>
       <c r="Z12" s="154"/>
@@ -7522,7 +7522,7 @@
       <c r="AE12" s="90"/>
       <c r="AF12" s="90"/>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="X13" s="154"/>
       <c r="Y13" s="90"/>
       <c r="Z13" s="154"/>
@@ -7533,7 +7533,7 @@
       <c r="AE13" s="90"/>
       <c r="AF13" s="90"/>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="X14" s="154"/>
       <c r="Y14" s="90"/>
       <c r="Z14" s="154"/>
@@ -7544,7 +7544,7 @@
       <c r="AE14" s="90"/>
       <c r="AF14" s="90"/>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
@@ -7578,7 +7578,7 @@
       <c r="AE16" s="90"/>
       <c r="AF16" s="90"/>
     </row>
-    <row r="17" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="52" t="s">
         <v>1</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:32" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="97" t="s">
         <v>39</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:32" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:32" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="99" t="s">
         <v>87</v>
       </c>
@@ -7823,7 +7823,7 @@
       <c r="AE19" s="93"/>
       <c r="AF19" s="93"/>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="88" t="str">
         <f>Z$20</f>
         <v>Kiln</v>
@@ -7893,7 +7893,7 @@
       <c r="AE20" s="154"/>
       <c r="AF20" s="90"/>
     </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B21" s="88" t="str">
         <f>Z$20</f>
         <v>Kiln</v>
@@ -7975,7 +7975,7 @@
       <c r="AE21" s="154"/>
       <c r="AF21" s="90"/>
     </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B22" s="88" t="str">
         <f>Z$21</f>
         <v>Boiler</v>
@@ -8054,7 +8054,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="94" t="str">
         <f>Z22</f>
         <v>MANELC</v>
@@ -8123,7 +8123,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="94" t="s">
         <v>141</v>
       </c>
@@ -8148,7 +8148,7 @@
       <c r="AB24" s="94"/>
       <c r="AC24" s="94"/>
     </row>
-    <row r="25" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="94" t="s">
         <v>143</v>
       </c>
@@ -8173,7 +8173,7 @@
       <c r="AB25" s="94"/>
       <c r="AC25" s="94"/>
     </row>
-    <row r="26" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="94"/>
       <c r="C26" s="142"/>
       <c r="D26" s="154"/>
@@ -8192,7 +8192,7 @@
       <c r="AB26" s="94"/>
       <c r="AC26" s="94"/>
     </row>
-    <row r="27" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="94"/>
       <c r="C27" s="142"/>
       <c r="D27" s="154"/>
@@ -8211,15 +8211,15 @@
       <c r="AB27" s="94"/>
       <c r="AC27" s="94"/>
     </row>
-    <row r="28" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AB28" s="94"/>
       <c r="AC28" s="94"/>
       <c r="AD28" s="152"/>
     </row>
-    <row r="29" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AC29" s="94"/>
     </row>
-    <row r="30" spans="2:32" s="110" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:32" s="110" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="145"/>
       <c r="C30" s="90"/>
       <c r="D30" s="90"/>
@@ -8237,7 +8237,7 @@
       <c r="P30" s="141"/>
       <c r="Q30" s="141"/>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B31" s="145"/>
       <c r="C31" s="90"/>
       <c r="D31" s="90"/>
@@ -8255,7 +8255,7 @@
       <c r="P31" s="141"/>
       <c r="Q31" s="141"/>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="145"/>
       <c r="C32" s="90"/>
       <c r="D32" s="142"/>
@@ -8273,7 +8273,7 @@
       <c r="P32" s="141"/>
       <c r="Q32" s="141"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E33" s="145"/>
       <c r="F33" s="106"/>
       <c r="G33" s="106"/>
@@ -8288,7 +8288,7 @@
       <c r="AC33" s="90"/>
       <c r="AD33" s="151"/>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E34" s="145"/>
       <c r="F34" s="106"/>
       <c r="G34" s="106"/>
@@ -8304,7 +8304,7 @@
       <c r="AB34" s="111"/>
       <c r="AC34" s="111"/>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E35" s="145"/>
       <c r="F35" s="106"/>
       <c r="G35" s="106"/>
@@ -8316,33 +8316,33 @@
       <c r="N35" s="107"/>
       <c r="Q35" s="164"/>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E36" s="145"/>
       <c r="N36" s="107"/>
       <c r="O36" s="106"/>
       <c r="Q36" s="164"/>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B37" s="104"/>
       <c r="C37" s="88" t="s">
         <v>97</v>
       </c>
       <c r="N37" s="107"/>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B38" s="108"/>
       <c r="C38" s="88" t="s">
         <v>98</v>
       </c>
       <c r="N38" s="107"/>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
       <c r="N39" s="107"/>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E42" s="21"/>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B45" s="94"/>
       <c r="C45" s="142"/>
       <c r="D45" s="90"/>
@@ -8363,7 +8363,7 @@
       <c r="S45" s="141"/>
       <c r="T45" s="141"/>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B46" s="94"/>
       <c r="C46" s="142"/>
       <c r="D46" s="90"/>
@@ -8384,28 +8384,28 @@
       <c r="S46" s="141"/>
       <c r="T46" s="141"/>
     </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
       <c r="H50" s="178"/>
       <c r="I50" s="179"/>
     </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="G53" s="145"/>
       <c r="I53" s="145"/>
     </row>
-    <row r="54" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="G54" s="145"/>
     </row>
-    <row r="55" spans="6:9" s="94" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:9" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H55" s="143"/>
     </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F56" s="145"/>
       <c r="G56" s="145"/>
     </row>
-    <row r="58" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F58" s="145"/>
     </row>
-    <row r="59" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F59" s="145"/>
       <c r="H59" s="105"/>
     </row>
@@ -8422,31 +8422,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:U59"/>
   <sheetViews>
-    <sheetView zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="25.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="7.5546875" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="7.5546875" customWidth="1"/>
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="7.5703125" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>75</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>82</v>
       </c>
@@ -8478,14 +8478,14 @@
         <v>TH$2024</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C5" s="115" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="115"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="114" t="s">
         <v>160</v>
       </c>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="117" t="s">
         <v>81</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="116" t="s">
         <v>87</v>
       </c>
@@ -8595,7 +8595,7 @@
       <c r="T8" s="120"/>
       <c r="U8" s="120"/>
     </row>
-    <row r="9" spans="2:21" s="20" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" s="20" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="175" t="s">
         <v>165</v>
       </c>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="2:21" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:21" s="20" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B10" s="175" t="s">
         <v>165</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>3.3566276423652626E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:21" s="158" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:21" s="158" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B11" s="175" t="s">
         <v>165</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>3.3302706089073604E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="135"/>
       <c r="C12" s="135"/>
       <c r="D12" s="135"/>
@@ -8796,7 +8796,7 @@
         <v>3.3481814338032219E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H13" s="1" t="s">
         <v>167</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>3.3611381763990082E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H14" s="1" t="s">
         <v>167</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>3.4004820718610197E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H15" s="1" t="s">
         <v>167</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>3.4081384083392653E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H16" s="1" t="s">
         <v>167</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>3.3156795624830704E-2</v>
       </c>
     </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>167</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>3.6518070997817571E-2</v>
       </c>
     </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="H18" s="1" t="s">
         <v>167</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>4.7257353018906531E-2</v>
       </c>
     </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
         <v>167</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>5.6756578785819259E-2</v>
       </c>
     </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>167</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>5.5715023853427123E-2</v>
       </c>
     </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
         <v>167</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>5.6345483069498978E-2</v>
       </c>
     </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>167</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>4.8662133827205516E-2</v>
       </c>
     </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>167</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>5.0293526586567008E-2</v>
       </c>
     </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>167</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>5.2523087098903048E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>167</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>5.4966761848993004E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D26" s="109"/>
       <c r="H26" t="s">
         <v>167</v>
@@ -9385,7 +9385,7 @@
         <v>5.3016988893511453E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D27" s="109"/>
       <c r="E27" s="5"/>
       <c r="H27" t="s">
@@ -9429,7 +9429,7 @@
         <v>4.4273060594597062E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D28" s="109"/>
       <c r="E28" s="109"/>
       <c r="F28" s="109"/>
@@ -9474,7 +9474,7 @@
         <v>3.6258449498494133E-2</v>
       </c>
     </row>
-    <row r="29" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D29" s="109"/>
       <c r="E29" s="109"/>
       <c r="F29" s="109"/>
@@ -9519,7 +9519,7 @@
         <v>3.6040655779430726E-2</v>
       </c>
     </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
       <c r="H30" s="1" t="s">
         <v>167</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>3.5097781406108856E-2</v>
       </c>
     </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="H31" s="1" t="s">
         <v>167</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>3.482493578674286E-2</v>
       </c>
     </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
       <c r="E32" s="5"/>
       <c r="H32" s="1" t="s">
         <v>167</v>
@@ -9646,7 +9646,7 @@
         <v>3.2564766705734945E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="E33" s="5"/>
       <c r="H33" s="1" t="s">
@@ -9690,7 +9690,7 @@
         <v>3.3680163206659841E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="H34" s="1" t="s">
         <v>167</v>
@@ -9732,7 +9732,7 @@
         <v>3.0835149280259575E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H35" s="1" t="s">
         <v>167</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>3.1306102192535441E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="118"/>
       <c r="C36" s="1" t="s">
         <v>97</v>
@@ -9818,7 +9818,7 @@
         <v>3.0732055812390149E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="47"/>
       <c r="C37" s="1" t="s">
         <v>98</v>
@@ -9863,7 +9863,7 @@
         <v>3.1026498894933252E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H38" s="1" t="s">
         <v>167</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>3.1056840848101456E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H39" s="1" t="s">
         <v>167</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>3.1761574865503496E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H40" s="1" t="s">
         <v>167</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>3.2141299558210122E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H41" s="1" t="s">
         <v>167</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>3.5213642686520726E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H42" s="1" t="s">
         <v>167</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>5.1117433203485711E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H43" s="1" t="s">
         <v>167</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>6.2773677380098022E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H44" s="1" t="s">
         <v>167</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>6.1766758236552227E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H45" s="1" t="s">
         <v>167</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>6.4177423190962854E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H46" s="1" t="s">
         <v>167</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>5.0829723942040425E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H47" s="1" t="s">
         <v>167</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>5.4268458827148723E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H48" s="1" t="s">
         <v>167</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>5.9589636409466136E-2</v>
       </c>
     </row>
-    <row r="49" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H49" s="1" t="s">
         <v>167</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>5.9904363990350699E-2</v>
       </c>
     </row>
-    <row r="50" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H50" s="1" t="s">
         <v>167</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>5.4602121019645386E-2</v>
       </c>
     </row>
-    <row r="51" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H51" s="1" t="s">
         <v>167</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>4.095098396869809E-2</v>
       </c>
     </row>
-    <row r="52" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H52" s="1" t="s">
         <v>167</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>3.2728922255458537E-2</v>
       </c>
     </row>
-    <row r="53" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H53" s="1" t="s">
         <v>167</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>3.1731181617130018E-2</v>
       </c>
     </row>
-    <row r="54" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H54" s="1" t="s">
         <v>167</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>3.0924439128636003E-2</v>
       </c>
     </row>
-    <row r="55" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H55" s="1" t="s">
         <v>167</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>3.0529213441903326E-2</v>
       </c>
     </row>
-    <row r="56" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H56" s="1" t="s">
         <v>167</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>2.9792391830107463E-2</v>
       </c>
     </row>
-    <row r="57" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H57" s="1" t="s">
         <v>167</v>
       </c>
@@ -10683,13 +10683,13 @@
         <v>3.0240107419862172E-2</v>
       </c>
     </row>
-    <row r="58" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H58" s="1"/>
       <c r="I58" s="137"/>
       <c r="J58" s="137"/>
       <c r="K58" s="181"/>
     </row>
-    <row r="59" spans="8:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="8:21" x14ac:dyDescent="0.25">
       <c r="K59" s="137"/>
     </row>
   </sheetData>
@@ -10707,15 +10707,15 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="122" t="s">
         <v>194</v>
       </c>
@@ -10726,7 +10726,7 @@
       <c r="G3" s="122"/>
       <c r="H3" s="122"/>
     </row>
-    <row r="4" spans="2:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="123"/>
       <c r="C4" s="123"/>
       <c r="D4" s="123"/>
@@ -10734,13 +10734,13 @@
       <c r="F4" s="123"/>
       <c r="G4" s="123"/>
     </row>
-    <row r="5" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="124" t="s">
         <v>195</v>
       </c>
       <c r="C5" s="125"/>
     </row>
-    <row r="6" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="126" t="s">
         <v>0</v>
       </c>
@@ -10764,7 +10764,7 @@
       <c r="H6" s="126"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="127" t="s">
         <v>87</v>
       </c>
@@ -10784,7 +10784,7 @@
       <c r="H7" s="127"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="177"/>
       <c r="C8" s="177"/>
       <c r="D8" s="177"/>
@@ -10794,7 +10794,7 @@
       <c r="H8" s="177"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="128" t="str">
         <f>DemTechs_INDF!Z7</f>
         <v>MANCO2</v>
@@ -10815,13 +10815,13 @@
       <c r="H9" s="129"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="118"/>
       <c r="C24" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="47"/>
       <c r="C25" s="1" t="s">
         <v>98</v>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03991E27-A7CE-422D-A493-266C3D35EE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D322A44-4FFB-4A5D-B0D7-EA4DDC15226D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1558,7 +1558,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="264">
   <si>
     <t>CommName</t>
   </si>
@@ -2235,9 +2235,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>Annual</t>
-  </si>
-  <si>
     <t>NCAP_BND</t>
   </si>
   <si>
@@ -2479,6 +2476,12 @@
   </si>
   <si>
     <t>2024THUSD/MW</t>
+  </si>
+  <si>
+    <t>Peak</t>
+  </si>
+  <si>
+    <t>% contribution</t>
   </si>
 </sst>
 </file>
@@ -5062,8 +5065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="C9" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="A51" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5124,7 +5127,7 @@
       </c>
       <c r="K2" s="20"/>
       <c r="O2" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>148</v>
@@ -6145,7 +6148,7 @@
         <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D46" s="109">
         <f>D18/(D18+E18)</f>
@@ -6166,7 +6169,7 @@
         <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E47" s="109">
         <f>E18/(D18+E18)</f>
@@ -6187,7 +6190,7 @@
         <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J48" s="109">
         <v>1</v>
@@ -6259,7 +6262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="K6" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
       <selection activeCell="S23" sqref="S23:S26"/>
     </sheetView>
   </sheetViews>
@@ -6777,7 +6780,7 @@
         <v>GWh</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I22" s="8" t="str">
         <f>$E$2</f>
@@ -7203,8 +7206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView tabSelected="1" topLeftCell="I13" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7393,10 +7396,10 @@
       </c>
       <c r="Y5" s="142"/>
       <c r="Z5" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA5" s="142" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AB5" s="90" t="s">
         <v>148</v>
@@ -7465,10 +7468,10 @@
       </c>
       <c r="Y8" s="142"/>
       <c r="Z8" s="142" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA8" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AB8" s="154" t="s">
         <v>148</v>
@@ -7589,28 +7592,28 @@
         <v>6</v>
       </c>
       <c r="E17" s="95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F17" s="96" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="G17" s="96" t="s">
+      <c r="H17" s="96" t="s">
         <v>247</v>
       </c>
-      <c r="H17" s="96" t="s">
+      <c r="I17" s="96" t="s">
         <v>248</v>
       </c>
-      <c r="I17" s="96" t="s">
+      <c r="J17" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="J17" s="96" t="s">
+      <c r="K17" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="K17" s="96" t="s">
-        <v>251</v>
-      </c>
       <c r="L17" s="96" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M17" s="95" t="s">
         <v>102</v>
@@ -7622,7 +7625,7 @@
         <v>104</v>
       </c>
       <c r="P17" s="95" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="95" t="s">
         <v>156</v>
@@ -7631,15 +7634,17 @@
         <v>157</v>
       </c>
       <c r="S17" s="95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T17" s="95" t="s">
         <v>149</v>
       </c>
       <c r="U17" s="95" t="s">
-        <v>242</v>
-      </c>
-      <c r="V17" s="155"/>
+        <v>241</v>
+      </c>
+      <c r="V17" s="95" t="s">
+        <v>262</v>
+      </c>
       <c r="W17" s="155"/>
       <c r="X17" s="91" t="s">
         <v>11</v>
@@ -7713,7 +7718,7 @@
         <v>113</v>
       </c>
       <c r="P18" s="97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q18" s="97" t="s">
         <v>158</v>
@@ -7722,15 +7727,17 @@
         <v>159</v>
       </c>
       <c r="S18" s="98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T18" s="97" t="s">
         <v>150</v>
       </c>
       <c r="U18" s="97" t="s">
-        <v>243</v>
-      </c>
-      <c r="V18" s="156"/>
+        <v>242</v>
+      </c>
+      <c r="V18" s="97" t="s">
+        <v>263</v>
+      </c>
       <c r="W18" s="156"/>
       <c r="X18" s="93" t="s">
         <v>38</v>
@@ -7797,19 +7804,19 @@
       </c>
       <c r="P19" s="100"/>
       <c r="Q19" s="100" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R19" s="100" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S19" s="100" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T19" s="100"/>
       <c r="U19" s="100" t="s">
-        <v>244</v>
-      </c>
-      <c r="V19" s="157"/>
+        <v>243</v>
+      </c>
+      <c r="V19" s="100"/>
       <c r="W19" s="157"/>
       <c r="X19" s="93" t="s">
         <v>81</v>
@@ -7847,7 +7854,7 @@
       <c r="K20" s="180"/>
       <c r="L20" s="180"/>
       <c r="M20" s="103">
-        <v>0.55000000000000004</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="N20" s="103">
         <v>1</v>
@@ -7869,10 +7876,12 @@
         <v>8.76</v>
       </c>
       <c r="U20" s="104"/>
-      <c r="V20" s="110"/>
+      <c r="V20" s="104">
+        <v>1</v>
+      </c>
       <c r="W20" s="110"/>
       <c r="X20" s="145" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Z20" s="88" t="s">
         <v>141</v>
@@ -7929,7 +7938,7 @@
         <v>3.4015961616990566E-4</v>
       </c>
       <c r="M21" s="103">
-        <v>0.55000000000000004</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="N21" s="103">
         <v>1</v>
@@ -7951,10 +7960,12 @@
         <v>8.76</v>
       </c>
       <c r="U21" s="104"/>
-      <c r="V21" s="110"/>
+      <c r="V21" s="104">
+        <v>1</v>
+      </c>
       <c r="W21" s="110"/>
       <c r="X21" s="145" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Z21" s="88" t="s">
         <v>143</v>
@@ -8033,7 +8044,9 @@
         <v>8.76</v>
       </c>
       <c r="U22" s="104"/>
-      <c r="V22" s="110"/>
+      <c r="V22" s="104">
+        <v>1</v>
+      </c>
       <c r="W22" s="110"/>
       <c r="X22" s="88" t="s">
         <v>109</v>
@@ -8050,8 +8063,8 @@
       <c r="AC22" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="AD22" s="151" t="s">
-        <v>209</v>
+      <c r="AD22" s="154" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.25">
@@ -8104,14 +8117,17 @@
         <v>8.76</v>
       </c>
       <c r="U23" s="104"/>
+      <c r="V23" s="104">
+        <v>1</v>
+      </c>
       <c r="X23" s="141" t="s">
         <v>109</v>
       </c>
       <c r="Z23" s="141" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA23" s="141" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AB23" s="88" t="s">
         <v>148</v>
@@ -8119,8 +8135,8 @@
       <c r="AC23" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="AD23" s="151" t="s">
-        <v>209</v>
+      <c r="AD23" s="154" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.25">
@@ -8129,7 +8145,7 @@
       </c>
       <c r="C24" s="142"/>
       <c r="D24" s="154" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E24" s="143"/>
       <c r="F24" s="144"/>
@@ -8145,6 +8161,7 @@
       <c r="U24" s="104">
         <v>0.34100000000000003</v>
       </c>
+      <c r="V24" s="104"/>
       <c r="AB24" s="94"/>
       <c r="AC24" s="94"/>
     </row>
@@ -8154,7 +8171,7 @@
       </c>
       <c r="C25" s="142"/>
       <c r="D25" s="154" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E25" s="143"/>
       <c r="F25" s="144"/>
@@ -8170,6 +8187,7 @@
       <c r="U25" s="104">
         <v>0.25900000000000001</v>
       </c>
+      <c r="V25" s="104"/>
       <c r="AB25" s="94"/>
       <c r="AC25" s="94"/>
     </row>
@@ -8422,7 +8440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
       <selection activeCell="H6" sqref="H6:P9"/>
     </sheetView>
   </sheetViews>
@@ -8600,7 +8618,7 @@
         <v>165</v>
       </c>
       <c r="C9" s="175" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D9" s="175" t="s">
         <v>148</v>
@@ -8660,7 +8678,7 @@
         <v>MANELC</v>
       </c>
       <c r="J10" s="145" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K10" s="185">
         <v>3.3566276423652626E-2</v>
@@ -8674,7 +8692,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O10" s="145" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P10" s="185">
         <v>3.3566276423652626E-2</v>
@@ -8687,7 +8705,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T10" s="145" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U10" s="185">
         <v>3.3566276423652626E-2</v>
@@ -8698,7 +8716,7 @@
         <v>165</v>
       </c>
       <c r="C11" s="175" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" s="175" t="s">
         <v>148</v>
@@ -8717,7 +8735,7 @@
         <v>MANELC</v>
       </c>
       <c r="J11" s="176" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K11" s="185">
         <v>3.3302706089073604E-2</v>
@@ -8731,7 +8749,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O11" s="176" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P11" s="185">
         <v>3.3302706089073604E-2</v>
@@ -8744,7 +8762,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T11" s="176" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U11" s="185">
         <v>3.3302706089073604E-2</v>
@@ -8763,7 +8781,7 @@
         <v>MANELC</v>
       </c>
       <c r="J12" s="145" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K12" s="185">
         <v>3.3481814338032219E-2</v>
@@ -8777,7 +8795,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O12" s="145" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P12" s="185">
         <v>3.3481814338032219E-2</v>
@@ -8790,7 +8808,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T12" s="145" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U12" s="185">
         <v>3.3481814338032219E-2</v>
@@ -8805,7 +8823,7 @@
         <v>MANELC</v>
       </c>
       <c r="J13" s="176" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K13" s="185">
         <v>3.3611381763990082E-2</v>
@@ -8819,7 +8837,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O13" s="176" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P13" s="185">
         <v>3.3611381763990082E-2</v>
@@ -8832,7 +8850,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T13" s="176" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U13" s="185">
         <v>3.3611381763990082E-2</v>
@@ -8847,7 +8865,7 @@
         <v>MANELC</v>
       </c>
       <c r="J14" s="145" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K14" s="185">
         <v>3.4004820718610197E-2</v>
@@ -8861,7 +8879,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O14" s="145" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P14" s="185">
         <v>3.4004820718610197E-2</v>
@@ -8874,7 +8892,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T14" s="145" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U14" s="185">
         <v>3.4004820718610197E-2</v>
@@ -8889,7 +8907,7 @@
         <v>MANELC</v>
       </c>
       <c r="J15" s="176" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K15" s="185">
         <v>3.4081384083392653E-2</v>
@@ -8903,7 +8921,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O15" s="176" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P15" s="185">
         <v>3.4081384083392653E-2</v>
@@ -8916,7 +8934,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T15" s="176" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U15" s="185">
         <v>3.4081384083392653E-2</v>
@@ -8931,7 +8949,7 @@
         <v>MANELC</v>
       </c>
       <c r="J16" s="145" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K16" s="185">
         <v>3.3156795624830704E-2</v>
@@ -8945,7 +8963,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O16" s="145" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P16" s="185">
         <v>3.3156795624830704E-2</v>
@@ -8958,7 +8976,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T16" s="145" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U16" s="185">
         <v>3.3156795624830704E-2</v>
@@ -8973,7 +8991,7 @@
         <v>MANELC</v>
       </c>
       <c r="J17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K17" s="185">
         <v>3.6518070997817571E-2</v>
@@ -8987,7 +9005,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P17" s="185">
         <v>3.6518070997817571E-2</v>
@@ -9000,7 +9018,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U17" s="185">
         <v>3.6518070997817571E-2</v>
@@ -9015,7 +9033,7 @@
         <v>MANELC</v>
       </c>
       <c r="J18" s="145" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K18" s="185">
         <v>4.7257353018906531E-2</v>
@@ -9029,7 +9047,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O18" s="145" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P18" s="185">
         <v>4.7257353018906531E-2</v>
@@ -9042,7 +9060,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T18" s="145" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U18" s="185">
         <v>4.7257353018906531E-2</v>
@@ -9057,7 +9075,7 @@
         <v>MANELC</v>
       </c>
       <c r="J19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K19" s="185">
         <v>5.6756578785819259E-2</v>
@@ -9071,7 +9089,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P19" s="185">
         <v>5.6756578785819259E-2</v>
@@ -9084,7 +9102,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U19" s="185">
         <v>5.6756578785819259E-2</v>
@@ -9099,7 +9117,7 @@
         <v>MANELC</v>
       </c>
       <c r="J20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K20" s="185">
         <v>5.5715023853427123E-2</v>
@@ -9113,7 +9131,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P20" s="185">
         <v>5.5715023853427123E-2</v>
@@ -9126,7 +9144,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U20" s="185">
         <v>5.5715023853427123E-2</v>
@@ -9141,7 +9159,7 @@
         <v>MANELC</v>
       </c>
       <c r="J21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K21" s="185">
         <v>5.6345483069498978E-2</v>
@@ -9155,7 +9173,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P21" s="185">
         <v>5.6345483069498978E-2</v>
@@ -9168,7 +9186,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U21" s="185">
         <v>5.6345483069498978E-2</v>
@@ -9183,7 +9201,7 @@
         <v>MANELC</v>
       </c>
       <c r="J22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K22" s="185">
         <v>4.8662133827205516E-2</v>
@@ -9197,7 +9215,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P22" s="185">
         <v>4.8662133827205516E-2</v>
@@ -9210,7 +9228,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U22" s="185">
         <v>4.8662133827205516E-2</v>
@@ -9225,7 +9243,7 @@
         <v>MANELC</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K23" s="185">
         <v>5.0293526586567008E-2</v>
@@ -9239,7 +9257,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P23" s="185">
         <v>5.0293526586567008E-2</v>
@@ -9252,7 +9270,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U23" s="185">
         <v>5.0293526586567008E-2</v>
@@ -9267,7 +9285,7 @@
         <v>MANELC</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K24" s="185">
         <v>5.2523087098903048E-2</v>
@@ -9281,7 +9299,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P24" s="185">
         <v>5.2523087098903048E-2</v>
@@ -9294,7 +9312,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U24" s="185">
         <v>5.2523087098903048E-2</v>
@@ -9309,7 +9327,7 @@
         <v>MANELC</v>
       </c>
       <c r="J25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K25" s="185">
         <v>5.4966761848993004E-2</v>
@@ -9323,7 +9341,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P25" s="185">
         <v>5.4966761848993004E-2</v>
@@ -9336,7 +9354,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U25" s="185">
         <v>5.4966761848993004E-2</v>
@@ -9352,7 +9370,7 @@
         <v>MANELC</v>
       </c>
       <c r="J26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K26" s="185">
         <v>5.3016988893511453E-2</v>
@@ -9366,7 +9384,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P26" s="185">
         <v>5.3016988893511453E-2</v>
@@ -9379,7 +9397,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U26" s="185">
         <v>5.3016988893511453E-2</v>
@@ -9396,7 +9414,7 @@
         <v>MANELC</v>
       </c>
       <c r="J27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K27" s="185">
         <v>4.4273060594597062E-2</v>
@@ -9410,7 +9428,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P27" s="185">
         <v>4.4273060594597062E-2</v>
@@ -9423,7 +9441,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U27" s="185">
         <v>4.4273060594597062E-2</v>
@@ -9441,7 +9459,7 @@
         <v>MANELC</v>
       </c>
       <c r="J28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K28" s="185">
         <v>3.6258449498494133E-2</v>
@@ -9455,7 +9473,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P28" s="185">
         <v>3.6258449498494133E-2</v>
@@ -9468,7 +9486,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U28" s="185">
         <v>3.6258449498494133E-2</v>
@@ -9486,7 +9504,7 @@
         <v>MANELC</v>
       </c>
       <c r="J29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K29" s="185">
         <v>3.6040655779430726E-2</v>
@@ -9500,7 +9518,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P29" s="185">
         <v>3.6040655779430726E-2</v>
@@ -9513,7 +9531,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U29" s="185">
         <v>3.6040655779430726E-2</v>
@@ -9528,7 +9546,7 @@
         <v>MANELC</v>
       </c>
       <c r="J30" s="145" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K30" s="185">
         <v>3.5097781406108856E-2</v>
@@ -9542,7 +9560,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O30" s="145" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P30" s="185">
         <v>3.5097781406108856E-2</v>
@@ -9555,7 +9573,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T30" s="145" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U30" s="185">
         <v>3.5097781406108856E-2</v>
@@ -9570,7 +9588,7 @@
         <v>MANELC</v>
       </c>
       <c r="J31" s="176" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K31" s="185">
         <v>3.482493578674286E-2</v>
@@ -9584,7 +9602,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O31" s="176" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P31" s="185">
         <v>3.482493578674286E-2</v>
@@ -9597,7 +9615,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T31" s="176" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U31" s="185">
         <v>3.482493578674286E-2</v>
@@ -9613,7 +9631,7 @@
         <v>MANELC</v>
       </c>
       <c r="J32" s="145" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K32" s="185">
         <v>3.2564766705734945E-2</v>
@@ -9627,7 +9645,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O32" s="145" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P32" s="185">
         <v>3.2564766705734945E-2</v>
@@ -9640,7 +9658,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T32" s="145" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U32" s="185">
         <v>3.2564766705734945E-2</v>
@@ -9657,7 +9675,7 @@
         <v>MANELC</v>
       </c>
       <c r="J33" s="176" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K33" s="185">
         <v>3.3680163206659841E-2</v>
@@ -9671,7 +9689,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O33" s="176" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P33" s="185">
         <v>3.3680163206659841E-2</v>
@@ -9684,7 +9702,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T33" s="176" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U33" s="185">
         <v>3.3680163206659841E-2</v>
@@ -10703,8 +10721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E959CB-7164-414F-B6F7-22B95D131062}">
   <dimension ref="B3:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D322A44-4FFB-4A5D-B0D7-EA4DDC15226D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C073ED57-6A87-4CFC-BB47-46D6268C2A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -6262,8 +6262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23:S26"/>
+    <sheetView topLeftCell="A13" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7206,8 +7206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView topLeftCell="A28" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7876,9 +7876,7 @@
         <v>8.76</v>
       </c>
       <c r="U20" s="104"/>
-      <c r="V20" s="104">
-        <v>1</v>
-      </c>
+      <c r="V20" s="104"/>
       <c r="W20" s="110"/>
       <c r="X20" s="145" t="s">
         <v>214</v>
@@ -7960,9 +7958,7 @@
         <v>8.76</v>
       </c>
       <c r="U21" s="104"/>
-      <c r="V21" s="104">
-        <v>1</v>
-      </c>
+      <c r="V21" s="104"/>
       <c r="W21" s="110"/>
       <c r="X21" s="145" t="s">
         <v>214</v>
@@ -8044,9 +8040,7 @@
         <v>8.76</v>
       </c>
       <c r="U22" s="104"/>
-      <c r="V22" s="104">
-        <v>1</v>
-      </c>
+      <c r="V22" s="104"/>
       <c r="W22" s="110"/>
       <c r="X22" s="88" t="s">
         <v>109</v>
@@ -8440,8 +8434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:U59"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:P9"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C073ED57-6A87-4CFC-BB47-46D6268C2A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46DEF0D-CC8D-4507-89E7-A71019309DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1558,7 +1558,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="267">
   <si>
     <t>CommName</t>
   </si>
@@ -2482,6 +2482,15 @@
   </si>
   <si>
     <t>% contribution</t>
+  </si>
+  <si>
+    <t>MANCOALMIN</t>
+  </si>
+  <si>
+    <t>MANCOALIMP</t>
+  </si>
+  <si>
+    <t>MANOILIMP</t>
   </si>
 </sst>
 </file>
@@ -7206,8 +7215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7917,24 +7926,12 @@
       <c r="F21" s="109">
         <v>0.41136476969163144</v>
       </c>
-      <c r="G21" s="109">
-        <v>0.23585310113354352</v>
-      </c>
-      <c r="H21" s="109">
-        <v>7.3264515611810618E-2</v>
-      </c>
-      <c r="I21" s="109">
-        <v>1.9847450096360672E-2</v>
-      </c>
-      <c r="J21" s="109">
-        <v>5.1598550415568115E-3</v>
-      </c>
-      <c r="K21" s="109">
-        <v>1.3267245984926927E-3</v>
-      </c>
-      <c r="L21" s="109">
-        <v>3.4015961616990566E-4</v>
-      </c>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
       <c r="M21" s="103">
         <v>0.55600000000000005</v>
       </c>
@@ -7999,24 +7996,12 @@
       <c r="F22" s="102">
         <v>1</v>
       </c>
-      <c r="G22" s="102">
-        <v>1</v>
-      </c>
-      <c r="H22" s="102">
-        <v>1</v>
-      </c>
-      <c r="I22" s="102">
-        <v>1</v>
-      </c>
-      <c r="J22" s="102">
-        <v>1</v>
-      </c>
-      <c r="K22" s="102">
-        <v>1</v>
-      </c>
-      <c r="L22" s="102">
-        <v>1</v>
-      </c>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
       <c r="M22" s="103">
         <v>0.8</v>
       </c>
@@ -8078,24 +8063,12 @@
       <c r="F23" s="144">
         <v>1</v>
       </c>
-      <c r="G23" s="144">
-        <v>1</v>
-      </c>
-      <c r="H23" s="144">
-        <v>1</v>
-      </c>
-      <c r="I23" s="144">
-        <v>1</v>
-      </c>
-      <c r="J23" s="144">
-        <v>1</v>
-      </c>
-      <c r="K23" s="144">
-        <v>1</v>
-      </c>
-      <c r="L23" s="144">
-        <v>1</v>
-      </c>
+      <c r="G23" s="144"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
       <c r="M23" s="141">
         <v>1</v>
       </c>
@@ -8354,18 +8327,71 @@
     <row r="42" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E42" s="21"/>
     </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B44" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="H44" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="J44" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="K44" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="L44" s="88" t="s">
+        <v>140</v>
+      </c>
+    </row>
     <row r="45" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B45" s="94"/>
+      <c r="B45" s="94" t="s">
+        <v>87</v>
+      </c>
       <c r="C45" s="142"/>
       <c r="D45" s="90"/>
-      <c r="E45" s="143"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="144"/>
-      <c r="K45" s="144"/>
-      <c r="L45" s="144"/>
+      <c r="E45" s="143" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" s="144" t="s">
+        <v>208</v>
+      </c>
+      <c r="G45" s="144" t="s">
+        <v>208</v>
+      </c>
+      <c r="H45" s="144" t="s">
+        <v>208</v>
+      </c>
+      <c r="I45" s="144" t="s">
+        <v>208</v>
+      </c>
+      <c r="J45" s="144" t="s">
+        <v>208</v>
+      </c>
+      <c r="K45" s="144" t="s">
+        <v>208</v>
+      </c>
+      <c r="L45" s="144" t="s">
+        <v>208</v>
+      </c>
       <c r="M45" s="141"/>
       <c r="N45" s="141"/>
       <c r="O45" s="141"/>
@@ -8376,11 +8402,19 @@
       <c r="T45" s="141"/>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B46" s="94"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="90"/>
+      <c r="B46" s="94" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="142" t="s">
+        <v>264</v>
+      </c>
+      <c r="D46" s="90" t="s">
+        <v>251</v>
+      </c>
       <c r="E46" s="143"/>
-      <c r="F46" s="144"/>
+      <c r="F46" s="144">
+        <v>0.59</v>
+      </c>
       <c r="G46" s="144"/>
       <c r="H46" s="144"/>
       <c r="I46" s="144"/>
@@ -8396,28 +8430,124 @@
       <c r="S46" s="141"/>
       <c r="T46" s="141"/>
     </row>
-    <row r="50" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B47" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="D47" s="88" t="s">
+        <v>251</v>
+      </c>
+      <c r="F47" s="88">
+        <v>0.41136476969163144</v>
+      </c>
+      <c r="G47" s="88">
+        <v>0.23585310113354352</v>
+      </c>
+      <c r="H47" s="88">
+        <v>7.3264515611810618E-2</v>
+      </c>
+      <c r="I47" s="88">
+        <v>1.9847450096360672E-2</v>
+      </c>
+      <c r="J47" s="88">
+        <v>5.1598550415568115E-3</v>
+      </c>
+      <c r="K47" s="88">
+        <v>1.3267245984926927E-3</v>
+      </c>
+      <c r="L47" s="88">
+        <v>3.4015961616990566E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B48" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="88" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" s="88" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" s="88">
+        <v>1</v>
+      </c>
+      <c r="G48" s="88">
+        <v>1</v>
+      </c>
+      <c r="H48" s="88">
+        <v>1</v>
+      </c>
+      <c r="I48" s="88">
+        <v>1</v>
+      </c>
+      <c r="J48" s="88">
+        <v>1</v>
+      </c>
+      <c r="K48" s="88">
+        <v>1</v>
+      </c>
+      <c r="L48" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" s="88">
+        <v>1</v>
+      </c>
+      <c r="G49" s="88">
+        <v>1</v>
+      </c>
+      <c r="H49" s="88">
+        <v>1</v>
+      </c>
+      <c r="I49" s="88">
+        <v>1</v>
+      </c>
+      <c r="J49" s="88">
+        <v>1</v>
+      </c>
+      <c r="K49" s="88">
+        <v>1</v>
+      </c>
+      <c r="L49" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H50" s="178"/>
       <c r="I50" s="179"/>
     </row>
-    <row r="53" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G53" s="145"/>
       <c r="I53" s="145"/>
     </row>
-    <row r="54" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G54" s="145"/>
     </row>
-    <row r="55" spans="6:9" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H55" s="143"/>
     </row>
-    <row r="56" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F56" s="145"/>
       <c r="G56" s="145"/>
     </row>
-    <row r="58" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F58" s="145"/>
     </row>
-    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F59" s="145"/>
       <c r="H59" s="105"/>
     </row>
@@ -8434,7 +8564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+    <sheetView zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46DEF0D-CC8D-4507-89E7-A71019309DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF3A89E-39AE-4C5E-87EF-32AE86BCF865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6272,7 +6272,7 @@
   <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7215,8 +7215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7926,12 +7926,24 @@
       <c r="F21" s="109">
         <v>0.41136476969163144</v>
       </c>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
+      <c r="G21" s="109">
+        <v>0.25</v>
+      </c>
+      <c r="H21" s="109">
+        <v>0.25</v>
+      </c>
+      <c r="I21" s="109">
+        <v>0.25</v>
+      </c>
+      <c r="J21" s="109">
+        <v>0.25</v>
+      </c>
+      <c r="K21" s="109">
+        <v>0.25</v>
+      </c>
+      <c r="L21" s="109">
+        <v>0.25</v>
+      </c>
       <c r="M21" s="103">
         <v>0.55600000000000005</v>
       </c>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF3A89E-39AE-4C5E-87EF-32AE86BCF865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC85092-7F81-4A4A-A0AC-A9BCD285D5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2341,36 +2341,6 @@
   </si>
   <si>
     <r>
-      <t>Share-I~UP</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>~2050</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Share-I~UP</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>~2022</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Share-I~LO</t>
     </r>
     <r>
@@ -2491,6 +2461,36 @@
   </si>
   <si>
     <t>MANOILIMP</t>
+  </si>
+  <si>
+    <r>
+      <t>Share-I~LO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~2050</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Share-I~FX</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~2022</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="K2" s="20"/>
       <c r="O2" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>148</v>
@@ -6157,7 +6157,7 @@
         <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D46" s="109">
         <f>D18/(D18+E18)</f>
@@ -6178,7 +6178,7 @@
         <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E47" s="109">
         <f>E18/(D18+E18)</f>
@@ -6199,7 +6199,7 @@
         <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J48" s="109">
         <v>1</v>
@@ -6789,7 +6789,7 @@
         <v>GWh</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I22" s="8" t="str">
         <f>$E$2</f>
@@ -7216,7 +7216,7 @@
   <dimension ref="B1:AF59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C12" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7477,7 +7477,7 @@
       </c>
       <c r="Y8" s="142"/>
       <c r="Z8" s="142" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AA8" s="142" t="s">
         <v>212</v>
@@ -7604,25 +7604,25 @@
         <v>215</v>
       </c>
       <c r="F17" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="96" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17" s="96" t="s">
         <v>245</v>
       </c>
-      <c r="G17" s="96" t="s">
+      <c r="I17" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="H17" s="96" t="s">
+      <c r="J17" s="96" t="s">
         <v>247</v>
       </c>
-      <c r="I17" s="96" t="s">
+      <c r="K17" s="96" t="s">
         <v>248</v>
       </c>
-      <c r="J17" s="96" t="s">
-        <v>249</v>
-      </c>
-      <c r="K17" s="96" t="s">
-        <v>250</v>
-      </c>
       <c r="L17" s="96" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="M17" s="95" t="s">
         <v>102</v>
@@ -7643,7 +7643,7 @@
         <v>157</v>
       </c>
       <c r="S17" s="95" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="T17" s="95" t="s">
         <v>149</v>
@@ -7652,7 +7652,7 @@
         <v>241</v>
       </c>
       <c r="V17" s="95" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="W17" s="155"/>
       <c r="X17" s="91" t="s">
@@ -7736,7 +7736,7 @@
         <v>159</v>
       </c>
       <c r="S18" s="98" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="T18" s="97" t="s">
         <v>150</v>
@@ -7745,7 +7745,7 @@
         <v>242</v>
       </c>
       <c r="V18" s="97" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="W18" s="156"/>
       <c r="X18" s="93" t="s">
@@ -7813,13 +7813,13 @@
       </c>
       <c r="P19" s="100"/>
       <c r="Q19" s="100" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="R19" s="100" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="S19" s="100" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="T19" s="100"/>
       <c r="U19" s="100" t="s">
@@ -8103,7 +8103,7 @@
         <v>109</v>
       </c>
       <c r="Z23" s="141" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AA23" s="141" t="s">
         <v>212</v>
@@ -8418,10 +8418,10 @@
         <v>141</v>
       </c>
       <c r="C46" s="142" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D46" s="90" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E46" s="143"/>
       <c r="F46" s="144">
@@ -8447,10 +8447,10 @@
         <v>141</v>
       </c>
       <c r="C47" s="88" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D47" s="88" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F47" s="88">
         <v>0.41136476969163144</v>
@@ -8479,7 +8479,7 @@
         <v>143</v>
       </c>
       <c r="C48" s="88" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D48" s="88" t="s">
         <v>213</v>
@@ -8852,7 +8852,7 @@
         <v>165</v>
       </c>
       <c r="C11" s="175" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D11" s="175" t="s">
         <v>148</v>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC85092-7F81-4A4A-A0AC-A9BCD285D5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77613F8-AC4D-41F1-B39C-ABFBF59F74D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7216,7 +7216,7 @@
   <dimension ref="B1:AF59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C12" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7926,24 +7926,12 @@
       <c r="F21" s="109">
         <v>0.41136476969163144</v>
       </c>
-      <c r="G21" s="109">
-        <v>0.25</v>
-      </c>
-      <c r="H21" s="109">
-        <v>0.25</v>
-      </c>
-      <c r="I21" s="109">
-        <v>0.25</v>
-      </c>
-      <c r="J21" s="109">
-        <v>0.25</v>
-      </c>
-      <c r="K21" s="109">
-        <v>0.25</v>
-      </c>
-      <c r="L21" s="109">
-        <v>0.25</v>
-      </c>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
       <c r="M21" s="103">
         <v>0.55600000000000005</v>
       </c>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77613F8-AC4D-41F1-B39C-ABFBF59F74D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6197B0AA-92F1-4AB4-8C28-0DDA3F5035BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -7216,7 +7216,7 @@
   <dimension ref="B1:AF59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C12" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="G21" sqref="G21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7926,12 +7926,30 @@
       <c r="F21" s="109">
         <v>0.41136476969163144</v>
       </c>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
+      <c r="G21" s="109">
+        <f>G47</f>
+        <v>0.23585310113354352</v>
+      </c>
+      <c r="H21" s="109">
+        <f t="shared" ref="H21:L21" si="0">H47</f>
+        <v>7.3264515611810618E-2</v>
+      </c>
+      <c r="I21" s="109">
+        <f t="shared" si="0"/>
+        <v>1.9847450096360672E-2</v>
+      </c>
+      <c r="J21" s="109">
+        <f t="shared" si="0"/>
+        <v>5.1598550415568115E-3</v>
+      </c>
+      <c r="K21" s="109">
+        <f t="shared" si="0"/>
+        <v>1.3267245984926927E-3</v>
+      </c>
+      <c r="L21" s="109">
+        <f t="shared" si="0"/>
+        <v>3.4015961616990566E-4</v>
+      </c>
       <c r="M21" s="103">
         <v>0.55600000000000005</v>
       </c>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6197B0AA-92F1-4AB4-8C28-0DDA3F5035BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DCD0EA-87C0-4AD8-A1CB-B7C18C84DE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -4345,8 +4345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40EA534-E44A-461C-9315-2313911B2BEB}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6272,7 +6272,7 @@
   <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7215,7 +7215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="G21" sqref="G21:L21"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DCD0EA-87C0-4AD8-A1CB-B7C18C84DE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81104D80-CD36-4B1A-977E-644D7A78064B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -4345,7 +4345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40EA534-E44A-461C-9315-2313911B2BEB}">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -7215,8 +7215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:L21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7927,28 +7927,22 @@
         <v>0.41136476969163144</v>
       </c>
       <c r="G21" s="109">
-        <f>G47</f>
-        <v>0.23585310113354352</v>
+        <v>0.25</v>
       </c>
       <c r="H21" s="109">
-        <f t="shared" ref="H21:L21" si="0">H47</f>
-        <v>7.3264515611810618E-2</v>
+        <v>0.25</v>
       </c>
       <c r="I21" s="109">
-        <f t="shared" si="0"/>
-        <v>1.9847450096360672E-2</v>
+        <v>0.25</v>
       </c>
       <c r="J21" s="109">
-        <f t="shared" si="0"/>
-        <v>5.1598550415568115E-3</v>
+        <v>0.25</v>
       </c>
       <c r="K21" s="109">
-        <f t="shared" si="0"/>
-        <v>1.3267245984926927E-3</v>
+        <v>0.25</v>
       </c>
       <c r="L21" s="109">
-        <f t="shared" si="0"/>
-        <v>3.4015961616990566E-4</v>
+        <v>0.25</v>
       </c>
       <c r="M21" s="103">
         <v>0.55600000000000005</v>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81104D80-CD36-4B1A-977E-644D7A78064B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B15D5F-F198-4B7E-93A8-12D9058B68C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1558,7 +1558,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="266">
   <si>
     <t>CommName</t>
   </si>
@@ -2248,9 +2248,6 @@
   </si>
   <si>
     <t>MANHEAT</t>
-  </si>
-  <si>
-    <t>HEAT</t>
   </si>
   <si>
     <t>START</t>
@@ -5136,7 +5133,7 @@
       </c>
       <c r="K2" s="20"/>
       <c r="O2" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>148</v>
@@ -6157,7 +6154,7 @@
         <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D46" s="109">
         <f>D18/(D18+E18)</f>
@@ -6178,7 +6175,7 @@
         <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E47" s="109">
         <f>E18/(D18+E18)</f>
@@ -6199,7 +6196,7 @@
         <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J48" s="109">
         <v>1</v>
@@ -6789,7 +6786,7 @@
         <v>GWh</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I22" s="8" t="str">
         <f>$E$2</f>
@@ -7215,8 +7212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7477,7 +7474,7 @@
       </c>
       <c r="Y8" s="142"/>
       <c r="Z8" s="142" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA8" s="142" t="s">
         <v>212</v>
@@ -7601,28 +7598,28 @@
         <v>6</v>
       </c>
       <c r="E17" s="95" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F17" s="96" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G17" s="96" t="s">
+        <v>243</v>
+      </c>
+      <c r="H17" s="96" t="s">
         <v>244</v>
       </c>
-      <c r="H17" s="96" t="s">
+      <c r="I17" s="96" t="s">
         <v>245</v>
       </c>
-      <c r="I17" s="96" t="s">
+      <c r="J17" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="J17" s="96" t="s">
+      <c r="K17" s="96" t="s">
         <v>247</v>
       </c>
-      <c r="K17" s="96" t="s">
-        <v>248</v>
-      </c>
       <c r="L17" s="96" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M17" s="95" t="s">
         <v>102</v>
@@ -7643,16 +7640,16 @@
         <v>157</v>
       </c>
       <c r="S17" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T17" s="95" t="s">
         <v>149</v>
       </c>
       <c r="U17" s="95" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V17" s="95" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W17" s="155"/>
       <c r="X17" s="91" t="s">
@@ -7736,16 +7733,16 @@
         <v>159</v>
       </c>
       <c r="S18" s="98" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T18" s="97" t="s">
         <v>150</v>
       </c>
       <c r="U18" s="97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V18" s="97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W18" s="156"/>
       <c r="X18" s="93" t="s">
@@ -7813,17 +7810,17 @@
       </c>
       <c r="P19" s="100"/>
       <c r="Q19" s="100" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R19" s="100" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S19" s="100" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T19" s="100"/>
       <c r="U19" s="100" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V19" s="100"/>
       <c r="W19" s="157"/>
@@ -7888,7 +7885,7 @@
       <c r="V20" s="104"/>
       <c r="W20" s="110"/>
       <c r="X20" s="145" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="Z20" s="88" t="s">
         <v>141</v>
@@ -7970,7 +7967,7 @@
       <c r="V21" s="104"/>
       <c r="W21" s="110"/>
       <c r="X21" s="145" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="Z21" s="88" t="s">
         <v>143</v>
@@ -8103,7 +8100,7 @@
         <v>109</v>
       </c>
       <c r="Z23" s="141" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA23" s="141" t="s">
         <v>212</v>
@@ -8124,7 +8121,7 @@
       </c>
       <c r="C24" s="142"/>
       <c r="D24" s="154" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E24" s="143"/>
       <c r="F24" s="144"/>
@@ -8150,7 +8147,7 @@
       </c>
       <c r="C25" s="142"/>
       <c r="D25" s="154" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E25" s="143"/>
       <c r="F25" s="144"/>
@@ -8418,10 +8415,10 @@
         <v>141</v>
       </c>
       <c r="C46" s="142" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D46" s="90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E46" s="143"/>
       <c r="F46" s="144">
@@ -8447,10 +8444,10 @@
         <v>141</v>
       </c>
       <c r="C47" s="88" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D47" s="88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F47" s="88">
         <v>0.41136476969163144</v>
@@ -8479,7 +8476,7 @@
         <v>143</v>
       </c>
       <c r="C48" s="88" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D48" s="88" t="s">
         <v>213</v>
@@ -8814,7 +8811,7 @@
         <v>MANELC</v>
       </c>
       <c r="J10" s="145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K10" s="185">
         <v>3.3566276423652626E-2</v>
@@ -8828,7 +8825,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O10" s="145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P10" s="185">
         <v>3.3566276423652626E-2</v>
@@ -8841,7 +8838,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T10" s="145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U10" s="185">
         <v>3.3566276423652626E-2</v>
@@ -8852,7 +8849,7 @@
         <v>165</v>
       </c>
       <c r="C11" s="175" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D11" s="175" t="s">
         <v>148</v>
@@ -8871,7 +8868,7 @@
         <v>MANELC</v>
       </c>
       <c r="J11" s="176" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K11" s="185">
         <v>3.3302706089073604E-2</v>
@@ -8885,7 +8882,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O11" s="176" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P11" s="185">
         <v>3.3302706089073604E-2</v>
@@ -8898,7 +8895,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T11" s="176" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U11" s="185">
         <v>3.3302706089073604E-2</v>
@@ -8917,7 +8914,7 @@
         <v>MANELC</v>
       </c>
       <c r="J12" s="145" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K12" s="185">
         <v>3.3481814338032219E-2</v>
@@ -8931,7 +8928,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O12" s="145" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P12" s="185">
         <v>3.3481814338032219E-2</v>
@@ -8944,7 +8941,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T12" s="145" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U12" s="185">
         <v>3.3481814338032219E-2</v>
@@ -8959,7 +8956,7 @@
         <v>MANELC</v>
       </c>
       <c r="J13" s="176" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K13" s="185">
         <v>3.3611381763990082E-2</v>
@@ -8973,7 +8970,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O13" s="176" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P13" s="185">
         <v>3.3611381763990082E-2</v>
@@ -8986,7 +8983,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T13" s="176" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U13" s="185">
         <v>3.3611381763990082E-2</v>
@@ -9001,7 +8998,7 @@
         <v>MANELC</v>
       </c>
       <c r="J14" s="145" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K14" s="185">
         <v>3.4004820718610197E-2</v>
@@ -9015,7 +9012,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O14" s="145" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P14" s="185">
         <v>3.4004820718610197E-2</v>
@@ -9028,7 +9025,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T14" s="145" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U14" s="185">
         <v>3.4004820718610197E-2</v>
@@ -9043,7 +9040,7 @@
         <v>MANELC</v>
       </c>
       <c r="J15" s="176" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K15" s="185">
         <v>3.4081384083392653E-2</v>
@@ -9057,7 +9054,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O15" s="176" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P15" s="185">
         <v>3.4081384083392653E-2</v>
@@ -9070,7 +9067,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T15" s="176" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U15" s="185">
         <v>3.4081384083392653E-2</v>
@@ -9085,7 +9082,7 @@
         <v>MANELC</v>
       </c>
       <c r="J16" s="145" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K16" s="185">
         <v>3.3156795624830704E-2</v>
@@ -9099,7 +9096,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O16" s="145" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P16" s="185">
         <v>3.3156795624830704E-2</v>
@@ -9112,7 +9109,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T16" s="145" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U16" s="185">
         <v>3.3156795624830704E-2</v>
@@ -9127,7 +9124,7 @@
         <v>MANELC</v>
       </c>
       <c r="J17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K17" s="185">
         <v>3.6518070997817571E-2</v>
@@ -9141,7 +9138,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P17" s="185">
         <v>3.6518070997817571E-2</v>
@@ -9154,7 +9151,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U17" s="185">
         <v>3.6518070997817571E-2</v>
@@ -9169,7 +9166,7 @@
         <v>MANELC</v>
       </c>
       <c r="J18" s="145" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K18" s="185">
         <v>4.7257353018906531E-2</v>
@@ -9183,7 +9180,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O18" s="145" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P18" s="185">
         <v>4.7257353018906531E-2</v>
@@ -9196,7 +9193,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T18" s="145" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U18" s="185">
         <v>4.7257353018906531E-2</v>
@@ -9211,7 +9208,7 @@
         <v>MANELC</v>
       </c>
       <c r="J19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K19" s="185">
         <v>5.6756578785819259E-2</v>
@@ -9225,7 +9222,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P19" s="185">
         <v>5.6756578785819259E-2</v>
@@ -9238,7 +9235,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U19" s="185">
         <v>5.6756578785819259E-2</v>
@@ -9253,7 +9250,7 @@
         <v>MANELC</v>
       </c>
       <c r="J20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K20" s="185">
         <v>5.5715023853427123E-2</v>
@@ -9267,7 +9264,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P20" s="185">
         <v>5.5715023853427123E-2</v>
@@ -9280,7 +9277,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U20" s="185">
         <v>5.5715023853427123E-2</v>
@@ -9295,7 +9292,7 @@
         <v>MANELC</v>
       </c>
       <c r="J21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K21" s="185">
         <v>5.6345483069498978E-2</v>
@@ -9309,7 +9306,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P21" s="185">
         <v>5.6345483069498978E-2</v>
@@ -9322,7 +9319,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U21" s="185">
         <v>5.6345483069498978E-2</v>
@@ -9337,7 +9334,7 @@
         <v>MANELC</v>
       </c>
       <c r="J22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K22" s="185">
         <v>4.8662133827205516E-2</v>
@@ -9351,7 +9348,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P22" s="185">
         <v>4.8662133827205516E-2</v>
@@ -9364,7 +9361,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U22" s="185">
         <v>4.8662133827205516E-2</v>
@@ -9379,7 +9376,7 @@
         <v>MANELC</v>
       </c>
       <c r="J23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K23" s="185">
         <v>5.0293526586567008E-2</v>
@@ -9393,7 +9390,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P23" s="185">
         <v>5.0293526586567008E-2</v>
@@ -9406,7 +9403,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U23" s="185">
         <v>5.0293526586567008E-2</v>
@@ -9421,7 +9418,7 @@
         <v>MANELC</v>
       </c>
       <c r="J24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K24" s="185">
         <v>5.2523087098903048E-2</v>
@@ -9435,7 +9432,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P24" s="185">
         <v>5.2523087098903048E-2</v>
@@ -9448,7 +9445,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U24" s="185">
         <v>5.2523087098903048E-2</v>
@@ -9463,7 +9460,7 @@
         <v>MANELC</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K25" s="185">
         <v>5.4966761848993004E-2</v>
@@ -9477,7 +9474,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P25" s="185">
         <v>5.4966761848993004E-2</v>
@@ -9490,7 +9487,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U25" s="185">
         <v>5.4966761848993004E-2</v>
@@ -9506,7 +9503,7 @@
         <v>MANELC</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K26" s="185">
         <v>5.3016988893511453E-2</v>
@@ -9520,7 +9517,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P26" s="185">
         <v>5.3016988893511453E-2</v>
@@ -9533,7 +9530,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U26" s="185">
         <v>5.3016988893511453E-2</v>
@@ -9550,7 +9547,7 @@
         <v>MANELC</v>
       </c>
       <c r="J27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K27" s="185">
         <v>4.4273060594597062E-2</v>
@@ -9564,7 +9561,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P27" s="185">
         <v>4.4273060594597062E-2</v>
@@ -9577,7 +9574,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U27" s="185">
         <v>4.4273060594597062E-2</v>
@@ -9595,7 +9592,7 @@
         <v>MANELC</v>
       </c>
       <c r="J28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K28" s="185">
         <v>3.6258449498494133E-2</v>
@@ -9609,7 +9606,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P28" s="185">
         <v>3.6258449498494133E-2</v>
@@ -9622,7 +9619,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U28" s="185">
         <v>3.6258449498494133E-2</v>
@@ -9640,7 +9637,7 @@
         <v>MANELC</v>
       </c>
       <c r="J29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K29" s="185">
         <v>3.6040655779430726E-2</v>
@@ -9654,7 +9651,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P29" s="185">
         <v>3.6040655779430726E-2</v>
@@ -9667,7 +9664,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U29" s="185">
         <v>3.6040655779430726E-2</v>
@@ -9682,7 +9679,7 @@
         <v>MANELC</v>
       </c>
       <c r="J30" s="145" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K30" s="185">
         <v>3.5097781406108856E-2</v>
@@ -9696,7 +9693,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O30" s="145" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P30" s="185">
         <v>3.5097781406108856E-2</v>
@@ -9709,7 +9706,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T30" s="145" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U30" s="185">
         <v>3.5097781406108856E-2</v>
@@ -9724,7 +9721,7 @@
         <v>MANELC</v>
       </c>
       <c r="J31" s="176" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K31" s="185">
         <v>3.482493578674286E-2</v>
@@ -9738,7 +9735,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O31" s="176" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P31" s="185">
         <v>3.482493578674286E-2</v>
@@ -9751,7 +9748,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T31" s="176" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U31" s="185">
         <v>3.482493578674286E-2</v>
@@ -9767,7 +9764,7 @@
         <v>MANELC</v>
       </c>
       <c r="J32" s="145" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K32" s="185">
         <v>3.2564766705734945E-2</v>
@@ -9781,7 +9778,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O32" s="145" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P32" s="185">
         <v>3.2564766705734945E-2</v>
@@ -9794,7 +9791,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T32" s="145" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U32" s="185">
         <v>3.2564766705734945E-2</v>
@@ -9811,7 +9808,7 @@
         <v>MANELC</v>
       </c>
       <c r="J33" s="176" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K33" s="185">
         <v>3.3680163206659841E-2</v>
@@ -9825,7 +9822,7 @@
         <v>MANHEAT</v>
       </c>
       <c r="O33" s="176" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P33" s="185">
         <v>3.3680163206659841E-2</v>
@@ -9838,7 +9835,7 @@
         <v>CEMENTHEAT</v>
       </c>
       <c r="T33" s="176" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U33" s="185">
         <v>3.3680163206659841E-2</v>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B15D5F-F198-4B7E-93A8-12D9058B68C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52B3E0D-6C9B-4082-8390-5BB537ADB3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -6268,8 +6268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7212,8 +7212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52B3E0D-6C9B-4082-8390-5BB537ADB3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FF48F9-8EB2-42D2-834F-85017583EBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1558,7 +1558,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="266">
   <si>
     <t>CommName</t>
   </si>
@@ -6268,7 +6268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+    <sheetView topLeftCell="G7" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
@@ -7212,8 +7212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8096,24 +8096,9 @@
       <c r="V23" s="104">
         <v>1</v>
       </c>
-      <c r="X23" s="141" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z23" s="141" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA23" s="141" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB23" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC23" s="88" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD23" s="154" t="s">
-        <v>202</v>
-      </c>
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="88"/>
+      <c r="AD23" s="154"/>
     </row>
     <row r="24" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="94" t="s">

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FF48F9-8EB2-42D2-834F-85017583EBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B50CA6-0FC2-4AAC-992D-F8DF1F51E74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -1558,7 +1558,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="267">
   <si>
     <t>CommName</t>
   </si>
@@ -2488,6 +2488,9 @@
       </rPr>
       <t>~2022</t>
     </r>
+  </si>
+  <si>
+    <t>MANELC_TECH</t>
   </si>
 </sst>
 </file>
@@ -7212,8 +7215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+    <sheetView topLeftCell="A7" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8040,7 +8043,7 @@
         <v>109</v>
       </c>
       <c r="Z22" s="145" t="s">
-        <v>151</v>
+        <v>266</v>
       </c>
       <c r="AA22" s="88" t="s">
         <v>198</v>
@@ -8058,7 +8061,7 @@
     <row r="23" spans="2:32" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="94" t="str">
         <f>Z22</f>
-        <v>MANELC</v>
+        <v>MANELC_TECH</v>
       </c>
       <c r="C23" s="94" t="str">
         <f>PRI_Sector_Fuels!O8</f>
@@ -8558,8 +8561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:U59"/>
   <sheetViews>
-    <sheetView zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="L43" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B50CA6-0FC2-4AAC-992D-F8DF1F51E74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E979C1B1-214C-4F3D-8B34-14E7DBAB0960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -6271,7 +6271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+    <sheetView topLeftCell="D19" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
@@ -7215,14 +7215,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="88" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="88" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" style="88" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" style="88" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="88" bestFit="1" customWidth="1"/>
@@ -8561,7 +8561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C1942-68EF-4347-B180-1E2F29F43F6F}">
   <dimension ref="B1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L43" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+    <sheetView topLeftCell="L22" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E979C1B1-214C-4F3D-8B34-14E7DBAB0960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B6DA7B-98A2-4530-8831-A9DEF8F2939D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2439,9 +2439,6 @@
     <t>Variable O&amp;M Cost</t>
   </si>
   <si>
-    <t>2024THUSD/GWh</t>
-  </si>
-  <si>
     <t>2024THUSD/MW</t>
   </si>
   <si>
@@ -2491,6 +2488,9 @@
   </si>
   <si>
     <t>MANELC_TECH</t>
+  </si>
+  <si>
+    <t>2024THUSD/MWh</t>
   </si>
 </sst>
 </file>
@@ -7215,8 +7215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7604,7 +7604,7 @@
         <v>214</v>
       </c>
       <c r="F17" s="96" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G17" s="96" t="s">
         <v>243</v>
@@ -7622,7 +7622,7 @@
         <v>247</v>
       </c>
       <c r="L17" s="96" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M17" s="95" t="s">
         <v>102</v>
@@ -7652,7 +7652,7 @@
         <v>240</v>
       </c>
       <c r="V17" s="95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W17" s="155"/>
       <c r="X17" s="91" t="s">
@@ -7745,7 +7745,7 @@
         <v>241</v>
       </c>
       <c r="V18" s="97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W18" s="156"/>
       <c r="X18" s="93" t="s">
@@ -7816,10 +7816,10 @@
         <v>254</v>
       </c>
       <c r="R19" s="100" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S19" s="100" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="T19" s="100"/>
       <c r="U19" s="100" t="s">
@@ -8043,7 +8043,7 @@
         <v>109</v>
       </c>
       <c r="Z22" s="145" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AA22" s="88" t="s">
         <v>198</v>
@@ -8403,7 +8403,7 @@
         <v>141</v>
       </c>
       <c r="C46" s="142" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D46" s="90" t="s">
         <v>248</v>
@@ -8432,7 +8432,7 @@
         <v>141</v>
       </c>
       <c r="C47" s="88" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D47" s="88" t="s">
         <v>248</v>
@@ -8464,7 +8464,7 @@
         <v>143</v>
       </c>
       <c r="C48" s="88" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D48" s="88" t="s">
         <v>213</v>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B6DA7B-98A2-4530-8831-A9DEF8F2939D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFE134E-9BA5-4A4B-8671-84DB74AF8E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EBF TJ" sheetId="144" r:id="rId1"/>
@@ -6271,8 +6271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD602B-9017-48E8-B4D5-63841A58EBF0}">
   <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7215,7 +7215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE1E4F-5A92-46AB-9A10-74ADD64337C0}">
   <dimension ref="B1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
